--- a/fiavest_trading_plan.xlsx
+++ b/fiavest_trading_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6427" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7628692C-6F59-43BA-93A3-B51D2294C425}"/>
+  <xr:revisionPtr revIDLastSave="6558" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{765311C4-EFBE-4D36-A658-915388E491B9}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="3720" windowWidth="17445" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="0" windowWidth="17445" windowHeight="16200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BREAKDOWN" sheetId="10" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="188">
   <si>
     <t>SUPPORT</t>
   </si>
@@ -591,6 +591,57 @@
   </si>
   <si>
     <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>IGBREIT</t>
+  </si>
+  <si>
+    <t>MUHIBAH</t>
+  </si>
+  <si>
+    <t>PIE</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>GKENT</t>
+  </si>
+  <si>
+    <t>YINSON</t>
+  </si>
+  <si>
+    <t>WCT</t>
+  </si>
+  <si>
+    <t>GBGAQRS</t>
+  </si>
+  <si>
+    <t>MASTEEL</t>
+  </si>
+  <si>
+    <t>LIONIND</t>
+  </si>
+  <si>
+    <t>ECONBHD</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>EKOVEST</t>
+  </si>
+  <si>
+    <t>MRCB</t>
+  </si>
+  <si>
+    <t>GADANG</t>
   </si>
 </sst>
 </file>
@@ -1639,6 +1690,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1743,9 +1797,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2132,39 +2183,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="132" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="178" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="182" t="s">
+      <c r="F1" s="182"/>
+      <c r="G1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="184" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="185"/>
-      <c r="K1" s="174" t="s">
+      <c r="J1" s="186"/>
+      <c r="K1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="175"/>
+      <c r="L1" s="176"/>
     </row>
     <row r="2" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="133" t="s">
         <v>7</v>
       </c>
@@ -2205,13 +2256,13 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="134"/>
       <c r="G3" s="51" t="s">
         <v>9</v>
@@ -2962,26 +3013,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="189"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="191"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:7" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
@@ -3238,13 +3289,13 @@
       <c r="G24" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="193"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="194"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="195"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="126">
@@ -3302,10 +3353,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AP122"/>
+  <dimension ref="A1:AP128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3356,62 +3407,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195">
+      <c r="A1" s="196">
         <v>43829</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196">
         <v>43830</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195">
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196">
         <v>43831</v>
       </c>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195">
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196">
         <v>43832</v>
       </c>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195">
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196">
         <v>43833</v>
       </c>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195">
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196">
         <v>43834</v>
       </c>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195">
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="196">
         <v>43835</v>
       </c>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
+      <c r="AL1" s="196"/>
+      <c r="AM1" s="196"/>
+      <c r="AN1" s="196"/>
+      <c r="AO1" s="196"/>
+      <c r="AP1" s="196"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
@@ -3886,62 +3937,62 @@
       <c r="AP10" s="158"/>
     </row>
     <row r="11" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="195">
+      <c r="A11" s="196">
         <v>43836</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195">
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196">
         <v>43837</v>
       </c>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="195">
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196">
         <v>43838</v>
       </c>
-      <c r="N11" s="195"/>
-      <c r="O11" s="195"/>
-      <c r="P11" s="195"/>
-      <c r="Q11" s="195"/>
-      <c r="R11" s="195"/>
-      <c r="S11" s="195">
+      <c r="N11" s="196"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="196"/>
+      <c r="S11" s="196">
         <v>43839</v>
       </c>
-      <c r="T11" s="195"/>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="195">
+      <c r="T11" s="196"/>
+      <c r="U11" s="196"/>
+      <c r="V11" s="196"/>
+      <c r="W11" s="196"/>
+      <c r="X11" s="196"/>
+      <c r="Y11" s="196">
         <v>43840</v>
       </c>
-      <c r="Z11" s="195"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="195">
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="196"/>
+      <c r="AD11" s="196"/>
+      <c r="AE11" s="196">
         <v>43841</v>
       </c>
-      <c r="AF11" s="195"/>
-      <c r="AG11" s="195"/>
-      <c r="AH11" s="195"/>
-      <c r="AI11" s="195"/>
-      <c r="AJ11" s="195"/>
-      <c r="AK11" s="195">
+      <c r="AF11" s="196"/>
+      <c r="AG11" s="196"/>
+      <c r="AH11" s="196"/>
+      <c r="AI11" s="196"/>
+      <c r="AJ11" s="196"/>
+      <c r="AK11" s="196">
         <v>43842</v>
       </c>
-      <c r="AL11" s="195"/>
-      <c r="AM11" s="195"/>
-      <c r="AN11" s="195"/>
-      <c r="AO11" s="195"/>
-      <c r="AP11" s="195"/>
+      <c r="AL11" s="196"/>
+      <c r="AM11" s="196"/>
+      <c r="AN11" s="196"/>
+      <c r="AO11" s="196"/>
+      <c r="AP11" s="196"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="141" t="s">
@@ -4416,62 +4467,62 @@
       <c r="AP20" s="158"/>
     </row>
     <row r="21" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="195">
+      <c r="A21" s="196">
         <v>43843</v>
       </c>
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="195">
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196">
         <v>43844</v>
       </c>
-      <c r="H21" s="195"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195">
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196">
         <v>43845</v>
       </c>
-      <c r="N21" s="195"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="195"/>
-      <c r="R21" s="195"/>
-      <c r="S21" s="195">
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="196"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="196"/>
+      <c r="S21" s="196">
         <v>43846</v>
       </c>
-      <c r="T21" s="195"/>
-      <c r="U21" s="195"/>
-      <c r="V21" s="195"/>
-      <c r="W21" s="195"/>
-      <c r="X21" s="195"/>
-      <c r="Y21" s="195">
+      <c r="T21" s="196"/>
+      <c r="U21" s="196"/>
+      <c r="V21" s="196"/>
+      <c r="W21" s="196"/>
+      <c r="X21" s="196"/>
+      <c r="Y21" s="196">
         <v>43847</v>
       </c>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
-      <c r="AB21" s="195"/>
-      <c r="AC21" s="195"/>
-      <c r="AD21" s="195"/>
-      <c r="AE21" s="195">
+      <c r="Z21" s="196"/>
+      <c r="AA21" s="196"/>
+      <c r="AB21" s="196"/>
+      <c r="AC21" s="196"/>
+      <c r="AD21" s="196"/>
+      <c r="AE21" s="196">
         <v>43848</v>
       </c>
-      <c r="AF21" s="195"/>
-      <c r="AG21" s="195"/>
-      <c r="AH21" s="195"/>
-      <c r="AI21" s="195"/>
-      <c r="AJ21" s="195"/>
-      <c r="AK21" s="195">
+      <c r="AF21" s="196"/>
+      <c r="AG21" s="196"/>
+      <c r="AH21" s="196"/>
+      <c r="AI21" s="196"/>
+      <c r="AJ21" s="196"/>
+      <c r="AK21" s="196">
         <v>43849</v>
       </c>
-      <c r="AL21" s="195"/>
-      <c r="AM21" s="195"/>
-      <c r="AN21" s="195"/>
-      <c r="AO21" s="195"/>
-      <c r="AP21" s="195"/>
+      <c r="AL21" s="196"/>
+      <c r="AM21" s="196"/>
+      <c r="AN21" s="196"/>
+      <c r="AO21" s="196"/>
+      <c r="AP21" s="196"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="141" t="s">
@@ -4946,62 +4997,62 @@
       <c r="AP30" s="158"/>
     </row>
     <row r="31" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195">
+      <c r="A31" s="196">
         <v>43850</v>
       </c>
-      <c r="B31" s="195"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195">
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196">
         <v>43851</v>
       </c>
-      <c r="H31" s="195"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="195"/>
-      <c r="L31" s="195"/>
-      <c r="M31" s="195">
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196">
         <v>43852</v>
       </c>
-      <c r="N31" s="195"/>
-      <c r="O31" s="195"/>
-      <c r="P31" s="195"/>
-      <c r="Q31" s="195"/>
-      <c r="R31" s="195"/>
-      <c r="S31" s="195">
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
+      <c r="S31" s="196">
         <v>43853</v>
       </c>
-      <c r="T31" s="195"/>
-      <c r="U31" s="195"/>
-      <c r="V31" s="195"/>
-      <c r="W31" s="195"/>
-      <c r="X31" s="195"/>
-      <c r="Y31" s="195">
+      <c r="T31" s="196"/>
+      <c r="U31" s="196"/>
+      <c r="V31" s="196"/>
+      <c r="W31" s="196"/>
+      <c r="X31" s="196"/>
+      <c r="Y31" s="196">
         <v>43854</v>
       </c>
-      <c r="Z31" s="195"/>
-      <c r="AA31" s="195"/>
-      <c r="AB31" s="195"/>
-      <c r="AC31" s="195"/>
-      <c r="AD31" s="195"/>
-      <c r="AE31" s="195">
+      <c r="Z31" s="196"/>
+      <c r="AA31" s="196"/>
+      <c r="AB31" s="196"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="196"/>
+      <c r="AE31" s="196">
         <v>43855</v>
       </c>
-      <c r="AF31" s="195"/>
-      <c r="AG31" s="195"/>
-      <c r="AH31" s="195"/>
-      <c r="AI31" s="195"/>
-      <c r="AJ31" s="195"/>
-      <c r="AK31" s="195">
+      <c r="AF31" s="196"/>
+      <c r="AG31" s="196"/>
+      <c r="AH31" s="196"/>
+      <c r="AI31" s="196"/>
+      <c r="AJ31" s="196"/>
+      <c r="AK31" s="196">
         <v>43856</v>
       </c>
-      <c r="AL31" s="195"/>
-      <c r="AM31" s="195"/>
-      <c r="AN31" s="195"/>
-      <c r="AO31" s="195"/>
-      <c r="AP31" s="195"/>
+      <c r="AL31" s="196"/>
+      <c r="AM31" s="196"/>
+      <c r="AN31" s="196"/>
+      <c r="AO31" s="196"/>
+      <c r="AP31" s="196"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="141" t="s">
@@ -5476,62 +5527,62 @@
       <c r="AP40" s="158"/>
     </row>
     <row r="41" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195">
+      <c r="A41" s="196">
         <v>43857</v>
       </c>
-      <c r="B41" s="195"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="195">
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196">
         <v>43858</v>
       </c>
-      <c r="H41" s="195"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="195"/>
-      <c r="M41" s="195">
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196">
         <v>43859</v>
       </c>
-      <c r="N41" s="195"/>
-      <c r="O41" s="195"/>
-      <c r="P41" s="195"/>
-      <c r="Q41" s="195"/>
-      <c r="R41" s="195"/>
-      <c r="S41" s="195">
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="196"/>
+      <c r="Q41" s="196"/>
+      <c r="R41" s="196"/>
+      <c r="S41" s="196">
         <v>43860</v>
       </c>
-      <c r="T41" s="195"/>
-      <c r="U41" s="195"/>
-      <c r="V41" s="195"/>
-      <c r="W41" s="195"/>
-      <c r="X41" s="195"/>
-      <c r="Y41" s="195">
+      <c r="T41" s="196"/>
+      <c r="U41" s="196"/>
+      <c r="V41" s="196"/>
+      <c r="W41" s="196"/>
+      <c r="X41" s="196"/>
+      <c r="Y41" s="196">
         <v>43861</v>
       </c>
-      <c r="Z41" s="195"/>
-      <c r="AA41" s="195"/>
-      <c r="AB41" s="195"/>
-      <c r="AC41" s="195"/>
-      <c r="AD41" s="195"/>
-      <c r="AE41" s="195">
+      <c r="Z41" s="196"/>
+      <c r="AA41" s="196"/>
+      <c r="AB41" s="196"/>
+      <c r="AC41" s="196"/>
+      <c r="AD41" s="196"/>
+      <c r="AE41" s="196">
         <v>43862</v>
       </c>
-      <c r="AF41" s="195"/>
-      <c r="AG41" s="195"/>
-      <c r="AH41" s="195"/>
-      <c r="AI41" s="195"/>
-      <c r="AJ41" s="195"/>
-      <c r="AK41" s="195">
+      <c r="AF41" s="196"/>
+      <c r="AG41" s="196"/>
+      <c r="AH41" s="196"/>
+      <c r="AI41" s="196"/>
+      <c r="AJ41" s="196"/>
+      <c r="AK41" s="196">
         <v>43863</v>
       </c>
-      <c r="AL41" s="195"/>
-      <c r="AM41" s="195"/>
-      <c r="AN41" s="195"/>
-      <c r="AO41" s="195"/>
-      <c r="AP41" s="195"/>
+      <c r="AL41" s="196"/>
+      <c r="AM41" s="196"/>
+      <c r="AN41" s="196"/>
+      <c r="AO41" s="196"/>
+      <c r="AP41" s="196"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="141" t="s">
@@ -6006,62 +6057,62 @@
       <c r="AP50" s="158"/>
     </row>
     <row r="51" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="195">
+      <c r="A51" s="196">
         <v>43864</v>
       </c>
-      <c r="B51" s="195"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="195"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195">
+      <c r="B51" s="196"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196">
         <v>43865</v>
       </c>
-      <c r="H51" s="195"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195"/>
-      <c r="L51" s="195"/>
-      <c r="M51" s="195">
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="196"/>
+      <c r="M51" s="196">
         <v>43866</v>
       </c>
-      <c r="N51" s="195"/>
-      <c r="O51" s="195"/>
-      <c r="P51" s="195"/>
-      <c r="Q51" s="195"/>
-      <c r="R51" s="195"/>
-      <c r="S51" s="195">
+      <c r="N51" s="196"/>
+      <c r="O51" s="196"/>
+      <c r="P51" s="196"/>
+      <c r="Q51" s="196"/>
+      <c r="R51" s="196"/>
+      <c r="S51" s="196">
         <v>43867</v>
       </c>
-      <c r="T51" s="195"/>
-      <c r="U51" s="195"/>
-      <c r="V51" s="195"/>
-      <c r="W51" s="195"/>
-      <c r="X51" s="195"/>
-      <c r="Y51" s="195">
+      <c r="T51" s="196"/>
+      <c r="U51" s="196"/>
+      <c r="V51" s="196"/>
+      <c r="W51" s="196"/>
+      <c r="X51" s="196"/>
+      <c r="Y51" s="196">
         <v>43868</v>
       </c>
-      <c r="Z51" s="195"/>
-      <c r="AA51" s="195"/>
-      <c r="AB51" s="195"/>
-      <c r="AC51" s="195"/>
-      <c r="AD51" s="195"/>
-      <c r="AE51" s="195">
+      <c r="Z51" s="196"/>
+      <c r="AA51" s="196"/>
+      <c r="AB51" s="196"/>
+      <c r="AC51" s="196"/>
+      <c r="AD51" s="196"/>
+      <c r="AE51" s="196">
         <v>43869</v>
       </c>
-      <c r="AF51" s="195"/>
-      <c r="AG51" s="195"/>
-      <c r="AH51" s="195"/>
-      <c r="AI51" s="195"/>
-      <c r="AJ51" s="195"/>
-      <c r="AK51" s="195">
+      <c r="AF51" s="196"/>
+      <c r="AG51" s="196"/>
+      <c r="AH51" s="196"/>
+      <c r="AI51" s="196"/>
+      <c r="AJ51" s="196"/>
+      <c r="AK51" s="196">
         <v>43870</v>
       </c>
-      <c r="AL51" s="195"/>
-      <c r="AM51" s="195"/>
-      <c r="AN51" s="195"/>
-      <c r="AO51" s="195"/>
-      <c r="AP51" s="195"/>
+      <c r="AL51" s="196"/>
+      <c r="AM51" s="196"/>
+      <c r="AN51" s="196"/>
+      <c r="AO51" s="196"/>
+      <c r="AP51" s="196"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="141" t="s">
@@ -6984,62 +7035,62 @@
       <c r="AP69" s="158"/>
     </row>
     <row r="70" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="195">
+      <c r="A70" s="196">
         <v>43871</v>
       </c>
-      <c r="B70" s="195"/>
-      <c r="C70" s="195"/>
-      <c r="D70" s="195"/>
-      <c r="E70" s="195"/>
-      <c r="F70" s="195"/>
-      <c r="G70" s="195">
+      <c r="B70" s="196"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="196"/>
+      <c r="E70" s="196"/>
+      <c r="F70" s="196"/>
+      <c r="G70" s="196">
         <v>43872</v>
       </c>
-      <c r="H70" s="195"/>
-      <c r="I70" s="195"/>
-      <c r="J70" s="195"/>
-      <c r="K70" s="195"/>
-      <c r="L70" s="195"/>
-      <c r="M70" s="195">
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" s="196"/>
+      <c r="K70" s="196"/>
+      <c r="L70" s="196"/>
+      <c r="M70" s="196">
         <v>43873</v>
       </c>
-      <c r="N70" s="195"/>
-      <c r="O70" s="195"/>
-      <c r="P70" s="195"/>
-      <c r="Q70" s="195"/>
-      <c r="R70" s="195"/>
-      <c r="S70" s="195">
+      <c r="N70" s="196"/>
+      <c r="O70" s="196"/>
+      <c r="P70" s="196"/>
+      <c r="Q70" s="196"/>
+      <c r="R70" s="196"/>
+      <c r="S70" s="196">
         <v>43874</v>
       </c>
-      <c r="T70" s="195"/>
-      <c r="U70" s="195"/>
-      <c r="V70" s="195"/>
-      <c r="W70" s="195"/>
-      <c r="X70" s="195"/>
-      <c r="Y70" s="195">
+      <c r="T70" s="196"/>
+      <c r="U70" s="196"/>
+      <c r="V70" s="196"/>
+      <c r="W70" s="196"/>
+      <c r="X70" s="196"/>
+      <c r="Y70" s="196">
         <v>43875</v>
       </c>
-      <c r="Z70" s="195"/>
-      <c r="AA70" s="195"/>
-      <c r="AB70" s="195"/>
-      <c r="AC70" s="195"/>
-      <c r="AD70" s="195"/>
-      <c r="AE70" s="195">
+      <c r="Z70" s="196"/>
+      <c r="AA70" s="196"/>
+      <c r="AB70" s="196"/>
+      <c r="AC70" s="196"/>
+      <c r="AD70" s="196"/>
+      <c r="AE70" s="196">
         <v>43876</v>
       </c>
-      <c r="AF70" s="195"/>
-      <c r="AG70" s="195"/>
-      <c r="AH70" s="195"/>
-      <c r="AI70" s="195"/>
-      <c r="AJ70" s="195"/>
-      <c r="AK70" s="195">
+      <c r="AF70" s="196"/>
+      <c r="AG70" s="196"/>
+      <c r="AH70" s="196"/>
+      <c r="AI70" s="196"/>
+      <c r="AJ70" s="196"/>
+      <c r="AK70" s="196">
         <v>43877</v>
       </c>
-      <c r="AL70" s="195"/>
-      <c r="AM70" s="195"/>
-      <c r="AN70" s="195"/>
-      <c r="AO70" s="195"/>
-      <c r="AP70" s="195"/>
+      <c r="AL70" s="196"/>
+      <c r="AM70" s="196"/>
+      <c r="AN70" s="196"/>
+      <c r="AO70" s="196"/>
+      <c r="AP70" s="196"/>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="141" t="s">
@@ -7196,7 +7247,9 @@
       <c r="L72" s="148">
         <v>800000</v>
       </c>
-      <c r="M72" s="149"/>
+      <c r="M72" s="149" t="s">
+        <v>171</v>
+      </c>
       <c r="N72" s="146" t="s">
         <v>79</v>
       </c>
@@ -7212,7 +7265,9 @@
       <c r="R72" s="148">
         <v>800000</v>
       </c>
-      <c r="S72" s="149"/>
+      <c r="S72" s="149" t="s">
+        <v>177</v>
+      </c>
       <c r="T72" s="146"/>
       <c r="U72" s="147"/>
       <c r="V72" s="147"/>
@@ -7261,7 +7316,9 @@
       <c r="L73" s="148">
         <v>33000</v>
       </c>
-      <c r="M73" s="149"/>
+      <c r="M73" s="149" t="s">
+        <v>109</v>
+      </c>
       <c r="N73" s="146" t="s">
         <v>84</v>
       </c>
@@ -7277,7 +7334,9 @@
       <c r="R73" s="148">
         <v>33000</v>
       </c>
-      <c r="S73" s="149"/>
+      <c r="S73" s="149" t="s">
+        <v>178</v>
+      </c>
       <c r="T73" s="146"/>
       <c r="U73" s="147"/>
       <c r="V73" s="147"/>
@@ -7326,7 +7385,9 @@
       <c r="L74" s="148">
         <v>90000</v>
       </c>
-      <c r="M74" s="149"/>
+      <c r="M74" s="149" t="s">
+        <v>90</v>
+      </c>
       <c r="N74" s="146" t="s">
         <v>87</v>
       </c>
@@ -7342,7 +7403,9 @@
       <c r="R74" s="148">
         <v>90000</v>
       </c>
-      <c r="S74" s="149"/>
+      <c r="S74" s="149" t="s">
+        <v>179</v>
+      </c>
       <c r="T74" s="146"/>
       <c r="U74" s="147"/>
       <c r="V74" s="147"/>
@@ -7391,7 +7454,9 @@
       <c r="L75" s="148">
         <v>20000</v>
       </c>
-      <c r="M75" s="149"/>
+      <c r="M75" s="149" t="s">
+        <v>172</v>
+      </c>
       <c r="N75" s="146" t="s">
         <v>89</v>
       </c>
@@ -7407,7 +7472,9 @@
       <c r="R75" s="148">
         <v>20000</v>
       </c>
-      <c r="S75" s="149"/>
+      <c r="S75" s="149" t="s">
+        <v>180</v>
+      </c>
       <c r="T75" s="146"/>
       <c r="U75" s="147"/>
       <c r="V75" s="147"/>
@@ -7456,7 +7523,9 @@
       <c r="L76" s="148">
         <v>30000</v>
       </c>
-      <c r="M76" s="149"/>
+      <c r="M76" s="149" t="s">
+        <v>111</v>
+      </c>
       <c r="N76" s="146" t="s">
         <v>93</v>
       </c>
@@ -7472,7 +7541,9 @@
       <c r="R76" s="148">
         <v>30000</v>
       </c>
-      <c r="S76" s="149"/>
+      <c r="S76" s="149" t="s">
+        <v>181</v>
+      </c>
       <c r="T76" s="146"/>
       <c r="U76" s="147"/>
       <c r="V76" s="147"/>
@@ -7521,7 +7592,9 @@
       <c r="L77" s="148">
         <v>18000</v>
       </c>
-      <c r="M77" s="149"/>
+      <c r="M77" s="149" t="s">
+        <v>82</v>
+      </c>
       <c r="N77" s="146" t="s">
         <v>80</v>
       </c>
@@ -7537,7 +7610,9 @@
       <c r="R77" s="148">
         <v>18000</v>
       </c>
-      <c r="S77" s="149"/>
+      <c r="S77" s="149" t="s">
+        <v>182</v>
+      </c>
       <c r="T77" s="146"/>
       <c r="U77" s="147"/>
       <c r="V77" s="147"/>
@@ -7586,7 +7661,9 @@
       <c r="L78" s="148">
         <v>17000</v>
       </c>
-      <c r="M78" s="149"/>
+      <c r="M78" s="149" t="s">
+        <v>173</v>
+      </c>
       <c r="N78" s="146" t="s">
         <v>88</v>
       </c>
@@ -7602,7 +7679,9 @@
       <c r="R78" s="148">
         <v>17000</v>
       </c>
-      <c r="S78" s="149"/>
+      <c r="S78" s="149" t="s">
+        <v>183</v>
+      </c>
       <c r="T78" s="150"/>
       <c r="U78" s="147"/>
       <c r="V78" s="147"/>
@@ -7649,14 +7728,18 @@
       <c r="L79" s="148">
         <v>125000</v>
       </c>
-      <c r="M79" s="149"/>
+      <c r="M79" s="149" t="s">
+        <v>93</v>
+      </c>
       <c r="N79" s="146"/>
       <c r="O79" s="147"/>
       <c r="P79" s="147"/>
       <c r="Q79" s="147"/>
       <c r="R79" s="148"/>
-      <c r="S79" s="149"/>
-      <c r="T79" s="146"/>
+      <c r="S79" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="T79" s="150"/>
       <c r="U79" s="147"/>
       <c r="V79" s="147"/>
       <c r="W79" s="147"/>
@@ -7681,45 +7764,39 @@
       <c r="AP79" s="158"/>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B80" s="151"/>
-      <c r="C80" s="152"/>
-      <c r="D80" s="152"/>
-      <c r="E80" s="152"/>
-      <c r="F80" s="153"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="147"/>
+      <c r="F80" s="148"/>
       <c r="G80" s="149"/>
-      <c r="H80" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="I80" s="152">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="J80" s="152">
-        <v>0.38</v>
-      </c>
-      <c r="K80" s="152">
-        <v>0.39</v>
-      </c>
-      <c r="L80" s="153">
-        <v>30000</v>
-      </c>
-      <c r="M80" s="149"/>
-      <c r="N80" s="151"/>
-      <c r="O80" s="152"/>
-      <c r="P80" s="152"/>
-      <c r="Q80" s="152"/>
-      <c r="R80" s="153"/>
-      <c r="S80" s="149"/>
-      <c r="T80" s="151"/>
-      <c r="U80" s="152"/>
-      <c r="V80" s="152"/>
-      <c r="W80" s="152"/>
-      <c r="X80" s="153"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="147"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="148"/>
+      <c r="M80" s="149" t="s">
+        <v>166</v>
+      </c>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
+      <c r="Q80" s="147"/>
+      <c r="R80" s="148"/>
+      <c r="S80" s="149" t="s">
+        <v>185</v>
+      </c>
+      <c r="T80" s="150"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="147"/>
+      <c r="W80" s="147"/>
+      <c r="X80" s="148"/>
       <c r="Y80" s="149"/>
-      <c r="Z80" s="151"/>
-      <c r="AA80" s="152"/>
-      <c r="AB80" s="152"/>
-      <c r="AC80" s="152"/>
-      <c r="AD80" s="153"/>
+      <c r="Z80" s="146"/>
+      <c r="AA80" s="147"/>
+      <c r="AB80" s="147"/>
+      <c r="AC80" s="147"/>
+      <c r="AD80" s="148"/>
       <c r="AE80" s="159"/>
       <c r="AF80" s="163"/>
       <c r="AG80" s="157"/>
@@ -7734,35 +7811,37 @@
       <c r="AP80" s="158"/>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B81" s="151"/>
-      <c r="C81" s="152"/>
-      <c r="D81" s="152"/>
-      <c r="E81" s="152"/>
-      <c r="F81" s="153"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="148"/>
       <c r="G81" s="149"/>
-      <c r="H81" s="151"/>
-      <c r="I81" s="152"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="152"/>
-      <c r="L81" s="153"/>
+      <c r="H81" s="146"/>
+      <c r="I81" s="147"/>
+      <c r="J81" s="147"/>
+      <c r="K81" s="147"/>
+      <c r="L81" s="148"/>
       <c r="M81" s="149"/>
-      <c r="N81" s="151"/>
-      <c r="O81" s="152"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="152"/>
-      <c r="R81" s="153"/>
-      <c r="S81" s="149"/>
-      <c r="T81" s="151"/>
-      <c r="U81" s="152"/>
-      <c r="V81" s="152"/>
-      <c r="W81" s="152"/>
-      <c r="X81" s="153"/>
+      <c r="N81" s="146"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="147"/>
+      <c r="Q81" s="147"/>
+      <c r="R81" s="148"/>
+      <c r="S81" s="149" t="s">
+        <v>186</v>
+      </c>
+      <c r="T81" s="150"/>
+      <c r="U81" s="147"/>
+      <c r="V81" s="147"/>
+      <c r="W81" s="147"/>
+      <c r="X81" s="148"/>
       <c r="Y81" s="149"/>
-      <c r="Z81" s="151"/>
-      <c r="AA81" s="152"/>
-      <c r="AB81" s="152"/>
-      <c r="AC81" s="152"/>
-      <c r="AD81" s="153"/>
+      <c r="Z81" s="146"/>
+      <c r="AA81" s="147"/>
+      <c r="AB81" s="147"/>
+      <c r="AC81" s="147"/>
+      <c r="AD81" s="148"/>
       <c r="AE81" s="159"/>
       <c r="AF81" s="163"/>
       <c r="AG81" s="157"/>
@@ -7777,35 +7856,37 @@
       <c r="AP81" s="158"/>
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B82" s="151"/>
-      <c r="C82" s="152"/>
-      <c r="D82" s="152"/>
-      <c r="E82" s="152"/>
-      <c r="F82" s="153"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="148"/>
       <c r="G82" s="149"/>
-      <c r="H82" s="151"/>
-      <c r="I82" s="152"/>
-      <c r="J82" s="152"/>
-      <c r="K82" s="152"/>
-      <c r="L82" s="153"/>
+      <c r="H82" s="146"/>
+      <c r="I82" s="147"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="148"/>
       <c r="M82" s="149"/>
-      <c r="N82" s="151"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="152"/>
-      <c r="Q82" s="152"/>
-      <c r="R82" s="153"/>
-      <c r="S82" s="149"/>
-      <c r="T82" s="151"/>
-      <c r="U82" s="152"/>
-      <c r="V82" s="152"/>
-      <c r="W82" s="152"/>
-      <c r="X82" s="153"/>
+      <c r="N82" s="146"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="147"/>
+      <c r="Q82" s="147"/>
+      <c r="R82" s="148"/>
+      <c r="S82" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="T82" s="150"/>
+      <c r="U82" s="147"/>
+      <c r="V82" s="147"/>
+      <c r="W82" s="147"/>
+      <c r="X82" s="148"/>
       <c r="Y82" s="149"/>
-      <c r="Z82" s="151"/>
-      <c r="AA82" s="152"/>
-      <c r="AB82" s="152"/>
-      <c r="AC82" s="152"/>
-      <c r="AD82" s="153"/>
+      <c r="Z82" s="146"/>
+      <c r="AA82" s="147"/>
+      <c r="AB82" s="147"/>
+      <c r="AC82" s="147"/>
+      <c r="AD82" s="148"/>
       <c r="AE82" s="159"/>
       <c r="AF82" s="163"/>
       <c r="AG82" s="157"/>
@@ -7819,191 +7900,93 @@
       <c r="AO82" s="158"/>
       <c r="AP82" s="158"/>
     </row>
-    <row r="83" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="195">
-        <v>43878</v>
-      </c>
-      <c r="B83" s="195"/>
-      <c r="C83" s="195"/>
-      <c r="D83" s="195"/>
-      <c r="E83" s="195"/>
-      <c r="F83" s="195"/>
-      <c r="G83" s="195">
-        <v>43879</v>
-      </c>
-      <c r="H83" s="195"/>
-      <c r="I83" s="195"/>
-      <c r="J83" s="195"/>
-      <c r="K83" s="195"/>
-      <c r="L83" s="195"/>
-      <c r="M83" s="195">
-        <v>43880</v>
-      </c>
-      <c r="N83" s="195"/>
-      <c r="O83" s="195"/>
-      <c r="P83" s="195"/>
-      <c r="Q83" s="195"/>
-      <c r="R83" s="195"/>
-      <c r="S83" s="195">
-        <v>43881</v>
-      </c>
-      <c r="T83" s="195"/>
-      <c r="U83" s="195"/>
-      <c r="V83" s="195"/>
-      <c r="W83" s="195"/>
-      <c r="X83" s="195"/>
-      <c r="Y83" s="195">
-        <v>43882</v>
-      </c>
-      <c r="Z83" s="195"/>
-      <c r="AA83" s="195"/>
-      <c r="AB83" s="195"/>
-      <c r="AC83" s="195"/>
-      <c r="AD83" s="195"/>
-      <c r="AE83" s="195">
-        <v>43883</v>
-      </c>
-      <c r="AF83" s="195"/>
-      <c r="AG83" s="195"/>
-      <c r="AH83" s="195"/>
-      <c r="AI83" s="195"/>
-      <c r="AJ83" s="195"/>
-      <c r="AK83" s="195">
-        <v>43884</v>
-      </c>
-      <c r="AL83" s="195"/>
-      <c r="AM83" s="195"/>
-      <c r="AN83" s="195"/>
-      <c r="AO83" s="195"/>
-      <c r="AP83" s="195"/>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B83" s="146"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="149"/>
+      <c r="H83" s="146"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="148"/>
+      <c r="M83" s="149"/>
+      <c r="N83" s="146"/>
+      <c r="O83" s="147"/>
+      <c r="P83" s="147"/>
+      <c r="Q83" s="147"/>
+      <c r="R83" s="148"/>
+      <c r="S83" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="T83" s="150"/>
+      <c r="U83" s="147"/>
+      <c r="V83" s="147"/>
+      <c r="W83" s="147"/>
+      <c r="X83" s="148"/>
+      <c r="Y83" s="149"/>
+      <c r="Z83" s="146"/>
+      <c r="AA83" s="147"/>
+      <c r="AB83" s="147"/>
+      <c r="AC83" s="147"/>
+      <c r="AD83" s="148"/>
+      <c r="AE83" s="159"/>
+      <c r="AF83" s="163"/>
+      <c r="AG83" s="157"/>
+      <c r="AH83" s="157"/>
+      <c r="AI83" s="158"/>
+      <c r="AJ83" s="158"/>
+      <c r="AK83" s="158"/>
+      <c r="AL83" s="163"/>
+      <c r="AM83" s="157"/>
+      <c r="AN83" s="157"/>
+      <c r="AO83" s="158"/>
+      <c r="AP83" s="158"/>
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A84" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="G84" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H84" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="I84" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="J84" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="K84" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="L84" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="M84" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="N84" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="O84" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="P84" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q84" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="R84" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="S84" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="T84" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="U84" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="V84" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="W84" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="X84" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y84" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z84" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA84" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB84" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC84" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD84" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE84" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF84" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG84" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH84" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI84" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ84" s="161" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK84" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL84" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM84" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN84" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO84" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP84" s="161" t="s">
-        <v>73</v>
-      </c>
+      <c r="B84" s="146"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="146"/>
+      <c r="I84" s="147"/>
+      <c r="J84" s="147"/>
+      <c r="K84" s="147"/>
+      <c r="L84" s="148"/>
+      <c r="M84" s="149"/>
+      <c r="N84" s="146"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="147"/>
+      <c r="Q84" s="147"/>
+      <c r="R84" s="148"/>
+      <c r="S84" s="149"/>
+      <c r="T84" s="150"/>
+      <c r="U84" s="147"/>
+      <c r="V84" s="147"/>
+      <c r="W84" s="147"/>
+      <c r="X84" s="148"/>
+      <c r="Y84" s="149"/>
+      <c r="Z84" s="146"/>
+      <c r="AA84" s="147"/>
+      <c r="AB84" s="147"/>
+      <c r="AC84" s="147"/>
+      <c r="AD84" s="148"/>
+      <c r="AE84" s="159"/>
+      <c r="AF84" s="163"/>
+      <c r="AG84" s="157"/>
+      <c r="AH84" s="157"/>
+      <c r="AI84" s="158"/>
+      <c r="AJ84" s="158"/>
+      <c r="AK84" s="158"/>
+      <c r="AL84" s="163"/>
+      <c r="AM84" s="157"/>
+      <c r="AN84" s="157"/>
+      <c r="AO84" s="158"/>
+      <c r="AP84" s="158"/>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B85" s="146"/>
@@ -8049,35 +8032,45 @@
       <c r="AP85" s="158"/>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B86" s="146"/>
-      <c r="C86" s="147"/>
-      <c r="D86" s="147"/>
-      <c r="E86" s="147"/>
-      <c r="F86" s="148"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="152"/>
+      <c r="D86" s="152"/>
+      <c r="E86" s="152"/>
+      <c r="F86" s="153"/>
       <c r="G86" s="149"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="147"/>
-      <c r="K86" s="147"/>
-      <c r="L86" s="148"/>
+      <c r="H86" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" s="152">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="J86" s="152">
+        <v>0.38</v>
+      </c>
+      <c r="K86" s="152">
+        <v>0.39</v>
+      </c>
+      <c r="L86" s="153">
+        <v>30000</v>
+      </c>
       <c r="M86" s="149"/>
-      <c r="N86" s="146"/>
-      <c r="O86" s="147"/>
-      <c r="P86" s="147"/>
-      <c r="Q86" s="147"/>
-      <c r="R86" s="148"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="152"/>
+      <c r="P86" s="152"/>
+      <c r="Q86" s="152"/>
+      <c r="R86" s="153"/>
       <c r="S86" s="149"/>
-      <c r="T86" s="146"/>
-      <c r="U86" s="147"/>
-      <c r="V86" s="147"/>
-      <c r="W86" s="147"/>
-      <c r="X86" s="148"/>
+      <c r="T86" s="151"/>
+      <c r="U86" s="152"/>
+      <c r="V86" s="152"/>
+      <c r="W86" s="152"/>
+      <c r="X86" s="153"/>
       <c r="Y86" s="149"/>
-      <c r="Z86" s="146"/>
-      <c r="AA86" s="147"/>
-      <c r="AB86" s="147"/>
-      <c r="AC86" s="147"/>
-      <c r="AD86" s="148"/>
+      <c r="Z86" s="151"/>
+      <c r="AA86" s="152"/>
+      <c r="AB86" s="152"/>
+      <c r="AC86" s="152"/>
+      <c r="AD86" s="153"/>
       <c r="AE86" s="159"/>
       <c r="AF86" s="163"/>
       <c r="AG86" s="157"/>
@@ -8092,35 +8085,35 @@
       <c r="AP86" s="158"/>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B87" s="146"/>
-      <c r="C87" s="147"/>
-      <c r="D87" s="147"/>
-      <c r="E87" s="147"/>
-      <c r="F87" s="148"/>
+      <c r="B87" s="151"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="153"/>
       <c r="G87" s="149"/>
-      <c r="H87" s="146"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="147"/>
-      <c r="L87" s="148"/>
+      <c r="H87" s="151"/>
+      <c r="I87" s="152"/>
+      <c r="J87" s="152"/>
+      <c r="K87" s="152"/>
+      <c r="L87" s="153"/>
       <c r="M87" s="149"/>
-      <c r="N87" s="146"/>
-      <c r="O87" s="147"/>
-      <c r="P87" s="147"/>
-      <c r="Q87" s="147"/>
-      <c r="R87" s="148"/>
+      <c r="N87" s="151"/>
+      <c r="O87" s="152"/>
+      <c r="P87" s="152"/>
+      <c r="Q87" s="152"/>
+      <c r="R87" s="153"/>
       <c r="S87" s="149"/>
-      <c r="T87" s="146"/>
-      <c r="U87" s="147"/>
-      <c r="V87" s="147"/>
-      <c r="W87" s="147"/>
-      <c r="X87" s="148"/>
+      <c r="T87" s="151"/>
+      <c r="U87" s="152"/>
+      <c r="V87" s="152"/>
+      <c r="W87" s="152"/>
+      <c r="X87" s="153"/>
       <c r="Y87" s="149"/>
-      <c r="Z87" s="146"/>
-      <c r="AA87" s="147"/>
-      <c r="AB87" s="147"/>
-      <c r="AC87" s="147"/>
-      <c r="AD87" s="148"/>
+      <c r="Z87" s="151"/>
+      <c r="AA87" s="152"/>
+      <c r="AB87" s="152"/>
+      <c r="AC87" s="152"/>
+      <c r="AD87" s="153"/>
       <c r="AE87" s="159"/>
       <c r="AF87" s="163"/>
       <c r="AG87" s="157"/>
@@ -8135,35 +8128,35 @@
       <c r="AP87" s="158"/>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B88" s="146"/>
-      <c r="C88" s="147"/>
-      <c r="D88" s="147"/>
-      <c r="E88" s="147"/>
-      <c r="F88" s="148"/>
+      <c r="B88" s="151"/>
+      <c r="C88" s="152"/>
+      <c r="D88" s="152"/>
+      <c r="E88" s="152"/>
+      <c r="F88" s="153"/>
       <c r="G88" s="149"/>
-      <c r="H88" s="146"/>
-      <c r="I88" s="147"/>
-      <c r="J88" s="147"/>
-      <c r="K88" s="147"/>
-      <c r="L88" s="148"/>
+      <c r="H88" s="151"/>
+      <c r="I88" s="152"/>
+      <c r="J88" s="152"/>
+      <c r="K88" s="152"/>
+      <c r="L88" s="153"/>
       <c r="M88" s="149"/>
-      <c r="N88" s="146"/>
-      <c r="O88" s="147"/>
-      <c r="P88" s="147"/>
-      <c r="Q88" s="147"/>
-      <c r="R88" s="148"/>
+      <c r="N88" s="151"/>
+      <c r="O88" s="152"/>
+      <c r="P88" s="152"/>
+      <c r="Q88" s="152"/>
+      <c r="R88" s="153"/>
       <c r="S88" s="149"/>
-      <c r="T88" s="150"/>
-      <c r="U88" s="147"/>
-      <c r="V88" s="147"/>
-      <c r="W88" s="147"/>
-      <c r="X88" s="148"/>
+      <c r="T88" s="151"/>
+      <c r="U88" s="152"/>
+      <c r="V88" s="152"/>
+      <c r="W88" s="152"/>
+      <c r="X88" s="153"/>
       <c r="Y88" s="149"/>
-      <c r="Z88" s="146"/>
-      <c r="AA88" s="147"/>
-      <c r="AB88" s="147"/>
-      <c r="AC88" s="147"/>
-      <c r="AD88" s="148"/>
+      <c r="Z88" s="151"/>
+      <c r="AA88" s="152"/>
+      <c r="AB88" s="152"/>
+      <c r="AC88" s="152"/>
+      <c r="AD88" s="153"/>
       <c r="AE88" s="159"/>
       <c r="AF88" s="163"/>
       <c r="AG88" s="157"/>
@@ -8177,122 +8170,222 @@
       <c r="AO88" s="158"/>
       <c r="AP88" s="158"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B89" s="146"/>
-      <c r="C89" s="147"/>
-      <c r="D89" s="147"/>
-      <c r="E89" s="147"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="149"/>
-      <c r="H89" s="146"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="147"/>
-      <c r="K89" s="147"/>
-      <c r="L89" s="148"/>
-      <c r="M89" s="149"/>
-      <c r="N89" s="146"/>
-      <c r="O89" s="147"/>
-      <c r="P89" s="147"/>
-      <c r="Q89" s="147"/>
-      <c r="R89" s="148"/>
-      <c r="S89" s="149"/>
-      <c r="T89" s="146"/>
-      <c r="U89" s="147"/>
-      <c r="V89" s="147"/>
-      <c r="W89" s="147"/>
-      <c r="X89" s="148"/>
-      <c r="Y89" s="149"/>
-      <c r="Z89" s="146"/>
-      <c r="AA89" s="147"/>
-      <c r="AB89" s="147"/>
-      <c r="AC89" s="147"/>
-      <c r="AD89" s="148"/>
-      <c r="AE89" s="159"/>
-      <c r="AF89" s="163"/>
-      <c r="AG89" s="157"/>
-      <c r="AH89" s="157"/>
-      <c r="AI89" s="158"/>
-      <c r="AJ89" s="158"/>
-      <c r="AK89" s="158"/>
-      <c r="AL89" s="163"/>
-      <c r="AM89" s="157"/>
-      <c r="AN89" s="157"/>
-      <c r="AO89" s="158"/>
-      <c r="AP89" s="158"/>
+    <row r="89" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="196">
+        <v>43878</v>
+      </c>
+      <c r="B89" s="196"/>
+      <c r="C89" s="196"/>
+      <c r="D89" s="196"/>
+      <c r="E89" s="196"/>
+      <c r="F89" s="196"/>
+      <c r="G89" s="196">
+        <v>43879</v>
+      </c>
+      <c r="H89" s="196"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="196"/>
+      <c r="K89" s="196"/>
+      <c r="L89" s="196"/>
+      <c r="M89" s="196">
+        <v>43880</v>
+      </c>
+      <c r="N89" s="196"/>
+      <c r="O89" s="196"/>
+      <c r="P89" s="196"/>
+      <c r="Q89" s="196"/>
+      <c r="R89" s="196"/>
+      <c r="S89" s="196">
+        <v>43881</v>
+      </c>
+      <c r="T89" s="196"/>
+      <c r="U89" s="196"/>
+      <c r="V89" s="196"/>
+      <c r="W89" s="196"/>
+      <c r="X89" s="196"/>
+      <c r="Y89" s="196">
+        <v>43882</v>
+      </c>
+      <c r="Z89" s="196"/>
+      <c r="AA89" s="196"/>
+      <c r="AB89" s="196"/>
+      <c r="AC89" s="196"/>
+      <c r="AD89" s="196"/>
+      <c r="AE89" s="196">
+        <v>43883</v>
+      </c>
+      <c r="AF89" s="196"/>
+      <c r="AG89" s="196"/>
+      <c r="AH89" s="196"/>
+      <c r="AI89" s="196"/>
+      <c r="AJ89" s="196"/>
+      <c r="AK89" s="196">
+        <v>43884</v>
+      </c>
+      <c r="AL89" s="196"/>
+      <c r="AM89" s="196"/>
+      <c r="AN89" s="196"/>
+      <c r="AO89" s="196"/>
+      <c r="AP89" s="196"/>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B90" s="151"/>
-      <c r="C90" s="152"/>
-      <c r="D90" s="152"/>
-      <c r="E90" s="152"/>
-      <c r="F90" s="153"/>
-      <c r="G90" s="149"/>
-      <c r="H90" s="151"/>
-      <c r="I90" s="152"/>
-      <c r="J90" s="152"/>
-      <c r="K90" s="152"/>
-      <c r="L90" s="153"/>
-      <c r="M90" s="149"/>
-      <c r="N90" s="151"/>
-      <c r="O90" s="152"/>
-      <c r="P90" s="152"/>
-      <c r="Q90" s="152"/>
-      <c r="R90" s="153"/>
-      <c r="S90" s="149"/>
-      <c r="T90" s="151"/>
-      <c r="U90" s="152"/>
-      <c r="V90" s="152"/>
-      <c r="W90" s="152"/>
-      <c r="X90" s="153"/>
-      <c r="Y90" s="149"/>
-      <c r="Z90" s="151"/>
-      <c r="AA90" s="152"/>
-      <c r="AB90" s="152"/>
-      <c r="AC90" s="152"/>
-      <c r="AD90" s="153"/>
-      <c r="AE90" s="159"/>
-      <c r="AF90" s="163"/>
-      <c r="AG90" s="157"/>
-      <c r="AH90" s="157"/>
-      <c r="AI90" s="158"/>
-      <c r="AJ90" s="158"/>
-      <c r="AK90" s="158"/>
-      <c r="AL90" s="163"/>
-      <c r="AM90" s="157"/>
-      <c r="AN90" s="157"/>
-      <c r="AO90" s="158"/>
-      <c r="AP90" s="158"/>
+      <c r="A90" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="G90" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="J90" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="K90" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="L90" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="M90" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="N90" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="O90" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q90" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="R90" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="S90" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="T90" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="U90" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="V90" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="W90" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="X90" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y90" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z90" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA90" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB90" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC90" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD90" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE90" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF90" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG90" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH90" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI90" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ90" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK90" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL90" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM90" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN90" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO90" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP90" s="161" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B91" s="151"/>
-      <c r="C91" s="152"/>
-      <c r="D91" s="152"/>
-      <c r="E91" s="152"/>
-      <c r="F91" s="153"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="148"/>
       <c r="G91" s="149"/>
-      <c r="H91" s="151"/>
-      <c r="I91" s="152"/>
-      <c r="J91" s="152"/>
-      <c r="K91" s="152"/>
-      <c r="L91" s="153"/>
+      <c r="H91" s="146"/>
+      <c r="I91" s="147"/>
+      <c r="J91" s="147"/>
+      <c r="K91" s="147"/>
+      <c r="L91" s="148"/>
       <c r="M91" s="149"/>
-      <c r="N91" s="151"/>
-      <c r="O91" s="152"/>
-      <c r="P91" s="152"/>
-      <c r="Q91" s="152"/>
-      <c r="R91" s="153"/>
+      <c r="N91" s="146"/>
+      <c r="O91" s="147"/>
+      <c r="P91" s="147"/>
+      <c r="Q91" s="147"/>
+      <c r="R91" s="148"/>
       <c r="S91" s="149"/>
-      <c r="T91" s="151"/>
-      <c r="U91" s="152"/>
-      <c r="V91" s="152"/>
-      <c r="W91" s="152"/>
-      <c r="X91" s="153"/>
+      <c r="T91" s="146"/>
+      <c r="U91" s="147"/>
+      <c r="V91" s="147"/>
+      <c r="W91" s="147"/>
+      <c r="X91" s="148"/>
       <c r="Y91" s="149"/>
-      <c r="Z91" s="151"/>
-      <c r="AA91" s="152"/>
-      <c r="AB91" s="152"/>
-      <c r="AC91" s="152"/>
-      <c r="AD91" s="153"/>
+      <c r="Z91" s="146"/>
+      <c r="AA91" s="147"/>
+      <c r="AB91" s="147"/>
+      <c r="AC91" s="147"/>
+      <c r="AD91" s="148"/>
       <c r="AE91" s="159"/>
       <c r="AF91" s="163"/>
       <c r="AG91" s="157"/>
@@ -8307,35 +8400,35 @@
       <c r="AP91" s="158"/>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B92" s="151"/>
-      <c r="C92" s="152"/>
-      <c r="D92" s="152"/>
-      <c r="E92" s="152"/>
-      <c r="F92" s="153"/>
+      <c r="B92" s="146"/>
+      <c r="C92" s="147"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="147"/>
+      <c r="F92" s="148"/>
       <c r="G92" s="149"/>
-      <c r="H92" s="151"/>
-      <c r="I92" s="152"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="152"/>
-      <c r="L92" s="153"/>
+      <c r="H92" s="146"/>
+      <c r="I92" s="147"/>
+      <c r="J92" s="147"/>
+      <c r="K92" s="147"/>
+      <c r="L92" s="148"/>
       <c r="M92" s="149"/>
-      <c r="N92" s="151"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="152"/>
-      <c r="Q92" s="152"/>
-      <c r="R92" s="153"/>
+      <c r="N92" s="146"/>
+      <c r="O92" s="147"/>
+      <c r="P92" s="147"/>
+      <c r="Q92" s="147"/>
+      <c r="R92" s="148"/>
       <c r="S92" s="149"/>
-      <c r="T92" s="151"/>
-      <c r="U92" s="152"/>
-      <c r="V92" s="152"/>
-      <c r="W92" s="152"/>
-      <c r="X92" s="153"/>
+      <c r="T92" s="146"/>
+      <c r="U92" s="147"/>
+      <c r="V92" s="147"/>
+      <c r="W92" s="147"/>
+      <c r="X92" s="148"/>
       <c r="Y92" s="149"/>
-      <c r="Z92" s="151"/>
-      <c r="AA92" s="152"/>
-      <c r="AB92" s="152"/>
-      <c r="AC92" s="152"/>
-      <c r="AD92" s="153"/>
+      <c r="Z92" s="146"/>
+      <c r="AA92" s="147"/>
+      <c r="AB92" s="147"/>
+      <c r="AC92" s="147"/>
+      <c r="AD92" s="148"/>
       <c r="AE92" s="159"/>
       <c r="AF92" s="163"/>
       <c r="AG92" s="157"/>
@@ -8349,191 +8442,91 @@
       <c r="AO92" s="158"/>
       <c r="AP92" s="158"/>
     </row>
-    <row r="93" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="195">
-        <v>43885</v>
-      </c>
-      <c r="B93" s="195"/>
-      <c r="C93" s="195"/>
-      <c r="D93" s="195"/>
-      <c r="E93" s="195"/>
-      <c r="F93" s="195"/>
-      <c r="G93" s="195">
-        <v>43886</v>
-      </c>
-      <c r="H93" s="195"/>
-      <c r="I93" s="195"/>
-      <c r="J93" s="195"/>
-      <c r="K93" s="195"/>
-      <c r="L93" s="195"/>
-      <c r="M93" s="195">
-        <v>43887</v>
-      </c>
-      <c r="N93" s="195"/>
-      <c r="O93" s="195"/>
-      <c r="P93" s="195"/>
-      <c r="Q93" s="195"/>
-      <c r="R93" s="195"/>
-      <c r="S93" s="195">
-        <v>43888</v>
-      </c>
-      <c r="T93" s="195"/>
-      <c r="U93" s="195"/>
-      <c r="V93" s="195"/>
-      <c r="W93" s="195"/>
-      <c r="X93" s="195"/>
-      <c r="Y93" s="195">
-        <v>43889</v>
-      </c>
-      <c r="Z93" s="195"/>
-      <c r="AA93" s="195"/>
-      <c r="AB93" s="195"/>
-      <c r="AC93" s="195"/>
-      <c r="AD93" s="195"/>
-      <c r="AE93" s="195">
-        <v>43890</v>
-      </c>
-      <c r="AF93" s="195"/>
-      <c r="AG93" s="195"/>
-      <c r="AH93" s="195"/>
-      <c r="AI93" s="195"/>
-      <c r="AJ93" s="195"/>
-      <c r="AK93" s="195">
-        <v>43891</v>
-      </c>
-      <c r="AL93" s="195"/>
-      <c r="AM93" s="195"/>
-      <c r="AN93" s="195"/>
-      <c r="AO93" s="195"/>
-      <c r="AP93" s="195"/>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B93" s="146"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="147"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="149"/>
+      <c r="H93" s="146"/>
+      <c r="I93" s="147"/>
+      <c r="J93" s="147"/>
+      <c r="K93" s="147"/>
+      <c r="L93" s="148"/>
+      <c r="M93" s="149"/>
+      <c r="N93" s="146"/>
+      <c r="O93" s="147"/>
+      <c r="P93" s="147"/>
+      <c r="Q93" s="147"/>
+      <c r="R93" s="148"/>
+      <c r="S93" s="149"/>
+      <c r="T93" s="146"/>
+      <c r="U93" s="147"/>
+      <c r="V93" s="147"/>
+      <c r="W93" s="147"/>
+      <c r="X93" s="148"/>
+      <c r="Y93" s="149"/>
+      <c r="Z93" s="146"/>
+      <c r="AA93" s="147"/>
+      <c r="AB93" s="147"/>
+      <c r="AC93" s="147"/>
+      <c r="AD93" s="148"/>
+      <c r="AE93" s="159"/>
+      <c r="AF93" s="163"/>
+      <c r="AG93" s="157"/>
+      <c r="AH93" s="157"/>
+      <c r="AI93" s="158"/>
+      <c r="AJ93" s="158"/>
+      <c r="AK93" s="158"/>
+      <c r="AL93" s="163"/>
+      <c r="AM93" s="157"/>
+      <c r="AN93" s="157"/>
+      <c r="AO93" s="158"/>
+      <c r="AP93" s="158"/>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A94" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="G94" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H94" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="I94" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="J94" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="K94" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="L94" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="M94" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="N94" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="O94" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="P94" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q94" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="R94" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="S94" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="T94" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="U94" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="V94" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="W94" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="X94" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y94" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z94" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA94" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB94" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC94" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD94" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE94" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF94" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG94" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH94" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI94" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ94" s="161" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK94" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL94" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM94" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN94" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO94" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP94" s="161" t="s">
-        <v>73</v>
-      </c>
+      <c r="B94" s="146"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="147"/>
+      <c r="E94" s="147"/>
+      <c r="F94" s="148"/>
+      <c r="G94" s="149"/>
+      <c r="H94" s="146"/>
+      <c r="I94" s="147"/>
+      <c r="J94" s="147"/>
+      <c r="K94" s="147"/>
+      <c r="L94" s="148"/>
+      <c r="M94" s="149"/>
+      <c r="N94" s="146"/>
+      <c r="O94" s="147"/>
+      <c r="P94" s="147"/>
+      <c r="Q94" s="147"/>
+      <c r="R94" s="148"/>
+      <c r="S94" s="149"/>
+      <c r="T94" s="150"/>
+      <c r="U94" s="147"/>
+      <c r="V94" s="147"/>
+      <c r="W94" s="147"/>
+      <c r="X94" s="148"/>
+      <c r="Y94" s="149"/>
+      <c r="Z94" s="146"/>
+      <c r="AA94" s="147"/>
+      <c r="AB94" s="147"/>
+      <c r="AC94" s="147"/>
+      <c r="AD94" s="148"/>
+      <c r="AE94" s="159"/>
+      <c r="AF94" s="163"/>
+      <c r="AG94" s="157"/>
+      <c r="AH94" s="157"/>
+      <c r="AI94" s="158"/>
+      <c r="AJ94" s="158"/>
+      <c r="AK94" s="158"/>
+      <c r="AL94" s="163"/>
+      <c r="AM94" s="157"/>
+      <c r="AN94" s="157"/>
+      <c r="AO94" s="158"/>
+      <c r="AP94" s="158"/>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B95" s="146"/>
@@ -8579,35 +8572,35 @@
       <c r="AP95" s="158"/>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B96" s="146"/>
-      <c r="C96" s="147"/>
-      <c r="D96" s="147"/>
-      <c r="E96" s="147"/>
-      <c r="F96" s="148"/>
+      <c r="B96" s="151"/>
+      <c r="C96" s="152"/>
+      <c r="D96" s="152"/>
+      <c r="E96" s="152"/>
+      <c r="F96" s="153"/>
       <c r="G96" s="149"/>
-      <c r="H96" s="146"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="147"/>
-      <c r="K96" s="147"/>
-      <c r="L96" s="148"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="152"/>
+      <c r="J96" s="152"/>
+      <c r="K96" s="152"/>
+      <c r="L96" s="153"/>
       <c r="M96" s="149"/>
-      <c r="N96" s="146"/>
-      <c r="O96" s="147"/>
-      <c r="P96" s="147"/>
-      <c r="Q96" s="147"/>
-      <c r="R96" s="148"/>
+      <c r="N96" s="151"/>
+      <c r="O96" s="152"/>
+      <c r="P96" s="152"/>
+      <c r="Q96" s="152"/>
+      <c r="R96" s="153"/>
       <c r="S96" s="149"/>
-      <c r="T96" s="146"/>
-      <c r="U96" s="147"/>
-      <c r="V96" s="147"/>
-      <c r="W96" s="147"/>
-      <c r="X96" s="148"/>
+      <c r="T96" s="151"/>
+      <c r="U96" s="152"/>
+      <c r="V96" s="152"/>
+      <c r="W96" s="152"/>
+      <c r="X96" s="153"/>
       <c r="Y96" s="149"/>
-      <c r="Z96" s="146"/>
-      <c r="AA96" s="147"/>
-      <c r="AB96" s="147"/>
-      <c r="AC96" s="147"/>
-      <c r="AD96" s="148"/>
+      <c r="Z96" s="151"/>
+      <c r="AA96" s="152"/>
+      <c r="AB96" s="152"/>
+      <c r="AC96" s="152"/>
+      <c r="AD96" s="153"/>
       <c r="AE96" s="159"/>
       <c r="AF96" s="163"/>
       <c r="AG96" s="157"/>
@@ -8622,35 +8615,35 @@
       <c r="AP96" s="158"/>
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B97" s="146"/>
-      <c r="C97" s="147"/>
-      <c r="D97" s="147"/>
-      <c r="E97" s="147"/>
-      <c r="F97" s="148"/>
+      <c r="B97" s="151"/>
+      <c r="C97" s="152"/>
+      <c r="D97" s="152"/>
+      <c r="E97" s="152"/>
+      <c r="F97" s="153"/>
       <c r="G97" s="149"/>
-      <c r="H97" s="146"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="147"/>
-      <c r="K97" s="147"/>
-      <c r="L97" s="148"/>
+      <c r="H97" s="151"/>
+      <c r="I97" s="152"/>
+      <c r="J97" s="152"/>
+      <c r="K97" s="152"/>
+      <c r="L97" s="153"/>
       <c r="M97" s="149"/>
-      <c r="N97" s="146"/>
-      <c r="O97" s="147"/>
-      <c r="P97" s="147"/>
-      <c r="Q97" s="147"/>
-      <c r="R97" s="148"/>
+      <c r="N97" s="151"/>
+      <c r="O97" s="152"/>
+      <c r="P97" s="152"/>
+      <c r="Q97" s="152"/>
+      <c r="R97" s="153"/>
       <c r="S97" s="149"/>
-      <c r="T97" s="146"/>
-      <c r="U97" s="147"/>
-      <c r="V97" s="147"/>
-      <c r="W97" s="147"/>
-      <c r="X97" s="148"/>
+      <c r="T97" s="151"/>
+      <c r="U97" s="152"/>
+      <c r="V97" s="152"/>
+      <c r="W97" s="152"/>
+      <c r="X97" s="153"/>
       <c r="Y97" s="149"/>
-      <c r="Z97" s="146"/>
-      <c r="AA97" s="147"/>
-      <c r="AB97" s="147"/>
-      <c r="AC97" s="147"/>
-      <c r="AD97" s="148"/>
+      <c r="Z97" s="151"/>
+      <c r="AA97" s="152"/>
+      <c r="AB97" s="152"/>
+      <c r="AC97" s="152"/>
+      <c r="AD97" s="153"/>
       <c r="AE97" s="159"/>
       <c r="AF97" s="163"/>
       <c r="AG97" s="157"/>
@@ -8665,35 +8658,35 @@
       <c r="AP97" s="158"/>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B98" s="146"/>
-      <c r="C98" s="147"/>
-      <c r="D98" s="147"/>
-      <c r="E98" s="147"/>
-      <c r="F98" s="148"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="152"/>
+      <c r="D98" s="152"/>
+      <c r="E98" s="152"/>
+      <c r="F98" s="153"/>
       <c r="G98" s="149"/>
-      <c r="H98" s="146"/>
-      <c r="I98" s="147"/>
-      <c r="J98" s="147"/>
-      <c r="K98" s="147"/>
-      <c r="L98" s="148"/>
+      <c r="H98" s="151"/>
+      <c r="I98" s="152"/>
+      <c r="J98" s="152"/>
+      <c r="K98" s="152"/>
+      <c r="L98" s="153"/>
       <c r="M98" s="149"/>
-      <c r="N98" s="146"/>
-      <c r="O98" s="147"/>
-      <c r="P98" s="147"/>
-      <c r="Q98" s="147"/>
-      <c r="R98" s="148"/>
+      <c r="N98" s="151"/>
+      <c r="O98" s="152"/>
+      <c r="P98" s="152"/>
+      <c r="Q98" s="152"/>
+      <c r="R98" s="153"/>
       <c r="S98" s="149"/>
-      <c r="T98" s="150"/>
-      <c r="U98" s="147"/>
-      <c r="V98" s="147"/>
-      <c r="W98" s="147"/>
-      <c r="X98" s="148"/>
+      <c r="T98" s="151"/>
+      <c r="U98" s="152"/>
+      <c r="V98" s="152"/>
+      <c r="W98" s="152"/>
+      <c r="X98" s="153"/>
       <c r="Y98" s="149"/>
-      <c r="Z98" s="146"/>
-      <c r="AA98" s="147"/>
-      <c r="AB98" s="147"/>
-      <c r="AC98" s="147"/>
-      <c r="AD98" s="148"/>
+      <c r="Z98" s="151"/>
+      <c r="AA98" s="152"/>
+      <c r="AB98" s="152"/>
+      <c r="AC98" s="152"/>
+      <c r="AD98" s="153"/>
       <c r="AE98" s="159"/>
       <c r="AF98" s="163"/>
       <c r="AG98" s="157"/>
@@ -8707,122 +8700,222 @@
       <c r="AO98" s="158"/>
       <c r="AP98" s="158"/>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B99" s="146"/>
-      <c r="C99" s="147"/>
-      <c r="D99" s="147"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="148"/>
-      <c r="G99" s="149"/>
-      <c r="H99" s="146"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="147"/>
-      <c r="K99" s="147"/>
-      <c r="L99" s="148"/>
-      <c r="M99" s="149"/>
-      <c r="N99" s="146"/>
-      <c r="O99" s="147"/>
-      <c r="P99" s="147"/>
-      <c r="Q99" s="147"/>
-      <c r="R99" s="148"/>
-      <c r="S99" s="149"/>
-      <c r="T99" s="146"/>
-      <c r="U99" s="147"/>
-      <c r="V99" s="147"/>
-      <c r="W99" s="147"/>
-      <c r="X99" s="148"/>
-      <c r="Y99" s="149"/>
-      <c r="Z99" s="146"/>
-      <c r="AA99" s="147"/>
-      <c r="AB99" s="147"/>
-      <c r="AC99" s="147"/>
-      <c r="AD99" s="148"/>
-      <c r="AE99" s="159"/>
-      <c r="AF99" s="163"/>
-      <c r="AG99" s="157"/>
-      <c r="AH99" s="157"/>
-      <c r="AI99" s="158"/>
-      <c r="AJ99" s="158"/>
-      <c r="AK99" s="158"/>
-      <c r="AL99" s="163"/>
-      <c r="AM99" s="157"/>
-      <c r="AN99" s="157"/>
-      <c r="AO99" s="158"/>
-      <c r="AP99" s="158"/>
+    <row r="99" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="196">
+        <v>43885</v>
+      </c>
+      <c r="B99" s="196"/>
+      <c r="C99" s="196"/>
+      <c r="D99" s="196"/>
+      <c r="E99" s="196"/>
+      <c r="F99" s="196"/>
+      <c r="G99" s="196">
+        <v>43886</v>
+      </c>
+      <c r="H99" s="196"/>
+      <c r="I99" s="196"/>
+      <c r="J99" s="196"/>
+      <c r="K99" s="196"/>
+      <c r="L99" s="196"/>
+      <c r="M99" s="196">
+        <v>43887</v>
+      </c>
+      <c r="N99" s="196"/>
+      <c r="O99" s="196"/>
+      <c r="P99" s="196"/>
+      <c r="Q99" s="196"/>
+      <c r="R99" s="196"/>
+      <c r="S99" s="196">
+        <v>43888</v>
+      </c>
+      <c r="T99" s="196"/>
+      <c r="U99" s="196"/>
+      <c r="V99" s="196"/>
+      <c r="W99" s="196"/>
+      <c r="X99" s="196"/>
+      <c r="Y99" s="196">
+        <v>43889</v>
+      </c>
+      <c r="Z99" s="196"/>
+      <c r="AA99" s="196"/>
+      <c r="AB99" s="196"/>
+      <c r="AC99" s="196"/>
+      <c r="AD99" s="196"/>
+      <c r="AE99" s="196">
+        <v>43890</v>
+      </c>
+      <c r="AF99" s="196"/>
+      <c r="AG99" s="196"/>
+      <c r="AH99" s="196"/>
+      <c r="AI99" s="196"/>
+      <c r="AJ99" s="196"/>
+      <c r="AK99" s="196">
+        <v>43891</v>
+      </c>
+      <c r="AL99" s="196"/>
+      <c r="AM99" s="196"/>
+      <c r="AN99" s="196"/>
+      <c r="AO99" s="196"/>
+      <c r="AP99" s="196"/>
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B100" s="151"/>
-      <c r="C100" s="152"/>
-      <c r="D100" s="152"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="153"/>
-      <c r="G100" s="149"/>
-      <c r="H100" s="151"/>
-      <c r="I100" s="152"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="152"/>
-      <c r="L100" s="153"/>
-      <c r="M100" s="149"/>
-      <c r="N100" s="151"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="152"/>
-      <c r="Q100" s="152"/>
-      <c r="R100" s="153"/>
-      <c r="S100" s="149"/>
-      <c r="T100" s="151"/>
-      <c r="U100" s="152"/>
-      <c r="V100" s="152"/>
-      <c r="W100" s="152"/>
-      <c r="X100" s="153"/>
-      <c r="Y100" s="149"/>
-      <c r="Z100" s="151"/>
-      <c r="AA100" s="152"/>
-      <c r="AB100" s="152"/>
-      <c r="AC100" s="152"/>
-      <c r="AD100" s="153"/>
-      <c r="AE100" s="159"/>
-      <c r="AF100" s="163"/>
-      <c r="AG100" s="157"/>
-      <c r="AH100" s="157"/>
-      <c r="AI100" s="158"/>
-      <c r="AJ100" s="158"/>
-      <c r="AK100" s="158"/>
-      <c r="AL100" s="163"/>
-      <c r="AM100" s="157"/>
-      <c r="AN100" s="157"/>
-      <c r="AO100" s="158"/>
-      <c r="AP100" s="158"/>
+      <c r="A100" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H100" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="J100" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="K100" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="L100" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="M100" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="N100" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="O100" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="P100" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q100" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="R100" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="S100" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="T100" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="U100" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="V100" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="W100" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="X100" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y100" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z100" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA100" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB100" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC100" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD100" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE100" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF100" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG100" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH100" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI100" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ100" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK100" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL100" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM100" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN100" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO100" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP100" s="161" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B101" s="151"/>
-      <c r="C101" s="152"/>
-      <c r="D101" s="152"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="153"/>
+      <c r="B101" s="146"/>
+      <c r="C101" s="147"/>
+      <c r="D101" s="147"/>
+      <c r="E101" s="147"/>
+      <c r="F101" s="148"/>
       <c r="G101" s="149"/>
-      <c r="H101" s="151"/>
-      <c r="I101" s="152"/>
-      <c r="J101" s="152"/>
-      <c r="K101" s="152"/>
-      <c r="L101" s="153"/>
+      <c r="H101" s="146"/>
+      <c r="I101" s="147"/>
+      <c r="J101" s="147"/>
+      <c r="K101" s="147"/>
+      <c r="L101" s="148"/>
       <c r="M101" s="149"/>
-      <c r="N101" s="151"/>
-      <c r="O101" s="152"/>
-      <c r="P101" s="152"/>
-      <c r="Q101" s="152"/>
-      <c r="R101" s="153"/>
+      <c r="N101" s="146"/>
+      <c r="O101" s="147"/>
+      <c r="P101" s="147"/>
+      <c r="Q101" s="147"/>
+      <c r="R101" s="148"/>
       <c r="S101" s="149"/>
-      <c r="T101" s="151"/>
-      <c r="U101" s="152"/>
-      <c r="V101" s="152"/>
-      <c r="W101" s="152"/>
-      <c r="X101" s="153"/>
+      <c r="T101" s="146"/>
+      <c r="U101" s="147"/>
+      <c r="V101" s="147"/>
+      <c r="W101" s="147"/>
+      <c r="X101" s="148"/>
       <c r="Y101" s="149"/>
-      <c r="Z101" s="151"/>
-      <c r="AA101" s="152"/>
-      <c r="AB101" s="152"/>
-      <c r="AC101" s="152"/>
-      <c r="AD101" s="153"/>
+      <c r="Z101" s="146"/>
+      <c r="AA101" s="147"/>
+      <c r="AB101" s="147"/>
+      <c r="AC101" s="147"/>
+      <c r="AD101" s="148"/>
       <c r="AE101" s="159"/>
       <c r="AF101" s="163"/>
       <c r="AG101" s="157"/>
@@ -8837,35 +8930,35 @@
       <c r="AP101" s="158"/>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B102" s="151"/>
-      <c r="C102" s="152"/>
-      <c r="D102" s="152"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="153"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="147"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="148"/>
       <c r="G102" s="149"/>
-      <c r="H102" s="151"/>
-      <c r="I102" s="152"/>
-      <c r="J102" s="152"/>
-      <c r="K102" s="152"/>
-      <c r="L102" s="153"/>
+      <c r="H102" s="146"/>
+      <c r="I102" s="147"/>
+      <c r="J102" s="147"/>
+      <c r="K102" s="147"/>
+      <c r="L102" s="148"/>
       <c r="M102" s="149"/>
-      <c r="N102" s="151"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="152"/>
-      <c r="Q102" s="152"/>
-      <c r="R102" s="153"/>
+      <c r="N102" s="146"/>
+      <c r="O102" s="147"/>
+      <c r="P102" s="147"/>
+      <c r="Q102" s="147"/>
+      <c r="R102" s="148"/>
       <c r="S102" s="149"/>
-      <c r="T102" s="151"/>
-      <c r="U102" s="152"/>
-      <c r="V102" s="152"/>
-      <c r="W102" s="152"/>
-      <c r="X102" s="153"/>
+      <c r="T102" s="146"/>
+      <c r="U102" s="147"/>
+      <c r="V102" s="147"/>
+      <c r="W102" s="147"/>
+      <c r="X102" s="148"/>
       <c r="Y102" s="149"/>
-      <c r="Z102" s="151"/>
-      <c r="AA102" s="152"/>
-      <c r="AB102" s="152"/>
-      <c r="AC102" s="152"/>
-      <c r="AD102" s="153"/>
+      <c r="Z102" s="146"/>
+      <c r="AA102" s="147"/>
+      <c r="AB102" s="147"/>
+      <c r="AC102" s="147"/>
+      <c r="AD102" s="148"/>
       <c r="AE102" s="159"/>
       <c r="AF102" s="163"/>
       <c r="AG102" s="157"/>
@@ -8879,191 +8972,91 @@
       <c r="AO102" s="158"/>
       <c r="AP102" s="158"/>
     </row>
-    <row r="103" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="195">
-        <v>43892</v>
-      </c>
-      <c r="B103" s="195"/>
-      <c r="C103" s="195"/>
-      <c r="D103" s="195"/>
-      <c r="E103" s="195"/>
-      <c r="F103" s="195"/>
-      <c r="G103" s="195">
-        <v>43893</v>
-      </c>
-      <c r="H103" s="195"/>
-      <c r="I103" s="195"/>
-      <c r="J103" s="195"/>
-      <c r="K103" s="195"/>
-      <c r="L103" s="195"/>
-      <c r="M103" s="195">
-        <v>43894</v>
-      </c>
-      <c r="N103" s="195"/>
-      <c r="O103" s="195"/>
-      <c r="P103" s="195"/>
-      <c r="Q103" s="195"/>
-      <c r="R103" s="195"/>
-      <c r="S103" s="195">
-        <v>43895</v>
-      </c>
-      <c r="T103" s="195"/>
-      <c r="U103" s="195"/>
-      <c r="V103" s="195"/>
-      <c r="W103" s="195"/>
-      <c r="X103" s="195"/>
-      <c r="Y103" s="195">
-        <v>43896</v>
-      </c>
-      <c r="Z103" s="195"/>
-      <c r="AA103" s="195"/>
-      <c r="AB103" s="195"/>
-      <c r="AC103" s="195"/>
-      <c r="AD103" s="195"/>
-      <c r="AE103" s="195">
-        <v>43897</v>
-      </c>
-      <c r="AF103" s="195"/>
-      <c r="AG103" s="195"/>
-      <c r="AH103" s="195"/>
-      <c r="AI103" s="195"/>
-      <c r="AJ103" s="195"/>
-      <c r="AK103" s="195">
-        <v>43898</v>
-      </c>
-      <c r="AL103" s="195"/>
-      <c r="AM103" s="195"/>
-      <c r="AN103" s="195"/>
-      <c r="AO103" s="195"/>
-      <c r="AP103" s="195"/>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B103" s="146"/>
+      <c r="C103" s="147"/>
+      <c r="D103" s="147"/>
+      <c r="E103" s="147"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="149"/>
+      <c r="H103" s="146"/>
+      <c r="I103" s="147"/>
+      <c r="J103" s="147"/>
+      <c r="K103" s="147"/>
+      <c r="L103" s="148"/>
+      <c r="M103" s="149"/>
+      <c r="N103" s="146"/>
+      <c r="O103" s="147"/>
+      <c r="P103" s="147"/>
+      <c r="Q103" s="147"/>
+      <c r="R103" s="148"/>
+      <c r="S103" s="149"/>
+      <c r="T103" s="146"/>
+      <c r="U103" s="147"/>
+      <c r="V103" s="147"/>
+      <c r="W103" s="147"/>
+      <c r="X103" s="148"/>
+      <c r="Y103" s="149"/>
+      <c r="Z103" s="146"/>
+      <c r="AA103" s="147"/>
+      <c r="AB103" s="147"/>
+      <c r="AC103" s="147"/>
+      <c r="AD103" s="148"/>
+      <c r="AE103" s="159"/>
+      <c r="AF103" s="163"/>
+      <c r="AG103" s="157"/>
+      <c r="AH103" s="157"/>
+      <c r="AI103" s="158"/>
+      <c r="AJ103" s="158"/>
+      <c r="AK103" s="158"/>
+      <c r="AL103" s="163"/>
+      <c r="AM103" s="157"/>
+      <c r="AN103" s="157"/>
+      <c r="AO103" s="158"/>
+      <c r="AP103" s="158"/>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A104" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="B104" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D104" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="G104" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H104" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="I104" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="J104" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="K104" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="L104" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="M104" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="N104" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="O104" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="P104" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q104" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="R104" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="S104" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="T104" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="U104" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="V104" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="W104" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="X104" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y104" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z104" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA104" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB104" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC104" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD104" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE104" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF104" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG104" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH104" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI104" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ104" s="161" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK104" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL104" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM104" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN104" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO104" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP104" s="161" t="s">
-        <v>73</v>
-      </c>
+      <c r="B104" s="146"/>
+      <c r="C104" s="147"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="147"/>
+      <c r="F104" s="148"/>
+      <c r="G104" s="149"/>
+      <c r="H104" s="146"/>
+      <c r="I104" s="147"/>
+      <c r="J104" s="147"/>
+      <c r="K104" s="147"/>
+      <c r="L104" s="148"/>
+      <c r="M104" s="149"/>
+      <c r="N104" s="146"/>
+      <c r="O104" s="147"/>
+      <c r="P104" s="147"/>
+      <c r="Q104" s="147"/>
+      <c r="R104" s="148"/>
+      <c r="S104" s="149"/>
+      <c r="T104" s="150"/>
+      <c r="U104" s="147"/>
+      <c r="V104" s="147"/>
+      <c r="W104" s="147"/>
+      <c r="X104" s="148"/>
+      <c r="Y104" s="149"/>
+      <c r="Z104" s="146"/>
+      <c r="AA104" s="147"/>
+      <c r="AB104" s="147"/>
+      <c r="AC104" s="147"/>
+      <c r="AD104" s="148"/>
+      <c r="AE104" s="159"/>
+      <c r="AF104" s="163"/>
+      <c r="AG104" s="157"/>
+      <c r="AH104" s="157"/>
+      <c r="AI104" s="158"/>
+      <c r="AJ104" s="158"/>
+      <c r="AK104" s="158"/>
+      <c r="AL104" s="163"/>
+      <c r="AM104" s="157"/>
+      <c r="AN104" s="157"/>
+      <c r="AO104" s="158"/>
+      <c r="AP104" s="158"/>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B105" s="146"/>
@@ -9109,35 +9102,35 @@
       <c r="AP105" s="158"/>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B106" s="146"/>
-      <c r="C106" s="147"/>
-      <c r="D106" s="147"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="148"/>
+      <c r="B106" s="151"/>
+      <c r="C106" s="152"/>
+      <c r="D106" s="152"/>
+      <c r="E106" s="152"/>
+      <c r="F106" s="153"/>
       <c r="G106" s="149"/>
-      <c r="H106" s="146"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="147"/>
-      <c r="K106" s="147"/>
-      <c r="L106" s="148"/>
+      <c r="H106" s="151"/>
+      <c r="I106" s="152"/>
+      <c r="J106" s="152"/>
+      <c r="K106" s="152"/>
+      <c r="L106" s="153"/>
       <c r="M106" s="149"/>
-      <c r="N106" s="146"/>
-      <c r="O106" s="147"/>
-      <c r="P106" s="147"/>
-      <c r="Q106" s="147"/>
-      <c r="R106" s="148"/>
+      <c r="N106" s="151"/>
+      <c r="O106" s="152"/>
+      <c r="P106" s="152"/>
+      <c r="Q106" s="152"/>
+      <c r="R106" s="153"/>
       <c r="S106" s="149"/>
-      <c r="T106" s="146"/>
-      <c r="U106" s="147"/>
-      <c r="V106" s="147"/>
-      <c r="W106" s="147"/>
-      <c r="X106" s="148"/>
+      <c r="T106" s="151"/>
+      <c r="U106" s="152"/>
+      <c r="V106" s="152"/>
+      <c r="W106" s="152"/>
+      <c r="X106" s="153"/>
       <c r="Y106" s="149"/>
-      <c r="Z106" s="146"/>
-      <c r="AA106" s="147"/>
-      <c r="AB106" s="147"/>
-      <c r="AC106" s="147"/>
-      <c r="AD106" s="148"/>
+      <c r="Z106" s="151"/>
+      <c r="AA106" s="152"/>
+      <c r="AB106" s="152"/>
+      <c r="AC106" s="152"/>
+      <c r="AD106" s="153"/>
       <c r="AE106" s="159"/>
       <c r="AF106" s="163"/>
       <c r="AG106" s="157"/>
@@ -9152,35 +9145,35 @@
       <c r="AP106" s="158"/>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B107" s="146"/>
-      <c r="C107" s="147"/>
-      <c r="D107" s="147"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="148"/>
+      <c r="B107" s="151"/>
+      <c r="C107" s="152"/>
+      <c r="D107" s="152"/>
+      <c r="E107" s="152"/>
+      <c r="F107" s="153"/>
       <c r="G107" s="149"/>
-      <c r="H107" s="146"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="147"/>
-      <c r="K107" s="147"/>
-      <c r="L107" s="148"/>
+      <c r="H107" s="151"/>
+      <c r="I107" s="152"/>
+      <c r="J107" s="152"/>
+      <c r="K107" s="152"/>
+      <c r="L107" s="153"/>
       <c r="M107" s="149"/>
-      <c r="N107" s="146"/>
-      <c r="O107" s="147"/>
-      <c r="P107" s="147"/>
-      <c r="Q107" s="147"/>
-      <c r="R107" s="148"/>
+      <c r="N107" s="151"/>
+      <c r="O107" s="152"/>
+      <c r="P107" s="152"/>
+      <c r="Q107" s="152"/>
+      <c r="R107" s="153"/>
       <c r="S107" s="149"/>
-      <c r="T107" s="146"/>
-      <c r="U107" s="147"/>
-      <c r="V107" s="147"/>
-      <c r="W107" s="147"/>
-      <c r="X107" s="148"/>
+      <c r="T107" s="151"/>
+      <c r="U107" s="152"/>
+      <c r="V107" s="152"/>
+      <c r="W107" s="152"/>
+      <c r="X107" s="153"/>
       <c r="Y107" s="149"/>
-      <c r="Z107" s="146"/>
-      <c r="AA107" s="147"/>
-      <c r="AB107" s="147"/>
-      <c r="AC107" s="147"/>
-      <c r="AD107" s="148"/>
+      <c r="Z107" s="151"/>
+      <c r="AA107" s="152"/>
+      <c r="AB107" s="152"/>
+      <c r="AC107" s="152"/>
+      <c r="AD107" s="153"/>
       <c r="AE107" s="159"/>
       <c r="AF107" s="163"/>
       <c r="AG107" s="157"/>
@@ -9195,35 +9188,35 @@
       <c r="AP107" s="158"/>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B108" s="146"/>
-      <c r="C108" s="147"/>
-      <c r="D108" s="147"/>
-      <c r="E108" s="147"/>
-      <c r="F108" s="148"/>
+      <c r="B108" s="151"/>
+      <c r="C108" s="152"/>
+      <c r="D108" s="152"/>
+      <c r="E108" s="152"/>
+      <c r="F108" s="153"/>
       <c r="G108" s="149"/>
-      <c r="H108" s="146"/>
-      <c r="I108" s="147"/>
-      <c r="J108" s="147"/>
-      <c r="K108" s="147"/>
-      <c r="L108" s="148"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="152"/>
+      <c r="J108" s="152"/>
+      <c r="K108" s="152"/>
+      <c r="L108" s="153"/>
       <c r="M108" s="149"/>
-      <c r="N108" s="146"/>
-      <c r="O108" s="147"/>
-      <c r="P108" s="147"/>
-      <c r="Q108" s="147"/>
-      <c r="R108" s="148"/>
+      <c r="N108" s="151"/>
+      <c r="O108" s="152"/>
+      <c r="P108" s="152"/>
+      <c r="Q108" s="152"/>
+      <c r="R108" s="153"/>
       <c r="S108" s="149"/>
-      <c r="T108" s="150"/>
-      <c r="U108" s="147"/>
-      <c r="V108" s="147"/>
-      <c r="W108" s="147"/>
-      <c r="X108" s="148"/>
+      <c r="T108" s="151"/>
+      <c r="U108" s="152"/>
+      <c r="V108" s="152"/>
+      <c r="W108" s="152"/>
+      <c r="X108" s="153"/>
       <c r="Y108" s="149"/>
-      <c r="Z108" s="146"/>
-      <c r="AA108" s="147"/>
-      <c r="AB108" s="147"/>
-      <c r="AC108" s="147"/>
-      <c r="AD108" s="148"/>
+      <c r="Z108" s="151"/>
+      <c r="AA108" s="152"/>
+      <c r="AB108" s="152"/>
+      <c r="AC108" s="152"/>
+      <c r="AD108" s="153"/>
       <c r="AE108" s="159"/>
       <c r="AF108" s="163"/>
       <c r="AG108" s="157"/>
@@ -9237,122 +9230,222 @@
       <c r="AO108" s="158"/>
       <c r="AP108" s="158"/>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B109" s="146"/>
-      <c r="C109" s="147"/>
-      <c r="D109" s="147"/>
-      <c r="E109" s="147"/>
-      <c r="F109" s="148"/>
-      <c r="G109" s="149"/>
-      <c r="H109" s="146"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="147"/>
-      <c r="K109" s="147"/>
-      <c r="L109" s="148"/>
-      <c r="M109" s="149"/>
-      <c r="N109" s="146"/>
-      <c r="O109" s="147"/>
-      <c r="P109" s="147"/>
-      <c r="Q109" s="147"/>
-      <c r="R109" s="148"/>
-      <c r="S109" s="149"/>
-      <c r="T109" s="146"/>
-      <c r="U109" s="147"/>
-      <c r="V109" s="147"/>
-      <c r="W109" s="147"/>
-      <c r="X109" s="148"/>
-      <c r="Y109" s="149"/>
-      <c r="Z109" s="146"/>
-      <c r="AA109" s="147"/>
-      <c r="AB109" s="147"/>
-      <c r="AC109" s="147"/>
-      <c r="AD109" s="148"/>
-      <c r="AE109" s="159"/>
-      <c r="AF109" s="163"/>
-      <c r="AG109" s="157"/>
-      <c r="AH109" s="157"/>
-      <c r="AI109" s="158"/>
-      <c r="AJ109" s="158"/>
-      <c r="AK109" s="158"/>
-      <c r="AL109" s="163"/>
-      <c r="AM109" s="157"/>
-      <c r="AN109" s="157"/>
-      <c r="AO109" s="158"/>
-      <c r="AP109" s="158"/>
+    <row r="109" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="196">
+        <v>43892</v>
+      </c>
+      <c r="B109" s="196"/>
+      <c r="C109" s="196"/>
+      <c r="D109" s="196"/>
+      <c r="E109" s="196"/>
+      <c r="F109" s="196"/>
+      <c r="G109" s="196">
+        <v>43893</v>
+      </c>
+      <c r="H109" s="196"/>
+      <c r="I109" s="196"/>
+      <c r="J109" s="196"/>
+      <c r="K109" s="196"/>
+      <c r="L109" s="196"/>
+      <c r="M109" s="196">
+        <v>43894</v>
+      </c>
+      <c r="N109" s="196"/>
+      <c r="O109" s="196"/>
+      <c r="P109" s="196"/>
+      <c r="Q109" s="196"/>
+      <c r="R109" s="196"/>
+      <c r="S109" s="196">
+        <v>43895</v>
+      </c>
+      <c r="T109" s="196"/>
+      <c r="U109" s="196"/>
+      <c r="V109" s="196"/>
+      <c r="W109" s="196"/>
+      <c r="X109" s="196"/>
+      <c r="Y109" s="196">
+        <v>43896</v>
+      </c>
+      <c r="Z109" s="196"/>
+      <c r="AA109" s="196"/>
+      <c r="AB109" s="196"/>
+      <c r="AC109" s="196"/>
+      <c r="AD109" s="196"/>
+      <c r="AE109" s="196">
+        <v>43897</v>
+      </c>
+      <c r="AF109" s="196"/>
+      <c r="AG109" s="196"/>
+      <c r="AH109" s="196"/>
+      <c r="AI109" s="196"/>
+      <c r="AJ109" s="196"/>
+      <c r="AK109" s="196">
+        <v>43898</v>
+      </c>
+      <c r="AL109" s="196"/>
+      <c r="AM109" s="196"/>
+      <c r="AN109" s="196"/>
+      <c r="AO109" s="196"/>
+      <c r="AP109" s="196"/>
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B110" s="151"/>
-      <c r="C110" s="152"/>
-      <c r="D110" s="152"/>
-      <c r="E110" s="152"/>
-      <c r="F110" s="153"/>
-      <c r="G110" s="149"/>
-      <c r="H110" s="151"/>
-      <c r="I110" s="152"/>
-      <c r="J110" s="152"/>
-      <c r="K110" s="152"/>
-      <c r="L110" s="153"/>
-      <c r="M110" s="149"/>
-      <c r="N110" s="151"/>
-      <c r="O110" s="152"/>
-      <c r="P110" s="152"/>
-      <c r="Q110" s="152"/>
-      <c r="R110" s="153"/>
-      <c r="S110" s="149"/>
-      <c r="T110" s="151"/>
-      <c r="U110" s="152"/>
-      <c r="V110" s="152"/>
-      <c r="W110" s="152"/>
-      <c r="X110" s="153"/>
-      <c r="Y110" s="149"/>
-      <c r="Z110" s="151"/>
-      <c r="AA110" s="152"/>
-      <c r="AB110" s="152"/>
-      <c r="AC110" s="152"/>
-      <c r="AD110" s="153"/>
-      <c r="AE110" s="159"/>
-      <c r="AF110" s="163"/>
-      <c r="AG110" s="157"/>
-      <c r="AH110" s="157"/>
-      <c r="AI110" s="158"/>
-      <c r="AJ110" s="158"/>
-      <c r="AK110" s="158"/>
-      <c r="AL110" s="163"/>
-      <c r="AM110" s="157"/>
-      <c r="AN110" s="157"/>
-      <c r="AO110" s="158"/>
-      <c r="AP110" s="158"/>
+      <c r="A110" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H110" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="J110" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="K110" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="L110" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="M110" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="N110" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="O110" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="P110" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q110" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="R110" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="S110" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="T110" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="U110" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="V110" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="W110" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="X110" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y110" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z110" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA110" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB110" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC110" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD110" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE110" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF110" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG110" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH110" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI110" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ110" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK110" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL110" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM110" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN110" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO110" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP110" s="161" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B111" s="151"/>
-      <c r="C111" s="152"/>
-      <c r="D111" s="152"/>
-      <c r="E111" s="152"/>
-      <c r="F111" s="153"/>
+      <c r="B111" s="146"/>
+      <c r="C111" s="147"/>
+      <c r="D111" s="147"/>
+      <c r="E111" s="147"/>
+      <c r="F111" s="148"/>
       <c r="G111" s="149"/>
-      <c r="H111" s="151"/>
-      <c r="I111" s="152"/>
-      <c r="J111" s="152"/>
-      <c r="K111" s="152"/>
-      <c r="L111" s="153"/>
+      <c r="H111" s="146"/>
+      <c r="I111" s="147"/>
+      <c r="J111" s="147"/>
+      <c r="K111" s="147"/>
+      <c r="L111" s="148"/>
       <c r="M111" s="149"/>
-      <c r="N111" s="151"/>
-      <c r="O111" s="152"/>
-      <c r="P111" s="152"/>
-      <c r="Q111" s="152"/>
-      <c r="R111" s="153"/>
+      <c r="N111" s="146"/>
+      <c r="O111" s="147"/>
+      <c r="P111" s="147"/>
+      <c r="Q111" s="147"/>
+      <c r="R111" s="148"/>
       <c r="S111" s="149"/>
-      <c r="T111" s="151"/>
-      <c r="U111" s="152"/>
-      <c r="V111" s="152"/>
-      <c r="W111" s="152"/>
-      <c r="X111" s="153"/>
+      <c r="T111" s="146"/>
+      <c r="U111" s="147"/>
+      <c r="V111" s="147"/>
+      <c r="W111" s="147"/>
+      <c r="X111" s="148"/>
       <c r="Y111" s="149"/>
-      <c r="Z111" s="151"/>
-      <c r="AA111" s="152"/>
-      <c r="AB111" s="152"/>
-      <c r="AC111" s="152"/>
-      <c r="AD111" s="153"/>
+      <c r="Z111" s="146"/>
+      <c r="AA111" s="147"/>
+      <c r="AB111" s="147"/>
+      <c r="AC111" s="147"/>
+      <c r="AD111" s="148"/>
       <c r="AE111" s="159"/>
       <c r="AF111" s="163"/>
       <c r="AG111" s="157"/>
@@ -9367,35 +9460,35 @@
       <c r="AP111" s="158"/>
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B112" s="151"/>
-      <c r="C112" s="152"/>
-      <c r="D112" s="152"/>
-      <c r="E112" s="152"/>
-      <c r="F112" s="153"/>
+      <c r="B112" s="146"/>
+      <c r="C112" s="147"/>
+      <c r="D112" s="147"/>
+      <c r="E112" s="147"/>
+      <c r="F112" s="148"/>
       <c r="G112" s="149"/>
-      <c r="H112" s="151"/>
-      <c r="I112" s="152"/>
-      <c r="J112" s="152"/>
-      <c r="K112" s="152"/>
-      <c r="L112" s="153"/>
+      <c r="H112" s="146"/>
+      <c r="I112" s="147"/>
+      <c r="J112" s="147"/>
+      <c r="K112" s="147"/>
+      <c r="L112" s="148"/>
       <c r="M112" s="149"/>
-      <c r="N112" s="151"/>
-      <c r="O112" s="152"/>
-      <c r="P112" s="152"/>
-      <c r="Q112" s="152"/>
-      <c r="R112" s="153"/>
+      <c r="N112" s="146"/>
+      <c r="O112" s="147"/>
+      <c r="P112" s="147"/>
+      <c r="Q112" s="147"/>
+      <c r="R112" s="148"/>
       <c r="S112" s="149"/>
-      <c r="T112" s="151"/>
-      <c r="U112" s="152"/>
-      <c r="V112" s="152"/>
-      <c r="W112" s="152"/>
-      <c r="X112" s="153"/>
+      <c r="T112" s="146"/>
+      <c r="U112" s="147"/>
+      <c r="V112" s="147"/>
+      <c r="W112" s="147"/>
+      <c r="X112" s="148"/>
       <c r="Y112" s="149"/>
-      <c r="Z112" s="151"/>
-      <c r="AA112" s="152"/>
-      <c r="AB112" s="152"/>
-      <c r="AC112" s="152"/>
-      <c r="AD112" s="153"/>
+      <c r="Z112" s="146"/>
+      <c r="AA112" s="147"/>
+      <c r="AB112" s="147"/>
+      <c r="AC112" s="147"/>
+      <c r="AD112" s="148"/>
       <c r="AE112" s="159"/>
       <c r="AF112" s="163"/>
       <c r="AG112" s="157"/>
@@ -9409,191 +9502,91 @@
       <c r="AO112" s="158"/>
       <c r="AP112" s="158"/>
     </row>
-    <row r="113" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="195">
-        <v>43899</v>
-      </c>
-      <c r="B113" s="195"/>
-      <c r="C113" s="195"/>
-      <c r="D113" s="195"/>
-      <c r="E113" s="195"/>
-      <c r="F113" s="195"/>
-      <c r="G113" s="195">
-        <v>43900</v>
-      </c>
-      <c r="H113" s="195"/>
-      <c r="I113" s="195"/>
-      <c r="J113" s="195"/>
-      <c r="K113" s="195"/>
-      <c r="L113" s="195"/>
-      <c r="M113" s="195">
-        <v>43901</v>
-      </c>
-      <c r="N113" s="195"/>
-      <c r="O113" s="195"/>
-      <c r="P113" s="195"/>
-      <c r="Q113" s="195"/>
-      <c r="R113" s="195"/>
-      <c r="S113" s="195">
-        <v>43902</v>
-      </c>
-      <c r="T113" s="195"/>
-      <c r="U113" s="195"/>
-      <c r="V113" s="195"/>
-      <c r="W113" s="195"/>
-      <c r="X113" s="195"/>
-      <c r="Y113" s="195">
-        <v>43903</v>
-      </c>
-      <c r="Z113" s="195"/>
-      <c r="AA113" s="195"/>
-      <c r="AB113" s="195"/>
-      <c r="AC113" s="195"/>
-      <c r="AD113" s="195"/>
-      <c r="AE113" s="195">
-        <v>43904</v>
-      </c>
-      <c r="AF113" s="195"/>
-      <c r="AG113" s="195"/>
-      <c r="AH113" s="195"/>
-      <c r="AI113" s="195"/>
-      <c r="AJ113" s="195"/>
-      <c r="AK113" s="195">
-        <v>43905</v>
-      </c>
-      <c r="AL113" s="195"/>
-      <c r="AM113" s="195"/>
-      <c r="AN113" s="195"/>
-      <c r="AO113" s="195"/>
-      <c r="AP113" s="195"/>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B113" s="146"/>
+      <c r="C113" s="147"/>
+      <c r="D113" s="147"/>
+      <c r="E113" s="147"/>
+      <c r="F113" s="148"/>
+      <c r="G113" s="149"/>
+      <c r="H113" s="146"/>
+      <c r="I113" s="147"/>
+      <c r="J113" s="147"/>
+      <c r="K113" s="147"/>
+      <c r="L113" s="148"/>
+      <c r="M113" s="149"/>
+      <c r="N113" s="146"/>
+      <c r="O113" s="147"/>
+      <c r="P113" s="147"/>
+      <c r="Q113" s="147"/>
+      <c r="R113" s="148"/>
+      <c r="S113" s="149"/>
+      <c r="T113" s="146"/>
+      <c r="U113" s="147"/>
+      <c r="V113" s="147"/>
+      <c r="W113" s="147"/>
+      <c r="X113" s="148"/>
+      <c r="Y113" s="149"/>
+      <c r="Z113" s="146"/>
+      <c r="AA113" s="147"/>
+      <c r="AB113" s="147"/>
+      <c r="AC113" s="147"/>
+      <c r="AD113" s="148"/>
+      <c r="AE113" s="159"/>
+      <c r="AF113" s="163"/>
+      <c r="AG113" s="157"/>
+      <c r="AH113" s="157"/>
+      <c r="AI113" s="158"/>
+      <c r="AJ113" s="158"/>
+      <c r="AK113" s="158"/>
+      <c r="AL113" s="163"/>
+      <c r="AM113" s="157"/>
+      <c r="AN113" s="157"/>
+      <c r="AO113" s="158"/>
+      <c r="AP113" s="158"/>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A114" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="F114" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="G114" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H114" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="I114" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="J114" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="K114" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="L114" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="M114" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="N114" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="O114" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="P114" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q114" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="R114" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="S114" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="T114" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="U114" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="V114" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="W114" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="X114" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y114" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z114" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA114" s="143" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB114" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC114" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD114" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE114" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF114" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG114" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH114" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI114" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ114" s="161" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK114" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL114" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM114" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN114" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO114" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP114" s="161" t="s">
-        <v>73</v>
-      </c>
+      <c r="B114" s="146"/>
+      <c r="C114" s="147"/>
+      <c r="D114" s="147"/>
+      <c r="E114" s="147"/>
+      <c r="F114" s="148"/>
+      <c r="G114" s="149"/>
+      <c r="H114" s="146"/>
+      <c r="I114" s="147"/>
+      <c r="J114" s="147"/>
+      <c r="K114" s="147"/>
+      <c r="L114" s="148"/>
+      <c r="M114" s="149"/>
+      <c r="N114" s="146"/>
+      <c r="O114" s="147"/>
+      <c r="P114" s="147"/>
+      <c r="Q114" s="147"/>
+      <c r="R114" s="148"/>
+      <c r="S114" s="149"/>
+      <c r="T114" s="150"/>
+      <c r="U114" s="147"/>
+      <c r="V114" s="147"/>
+      <c r="W114" s="147"/>
+      <c r="X114" s="148"/>
+      <c r="Y114" s="149"/>
+      <c r="Z114" s="146"/>
+      <c r="AA114" s="147"/>
+      <c r="AB114" s="147"/>
+      <c r="AC114" s="147"/>
+      <c r="AD114" s="148"/>
+      <c r="AE114" s="159"/>
+      <c r="AF114" s="163"/>
+      <c r="AG114" s="157"/>
+      <c r="AH114" s="157"/>
+      <c r="AI114" s="158"/>
+      <c r="AJ114" s="158"/>
+      <c r="AK114" s="158"/>
+      <c r="AL114" s="163"/>
+      <c r="AM114" s="157"/>
+      <c r="AN114" s="157"/>
+      <c r="AO114" s="158"/>
+      <c r="AP114" s="158"/>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B115" s="146"/>
@@ -9639,35 +9632,35 @@
       <c r="AP115" s="158"/>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B116" s="146"/>
-      <c r="C116" s="147"/>
-      <c r="D116" s="147"/>
-      <c r="E116" s="147"/>
-      <c r="F116" s="148"/>
+      <c r="B116" s="151"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="153"/>
       <c r="G116" s="149"/>
-      <c r="H116" s="146"/>
-      <c r="I116" s="147"/>
-      <c r="J116" s="147"/>
-      <c r="K116" s="147"/>
-      <c r="L116" s="148"/>
+      <c r="H116" s="151"/>
+      <c r="I116" s="152"/>
+      <c r="J116" s="152"/>
+      <c r="K116" s="152"/>
+      <c r="L116" s="153"/>
       <c r="M116" s="149"/>
-      <c r="N116" s="146"/>
-      <c r="O116" s="147"/>
-      <c r="P116" s="147"/>
-      <c r="Q116" s="147"/>
-      <c r="R116" s="148"/>
+      <c r="N116" s="151"/>
+      <c r="O116" s="152"/>
+      <c r="P116" s="152"/>
+      <c r="Q116" s="152"/>
+      <c r="R116" s="153"/>
       <c r="S116" s="149"/>
-      <c r="T116" s="146"/>
-      <c r="U116" s="147"/>
-      <c r="V116" s="147"/>
-      <c r="W116" s="147"/>
-      <c r="X116" s="148"/>
+      <c r="T116" s="151"/>
+      <c r="U116" s="152"/>
+      <c r="V116" s="152"/>
+      <c r="W116" s="152"/>
+      <c r="X116" s="153"/>
       <c r="Y116" s="149"/>
-      <c r="Z116" s="146"/>
-      <c r="AA116" s="147"/>
-      <c r="AB116" s="147"/>
-      <c r="AC116" s="147"/>
-      <c r="AD116" s="148"/>
+      <c r="Z116" s="151"/>
+      <c r="AA116" s="152"/>
+      <c r="AB116" s="152"/>
+      <c r="AC116" s="152"/>
+      <c r="AD116" s="153"/>
       <c r="AE116" s="159"/>
       <c r="AF116" s="163"/>
       <c r="AG116" s="157"/>
@@ -9682,35 +9675,35 @@
       <c r="AP116" s="158"/>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B117" s="146"/>
-      <c r="C117" s="147"/>
-      <c r="D117" s="147"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="148"/>
+      <c r="B117" s="151"/>
+      <c r="C117" s="152"/>
+      <c r="D117" s="152"/>
+      <c r="E117" s="152"/>
+      <c r="F117" s="153"/>
       <c r="G117" s="149"/>
-      <c r="H117" s="146"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="147"/>
-      <c r="K117" s="147"/>
-      <c r="L117" s="148"/>
+      <c r="H117" s="151"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="152"/>
+      <c r="K117" s="152"/>
+      <c r="L117" s="153"/>
       <c r="M117" s="149"/>
-      <c r="N117" s="146"/>
-      <c r="O117" s="147"/>
-      <c r="P117" s="147"/>
-      <c r="Q117" s="147"/>
-      <c r="R117" s="148"/>
+      <c r="N117" s="151"/>
+      <c r="O117" s="152"/>
+      <c r="P117" s="152"/>
+      <c r="Q117" s="152"/>
+      <c r="R117" s="153"/>
       <c r="S117" s="149"/>
-      <c r="T117" s="146"/>
-      <c r="U117" s="147"/>
-      <c r="V117" s="147"/>
-      <c r="W117" s="147"/>
-      <c r="X117" s="148"/>
+      <c r="T117" s="151"/>
+      <c r="U117" s="152"/>
+      <c r="V117" s="152"/>
+      <c r="W117" s="152"/>
+      <c r="X117" s="153"/>
       <c r="Y117" s="149"/>
-      <c r="Z117" s="146"/>
-      <c r="AA117" s="147"/>
-      <c r="AB117" s="147"/>
-      <c r="AC117" s="147"/>
-      <c r="AD117" s="148"/>
+      <c r="Z117" s="151"/>
+      <c r="AA117" s="152"/>
+      <c r="AB117" s="152"/>
+      <c r="AC117" s="152"/>
+      <c r="AD117" s="153"/>
       <c r="AE117" s="159"/>
       <c r="AF117" s="163"/>
       <c r="AG117" s="157"/>
@@ -9725,35 +9718,35 @@
       <c r="AP117" s="158"/>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B118" s="146"/>
-      <c r="C118" s="147"/>
-      <c r="D118" s="147"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="148"/>
+      <c r="B118" s="151"/>
+      <c r="C118" s="152"/>
+      <c r="D118" s="152"/>
+      <c r="E118" s="152"/>
+      <c r="F118" s="153"/>
       <c r="G118" s="149"/>
-      <c r="H118" s="146"/>
-      <c r="I118" s="147"/>
-      <c r="J118" s="147"/>
-      <c r="K118" s="147"/>
-      <c r="L118" s="148"/>
+      <c r="H118" s="151"/>
+      <c r="I118" s="152"/>
+      <c r="J118" s="152"/>
+      <c r="K118" s="152"/>
+      <c r="L118" s="153"/>
       <c r="M118" s="149"/>
-      <c r="N118" s="146"/>
-      <c r="O118" s="147"/>
-      <c r="P118" s="147"/>
-      <c r="Q118" s="147"/>
-      <c r="R118" s="148"/>
+      <c r="N118" s="151"/>
+      <c r="O118" s="152"/>
+      <c r="P118" s="152"/>
+      <c r="Q118" s="152"/>
+      <c r="R118" s="153"/>
       <c r="S118" s="149"/>
-      <c r="T118" s="150"/>
-      <c r="U118" s="147"/>
-      <c r="V118" s="147"/>
-      <c r="W118" s="147"/>
-      <c r="X118" s="148"/>
+      <c r="T118" s="151"/>
+      <c r="U118" s="152"/>
+      <c r="V118" s="152"/>
+      <c r="W118" s="152"/>
+      <c r="X118" s="153"/>
       <c r="Y118" s="149"/>
-      <c r="Z118" s="146"/>
-      <c r="AA118" s="147"/>
-      <c r="AB118" s="147"/>
-      <c r="AC118" s="147"/>
-      <c r="AD118" s="148"/>
+      <c r="Z118" s="151"/>
+      <c r="AA118" s="152"/>
+      <c r="AB118" s="152"/>
+      <c r="AC118" s="152"/>
+      <c r="AD118" s="153"/>
       <c r="AE118" s="159"/>
       <c r="AF118" s="163"/>
       <c r="AG118" s="157"/>
@@ -9767,122 +9760,222 @@
       <c r="AO118" s="158"/>
       <c r="AP118" s="158"/>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B119" s="146"/>
-      <c r="C119" s="147"/>
-      <c r="D119" s="147"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="148"/>
-      <c r="G119" s="149"/>
-      <c r="H119" s="146"/>
-      <c r="I119" s="147"/>
-      <c r="J119" s="147"/>
-      <c r="K119" s="147"/>
-      <c r="L119" s="148"/>
-      <c r="M119" s="149"/>
-      <c r="N119" s="146"/>
-      <c r="O119" s="147"/>
-      <c r="P119" s="147"/>
-      <c r="Q119" s="147"/>
-      <c r="R119" s="148"/>
-      <c r="S119" s="149"/>
-      <c r="T119" s="146"/>
-      <c r="U119" s="147"/>
-      <c r="V119" s="147"/>
-      <c r="W119" s="147"/>
-      <c r="X119" s="148"/>
-      <c r="Y119" s="149"/>
-      <c r="Z119" s="146"/>
-      <c r="AA119" s="147"/>
-      <c r="AB119" s="147"/>
-      <c r="AC119" s="147"/>
-      <c r="AD119" s="148"/>
-      <c r="AE119" s="159"/>
-      <c r="AF119" s="163"/>
-      <c r="AG119" s="157"/>
-      <c r="AH119" s="157"/>
-      <c r="AI119" s="158"/>
-      <c r="AJ119" s="158"/>
-      <c r="AK119" s="158"/>
-      <c r="AL119" s="163"/>
-      <c r="AM119" s="157"/>
-      <c r="AN119" s="157"/>
-      <c r="AO119" s="158"/>
-      <c r="AP119" s="158"/>
+    <row r="119" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="196">
+        <v>43899</v>
+      </c>
+      <c r="B119" s="196"/>
+      <c r="C119" s="196"/>
+      <c r="D119" s="196"/>
+      <c r="E119" s="196"/>
+      <c r="F119" s="196"/>
+      <c r="G119" s="196">
+        <v>43900</v>
+      </c>
+      <c r="H119" s="196"/>
+      <c r="I119" s="196"/>
+      <c r="J119" s="196"/>
+      <c r="K119" s="196"/>
+      <c r="L119" s="196"/>
+      <c r="M119" s="196">
+        <v>43901</v>
+      </c>
+      <c r="N119" s="196"/>
+      <c r="O119" s="196"/>
+      <c r="P119" s="196"/>
+      <c r="Q119" s="196"/>
+      <c r="R119" s="196"/>
+      <c r="S119" s="196">
+        <v>43902</v>
+      </c>
+      <c r="T119" s="196"/>
+      <c r="U119" s="196"/>
+      <c r="V119" s="196"/>
+      <c r="W119" s="196"/>
+      <c r="X119" s="196"/>
+      <c r="Y119" s="196">
+        <v>43903</v>
+      </c>
+      <c r="Z119" s="196"/>
+      <c r="AA119" s="196"/>
+      <c r="AB119" s="196"/>
+      <c r="AC119" s="196"/>
+      <c r="AD119" s="196"/>
+      <c r="AE119" s="196">
+        <v>43904</v>
+      </c>
+      <c r="AF119" s="196"/>
+      <c r="AG119" s="196"/>
+      <c r="AH119" s="196"/>
+      <c r="AI119" s="196"/>
+      <c r="AJ119" s="196"/>
+      <c r="AK119" s="196">
+        <v>43905</v>
+      </c>
+      <c r="AL119" s="196"/>
+      <c r="AM119" s="196"/>
+      <c r="AN119" s="196"/>
+      <c r="AO119" s="196"/>
+      <c r="AP119" s="196"/>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B120" s="151"/>
-      <c r="C120" s="152"/>
-      <c r="D120" s="152"/>
-      <c r="E120" s="152"/>
-      <c r="F120" s="153"/>
-      <c r="G120" s="149"/>
-      <c r="H120" s="151"/>
-      <c r="I120" s="152"/>
-      <c r="J120" s="152"/>
-      <c r="K120" s="152"/>
-      <c r="L120" s="153"/>
-      <c r="M120" s="149"/>
-      <c r="N120" s="151"/>
-      <c r="O120" s="152"/>
-      <c r="P120" s="152"/>
-      <c r="Q120" s="152"/>
-      <c r="R120" s="153"/>
-      <c r="S120" s="149"/>
-      <c r="T120" s="151"/>
-      <c r="U120" s="152"/>
-      <c r="V120" s="152"/>
-      <c r="W120" s="152"/>
-      <c r="X120" s="153"/>
-      <c r="Y120" s="149"/>
-      <c r="Z120" s="151"/>
-      <c r="AA120" s="152"/>
-      <c r="AB120" s="152"/>
-      <c r="AC120" s="152"/>
-      <c r="AD120" s="153"/>
-      <c r="AE120" s="159"/>
-      <c r="AF120" s="163"/>
-      <c r="AG120" s="157"/>
-      <c r="AH120" s="157"/>
-      <c r="AI120" s="158"/>
-      <c r="AJ120" s="158"/>
-      <c r="AK120" s="158"/>
-      <c r="AL120" s="163"/>
-      <c r="AM120" s="157"/>
-      <c r="AN120" s="157"/>
-      <c r="AO120" s="158"/>
-      <c r="AP120" s="158"/>
+      <c r="A120" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="G120" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="J120" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="K120" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="L120" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="M120" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="N120" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="O120" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="P120" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q120" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="R120" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="S120" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="T120" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="U120" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="V120" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="W120" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="X120" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y120" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z120" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA120" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB120" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC120" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD120" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE120" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF120" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG120" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH120" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI120" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ120" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK120" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL120" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM120" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN120" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO120" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP120" s="161" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B121" s="151"/>
-      <c r="C121" s="152"/>
-      <c r="D121" s="152"/>
-      <c r="E121" s="152"/>
-      <c r="F121" s="153"/>
+      <c r="B121" s="146"/>
+      <c r="C121" s="147"/>
+      <c r="D121" s="147"/>
+      <c r="E121" s="147"/>
+      <c r="F121" s="148"/>
       <c r="G121" s="149"/>
-      <c r="H121" s="151"/>
-      <c r="I121" s="152"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="152"/>
-      <c r="L121" s="153"/>
+      <c r="H121" s="146"/>
+      <c r="I121" s="147"/>
+      <c r="J121" s="147"/>
+      <c r="K121" s="147"/>
+      <c r="L121" s="148"/>
       <c r="M121" s="149"/>
-      <c r="N121" s="151"/>
-      <c r="O121" s="152"/>
-      <c r="P121" s="152"/>
-      <c r="Q121" s="152"/>
-      <c r="R121" s="153"/>
+      <c r="N121" s="146"/>
+      <c r="O121" s="147"/>
+      <c r="P121" s="147"/>
+      <c r="Q121" s="147"/>
+      <c r="R121" s="148"/>
       <c r="S121" s="149"/>
-      <c r="T121" s="151"/>
-      <c r="U121" s="152"/>
-      <c r="V121" s="152"/>
-      <c r="W121" s="152"/>
-      <c r="X121" s="153"/>
+      <c r="T121" s="146"/>
+      <c r="U121" s="147"/>
+      <c r="V121" s="147"/>
+      <c r="W121" s="147"/>
+      <c r="X121" s="148"/>
       <c r="Y121" s="149"/>
-      <c r="Z121" s="151"/>
-      <c r="AA121" s="152"/>
-      <c r="AB121" s="152"/>
-      <c r="AC121" s="152"/>
-      <c r="AD121" s="153"/>
+      <c r="Z121" s="146"/>
+      <c r="AA121" s="147"/>
+      <c r="AB121" s="147"/>
+      <c r="AC121" s="147"/>
+      <c r="AD121" s="148"/>
       <c r="AE121" s="159"/>
       <c r="AF121" s="163"/>
       <c r="AG121" s="157"/>
@@ -9897,35 +9990,35 @@
       <c r="AP121" s="158"/>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B122" s="151"/>
-      <c r="C122" s="152"/>
-      <c r="D122" s="152"/>
-      <c r="E122" s="152"/>
-      <c r="F122" s="153"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="147"/>
+      <c r="D122" s="147"/>
+      <c r="E122" s="147"/>
+      <c r="F122" s="148"/>
       <c r="G122" s="149"/>
-      <c r="H122" s="151"/>
-      <c r="I122" s="152"/>
-      <c r="J122" s="152"/>
-      <c r="K122" s="152"/>
-      <c r="L122" s="153"/>
+      <c r="H122" s="146"/>
+      <c r="I122" s="147"/>
+      <c r="J122" s="147"/>
+      <c r="K122" s="147"/>
+      <c r="L122" s="148"/>
       <c r="M122" s="149"/>
-      <c r="N122" s="151"/>
-      <c r="O122" s="152"/>
-      <c r="P122" s="152"/>
-      <c r="Q122" s="152"/>
-      <c r="R122" s="153"/>
+      <c r="N122" s="146"/>
+      <c r="O122" s="147"/>
+      <c r="P122" s="147"/>
+      <c r="Q122" s="147"/>
+      <c r="R122" s="148"/>
       <c r="S122" s="149"/>
-      <c r="T122" s="151"/>
-      <c r="U122" s="152"/>
-      <c r="V122" s="152"/>
-      <c r="W122" s="152"/>
-      <c r="X122" s="153"/>
+      <c r="T122" s="146"/>
+      <c r="U122" s="147"/>
+      <c r="V122" s="147"/>
+      <c r="W122" s="147"/>
+      <c r="X122" s="148"/>
       <c r="Y122" s="149"/>
-      <c r="Z122" s="151"/>
-      <c r="AA122" s="152"/>
-      <c r="AB122" s="152"/>
-      <c r="AC122" s="152"/>
-      <c r="AD122" s="153"/>
+      <c r="Z122" s="146"/>
+      <c r="AA122" s="147"/>
+      <c r="AB122" s="147"/>
+      <c r="AC122" s="147"/>
+      <c r="AD122" s="148"/>
       <c r="AE122" s="159"/>
       <c r="AF122" s="163"/>
       <c r="AG122" s="157"/>
@@ -9939,8 +10032,329 @@
       <c r="AO122" s="158"/>
       <c r="AP122" s="158"/>
     </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B123" s="146"/>
+      <c r="C123" s="147"/>
+      <c r="D123" s="147"/>
+      <c r="E123" s="147"/>
+      <c r="F123" s="148"/>
+      <c r="G123" s="149"/>
+      <c r="H123" s="146"/>
+      <c r="I123" s="147"/>
+      <c r="J123" s="147"/>
+      <c r="K123" s="147"/>
+      <c r="L123" s="148"/>
+      <c r="M123" s="149"/>
+      <c r="N123" s="146"/>
+      <c r="O123" s="147"/>
+      <c r="P123" s="147"/>
+      <c r="Q123" s="147"/>
+      <c r="R123" s="148"/>
+      <c r="S123" s="149"/>
+      <c r="T123" s="146"/>
+      <c r="U123" s="147"/>
+      <c r="V123" s="147"/>
+      <c r="W123" s="147"/>
+      <c r="X123" s="148"/>
+      <c r="Y123" s="149"/>
+      <c r="Z123" s="146"/>
+      <c r="AA123" s="147"/>
+      <c r="AB123" s="147"/>
+      <c r="AC123" s="147"/>
+      <c r="AD123" s="148"/>
+      <c r="AE123" s="159"/>
+      <c r="AF123" s="163"/>
+      <c r="AG123" s="157"/>
+      <c r="AH123" s="157"/>
+      <c r="AI123" s="158"/>
+      <c r="AJ123" s="158"/>
+      <c r="AK123" s="158"/>
+      <c r="AL123" s="163"/>
+      <c r="AM123" s="157"/>
+      <c r="AN123" s="157"/>
+      <c r="AO123" s="158"/>
+      <c r="AP123" s="158"/>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B124" s="146"/>
+      <c r="C124" s="147"/>
+      <c r="D124" s="147"/>
+      <c r="E124" s="147"/>
+      <c r="F124" s="148"/>
+      <c r="G124" s="149"/>
+      <c r="H124" s="146"/>
+      <c r="I124" s="147"/>
+      <c r="J124" s="147"/>
+      <c r="K124" s="147"/>
+      <c r="L124" s="148"/>
+      <c r="M124" s="149"/>
+      <c r="N124" s="146"/>
+      <c r="O124" s="147"/>
+      <c r="P124" s="147"/>
+      <c r="Q124" s="147"/>
+      <c r="R124" s="148"/>
+      <c r="S124" s="149"/>
+      <c r="T124" s="150"/>
+      <c r="U124" s="147"/>
+      <c r="V124" s="147"/>
+      <c r="W124" s="147"/>
+      <c r="X124" s="148"/>
+      <c r="Y124" s="149"/>
+      <c r="Z124" s="146"/>
+      <c r="AA124" s="147"/>
+      <c r="AB124" s="147"/>
+      <c r="AC124" s="147"/>
+      <c r="AD124" s="148"/>
+      <c r="AE124" s="159"/>
+      <c r="AF124" s="163"/>
+      <c r="AG124" s="157"/>
+      <c r="AH124" s="157"/>
+      <c r="AI124" s="158"/>
+      <c r="AJ124" s="158"/>
+      <c r="AK124" s="158"/>
+      <c r="AL124" s="163"/>
+      <c r="AM124" s="157"/>
+      <c r="AN124" s="157"/>
+      <c r="AO124" s="158"/>
+      <c r="AP124" s="158"/>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B125" s="146"/>
+      <c r="C125" s="147"/>
+      <c r="D125" s="147"/>
+      <c r="E125" s="147"/>
+      <c r="F125" s="148"/>
+      <c r="G125" s="149"/>
+      <c r="H125" s="146"/>
+      <c r="I125" s="147"/>
+      <c r="J125" s="147"/>
+      <c r="K125" s="147"/>
+      <c r="L125" s="148"/>
+      <c r="M125" s="149"/>
+      <c r="N125" s="146"/>
+      <c r="O125" s="147"/>
+      <c r="P125" s="147"/>
+      <c r="Q125" s="147"/>
+      <c r="R125" s="148"/>
+      <c r="S125" s="149"/>
+      <c r="T125" s="146"/>
+      <c r="U125" s="147"/>
+      <c r="V125" s="147"/>
+      <c r="W125" s="147"/>
+      <c r="X125" s="148"/>
+      <c r="Y125" s="149"/>
+      <c r="Z125" s="146"/>
+      <c r="AA125" s="147"/>
+      <c r="AB125" s="147"/>
+      <c r="AC125" s="147"/>
+      <c r="AD125" s="148"/>
+      <c r="AE125" s="159"/>
+      <c r="AF125" s="163"/>
+      <c r="AG125" s="157"/>
+      <c r="AH125" s="157"/>
+      <c r="AI125" s="158"/>
+      <c r="AJ125" s="158"/>
+      <c r="AK125" s="158"/>
+      <c r="AL125" s="163"/>
+      <c r="AM125" s="157"/>
+      <c r="AN125" s="157"/>
+      <c r="AO125" s="158"/>
+      <c r="AP125" s="158"/>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B126" s="151"/>
+      <c r="C126" s="152"/>
+      <c r="D126" s="152"/>
+      <c r="E126" s="152"/>
+      <c r="F126" s="153"/>
+      <c r="G126" s="149"/>
+      <c r="H126" s="151"/>
+      <c r="I126" s="152"/>
+      <c r="J126" s="152"/>
+      <c r="K126" s="152"/>
+      <c r="L126" s="153"/>
+      <c r="M126" s="149"/>
+      <c r="N126" s="151"/>
+      <c r="O126" s="152"/>
+      <c r="P126" s="152"/>
+      <c r="Q126" s="152"/>
+      <c r="R126" s="153"/>
+      <c r="S126" s="149"/>
+      <c r="T126" s="151"/>
+      <c r="U126" s="152"/>
+      <c r="V126" s="152"/>
+      <c r="W126" s="152"/>
+      <c r="X126" s="153"/>
+      <c r="Y126" s="149"/>
+      <c r="Z126" s="151"/>
+      <c r="AA126" s="152"/>
+      <c r="AB126" s="152"/>
+      <c r="AC126" s="152"/>
+      <c r="AD126" s="153"/>
+      <c r="AE126" s="159"/>
+      <c r="AF126" s="163"/>
+      <c r="AG126" s="157"/>
+      <c r="AH126" s="157"/>
+      <c r="AI126" s="158"/>
+      <c r="AJ126" s="158"/>
+      <c r="AK126" s="158"/>
+      <c r="AL126" s="163"/>
+      <c r="AM126" s="157"/>
+      <c r="AN126" s="157"/>
+      <c r="AO126" s="158"/>
+      <c r="AP126" s="158"/>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B127" s="151"/>
+      <c r="C127" s="152"/>
+      <c r="D127" s="152"/>
+      <c r="E127" s="152"/>
+      <c r="F127" s="153"/>
+      <c r="G127" s="149"/>
+      <c r="H127" s="151"/>
+      <c r="I127" s="152"/>
+      <c r="J127" s="152"/>
+      <c r="K127" s="152"/>
+      <c r="L127" s="153"/>
+      <c r="M127" s="149"/>
+      <c r="N127" s="151"/>
+      <c r="O127" s="152"/>
+      <c r="P127" s="152"/>
+      <c r="Q127" s="152"/>
+      <c r="R127" s="153"/>
+      <c r="S127" s="149"/>
+      <c r="T127" s="151"/>
+      <c r="U127" s="152"/>
+      <c r="V127" s="152"/>
+      <c r="W127" s="152"/>
+      <c r="X127" s="153"/>
+      <c r="Y127" s="149"/>
+      <c r="Z127" s="151"/>
+      <c r="AA127" s="152"/>
+      <c r="AB127" s="152"/>
+      <c r="AC127" s="152"/>
+      <c r="AD127" s="153"/>
+      <c r="AE127" s="159"/>
+      <c r="AF127" s="163"/>
+      <c r="AG127" s="157"/>
+      <c r="AH127" s="157"/>
+      <c r="AI127" s="158"/>
+      <c r="AJ127" s="158"/>
+      <c r="AK127" s="158"/>
+      <c r="AL127" s="163"/>
+      <c r="AM127" s="157"/>
+      <c r="AN127" s="157"/>
+      <c r="AO127" s="158"/>
+      <c r="AP127" s="158"/>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B128" s="151"/>
+      <c r="C128" s="152"/>
+      <c r="D128" s="152"/>
+      <c r="E128" s="152"/>
+      <c r="F128" s="153"/>
+      <c r="G128" s="149"/>
+      <c r="H128" s="151"/>
+      <c r="I128" s="152"/>
+      <c r="J128" s="152"/>
+      <c r="K128" s="152"/>
+      <c r="L128" s="153"/>
+      <c r="M128" s="149"/>
+      <c r="N128" s="151"/>
+      <c r="O128" s="152"/>
+      <c r="P128" s="152"/>
+      <c r="Q128" s="152"/>
+      <c r="R128" s="153"/>
+      <c r="S128" s="149"/>
+      <c r="T128" s="151"/>
+      <c r="U128" s="152"/>
+      <c r="V128" s="152"/>
+      <c r="W128" s="152"/>
+      <c r="X128" s="153"/>
+      <c r="Y128" s="149"/>
+      <c r="Z128" s="151"/>
+      <c r="AA128" s="152"/>
+      <c r="AB128" s="152"/>
+      <c r="AC128" s="152"/>
+      <c r="AD128" s="153"/>
+      <c r="AE128" s="159"/>
+      <c r="AF128" s="163"/>
+      <c r="AG128" s="157"/>
+      <c r="AH128" s="157"/>
+      <c r="AI128" s="158"/>
+      <c r="AJ128" s="158"/>
+      <c r="AK128" s="158"/>
+      <c r="AL128" s="163"/>
+      <c r="AM128" s="157"/>
+      <c r="AN128" s="157"/>
+      <c r="AO128" s="158"/>
+      <c r="AP128" s="158"/>
+    </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="AE119:AJ119"/>
+    <mergeCell ref="AK119:AP119"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="M119:R119"/>
+    <mergeCell ref="S119:X119"/>
+    <mergeCell ref="Y119:AD119"/>
+    <mergeCell ref="AE99:AJ99"/>
+    <mergeCell ref="AK99:AP99"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="M109:R109"/>
+    <mergeCell ref="S109:X109"/>
+    <mergeCell ref="Y109:AD109"/>
+    <mergeCell ref="AE109:AJ109"/>
+    <mergeCell ref="AK109:AP109"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="M99:R99"/>
+    <mergeCell ref="S99:X99"/>
+    <mergeCell ref="Y99:AD99"/>
+    <mergeCell ref="AE70:AJ70"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M89:R89"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="Y89:AD89"/>
+    <mergeCell ref="AE89:AJ89"/>
+    <mergeCell ref="AK89:AP89"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:L70"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="Y70:AD70"/>
+    <mergeCell ref="AE41:AJ41"/>
+    <mergeCell ref="AK41:AP41"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AD41"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="AK21:AP21"/>
     <mergeCell ref="S21:X21"/>
@@ -9955,69 +10369,6 @@
     <mergeCell ref="S31:X31"/>
     <mergeCell ref="Y31:AD31"/>
     <mergeCell ref="AE31:AJ31"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE41:AJ41"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AE70:AJ70"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:L83"/>
-    <mergeCell ref="M83:R83"/>
-    <mergeCell ref="S83:X83"/>
-    <mergeCell ref="Y83:AD83"/>
-    <mergeCell ref="AE83:AJ83"/>
-    <mergeCell ref="AK83:AP83"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="Y70:AD70"/>
-    <mergeCell ref="AE93:AJ93"/>
-    <mergeCell ref="AK93:AP93"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="M103:R103"/>
-    <mergeCell ref="S103:X103"/>
-    <mergeCell ref="Y103:AD103"/>
-    <mergeCell ref="AE103:AJ103"/>
-    <mergeCell ref="AK103:AP103"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:L93"/>
-    <mergeCell ref="M93:R93"/>
-    <mergeCell ref="S93:X93"/>
-    <mergeCell ref="Y93:AD93"/>
-    <mergeCell ref="AE113:AJ113"/>
-    <mergeCell ref="AK113:AP113"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:L113"/>
-    <mergeCell ref="M113:R113"/>
-    <mergeCell ref="S113:X113"/>
-    <mergeCell ref="Y113:AD113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10029,10 +10380,10 @@
   <dimension ref="A1:AO266"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K240" sqref="K240"/>
+      <selection pane="bottomRight" activeCell="I252" sqref="I252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10044,40 +10395,40 @@
     <col min="6" max="6" width="12.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="41" width="7.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="41" width="7.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="10.28515625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="199"/>
-      <c r="I1" s="178" t="s">
+      <c r="H1" s="200"/>
+      <c r="I1" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="179"/>
-      <c r="K1" s="180" t="s">
+      <c r="J1" s="180"/>
+      <c r="K1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="181"/>
-      <c r="M1" s="182" t="s">
+      <c r="L1" s="182"/>
+      <c r="M1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="183"/>
-      <c r="O1" s="184" t="s">
+      <c r="N1" s="184"/>
+      <c r="O1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="174" t="s">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="175"/>
-      <c r="S1" s="196" t="s">
+      <c r="R1" s="176"/>
+      <c r="S1" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="197"/>
+      <c r="T1" s="198"/>
     </row>
     <row r="2" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
@@ -10123,13 +10474,13 @@
       <c r="AO2" s="95"/>
     </row>
     <row r="3" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
       <c r="F3" s="48" t="s">
         <v>7</v>
       </c>
@@ -10170,13 +10521,13 @@
       <c r="AO3" s="49"/>
     </row>
     <row r="4" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="166"/>
       <c r="G4" s="50" t="s">
         <v>98</v>
@@ -10939,13 +11290,13 @@
       <c r="AO13" s="95"/>
     </row>
     <row r="14" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="169"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="170"/>
       <c r="F14" s="48" t="s">
         <v>7</v>
       </c>
@@ -10970,9 +11321,15 @@
       <c r="M14" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="N14" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q14" s="49"/>
       <c r="R14" s="49"/>
       <c r="S14" s="49"/>
@@ -11000,13 +11357,13 @@
       <c r="AO14" s="49"/>
     </row>
     <row r="15" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
       <c r="F15" s="166" t="s">
         <v>79</v>
       </c>
@@ -11148,7 +11505,9 @@
       <c r="M16" s="58">
         <v>0.375</v>
       </c>
-      <c r="N16" s="58"/>
+      <c r="N16" s="58">
+        <v>0.375</v>
+      </c>
       <c r="O16" s="58"/>
       <c r="P16" s="58"/>
       <c r="Q16" s="58"/>
@@ -11212,7 +11571,9 @@
       <c r="M17" s="65">
         <v>0.38500000000000001</v>
       </c>
-      <c r="N17" s="65"/>
+      <c r="N17" s="65">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65"/>
       <c r="Q17" s="65"/>
@@ -11278,7 +11639,9 @@
       <c r="M18" s="65">
         <v>0.36499999999999999</v>
       </c>
-      <c r="N18" s="65"/>
+      <c r="N18" s="65">
+        <v>0.37</v>
+      </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="65"/>
@@ -11338,10 +11701,12 @@
       <c r="L19" s="58">
         <v>0.375</v>
       </c>
-      <c r="M19" s="202">
+      <c r="M19" s="167">
         <v>0.37</v>
       </c>
-      <c r="N19" s="58"/>
+      <c r="N19" s="58">
+        <v>0.375</v>
+      </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
@@ -11565,7 +11930,9 @@
       <c r="M21" s="82">
         <v>472186</v>
       </c>
-      <c r="N21" s="82"/>
+      <c r="N21" s="82">
+        <v>484031</v>
+      </c>
       <c r="O21" s="82"/>
       <c r="P21" s="82"/>
       <c r="Q21" s="82"/>
@@ -11847,13 +12214,13 @@
       <c r="AO24" s="95"/>
     </row>
     <row r="25" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="167" t="s">
+      <c r="A25" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="169"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="170"/>
       <c r="F25" s="48" t="s">
         <v>7</v>
       </c>
@@ -11878,9 +12245,15 @@
       <c r="M25" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
       <c r="S25" s="49"/>
@@ -11908,13 +12281,13 @@
       <c r="AO25" s="49"/>
     </row>
     <row r="26" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
       <c r="F26" s="166" t="s">
         <v>84</v>
       </c>
@@ -12056,7 +12429,9 @@
       <c r="M27" s="58">
         <v>1.36</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="58">
+        <v>1.37</v>
+      </c>
       <c r="O27" s="58"/>
       <c r="P27" s="58"/>
       <c r="Q27" s="58"/>
@@ -12120,7 +12495,9 @@
       <c r="M28" s="65">
         <v>1.39</v>
       </c>
-      <c r="N28" s="65"/>
+      <c r="N28" s="65">
+        <v>1.41</v>
+      </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65"/>
       <c r="Q28" s="65"/>
@@ -12186,7 +12563,9 @@
       <c r="M29" s="65">
         <v>1.36</v>
       </c>
-      <c r="N29" s="65"/>
+      <c r="N29" s="65">
+        <v>1.35</v>
+      </c>
       <c r="O29" s="65"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="65"/>
@@ -12249,7 +12628,9 @@
       <c r="M30" s="58">
         <v>1.36</v>
       </c>
-      <c r="N30" s="58"/>
+      <c r="N30" s="58">
+        <v>1.38</v>
+      </c>
       <c r="O30" s="58"/>
       <c r="P30" s="58"/>
       <c r="Q30" s="58"/>
@@ -12472,7 +12853,9 @@
       <c r="M32" s="82">
         <v>18846</v>
       </c>
-      <c r="N32" s="82"/>
+      <c r="N32" s="82">
+        <v>61369</v>
+      </c>
       <c r="O32" s="82"/>
       <c r="P32" s="82"/>
       <c r="Q32" s="82"/>
@@ -12754,13 +13137,13 @@
       <c r="AO35" s="95"/>
     </row>
     <row r="36" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="169"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="170"/>
       <c r="F36" s="48" t="s">
         <v>7</v>
       </c>
@@ -12785,9 +13168,15 @@
       <c r="M36" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
+      <c r="N36" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q36" s="49"/>
       <c r="R36" s="49"/>
       <c r="S36" s="49"/>
@@ -12815,13 +13204,13 @@
       <c r="AO36" s="49"/>
     </row>
     <row r="37" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="170" t="s">
+      <c r="A37" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="174"/>
       <c r="F37" s="166" t="s">
         <v>87</v>
       </c>
@@ -12963,7 +13352,9 @@
       <c r="M38" s="58">
         <v>2.46</v>
       </c>
-      <c r="N38" s="58"/>
+      <c r="N38" s="58">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="O38" s="58"/>
       <c r="P38" s="58"/>
       <c r="Q38" s="58"/>
@@ -13027,7 +13418,9 @@
       <c r="M39" s="65">
         <v>2.52</v>
       </c>
-      <c r="N39" s="65"/>
+      <c r="N39" s="65">
+        <v>2.54</v>
+      </c>
       <c r="O39" s="65"/>
       <c r="P39" s="65"/>
       <c r="Q39" s="65"/>
@@ -13093,7 +13486,9 @@
       <c r="M40" s="65">
         <v>2.4500000000000002</v>
       </c>
-      <c r="N40" s="65"/>
+      <c r="N40" s="65">
+        <v>2.48</v>
+      </c>
       <c r="O40" s="65"/>
       <c r="P40" s="65"/>
       <c r="Q40" s="65"/>
@@ -13156,7 +13551,9 @@
       <c r="M41" s="58">
         <v>2.48</v>
       </c>
-      <c r="N41" s="58"/>
+      <c r="N41" s="58">
+        <v>2.4900000000000002</v>
+      </c>
       <c r="O41" s="58"/>
       <c r="P41" s="58"/>
       <c r="Q41" s="58"/>
@@ -13379,7 +13776,9 @@
       <c r="M43" s="82">
         <v>30856</v>
       </c>
-      <c r="N43" s="82"/>
+      <c r="N43" s="82">
+        <v>42048</v>
+      </c>
       <c r="O43" s="82"/>
       <c r="P43" s="82"/>
       <c r="Q43" s="82"/>
@@ -13661,13 +14060,13 @@
       <c r="AO46" s="95"/>
     </row>
     <row r="47" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="167" t="s">
+      <c r="A47" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="169"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="170"/>
       <c r="F47" s="48" t="s">
         <v>7</v>
       </c>
@@ -13692,9 +14091,15 @@
       <c r="M47" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
+      <c r="N47" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O47" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P47" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q47" s="49"/>
       <c r="R47" s="49"/>
       <c r="S47" s="49"/>
@@ -13722,13 +14127,13 @@
       <c r="AO47" s="49"/>
     </row>
     <row r="48" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="170" t="s">
+      <c r="A48" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="173"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="173"/>
+      <c r="E48" s="174"/>
       <c r="F48" s="166" t="s">
         <v>89</v>
       </c>
@@ -13870,7 +14275,9 @@
       <c r="M49" s="58">
         <v>1.97</v>
       </c>
-      <c r="N49" s="58"/>
+      <c r="N49" s="58">
+        <v>1.96</v>
+      </c>
       <c r="O49" s="58"/>
       <c r="P49" s="58"/>
       <c r="Q49" s="58"/>
@@ -13934,7 +14341,9 @@
       <c r="M50" s="65">
         <v>2</v>
       </c>
-      <c r="N50" s="65"/>
+      <c r="N50" s="65">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="O50" s="65"/>
       <c r="P50" s="65"/>
       <c r="Q50" s="65"/>
@@ -14000,7 +14409,9 @@
       <c r="M51" s="65">
         <v>1.95</v>
       </c>
-      <c r="N51" s="65"/>
+      <c r="N51" s="65">
+        <v>1.95</v>
+      </c>
       <c r="O51" s="65"/>
       <c r="P51" s="65"/>
       <c r="Q51" s="65"/>
@@ -14063,7 +14474,9 @@
       <c r="M52" s="58">
         <v>1.96</v>
       </c>
-      <c r="N52" s="58"/>
+      <c r="N52" s="58">
+        <v>1.98</v>
+      </c>
       <c r="O52" s="58"/>
       <c r="P52" s="58"/>
       <c r="Q52" s="58"/>
@@ -14286,7 +14699,9 @@
       <c r="M54" s="82">
         <v>13259</v>
       </c>
-      <c r="N54" s="82"/>
+      <c r="N54" s="82">
+        <v>17007</v>
+      </c>
       <c r="O54" s="82"/>
       <c r="P54" s="82"/>
       <c r="Q54" s="82"/>
@@ -14568,13 +14983,13 @@
       <c r="AO57" s="95"/>
     </row>
     <row r="58" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="167" t="s">
+      <c r="A58" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="169"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="170"/>
       <c r="F58" s="48" t="s">
         <v>7</v>
       </c>
@@ -14599,9 +15014,15 @@
       <c r="M58" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
+      <c r="N58" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O58" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P58" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q58" s="49"/>
       <c r="R58" s="49"/>
       <c r="S58" s="49"/>
@@ -14629,13 +15050,13 @@
       <c r="AO58" s="49"/>
     </row>
     <row r="59" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="170" t="s">
+      <c r="A59" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="171"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="173"/>
+      <c r="B59" s="172"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="174"/>
       <c r="F59" s="134" t="s">
         <v>92</v>
       </c>
@@ -14777,7 +15198,9 @@
       <c r="M60" s="58">
         <v>0.375</v>
       </c>
-      <c r="N60" s="58"/>
+      <c r="N60" s="58">
+        <v>0.35</v>
+      </c>
       <c r="O60" s="58"/>
       <c r="P60" s="58"/>
       <c r="Q60" s="58"/>
@@ -14841,7 +15264,9 @@
       <c r="M61" s="65">
         <v>0.375</v>
       </c>
-      <c r="N61" s="65"/>
+      <c r="N61" s="65">
+        <v>0.37</v>
+      </c>
       <c r="O61" s="65"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="65"/>
@@ -14907,7 +15332,9 @@
       <c r="M62" s="65">
         <v>0.35</v>
       </c>
-      <c r="N62" s="65"/>
+      <c r="N62" s="65">
+        <v>0.34</v>
+      </c>
       <c r="O62" s="65"/>
       <c r="P62" s="65"/>
       <c r="Q62" s="65"/>
@@ -14961,7 +15388,7 @@
       <c r="J63" s="58">
         <v>0.375</v>
       </c>
-      <c r="K63" s="202">
+      <c r="K63" s="167">
         <v>0.37</v>
       </c>
       <c r="L63" s="101">
@@ -14970,7 +15397,9 @@
       <c r="M63" s="101">
         <v>0.35</v>
       </c>
-      <c r="N63" s="58"/>
+      <c r="N63" s="58">
+        <v>0.35</v>
+      </c>
       <c r="O63" s="58"/>
       <c r="P63" s="58"/>
       <c r="Q63" s="58"/>
@@ -15194,7 +15623,9 @@
       <c r="M65" s="82">
         <v>25676</v>
       </c>
-      <c r="N65" s="82"/>
+      <c r="N65" s="82">
+        <v>49793</v>
+      </c>
       <c r="O65" s="82"/>
       <c r="P65" s="82"/>
       <c r="Q65" s="82"/>
@@ -15476,13 +15907,13 @@
       <c r="AO68" s="95"/>
     </row>
     <row r="69" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="167" t="s">
+      <c r="A69" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="169"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="169"/>
+      <c r="E69" s="170"/>
       <c r="F69" s="48" t="s">
         <v>7</v>
       </c>
@@ -15507,9 +15938,15 @@
       <c r="M69" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
+      <c r="N69" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O69" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P69" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q69" s="49"/>
       <c r="R69" s="49"/>
       <c r="S69" s="49"/>
@@ -15537,13 +15974,13 @@
       <c r="AO69" s="49"/>
     </row>
     <row r="70" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="170" t="s">
+      <c r="A70" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="171"/>
-      <c r="C70" s="171"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="173"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="174"/>
       <c r="F70" s="166" t="s">
         <v>93</v>
       </c>
@@ -15685,7 +16122,9 @@
       <c r="M71" s="58">
         <v>1.25</v>
       </c>
-      <c r="N71" s="58"/>
+      <c r="N71" s="58">
+        <v>1.27</v>
+      </c>
       <c r="O71" s="58"/>
       <c r="P71" s="58"/>
       <c r="Q71" s="58"/>
@@ -15749,7 +16188,9 @@
       <c r="M72" s="65">
         <v>1.29</v>
       </c>
-      <c r="N72" s="65"/>
+      <c r="N72" s="65">
+        <v>1.36</v>
+      </c>
       <c r="O72" s="65"/>
       <c r="P72" s="65"/>
       <c r="Q72" s="65"/>
@@ -15815,7 +16256,9 @@
       <c r="M73" s="65">
         <v>1.25</v>
       </c>
-      <c r="N73" s="65"/>
+      <c r="N73" s="65">
+        <v>1.27</v>
+      </c>
       <c r="O73" s="65"/>
       <c r="P73" s="65"/>
       <c r="Q73" s="65"/>
@@ -15878,7 +16321,9 @@
       <c r="M74" s="58">
         <v>1.26</v>
       </c>
-      <c r="N74" s="58"/>
+      <c r="N74" s="58">
+        <v>1.34</v>
+      </c>
       <c r="O74" s="58"/>
       <c r="P74" s="58"/>
       <c r="Q74" s="58"/>
@@ -16102,7 +16547,9 @@
       <c r="M76" s="82">
         <v>60294</v>
       </c>
-      <c r="N76" s="82"/>
+      <c r="N76" s="82">
+        <v>243412</v>
+      </c>
       <c r="O76" s="82"/>
       <c r="P76" s="82"/>
       <c r="Q76" s="82"/>
@@ -16384,13 +16831,13 @@
       <c r="AO79" s="95"/>
     </row>
     <row r="80" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="167" t="s">
+      <c r="A80" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="168"/>
-      <c r="C80" s="168"/>
-      <c r="D80" s="168"/>
-      <c r="E80" s="169"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="170"/>
       <c r="F80" s="48" t="s">
         <v>7</v>
       </c>
@@ -16415,9 +16862,15 @@
       <c r="M80" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
+      <c r="N80" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O80" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P80" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q80" s="49"/>
       <c r="R80" s="49"/>
       <c r="S80" s="49"/>
@@ -16445,13 +16898,13 @@
       <c r="AO80" s="49"/>
     </row>
     <row r="81" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="170" t="s">
+      <c r="A81" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="171"/>
-      <c r="C81" s="171"/>
-      <c r="D81" s="172"/>
-      <c r="E81" s="173"/>
+      <c r="B81" s="172"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="173"/>
+      <c r="E81" s="174"/>
       <c r="F81" s="134" t="s">
         <v>94</v>
       </c>
@@ -16593,7 +17046,9 @@
       <c r="M82" s="58">
         <v>1.47</v>
       </c>
-      <c r="N82" s="58"/>
+      <c r="N82" s="58">
+        <v>1.45</v>
+      </c>
       <c r="O82" s="58"/>
       <c r="P82" s="58"/>
       <c r="Q82" s="58"/>
@@ -16657,7 +17112,9 @@
       <c r="M83" s="64">
         <v>1.48</v>
       </c>
-      <c r="N83" s="65"/>
+      <c r="N83" s="65">
+        <v>1.5</v>
+      </c>
       <c r="O83" s="65"/>
       <c r="P83" s="65"/>
       <c r="Q83" s="65"/>
@@ -16723,7 +17180,9 @@
       <c r="M84" s="65">
         <v>1.42</v>
       </c>
-      <c r="N84" s="65"/>
+      <c r="N84" s="65">
+        <v>1.43</v>
+      </c>
       <c r="O84" s="65"/>
       <c r="P84" s="65"/>
       <c r="Q84" s="65"/>
@@ -16784,7 +17243,9 @@
       <c r="M85" s="58">
         <v>1.45</v>
       </c>
-      <c r="N85" s="58"/>
+      <c r="N85" s="58">
+        <v>1.47</v>
+      </c>
       <c r="O85" s="58"/>
       <c r="P85" s="58"/>
       <c r="Q85" s="58"/>
@@ -17006,7 +17467,9 @@
       <c r="M87" s="82">
         <v>147288</v>
       </c>
-      <c r="N87" s="82"/>
+      <c r="N87" s="82">
+        <v>203856</v>
+      </c>
       <c r="O87" s="82"/>
       <c r="P87" s="82"/>
       <c r="Q87" s="82"/>
@@ -17288,13 +17751,13 @@
       <c r="AO90" s="95"/>
     </row>
     <row r="91" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="167" t="s">
+      <c r="A91" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="168"/>
-      <c r="C91" s="168"/>
-      <c r="D91" s="168"/>
-      <c r="E91" s="169"/>
+      <c r="B91" s="169"/>
+      <c r="C91" s="169"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="170"/>
       <c r="F91" s="48" t="s">
         <v>7</v>
       </c>
@@ -17319,9 +17782,15 @@
       <c r="M91" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N91" s="49"/>
-      <c r="O91" s="49"/>
-      <c r="P91" s="49"/>
+      <c r="N91" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O91" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P91" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q91" s="49"/>
       <c r="R91" s="49"/>
       <c r="S91" s="49"/>
@@ -17349,13 +17818,13 @@
       <c r="AO91" s="49"/>
     </row>
     <row r="92" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="170" t="s">
+      <c r="A92" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="171"/>
-      <c r="C92" s="171"/>
-      <c r="D92" s="172"/>
-      <c r="E92" s="173"/>
+      <c r="B92" s="172"/>
+      <c r="C92" s="172"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="174"/>
       <c r="F92" s="166" t="s">
         <v>95</v>
       </c>
@@ -17497,7 +17966,9 @@
       <c r="M93" s="58">
         <v>1.41</v>
       </c>
-      <c r="N93" s="58"/>
+      <c r="N93" s="58">
+        <v>1.43</v>
+      </c>
       <c r="O93" s="58"/>
       <c r="P93" s="58"/>
       <c r="Q93" s="58"/>
@@ -17561,7 +18032,9 @@
       <c r="M94" s="64">
         <v>1.46</v>
       </c>
-      <c r="N94" s="65"/>
+      <c r="N94" s="65">
+        <v>1.45</v>
+      </c>
       <c r="O94" s="65"/>
       <c r="P94" s="65"/>
       <c r="Q94" s="65"/>
@@ -17627,7 +18100,9 @@
       <c r="M95" s="65">
         <v>1.4</v>
       </c>
-      <c r="N95" s="65"/>
+      <c r="N95" s="65">
+        <v>1.4</v>
+      </c>
       <c r="O95" s="65"/>
       <c r="P95" s="65"/>
       <c r="Q95" s="65"/>
@@ -17688,7 +18163,9 @@
       <c r="M96" s="58">
         <v>1.43</v>
       </c>
-      <c r="N96" s="58"/>
+      <c r="N96" s="58">
+        <v>1.4</v>
+      </c>
       <c r="O96" s="58"/>
       <c r="P96" s="58"/>
       <c r="Q96" s="58"/>
@@ -17910,7 +18387,9 @@
       <c r="M98" s="81">
         <v>128177</v>
       </c>
-      <c r="N98" s="82"/>
+      <c r="N98" s="82">
+        <v>144960</v>
+      </c>
       <c r="O98" s="82"/>
       <c r="P98" s="82"/>
       <c r="Q98" s="82"/>
@@ -18192,13 +18671,13 @@
       <c r="AO101" s="95"/>
     </row>
     <row r="102" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="167" t="s">
+      <c r="A102" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="168"/>
-      <c r="C102" s="168"/>
-      <c r="D102" s="168"/>
-      <c r="E102" s="169"/>
+      <c r="B102" s="169"/>
+      <c r="C102" s="169"/>
+      <c r="D102" s="169"/>
+      <c r="E102" s="170"/>
       <c r="F102" s="48" t="s">
         <v>7</v>
       </c>
@@ -18223,9 +18702,15 @@
       <c r="M102" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N102" s="49"/>
-      <c r="O102" s="49"/>
-      <c r="P102" s="49"/>
+      <c r="N102" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O102" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="P102" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="Q102" s="49"/>
       <c r="R102" s="49"/>
       <c r="S102" s="49"/>
@@ -18253,13 +18738,13 @@
       <c r="AO102" s="49"/>
     </row>
     <row r="103" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="170" t="s">
+      <c r="A103" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="171"/>
-      <c r="C103" s="171"/>
-      <c r="D103" s="172"/>
-      <c r="E103" s="173"/>
+      <c r="B103" s="172"/>
+      <c r="C103" s="172"/>
+      <c r="D103" s="173"/>
+      <c r="E103" s="174"/>
       <c r="F103" s="166" t="s">
         <v>77</v>
       </c>
@@ -18401,7 +18886,9 @@
       <c r="M104" s="58">
         <v>0.72</v>
       </c>
-      <c r="N104" s="58"/>
+      <c r="N104" s="58">
+        <v>0.73499999999999999</v>
+      </c>
       <c r="O104" s="58"/>
       <c r="P104" s="58"/>
       <c r="Q104" s="58"/>
@@ -18465,7 +18952,9 @@
       <c r="M105" s="64">
         <v>0.755</v>
       </c>
-      <c r="N105" s="65"/>
+      <c r="N105" s="65">
+        <v>0.76</v>
+      </c>
       <c r="O105" s="65"/>
       <c r="P105" s="65"/>
       <c r="Q105" s="65"/>
@@ -18531,7 +19020,9 @@
       <c r="M106" s="65">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N106" s="65"/>
+      <c r="N106" s="65">
+        <v>0.72</v>
+      </c>
       <c r="O106" s="65"/>
       <c r="P106" s="65"/>
       <c r="Q106" s="65"/>
@@ -18592,7 +19083,9 @@
       <c r="M107" s="58">
         <v>0.73499999999999999</v>
       </c>
-      <c r="N107" s="58"/>
+      <c r="N107" s="58">
+        <v>0.73</v>
+      </c>
       <c r="O107" s="58"/>
       <c r="P107" s="58"/>
       <c r="Q107" s="58"/>
@@ -18814,7 +19307,9 @@
       <c r="M109" s="81">
         <v>191069</v>
       </c>
-      <c r="N109" s="82"/>
+      <c r="N109" s="82">
+        <v>85409</v>
+      </c>
       <c r="O109" s="82"/>
       <c r="P109" s="82"/>
       <c r="Q109" s="82"/>
@@ -19096,13 +19591,13 @@
       <c r="AO112" s="95"/>
     </row>
     <row r="113" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="167" t="s">
+      <c r="A113" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="168"/>
-      <c r="C113" s="168"/>
-      <c r="D113" s="168"/>
-      <c r="E113" s="169"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="169"/>
+      <c r="D113" s="169"/>
+      <c r="E113" s="170"/>
       <c r="F113" s="48" t="s">
         <v>7</v>
       </c>
@@ -19124,9 +19619,15 @@
       <c r="L113" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="M113" s="49"/>
-      <c r="N113" s="49"/>
-      <c r="O113" s="49"/>
+      <c r="M113" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="N113" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="O113" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="P113" s="49"/>
       <c r="Q113" s="49"/>
       <c r="R113" s="49"/>
@@ -19155,13 +19656,13 @@
       <c r="AO113" s="49"/>
     </row>
     <row r="114" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="170" t="s">
+      <c r="A114" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="171"/>
-      <c r="C114" s="171"/>
-      <c r="D114" s="172"/>
-      <c r="E114" s="173"/>
+      <c r="B114" s="172"/>
+      <c r="C114" s="172"/>
+      <c r="D114" s="173"/>
+      <c r="E114" s="174"/>
       <c r="F114" s="166" t="s">
         <v>75</v>
       </c>
@@ -19300,7 +19801,9 @@
       <c r="L115" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M115" s="58"/>
+      <c r="M115" s="58">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="N115" s="58"/>
       <c r="O115" s="58"/>
       <c r="P115" s="58"/>
@@ -19362,7 +19865,9 @@
       <c r="L116" s="64">
         <v>0.58499999999999996</v>
       </c>
-      <c r="M116" s="65"/>
+      <c r="M116" s="65">
+        <v>0.6</v>
+      </c>
       <c r="N116" s="65"/>
       <c r="O116" s="65"/>
       <c r="P116" s="65"/>
@@ -19426,7 +19931,9 @@
       <c r="L117" s="65">
         <v>0.54</v>
       </c>
-      <c r="M117" s="65"/>
+      <c r="M117" s="65">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="N117" s="65"/>
       <c r="O117" s="65"/>
       <c r="P117" s="65"/>
@@ -19485,7 +19992,9 @@
       <c r="L118" s="58">
         <v>0.57499999999999996</v>
       </c>
-      <c r="M118" s="58"/>
+      <c r="M118" s="58">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="N118" s="58"/>
       <c r="O118" s="58"/>
       <c r="P118" s="58"/>
@@ -19705,7 +20214,9 @@
       <c r="L120" s="81">
         <v>412458</v>
       </c>
-      <c r="M120" s="82"/>
+      <c r="M120" s="82">
+        <v>472964</v>
+      </c>
       <c r="N120" s="82"/>
       <c r="O120" s="82"/>
       <c r="P120" s="82"/>
@@ -19988,13 +20499,13 @@
       <c r="AO123" s="95"/>
     </row>
     <row r="124" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="167" t="s">
+      <c r="A124" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="168"/>
-      <c r="C124" s="168"/>
-      <c r="D124" s="168"/>
-      <c r="E124" s="169"/>
+      <c r="B124" s="169"/>
+      <c r="C124" s="169"/>
+      <c r="D124" s="169"/>
+      <c r="E124" s="170"/>
       <c r="F124" s="48" t="s">
         <v>7</v>
       </c>
@@ -20016,9 +20527,15 @@
       <c r="L124" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="M124" s="49"/>
-      <c r="N124" s="49"/>
-      <c r="O124" s="49"/>
+      <c r="M124" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="N124" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="O124" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="P124" s="49"/>
       <c r="Q124" s="49"/>
       <c r="R124" s="49"/>
@@ -20047,13 +20564,13 @@
       <c r="AO124" s="49"/>
     </row>
     <row r="125" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="170" t="s">
+      <c r="A125" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="171"/>
-      <c r="C125" s="171"/>
-      <c r="D125" s="172"/>
-      <c r="E125" s="173"/>
+      <c r="B125" s="172"/>
+      <c r="C125" s="172"/>
+      <c r="D125" s="173"/>
+      <c r="E125" s="174"/>
       <c r="F125" s="166" t="s">
         <v>80</v>
       </c>
@@ -20192,7 +20709,9 @@
       <c r="L126" s="58">
         <v>1.08</v>
       </c>
-      <c r="M126" s="58"/>
+      <c r="M126" s="58">
+        <v>1.07</v>
+      </c>
       <c r="N126" s="58"/>
       <c r="O126" s="58"/>
       <c r="P126" s="58"/>
@@ -20254,7 +20773,9 @@
       <c r="L127" s="65">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M127" s="65"/>
+      <c r="M127" s="65">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="N127" s="65"/>
       <c r="O127" s="65"/>
       <c r="P127" s="65"/>
@@ -20318,7 +20839,9 @@
       <c r="L128" s="65">
         <v>1.06</v>
       </c>
-      <c r="M128" s="65"/>
+      <c r="M128" s="65">
+        <v>1.06</v>
+      </c>
       <c r="N128" s="65"/>
       <c r="O128" s="65"/>
       <c r="P128" s="65"/>
@@ -20379,7 +20902,9 @@
       <c r="L129" s="58">
         <v>1.07</v>
       </c>
-      <c r="M129" s="58"/>
+      <c r="M129" s="58">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="N129" s="58"/>
       <c r="O129" s="58"/>
       <c r="P129" s="58"/>
@@ -20601,7 +21126,9 @@
       <c r="L131" s="82">
         <v>9107</v>
       </c>
-      <c r="M131" s="82"/>
+      <c r="M131" s="82">
+        <v>20004</v>
+      </c>
       <c r="N131" s="82"/>
       <c r="O131" s="82"/>
       <c r="P131" s="82"/>
@@ -20884,13 +21411,13 @@
       <c r="AO134" s="95"/>
     </row>
     <row r="135" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="167" t="s">
+      <c r="A135" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="168"/>
-      <c r="C135" s="168"/>
-      <c r="D135" s="168"/>
-      <c r="E135" s="169"/>
+      <c r="B135" s="169"/>
+      <c r="C135" s="169"/>
+      <c r="D135" s="169"/>
+      <c r="E135" s="170"/>
       <c r="F135" s="48" t="s">
         <v>7</v>
       </c>
@@ -20909,9 +21436,15 @@
       <c r="K135" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="L135" s="49"/>
-      <c r="M135" s="49"/>
-      <c r="N135" s="49"/>
+      <c r="L135" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="M135" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N135" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="O135" s="49"/>
       <c r="P135" s="49"/>
       <c r="Q135" s="49"/>
@@ -20941,13 +21474,13 @@
       <c r="AO135" s="49"/>
     </row>
     <row r="136" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="170" t="s">
+      <c r="A136" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="171"/>
-      <c r="C136" s="171"/>
-      <c r="D136" s="172"/>
-      <c r="E136" s="173"/>
+      <c r="B136" s="172"/>
+      <c r="C136" s="172"/>
+      <c r="D136" s="173"/>
+      <c r="E136" s="174"/>
       <c r="F136" s="166" t="s">
         <v>76</v>
       </c>
@@ -21083,7 +21616,9 @@
       <c r="K137" s="58">
         <v>0.8</v>
       </c>
-      <c r="L137" s="58"/>
+      <c r="L137" s="58">
+        <v>0.82499999999999996</v>
+      </c>
       <c r="M137" s="58"/>
       <c r="N137" s="58"/>
       <c r="O137" s="58"/>
@@ -21143,7 +21678,9 @@
       <c r="K138" s="65">
         <v>0.84</v>
       </c>
-      <c r="L138" s="65"/>
+      <c r="L138" s="65">
+        <v>0.83</v>
+      </c>
       <c r="M138" s="65"/>
       <c r="N138" s="65"/>
       <c r="O138" s="65"/>
@@ -21205,7 +21742,9 @@
       <c r="K139" s="65">
         <v>0.8</v>
       </c>
-      <c r="L139" s="65"/>
+      <c r="L139" s="65">
+        <v>0.79</v>
+      </c>
       <c r="M139" s="65"/>
       <c r="N139" s="65"/>
       <c r="O139" s="65"/>
@@ -21262,7 +21801,9 @@
       <c r="K140" s="58">
         <v>0.83</v>
       </c>
-      <c r="L140" s="58"/>
+      <c r="L140" s="58">
+        <v>0.8</v>
+      </c>
       <c r="M140" s="58"/>
       <c r="N140" s="58"/>
       <c r="O140" s="58"/>
@@ -21480,7 +22021,9 @@
       <c r="K142" s="82">
         <v>57599</v>
       </c>
-      <c r="L142" s="82"/>
+      <c r="L142" s="82">
+        <v>43726</v>
+      </c>
       <c r="M142" s="82"/>
       <c r="N142" s="82"/>
       <c r="O142" s="82"/>
@@ -21764,13 +22307,13 @@
       <c r="AO145" s="95"/>
     </row>
     <row r="146" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="167" t="s">
+      <c r="A146" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="168"/>
-      <c r="C146" s="168"/>
-      <c r="D146" s="168"/>
-      <c r="E146" s="169"/>
+      <c r="B146" s="169"/>
+      <c r="C146" s="169"/>
+      <c r="D146" s="169"/>
+      <c r="E146" s="170"/>
       <c r="F146" s="48" t="s">
         <v>7</v>
       </c>
@@ -21789,9 +22332,15 @@
       <c r="K146" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="L146" s="49"/>
-      <c r="M146" s="49"/>
-      <c r="N146" s="49"/>
+      <c r="L146" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="M146" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N146" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="O146" s="49"/>
       <c r="P146" s="49"/>
       <c r="Q146" s="49"/>
@@ -21821,13 +22370,13 @@
       <c r="AO146" s="49"/>
     </row>
     <row r="147" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="170" t="s">
+      <c r="A147" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="171"/>
-      <c r="C147" s="171"/>
-      <c r="D147" s="172"/>
-      <c r="E147" s="173"/>
+      <c r="B147" s="172"/>
+      <c r="C147" s="172"/>
+      <c r="D147" s="173"/>
+      <c r="E147" s="174"/>
       <c r="F147" s="134" t="s">
         <v>81</v>
       </c>
@@ -21963,7 +22512,9 @@
       <c r="K148" s="58">
         <v>0.77</v>
       </c>
-      <c r="L148" s="58"/>
+      <c r="L148" s="58">
+        <v>0.76500000000000001</v>
+      </c>
       <c r="M148" s="58"/>
       <c r="N148" s="58"/>
       <c r="O148" s="58"/>
@@ -22023,7 +22574,9 @@
       <c r="K149" s="65">
         <v>0.78500000000000003</v>
       </c>
-      <c r="L149" s="65"/>
+      <c r="L149" s="65">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="M149" s="65"/>
       <c r="N149" s="65"/>
       <c r="O149" s="65"/>
@@ -22085,7 +22638,9 @@
       <c r="K150" s="65">
         <v>0.75</v>
       </c>
-      <c r="L150" s="65"/>
+      <c r="L150" s="65">
+        <v>0.755</v>
+      </c>
       <c r="M150" s="65"/>
       <c r="N150" s="65"/>
       <c r="O150" s="65"/>
@@ -22142,7 +22697,9 @@
       <c r="K151" s="101">
         <v>0.77500000000000002</v>
       </c>
-      <c r="L151" s="58"/>
+      <c r="L151" s="58">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="M151" s="58"/>
       <c r="N151" s="58"/>
       <c r="O151" s="58"/>
@@ -22360,7 +22917,9 @@
       <c r="K153" s="82">
         <v>10676</v>
       </c>
-      <c r="L153" s="82"/>
+      <c r="L153" s="82">
+        <v>2279</v>
+      </c>
       <c r="M153" s="82"/>
       <c r="N153" s="82"/>
       <c r="O153" s="82"/>
@@ -22644,13 +23203,13 @@
       <c r="AO156" s="95"/>
     </row>
     <row r="157" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="167" t="s">
+      <c r="A157" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="168"/>
-      <c r="C157" s="168"/>
-      <c r="D157" s="168"/>
-      <c r="E157" s="169"/>
+      <c r="B157" s="169"/>
+      <c r="C157" s="169"/>
+      <c r="D157" s="169"/>
+      <c r="E157" s="170"/>
       <c r="F157" s="48" t="s">
         <v>7</v>
       </c>
@@ -22666,9 +23225,15 @@
       <c r="J157" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="K157" s="49"/>
-      <c r="L157" s="49"/>
-      <c r="M157" s="49"/>
+      <c r="K157" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="L157" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="M157" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="N157" s="49"/>
       <c r="O157" s="49"/>
       <c r="P157" s="49"/>
@@ -22699,13 +23264,13 @@
       <c r="AO157" s="49"/>
     </row>
     <row r="158" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="170" t="s">
+      <c r="A158" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="171"/>
-      <c r="C158" s="171"/>
-      <c r="D158" s="172"/>
-      <c r="E158" s="173"/>
+      <c r="B158" s="172"/>
+      <c r="C158" s="172"/>
+      <c r="D158" s="173"/>
+      <c r="E158" s="174"/>
       <c r="F158" s="166" t="s">
         <v>82</v>
       </c>
@@ -22838,7 +23403,9 @@
       <c r="J159" s="58">
         <v>0.5</v>
       </c>
-      <c r="K159" s="58"/>
+      <c r="K159" s="58">
+        <v>0.505</v>
+      </c>
       <c r="L159" s="58"/>
       <c r="M159" s="58"/>
       <c r="N159" s="58"/>
@@ -22896,7 +23463,9 @@
       <c r="J160" s="65">
         <v>0.51500000000000001</v>
       </c>
-      <c r="K160" s="65"/>
+      <c r="K160" s="65">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="L160" s="65"/>
       <c r="M160" s="65"/>
       <c r="N160" s="65"/>
@@ -22956,7 +23525,9 @@
       <c r="J161" s="65">
         <v>0.495</v>
       </c>
-      <c r="K161" s="65"/>
+      <c r="K161" s="65">
+        <v>0.505</v>
+      </c>
       <c r="L161" s="65"/>
       <c r="M161" s="65"/>
       <c r="N161" s="65"/>
@@ -23011,7 +23582,9 @@
       <c r="J162" s="58">
         <v>0.505</v>
       </c>
-      <c r="K162" s="58"/>
+      <c r="K162" s="58">
+        <v>0.54</v>
+      </c>
       <c r="L162" s="58"/>
       <c r="M162" s="58"/>
       <c r="N162" s="58"/>
@@ -23227,7 +23800,9 @@
       <c r="J164" s="82">
         <v>16417</v>
       </c>
-      <c r="K164" s="82"/>
+      <c r="K164" s="82">
+        <v>174198</v>
+      </c>
       <c r="L164" s="82"/>
       <c r="M164" s="82"/>
       <c r="N164" s="82"/>
@@ -23512,13 +24087,13 @@
       <c r="AO167" s="95"/>
     </row>
     <row r="168" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="167" t="s">
+      <c r="A168" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="168"/>
-      <c r="C168" s="168"/>
-      <c r="D168" s="168"/>
-      <c r="E168" s="169"/>
+      <c r="B168" s="169"/>
+      <c r="C168" s="169"/>
+      <c r="D168" s="169"/>
+      <c r="E168" s="170"/>
       <c r="F168" s="48" t="s">
         <v>7</v>
       </c>
@@ -23534,9 +24109,15 @@
       <c r="J168" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="K168" s="49"/>
-      <c r="L168" s="49"/>
-      <c r="M168" s="49"/>
+      <c r="K168" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="L168" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="M168" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="N168" s="49"/>
       <c r="O168" s="49"/>
       <c r="P168" s="49"/>
@@ -23567,13 +24148,13 @@
       <c r="AO168" s="49"/>
     </row>
     <row r="169" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="170" t="s">
+      <c r="A169" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="171"/>
-      <c r="C169" s="171"/>
-      <c r="D169" s="172"/>
-      <c r="E169" s="173"/>
+      <c r="B169" s="172"/>
+      <c r="C169" s="172"/>
+      <c r="D169" s="173"/>
+      <c r="E169" s="174"/>
       <c r="F169" s="166" t="s">
         <v>85</v>
       </c>
@@ -23706,7 +24287,9 @@
       <c r="J170" s="58">
         <v>1</v>
       </c>
-      <c r="K170" s="58"/>
+      <c r="K170" s="58">
+        <v>0.99</v>
+      </c>
       <c r="L170" s="58"/>
       <c r="M170" s="58"/>
       <c r="N170" s="58"/>
@@ -23764,7 +24347,9 @@
       <c r="J171" s="65">
         <v>1</v>
       </c>
-      <c r="K171" s="65"/>
+      <c r="K171" s="65">
+        <v>1.03</v>
+      </c>
       <c r="L171" s="65"/>
       <c r="M171" s="65"/>
       <c r="N171" s="65"/>
@@ -23824,7 +24409,9 @@
       <c r="J172" s="65">
         <v>0.96499999999999997</v>
       </c>
-      <c r="K172" s="65"/>
+      <c r="K172" s="65">
+        <v>0.95499999999999996</v>
+      </c>
       <c r="L172" s="65"/>
       <c r="M172" s="65"/>
       <c r="N172" s="65"/>
@@ -23879,7 +24466,9 @@
       <c r="J173" s="58">
         <v>0.99</v>
       </c>
-      <c r="K173" s="58"/>
+      <c r="K173" s="58">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="L173" s="58"/>
       <c r="M173" s="58"/>
       <c r="N173" s="58"/>
@@ -24095,7 +24684,9 @@
       <c r="J175" s="82">
         <v>52690</v>
       </c>
-      <c r="K175" s="82"/>
+      <c r="K175" s="82">
+        <v>158557</v>
+      </c>
       <c r="L175" s="82"/>
       <c r="M175" s="82"/>
       <c r="N175" s="82"/>
@@ -24380,13 +24971,13 @@
       <c r="AO178" s="95"/>
     </row>
     <row r="179" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="167" t="s">
+      <c r="A179" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="168"/>
-      <c r="C179" s="168"/>
-      <c r="D179" s="168"/>
-      <c r="E179" s="169"/>
+      <c r="B179" s="169"/>
+      <c r="C179" s="169"/>
+      <c r="D179" s="169"/>
+      <c r="E179" s="170"/>
       <c r="F179" s="48" t="s">
         <v>7</v>
       </c>
@@ -24402,9 +24993,15 @@
       <c r="J179" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="K179" s="49"/>
-      <c r="L179" s="49"/>
-      <c r="M179" s="49"/>
+      <c r="K179" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="L179" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="M179" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="N179" s="49"/>
       <c r="O179" s="49"/>
       <c r="P179" s="49"/>
@@ -24435,13 +25032,13 @@
       <c r="AO179" s="49"/>
     </row>
     <row r="180" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="170" t="s">
+      <c r="A180" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="171"/>
-      <c r="C180" s="171"/>
-      <c r="D180" s="172"/>
-      <c r="E180" s="173"/>
+      <c r="B180" s="172"/>
+      <c r="C180" s="172"/>
+      <c r="D180" s="173"/>
+      <c r="E180" s="174"/>
       <c r="F180" s="166" t="s">
         <v>88</v>
       </c>
@@ -24574,7 +25171,9 @@
       <c r="J181" s="58">
         <v>0.44500000000000001</v>
       </c>
-      <c r="K181" s="58"/>
+      <c r="K181" s="58">
+        <v>0.435</v>
+      </c>
       <c r="L181" s="58"/>
       <c r="M181" s="58"/>
       <c r="N181" s="58"/>
@@ -24632,7 +25231,9 @@
       <c r="J182" s="65">
         <v>0.44500000000000001</v>
       </c>
-      <c r="K182" s="65"/>
+      <c r="K182" s="65">
+        <v>0.435</v>
+      </c>
       <c r="L182" s="65"/>
       <c r="M182" s="65"/>
       <c r="N182" s="65"/>
@@ -24692,7 +25293,9 @@
       <c r="J183" s="65">
         <v>0.435</v>
       </c>
-      <c r="K183" s="65"/>
+      <c r="K183" s="65">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="L183" s="65"/>
       <c r="M183" s="65"/>
       <c r="N183" s="65"/>
@@ -24746,10 +25349,12 @@
       <c r="I184" s="58">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J184" s="202">
+      <c r="J184" s="167">
         <v>0.435</v>
       </c>
-      <c r="K184" s="58"/>
+      <c r="K184" s="58">
+        <v>0.43</v>
+      </c>
       <c r="L184" s="58"/>
       <c r="M184" s="58"/>
       <c r="N184" s="58"/>
@@ -24967,7 +25572,9 @@
       <c r="J186" s="82">
         <v>9090</v>
       </c>
-      <c r="K186" s="82"/>
+      <c r="K186" s="82">
+        <v>10165</v>
+      </c>
       <c r="L186" s="82"/>
       <c r="M186" s="82"/>
       <c r="N186" s="82"/>
@@ -25252,13 +25859,13 @@
       <c r="AO189" s="95"/>
     </row>
     <row r="190" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="167" t="s">
+      <c r="A190" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B190" s="168"/>
-      <c r="C190" s="168"/>
-      <c r="D190" s="168"/>
-      <c r="E190" s="169"/>
+      <c r="B190" s="169"/>
+      <c r="C190" s="169"/>
+      <c r="D190" s="169"/>
+      <c r="E190" s="170"/>
       <c r="F190" s="48" t="s">
         <v>7</v>
       </c>
@@ -25274,9 +25881,15 @@
       <c r="J190" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="K190" s="49"/>
-      <c r="L190" s="49"/>
-      <c r="M190" s="49"/>
+      <c r="K190" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="L190" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="M190" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="N190" s="49"/>
       <c r="O190" s="49"/>
       <c r="P190" s="49"/>
@@ -25307,13 +25920,13 @@
       <c r="AO190" s="49"/>
     </row>
     <row r="191" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="170" t="s">
+      <c r="A191" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="171"/>
-      <c r="C191" s="171"/>
-      <c r="D191" s="172"/>
-      <c r="E191" s="173"/>
+      <c r="B191" s="172"/>
+      <c r="C191" s="172"/>
+      <c r="D191" s="173"/>
+      <c r="E191" s="174"/>
       <c r="F191" s="166" t="s">
         <v>90</v>
       </c>
@@ -25446,7 +26059,9 @@
       <c r="J192" s="58">
         <v>1.47</v>
       </c>
-      <c r="K192" s="58"/>
+      <c r="K192" s="58">
+        <v>1.53</v>
+      </c>
       <c r="L192" s="58"/>
       <c r="M192" s="58"/>
       <c r="N192" s="58"/>
@@ -25504,7 +26119,9 @@
       <c r="J193" s="65">
         <v>1.54</v>
       </c>
-      <c r="K193" s="65"/>
+      <c r="K193" s="65">
+        <v>1.65</v>
+      </c>
       <c r="L193" s="65"/>
       <c r="M193" s="65"/>
       <c r="N193" s="65"/>
@@ -25564,7 +26181,9 @@
       <c r="J194" s="65">
         <v>1.45</v>
       </c>
-      <c r="K194" s="65"/>
+      <c r="K194" s="65">
+        <v>1.53</v>
+      </c>
       <c r="L194" s="65"/>
       <c r="M194" s="65"/>
       <c r="N194" s="65"/>
@@ -25619,7 +26238,9 @@
       <c r="J195" s="58">
         <v>1.53</v>
       </c>
-      <c r="K195" s="58"/>
+      <c r="K195" s="58">
+        <v>1.64</v>
+      </c>
       <c r="L195" s="58"/>
       <c r="M195" s="58"/>
       <c r="N195" s="58"/>
@@ -25835,7 +26456,9 @@
       <c r="J197" s="82">
         <v>16965</v>
       </c>
-      <c r="K197" s="82"/>
+      <c r="K197" s="82">
+        <v>46663</v>
+      </c>
       <c r="L197" s="82"/>
       <c r="M197" s="82"/>
       <c r="N197" s="82"/>
@@ -26120,13 +26743,13 @@
       <c r="AO200" s="95"/>
     </row>
     <row r="201" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="167" t="s">
+      <c r="A201" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="168"/>
-      <c r="C201" s="168"/>
-      <c r="D201" s="168"/>
-      <c r="E201" s="169"/>
+      <c r="B201" s="169"/>
+      <c r="C201" s="169"/>
+      <c r="D201" s="169"/>
+      <c r="E201" s="170"/>
       <c r="F201" s="48" t="s">
         <v>7</v>
       </c>
@@ -26142,9 +26765,15 @@
       <c r="J201" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="K201" s="49"/>
-      <c r="L201" s="49"/>
-      <c r="M201" s="49"/>
+      <c r="K201" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="L201" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="M201" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="N201" s="49"/>
       <c r="O201" s="49"/>
       <c r="P201" s="49"/>
@@ -26175,13 +26804,13 @@
       <c r="AO201" s="49"/>
     </row>
     <row r="202" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="170" t="s">
+      <c r="A202" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="171"/>
-      <c r="C202" s="171"/>
-      <c r="D202" s="172"/>
-      <c r="E202" s="173"/>
+      <c r="B202" s="172"/>
+      <c r="C202" s="172"/>
+      <c r="D202" s="173"/>
+      <c r="E202" s="174"/>
       <c r="F202" s="166" t="s">
         <v>91</v>
       </c>
@@ -26314,7 +26943,9 @@
       <c r="J203" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K203" s="58"/>
+      <c r="K203" s="58">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="L203" s="58"/>
       <c r="M203" s="58"/>
       <c r="N203" s="58"/>
@@ -26372,7 +27003,9 @@
       <c r="J204" s="65">
         <v>1.19</v>
       </c>
-      <c r="K204" s="65"/>
+      <c r="K204" s="65">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="L204" s="65"/>
       <c r="M204" s="65"/>
       <c r="N204" s="65"/>
@@ -26432,7 +27065,9 @@
       <c r="J205" s="65">
         <v>1.02</v>
       </c>
-      <c r="K205" s="65"/>
+      <c r="K205" s="65">
+        <v>1.08</v>
+      </c>
       <c r="L205" s="65"/>
       <c r="M205" s="65"/>
       <c r="N205" s="65"/>
@@ -26487,7 +27122,9 @@
       <c r="J206" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K206" s="58"/>
+      <c r="K206" s="58">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="L206" s="58"/>
       <c r="M206" s="58"/>
       <c r="N206" s="58"/>
@@ -26703,7 +27340,9 @@
       <c r="J208" s="81">
         <v>268788</v>
       </c>
-      <c r="K208" s="82"/>
+      <c r="K208" s="82">
+        <v>80463</v>
+      </c>
       <c r="L208" s="82"/>
       <c r="M208" s="82"/>
       <c r="N208" s="82"/>
@@ -26988,13 +27627,13 @@
       <c r="AO211" s="95"/>
     </row>
     <row r="212" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="167" t="s">
+      <c r="A212" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="168"/>
-      <c r="C212" s="168"/>
-      <c r="D212" s="168"/>
-      <c r="E212" s="169"/>
+      <c r="B212" s="169"/>
+      <c r="C212" s="169"/>
+      <c r="D212" s="169"/>
+      <c r="E212" s="170"/>
       <c r="F212" s="48" t="s">
         <v>7</v>
       </c>
@@ -27007,9 +27646,15 @@
       <c r="I212" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="J212" s="49"/>
-      <c r="K212" s="49"/>
-      <c r="L212" s="49"/>
+      <c r="J212" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K212" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L212" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="M212" s="49"/>
       <c r="N212" s="49"/>
       <c r="O212" s="49"/>
@@ -27041,13 +27686,13 @@
       <c r="AO212" s="49"/>
     </row>
     <row r="213" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="170" t="s">
+      <c r="A213" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="171"/>
-      <c r="C213" s="171"/>
-      <c r="D213" s="172"/>
-      <c r="E213" s="173"/>
+      <c r="B213" s="172"/>
+      <c r="C213" s="172"/>
+      <c r="D213" s="173"/>
+      <c r="E213" s="174"/>
       <c r="F213" s="166" t="s">
         <v>78</v>
       </c>
@@ -27177,7 +27822,9 @@
       <c r="I214" s="58">
         <v>0.56499999999999995</v>
       </c>
-      <c r="J214" s="58"/>
+      <c r="J214" s="58">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="K214" s="58"/>
       <c r="L214" s="58"/>
       <c r="M214" s="58"/>
@@ -27233,7 +27880,9 @@
       <c r="I215" s="65">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J215" s="65"/>
+      <c r="J215" s="65">
+        <v>0.59</v>
+      </c>
       <c r="K215" s="65"/>
       <c r="L215" s="65"/>
       <c r="M215" s="65"/>
@@ -27289,7 +27938,9 @@
       <c r="I216" s="65">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J216" s="65"/>
+      <c r="J216" s="65">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="K216" s="65"/>
       <c r="L216" s="65"/>
       <c r="M216" s="65"/>
@@ -27342,7 +27993,9 @@
       <c r="I217" s="58">
         <v>0.55500000000000005</v>
       </c>
-      <c r="J217" s="58"/>
+      <c r="J217" s="58">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="K217" s="58"/>
       <c r="L217" s="58"/>
       <c r="M217" s="58"/>
@@ -27556,7 +28209,9 @@
       <c r="I219" s="82">
         <v>55894</v>
       </c>
-      <c r="J219" s="82"/>
+      <c r="J219" s="82">
+        <v>151724</v>
+      </c>
       <c r="K219" s="82"/>
       <c r="L219" s="82"/>
       <c r="M219" s="82"/>
@@ -27842,13 +28497,13 @@
       <c r="AO222" s="95"/>
     </row>
     <row r="223" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="167" t="s">
+      <c r="A223" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B223" s="168"/>
-      <c r="C223" s="168"/>
-      <c r="D223" s="168"/>
-      <c r="E223" s="169"/>
+      <c r="B223" s="169"/>
+      <c r="C223" s="169"/>
+      <c r="D223" s="169"/>
+      <c r="E223" s="170"/>
       <c r="F223" s="48" t="s">
         <v>7</v>
       </c>
@@ -27861,9 +28516,15 @@
       <c r="I223" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="J223" s="49"/>
-      <c r="K223" s="49"/>
-      <c r="L223" s="49"/>
+      <c r="J223" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K223" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L223" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="M223" s="49"/>
       <c r="N223" s="49"/>
       <c r="O223" s="49"/>
@@ -27895,13 +28556,13 @@
       <c r="AO223" s="49"/>
     </row>
     <row r="224" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="170" t="s">
+      <c r="A224" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="171"/>
-      <c r="C224" s="171"/>
-      <c r="D224" s="172"/>
-      <c r="E224" s="173"/>
+      <c r="B224" s="172"/>
+      <c r="C224" s="172"/>
+      <c r="D224" s="173"/>
+      <c r="E224" s="174"/>
       <c r="F224" s="166" t="s">
         <v>83</v>
       </c>
@@ -28031,7 +28692,9 @@
       <c r="I225" s="58">
         <v>0.94499999999999995</v>
       </c>
-      <c r="J225" s="58"/>
+      <c r="J225" s="58">
+        <v>0.95499999999999996</v>
+      </c>
       <c r="K225" s="58"/>
       <c r="L225" s="58"/>
       <c r="M225" s="58"/>
@@ -28087,7 +28750,9 @@
       <c r="I226" s="65">
         <v>0.96499999999999997</v>
       </c>
-      <c r="J226" s="65"/>
+      <c r="J226" s="65">
+        <v>0.96</v>
+      </c>
       <c r="K226" s="65"/>
       <c r="L226" s="65"/>
       <c r="M226" s="65"/>
@@ -28143,7 +28808,9 @@
       <c r="I227" s="65">
         <v>0.93500000000000005</v>
       </c>
-      <c r="J227" s="65"/>
+      <c r="J227" s="65">
+        <v>0.92</v>
+      </c>
       <c r="K227" s="65"/>
       <c r="L227" s="65"/>
       <c r="M227" s="65"/>
@@ -28196,7 +28863,9 @@
       <c r="I228" s="58">
         <v>0.95499999999999996</v>
       </c>
-      <c r="J228" s="58"/>
+      <c r="J228" s="58">
+        <v>0.92500000000000004</v>
+      </c>
       <c r="K228" s="58"/>
       <c r="L228" s="58"/>
       <c r="M228" s="58"/>
@@ -28410,7 +29079,9 @@
       <c r="I230" s="82">
         <v>2175</v>
       </c>
-      <c r="J230" s="82"/>
+      <c r="J230" s="82">
+        <v>40612</v>
+      </c>
       <c r="K230" s="82"/>
       <c r="L230" s="82"/>
       <c r="M230" s="82"/>
@@ -28696,13 +29367,13 @@
       <c r="AO233" s="95"/>
     </row>
     <row r="234" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="167" t="s">
+      <c r="A234" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B234" s="168"/>
-      <c r="C234" s="168"/>
-      <c r="D234" s="168"/>
-      <c r="E234" s="169"/>
+      <c r="B234" s="169"/>
+      <c r="C234" s="169"/>
+      <c r="D234" s="169"/>
+      <c r="E234" s="170"/>
       <c r="F234" s="48" t="s">
         <v>7</v>
       </c>
@@ -28715,9 +29386,15 @@
       <c r="I234" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="J234" s="49"/>
-      <c r="K234" s="49"/>
-      <c r="L234" s="49"/>
+      <c r="J234" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K234" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L234" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="M234" s="49"/>
       <c r="N234" s="49"/>
       <c r="O234" s="49"/>
@@ -28749,13 +29426,13 @@
       <c r="AO234" s="49"/>
     </row>
     <row r="235" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="170" t="s">
+      <c r="A235" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B235" s="171"/>
-      <c r="C235" s="171"/>
-      <c r="D235" s="172"/>
-      <c r="E235" s="173"/>
+      <c r="B235" s="172"/>
+      <c r="C235" s="172"/>
+      <c r="D235" s="173"/>
+      <c r="E235" s="174"/>
       <c r="F235" s="166" t="s">
         <v>86</v>
       </c>
@@ -28885,7 +29562,9 @@
       <c r="I236" s="58">
         <v>0.76</v>
       </c>
-      <c r="J236" s="58"/>
+      <c r="J236" s="58">
+        <v>0.76500000000000001</v>
+      </c>
       <c r="K236" s="58"/>
       <c r="L236" s="58"/>
       <c r="M236" s="58"/>
@@ -28941,7 +29620,9 @@
       <c r="I237" s="65">
         <v>0.77500000000000002</v>
       </c>
-      <c r="J237" s="65"/>
+      <c r="J237" s="65">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="K237" s="65"/>
       <c r="L237" s="65"/>
       <c r="M237" s="65"/>
@@ -28999,7 +29680,9 @@
       <c r="I238" s="65">
         <v>0.745</v>
       </c>
-      <c r="J238" s="65"/>
+      <c r="J238" s="65">
+        <v>0.74</v>
+      </c>
       <c r="K238" s="65"/>
       <c r="L238" s="65"/>
       <c r="M238" s="65"/>
@@ -29054,7 +29737,9 @@
       <c r="I239" s="58">
         <v>0.76500000000000001</v>
       </c>
-      <c r="J239" s="58"/>
+      <c r="J239" s="58">
+        <v>0.745</v>
+      </c>
       <c r="K239" s="58"/>
       <c r="L239" s="58"/>
       <c r="M239" s="58"/>
@@ -29270,7 +29955,9 @@
       <c r="I241" s="82">
         <v>71775</v>
       </c>
-      <c r="J241" s="82"/>
+      <c r="J241" s="82">
+        <v>115697</v>
+      </c>
       <c r="K241" s="82"/>
       <c r="L241" s="82"/>
       <c r="M241" s="82"/>
@@ -29556,13 +30243,13 @@
       <c r="AO244" s="95"/>
     </row>
     <row r="245" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="167" t="s">
+      <c r="A245" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B245" s="168"/>
-      <c r="C245" s="168"/>
-      <c r="D245" s="168"/>
-      <c r="E245" s="169"/>
+      <c r="B245" s="169"/>
+      <c r="C245" s="169"/>
+      <c r="D245" s="169"/>
+      <c r="E245" s="170"/>
       <c r="F245" s="48" t="s">
         <v>7</v>
       </c>
@@ -29572,9 +30259,15 @@
       <c r="H245" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="I245" s="49"/>
-      <c r="J245" s="49"/>
-      <c r="K245" s="49"/>
+      <c r="I245" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J245" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K245" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="L245" s="49"/>
       <c r="M245" s="49"/>
       <c r="N245" s="49"/>
@@ -29607,13 +30300,13 @@
       <c r="AO245" s="49"/>
     </row>
     <row r="246" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="170" t="s">
+      <c r="A246" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B246" s="171"/>
-      <c r="C246" s="171"/>
-      <c r="D246" s="172"/>
-      <c r="E246" s="173"/>
+      <c r="B246" s="172"/>
+      <c r="C246" s="172"/>
+      <c r="D246" s="173"/>
+      <c r="E246" s="174"/>
       <c r="F246" s="166" t="s">
         <v>96</v>
       </c>
@@ -29740,7 +30433,9 @@
       <c r="H247" s="58">
         <v>0.7</v>
       </c>
-      <c r="I247" s="58"/>
+      <c r="I247" s="58">
+        <v>0.69499999999999995</v>
+      </c>
       <c r="J247" s="58"/>
       <c r="K247" s="58"/>
       <c r="L247" s="58"/>
@@ -29794,7 +30489,9 @@
       <c r="H248" s="65">
         <v>0.71</v>
       </c>
-      <c r="I248" s="65"/>
+      <c r="I248" s="65">
+        <v>0.73</v>
+      </c>
       <c r="J248" s="65"/>
       <c r="K248" s="65"/>
       <c r="L248" s="65"/>
@@ -29848,7 +30545,9 @@
       <c r="H249" s="65">
         <v>0.68500000000000005</v>
       </c>
-      <c r="I249" s="65"/>
+      <c r="I249" s="65">
+        <v>0.69</v>
+      </c>
       <c r="J249" s="65"/>
       <c r="K249" s="65"/>
       <c r="L249" s="65"/>
@@ -29899,7 +30598,9 @@
       <c r="H250" s="58">
         <v>0.69499999999999995</v>
       </c>
-      <c r="I250" s="58"/>
+      <c r="I250" s="58">
+        <v>0.70499999999999996</v>
+      </c>
       <c r="J250" s="58"/>
       <c r="K250" s="58"/>
       <c r="L250" s="58"/>
@@ -30111,7 +30812,9 @@
       <c r="H252" s="82">
         <v>58689</v>
       </c>
-      <c r="I252" s="82"/>
+      <c r="I252" s="82">
+        <v>64810</v>
+      </c>
       <c r="J252" s="82"/>
       <c r="K252" s="82"/>
       <c r="L252" s="82"/>
@@ -30398,22 +31101,28 @@
       <c r="AO255" s="95"/>
     </row>
     <row r="256" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="167" t="s">
+      <c r="A256" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B256" s="168"/>
-      <c r="C256" s="168"/>
-      <c r="D256" s="168"/>
-      <c r="E256" s="169"/>
+      <c r="B256" s="169"/>
+      <c r="C256" s="169"/>
+      <c r="D256" s="169"/>
+      <c r="E256" s="170"/>
       <c r="F256" s="48" t="s">
         <v>7</v>
       </c>
       <c r="G256" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="H256" s="49"/>
-      <c r="I256" s="49"/>
-      <c r="J256" s="49"/>
+      <c r="H256" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I256" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="J256" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="K256" s="49"/>
       <c r="L256" s="49"/>
       <c r="M256" s="49"/>
@@ -30447,13 +31156,13 @@
       <c r="AO256" s="49"/>
     </row>
     <row r="257" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="170" t="s">
+      <c r="A257" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B257" s="171"/>
-      <c r="C257" s="171"/>
-      <c r="D257" s="172"/>
-      <c r="E257" s="173"/>
+      <c r="B257" s="172"/>
+      <c r="C257" s="172"/>
+      <c r="D257" s="173"/>
+      <c r="E257" s="174"/>
       <c r="F257" s="166"/>
       <c r="G257" s="50" t="s">
         <v>98</v>
@@ -31217,6 +31926,76 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="D224:E224"/>
     <mergeCell ref="A256:E256"/>
     <mergeCell ref="A257:C257"/>
     <mergeCell ref="D257:E257"/>
@@ -31226,76 +32005,6 @@
     <mergeCell ref="A245:E245"/>
     <mergeCell ref="A246:C246"/>
     <mergeCell ref="D246:E246"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31327,43 +32036,43 @@
     <row r="1" spans="1:41" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="F1" s="46"/>
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="199"/>
-      <c r="I1" s="178" t="s">
+      <c r="H1" s="200"/>
+      <c r="I1" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="179"/>
-      <c r="K1" s="180" t="s">
+      <c r="J1" s="180"/>
+      <c r="K1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="181"/>
-      <c r="M1" s="182" t="s">
+      <c r="L1" s="182"/>
+      <c r="M1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="183"/>
-      <c r="O1" s="184" t="s">
+      <c r="N1" s="184"/>
+      <c r="O1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="174" t="s">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="175"/>
-      <c r="S1" s="196" t="s">
+      <c r="R1" s="176"/>
+      <c r="S1" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="197"/>
+      <c r="T1" s="198"/>
     </row>
     <row r="2" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="48" t="s">
         <v>7</v>
       </c>
@@ -31426,15 +32135,15 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172" t="s">
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="173"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="166"/>
       <c r="G3" s="50" t="s">
         <v>98</v>
@@ -32265,13 +32974,13 @@
       <c r="AO12" s="95"/>
     </row>
     <row r="13" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
       <c r="F13" s="48" t="s">
         <v>7</v>
       </c>
@@ -32332,15 +33041,15 @@
       <c r="AO13" s="49"/>
     </row>
     <row r="14" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="172" t="s">
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="173"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="166"/>
       <c r="G14" s="50" t="s">
         <v>98</v>
@@ -33171,13 +33880,13 @@
       <c r="AO23" s="95"/>
     </row>
     <row r="24" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="167" t="s">
+      <c r="A24" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="48" t="s">
         <v>7</v>
       </c>
@@ -33228,15 +33937,15 @@
       <c r="AO24" s="49"/>
     </row>
     <row r="25" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="172" t="s">
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="173"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="166"/>
       <c r="G25" s="50" t="s">
         <v>98</v>
@@ -34017,13 +34726,13 @@
       <c r="AO34" s="95"/>
     </row>
     <row r="35" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="170"/>
       <c r="F35" s="48" t="s">
         <v>7</v>
       </c>
@@ -34090,15 +34799,15 @@
       <c r="AO35" s="49"/>
     </row>
     <row r="36" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="170" t="s">
+      <c r="A36" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="172" t="s">
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="173"/>
+      <c r="E36" s="174"/>
       <c r="F36" s="166"/>
       <c r="G36" s="50" t="s">
         <v>98</v>
@@ -34949,13 +35658,13 @@
       <c r="AO45" s="95"/>
     </row>
     <row r="46" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="167" t="s">
+      <c r="A46" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="169"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="170"/>
       <c r="F46" s="48" t="s">
         <v>7</v>
       </c>
@@ -35022,15 +35731,15 @@
       <c r="AO46" s="49"/>
     </row>
     <row r="47" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="172" t="s">
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="173"/>
+      <c r="E47" s="174"/>
       <c r="F47" s="166"/>
       <c r="G47" s="50" t="s">
         <v>98</v>
@@ -35881,13 +36590,13 @@
       <c r="AO56" s="95"/>
     </row>
     <row r="57" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="167" t="s">
+      <c r="A57" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="169"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="170"/>
       <c r="F57" s="48" t="s">
         <v>7</v>
       </c>
@@ -35946,15 +36655,15 @@
       <c r="AO57" s="49"/>
     </row>
     <row r="58" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="170" t="s">
+      <c r="A58" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="172" t="s">
+      <c r="B58" s="172"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="173"/>
+      <c r="E58" s="174"/>
       <c r="F58" s="166"/>
       <c r="G58" s="50" t="s">
         <v>98</v>
@@ -36765,13 +37474,13 @@
       <c r="AO67" s="95"/>
     </row>
     <row r="68" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="167" t="s">
+      <c r="A68" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="168"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="169"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="170"/>
       <c r="F68" s="48" t="s">
         <v>7</v>
       </c>
@@ -36816,15 +37525,15 @@
       <c r="AO68" s="49"/>
     </row>
     <row r="69" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="170" t="s">
+      <c r="A69" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="171"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="172" t="s">
+      <c r="B69" s="172"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="173"/>
+      <c r="E69" s="174"/>
       <c r="F69" s="166"/>
       <c r="G69" s="50" t="s">
         <v>98</v>
@@ -37595,13 +38304,13 @@
       <c r="AO78" s="95"/>
     </row>
     <row r="79" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="167" t="s">
+      <c r="A79" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="168"/>
-      <c r="C79" s="168"/>
-      <c r="D79" s="168"/>
-      <c r="E79" s="169"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="170"/>
       <c r="F79" s="48" t="s">
         <v>7</v>
       </c>
@@ -37676,15 +38385,15 @@
       <c r="AO79" s="49"/>
     </row>
     <row r="80" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="170" t="s">
+      <c r="A80" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="172" t="s">
+      <c r="B80" s="172"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="173"/>
+      <c r="E80" s="174"/>
       <c r="F80" s="166"/>
       <c r="G80" s="50" t="s">
         <v>98</v>
@@ -38622,13 +39331,13 @@
       <c r="AO89" s="95"/>
     </row>
     <row r="90" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="167" t="s">
+      <c r="A90" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="168"/>
-      <c r="C90" s="168"/>
-      <c r="D90" s="168"/>
-      <c r="E90" s="169"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="170"/>
       <c r="F90" s="48" t="s">
         <v>7</v>
       </c>
@@ -38701,13 +39410,13 @@
       <c r="AO90" s="49"/>
     </row>
     <row r="91" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="170" t="s">
+      <c r="A91" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="171"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="173"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="173"/>
+      <c r="E91" s="174"/>
       <c r="F91" s="166" t="s">
         <v>113</v>
       </c>
@@ -39636,13 +40345,13 @@
       <c r="AO100" s="95"/>
     </row>
     <row r="101" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="167" t="s">
+      <c r="A101" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="168"/>
-      <c r="C101" s="168"/>
-      <c r="D101" s="168"/>
-      <c r="E101" s="169"/>
+      <c r="B101" s="169"/>
+      <c r="C101" s="169"/>
+      <c r="D101" s="169"/>
+      <c r="E101" s="170"/>
       <c r="F101" s="48" t="s">
         <v>7</v>
       </c>
@@ -39713,15 +40422,15 @@
       <c r="AO101" s="49"/>
     </row>
     <row r="102" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="170" t="s">
+      <c r="A102" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="171"/>
-      <c r="C102" s="171"/>
-      <c r="D102" s="172" t="s">
+      <c r="B102" s="172"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="E102" s="173"/>
+      <c r="E102" s="174"/>
       <c r="F102" s="166"/>
       <c r="G102" s="50" t="s">
         <v>98</v>
@@ -40637,13 +41346,13 @@
       <c r="AO111" s="95"/>
     </row>
     <row r="112" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="167" t="s">
+      <c r="A112" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="168"/>
-      <c r="C112" s="168"/>
-      <c r="D112" s="168"/>
-      <c r="E112" s="169"/>
+      <c r="B112" s="169"/>
+      <c r="C112" s="169"/>
+      <c r="D112" s="169"/>
+      <c r="E112" s="170"/>
       <c r="F112" s="48" t="s">
         <v>7</v>
       </c>
@@ -40714,15 +41423,15 @@
       <c r="AO112" s="49"/>
     </row>
     <row r="113" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="170" t="s">
+      <c r="A113" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="171"/>
-      <c r="C113" s="171"/>
-      <c r="D113" s="172" t="s">
+      <c r="B113" s="172"/>
+      <c r="C113" s="172"/>
+      <c r="D113" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="E113" s="173"/>
+      <c r="E113" s="174"/>
       <c r="F113" s="166"/>
       <c r="G113" s="50" t="s">
         <v>98</v>
@@ -41605,13 +42314,13 @@
       <c r="AO122" s="95"/>
     </row>
     <row r="123" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="167" t="s">
+      <c r="A123" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="168"/>
-      <c r="C123" s="168"/>
-      <c r="D123" s="168"/>
-      <c r="E123" s="169"/>
+      <c r="B123" s="169"/>
+      <c r="C123" s="169"/>
+      <c r="D123" s="169"/>
+      <c r="E123" s="170"/>
       <c r="F123" s="48" t="s">
         <v>7</v>
       </c>
@@ -41680,15 +42389,15 @@
       <c r="AO123" s="49"/>
     </row>
     <row r="124" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="170" t="s">
+      <c r="A124" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="171"/>
-      <c r="C124" s="171"/>
-      <c r="D124" s="172" t="s">
+      <c r="B124" s="172"/>
+      <c r="C124" s="172"/>
+      <c r="D124" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="E124" s="173"/>
+      <c r="E124" s="174"/>
       <c r="F124" s="166"/>
       <c r="G124" s="50" t="s">
         <v>98</v>
@@ -42597,13 +43306,13 @@
       <c r="AO133" s="95"/>
     </row>
     <row r="134" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="167" t="s">
+      <c r="A134" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="168"/>
-      <c r="C134" s="168"/>
-      <c r="D134" s="168"/>
-      <c r="E134" s="169"/>
+      <c r="B134" s="169"/>
+      <c r="C134" s="169"/>
+      <c r="D134" s="169"/>
+      <c r="E134" s="170"/>
       <c r="F134" s="48" t="s">
         <v>7</v>
       </c>
@@ -42672,15 +43381,15 @@
       <c r="AO134" s="49"/>
     </row>
     <row r="135" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="170" t="s">
+      <c r="A135" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="171"/>
-      <c r="C135" s="171"/>
-      <c r="D135" s="172" t="s">
+      <c r="B135" s="172"/>
+      <c r="C135" s="172"/>
+      <c r="D135" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="173"/>
+      <c r="E135" s="174"/>
       <c r="F135" s="166"/>
       <c r="G135" s="50" t="s">
         <v>98</v>
@@ -43589,13 +44298,13 @@
       <c r="AO144" s="95"/>
     </row>
     <row r="145" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="167" t="s">
+      <c r="A145" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="168"/>
-      <c r="C145" s="168"/>
-      <c r="D145" s="168"/>
-      <c r="E145" s="169"/>
+      <c r="B145" s="169"/>
+      <c r="C145" s="169"/>
+      <c r="D145" s="169"/>
+      <c r="E145" s="170"/>
       <c r="F145" s="48" t="s">
         <v>7</v>
       </c>
@@ -43664,15 +44373,15 @@
       <c r="AO145" s="49"/>
     </row>
     <row r="146" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="170" t="s">
+      <c r="A146" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="171"/>
-      <c r="C146" s="171"/>
-      <c r="D146" s="172" t="s">
+      <c r="B146" s="172"/>
+      <c r="C146" s="172"/>
+      <c r="D146" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="E146" s="173"/>
+      <c r="E146" s="174"/>
       <c r="F146" s="166"/>
       <c r="G146" s="50" t="s">
         <v>98</v>
@@ -44581,13 +45290,13 @@
       <c r="AO155" s="95"/>
     </row>
     <row r="156" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="167" t="s">
+      <c r="A156" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="168"/>
-      <c r="C156" s="168"/>
-      <c r="D156" s="168"/>
-      <c r="E156" s="169"/>
+      <c r="B156" s="169"/>
+      <c r="C156" s="169"/>
+      <c r="D156" s="169"/>
+      <c r="E156" s="170"/>
       <c r="F156" s="48" t="s">
         <v>7</v>
       </c>
@@ -44650,15 +45359,15 @@
       <c r="AO156" s="49"/>
     </row>
     <row r="157" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="170" t="s">
+      <c r="A157" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="171"/>
-      <c r="C157" s="171"/>
-      <c r="D157" s="172" t="s">
+      <c r="B157" s="172"/>
+      <c r="C157" s="172"/>
+      <c r="D157" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="173"/>
+      <c r="E157" s="174"/>
       <c r="F157" s="166"/>
       <c r="G157" s="50" t="s">
         <v>98</v>
@@ -45537,13 +46246,13 @@
       <c r="AO166" s="95"/>
     </row>
     <row r="167" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="167" t="s">
+      <c r="A167" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="168"/>
-      <c r="C167" s="168"/>
-      <c r="D167" s="168"/>
-      <c r="E167" s="169"/>
+      <c r="B167" s="169"/>
+      <c r="C167" s="169"/>
+      <c r="D167" s="169"/>
+      <c r="E167" s="170"/>
       <c r="F167" s="48" t="s">
         <v>7</v>
       </c>
@@ -45600,15 +46309,15 @@
       <c r="AO167" s="49"/>
     </row>
     <row r="168" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="170" t="s">
+      <c r="A168" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="171"/>
-      <c r="C168" s="171"/>
-      <c r="D168" s="172" t="s">
+      <c r="B168" s="172"/>
+      <c r="C168" s="172"/>
+      <c r="D168" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E168" s="173"/>
+      <c r="E168" s="174"/>
       <c r="F168" s="166"/>
       <c r="G168" s="50" t="s">
         <v>98</v>
@@ -46457,13 +47166,13 @@
       <c r="AO177" s="95"/>
     </row>
     <row r="178" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="167" t="s">
+      <c r="A178" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="168"/>
-      <c r="C178" s="168"/>
-      <c r="D178" s="168"/>
-      <c r="E178" s="169"/>
+      <c r="B178" s="169"/>
+      <c r="C178" s="169"/>
+      <c r="D178" s="169"/>
+      <c r="E178" s="170"/>
       <c r="F178" s="48" t="s">
         <v>7</v>
       </c>
@@ -46520,15 +47229,15 @@
       <c r="AO178" s="49"/>
     </row>
     <row r="179" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="170" t="s">
+      <c r="A179" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="171"/>
-      <c r="C179" s="171"/>
-      <c r="D179" s="172" t="s">
+      <c r="B179" s="172"/>
+      <c r="C179" s="172"/>
+      <c r="D179" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="E179" s="173"/>
+      <c r="E179" s="174"/>
       <c r="F179" s="166"/>
       <c r="G179" s="50" t="s">
         <v>98</v>
@@ -47377,13 +48086,13 @@
       <c r="AO188" s="95"/>
     </row>
     <row r="189" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="167" t="s">
+      <c r="A189" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B189" s="168"/>
-      <c r="C189" s="168"/>
-      <c r="D189" s="168"/>
-      <c r="E189" s="169"/>
+      <c r="B189" s="169"/>
+      <c r="C189" s="169"/>
+      <c r="D189" s="169"/>
+      <c r="E189" s="170"/>
       <c r="F189" s="48" t="s">
         <v>7</v>
       </c>
@@ -47436,15 +48145,15 @@
       <c r="AO189" s="49"/>
     </row>
     <row r="190" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="170" t="s">
+      <c r="A190" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="171"/>
-      <c r="C190" s="171"/>
-      <c r="D190" s="172" t="s">
+      <c r="B190" s="172"/>
+      <c r="C190" s="172"/>
+      <c r="D190" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="E190" s="173"/>
+      <c r="E190" s="174"/>
       <c r="F190" s="166"/>
       <c r="G190" s="50" t="s">
         <v>98</v>
@@ -48273,13 +48982,13 @@
       <c r="AO199" s="95"/>
     </row>
     <row r="200" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="167" t="s">
+      <c r="A200" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="168"/>
-      <c r="C200" s="168"/>
-      <c r="D200" s="168"/>
-      <c r="E200" s="169"/>
+      <c r="B200" s="169"/>
+      <c r="C200" s="169"/>
+      <c r="D200" s="169"/>
+      <c r="E200" s="170"/>
       <c r="F200" s="48" t="s">
         <v>7</v>
       </c>
@@ -48336,15 +49045,15 @@
       <c r="AO200" s="49"/>
     </row>
     <row r="201" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="170" t="s">
+      <c r="A201" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="171"/>
-      <c r="C201" s="171"/>
-      <c r="D201" s="172" t="s">
+      <c r="B201" s="172"/>
+      <c r="C201" s="172"/>
+      <c r="D201" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="E201" s="173"/>
+      <c r="E201" s="174"/>
       <c r="F201" s="166"/>
       <c r="G201" s="50" t="s">
         <v>98</v>
@@ -49128,13 +49837,13 @@
       <c r="AO210" s="95"/>
     </row>
     <row r="211" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="167" t="s">
+      <c r="A211" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="168"/>
-      <c r="C211" s="168"/>
-      <c r="D211" s="168"/>
-      <c r="E211" s="169"/>
+      <c r="B211" s="169"/>
+      <c r="C211" s="169"/>
+      <c r="D211" s="169"/>
+      <c r="E211" s="170"/>
       <c r="F211" s="48" t="s">
         <v>7</v>
       </c>
@@ -49211,15 +49920,15 @@
       <c r="AO211" s="49"/>
     </row>
     <row r="212" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="170" t="s">
+      <c r="A212" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="171"/>
-      <c r="C212" s="171"/>
-      <c r="D212" s="172" t="s">
+      <c r="B212" s="172"/>
+      <c r="C212" s="172"/>
+      <c r="D212" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="E212" s="173"/>
+      <c r="E212" s="174"/>
       <c r="F212" s="166"/>
       <c r="G212" s="50" t="s">
         <v>98</v>
@@ -50140,13 +50849,13 @@
       <c r="AO221" s="95"/>
     </row>
     <row r="222" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="167" t="s">
+      <c r="A222" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="168"/>
-      <c r="C222" s="168"/>
-      <c r="D222" s="168"/>
-      <c r="E222" s="169"/>
+      <c r="B222" s="169"/>
+      <c r="C222" s="169"/>
+      <c r="D222" s="169"/>
+      <c r="E222" s="170"/>
       <c r="F222" s="48" t="s">
         <v>7</v>
       </c>
@@ -50209,15 +50918,15 @@
       <c r="AO222" s="49"/>
     </row>
     <row r="223" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="170" t="s">
+      <c r="A223" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="171"/>
-      <c r="C223" s="171"/>
-      <c r="D223" s="172" t="s">
+      <c r="B223" s="172"/>
+      <c r="C223" s="172"/>
+      <c r="D223" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="E223" s="173"/>
+      <c r="E223" s="174"/>
       <c r="F223" s="166"/>
       <c r="G223" s="50" t="s">
         <v>98</v>
@@ -51076,13 +51785,13 @@
       <c r="AO232" s="95"/>
     </row>
     <row r="233" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="167" t="s">
+      <c r="A233" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B233" s="168"/>
-      <c r="C233" s="168"/>
-      <c r="D233" s="168"/>
-      <c r="E233" s="169"/>
+      <c r="B233" s="169"/>
+      <c r="C233" s="169"/>
+      <c r="D233" s="169"/>
+      <c r="E233" s="170"/>
       <c r="F233" s="48" t="s">
         <v>7</v>
       </c>
@@ -51135,15 +51844,15 @@
       <c r="AO233" s="49"/>
     </row>
     <row r="234" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="170" t="s">
+      <c r="A234" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="171"/>
-      <c r="C234" s="171"/>
-      <c r="D234" s="172" t="s">
+      <c r="B234" s="172"/>
+      <c r="C234" s="172"/>
+      <c r="D234" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E234" s="173"/>
+      <c r="E234" s="174"/>
       <c r="F234" s="166"/>
       <c r="G234" s="50" t="s">
         <v>98</v>
@@ -51962,13 +52671,13 @@
       <c r="AO243" s="95"/>
     </row>
     <row r="244" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="167" t="s">
+      <c r="A244" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B244" s="168"/>
-      <c r="C244" s="168"/>
-      <c r="D244" s="168"/>
-      <c r="E244" s="169"/>
+      <c r="B244" s="169"/>
+      <c r="C244" s="169"/>
+      <c r="D244" s="169"/>
+      <c r="E244" s="170"/>
       <c r="F244" s="48" t="s">
         <v>7</v>
       </c>
@@ -52023,15 +52732,15 @@
       <c r="AO244" s="49"/>
     </row>
     <row r="245" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="170" t="s">
+      <c r="A245" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B245" s="171"/>
-      <c r="C245" s="171"/>
-      <c r="D245" s="172" t="s">
+      <c r="B245" s="172"/>
+      <c r="C245" s="172"/>
+      <c r="D245" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="E245" s="173"/>
+      <c r="E245" s="174"/>
       <c r="F245" s="166"/>
       <c r="G245" s="50" t="s">
         <v>98</v>
@@ -52870,13 +53579,13 @@
       <c r="AO254" s="95"/>
     </row>
     <row r="255" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="167" t="s">
+      <c r="A255" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B255" s="168"/>
-      <c r="C255" s="168"/>
-      <c r="D255" s="168"/>
-      <c r="E255" s="169"/>
+      <c r="B255" s="169"/>
+      <c r="C255" s="169"/>
+      <c r="D255" s="169"/>
+      <c r="E255" s="170"/>
       <c r="F255" s="48" t="s">
         <v>7</v>
       </c>
@@ -52931,15 +53640,15 @@
       <c r="AO255" s="49"/>
     </row>
     <row r="256" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="170" t="s">
+      <c r="A256" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B256" s="171"/>
-      <c r="C256" s="171"/>
-      <c r="D256" s="172" t="s">
+      <c r="B256" s="172"/>
+      <c r="C256" s="172"/>
+      <c r="D256" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="E256" s="173"/>
+      <c r="E256" s="174"/>
       <c r="F256" s="166"/>
       <c r="G256" s="50" t="s">
         <v>98</v>
@@ -53768,13 +54477,13 @@
       <c r="AO265" s="95"/>
     </row>
     <row r="266" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="167" t="s">
+      <c r="A266" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B266" s="168"/>
-      <c r="C266" s="168"/>
-      <c r="D266" s="168"/>
-      <c r="E266" s="169"/>
+      <c r="B266" s="169"/>
+      <c r="C266" s="169"/>
+      <c r="D266" s="169"/>
+      <c r="E266" s="170"/>
       <c r="F266" s="48" t="s">
         <v>7</v>
       </c>
@@ -53825,15 +54534,15 @@
       <c r="AO266" s="49"/>
     </row>
     <row r="267" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="170" t="s">
+      <c r="A267" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B267" s="171"/>
-      <c r="C267" s="171"/>
-      <c r="D267" s="172" t="s">
+      <c r="B267" s="172"/>
+      <c r="C267" s="172"/>
+      <c r="D267" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="E267" s="173"/>
+      <c r="E267" s="174"/>
       <c r="F267" s="166"/>
       <c r="G267" s="50" t="s">
         <v>98</v>
@@ -54618,13 +55327,13 @@
       <c r="AO276" s="95"/>
     </row>
     <row r="277" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="167" t="s">
+      <c r="A277" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B277" s="168"/>
-      <c r="C277" s="168"/>
-      <c r="D277" s="168"/>
-      <c r="E277" s="169"/>
+      <c r="B277" s="169"/>
+      <c r="C277" s="169"/>
+      <c r="D277" s="169"/>
+      <c r="E277" s="170"/>
       <c r="F277" s="48" t="s">
         <v>7</v>
       </c>
@@ -54695,15 +55404,15 @@
       <c r="AO277" s="49"/>
     </row>
     <row r="278" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="170" t="s">
+      <c r="A278" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B278" s="171"/>
-      <c r="C278" s="171"/>
-      <c r="D278" s="172" t="s">
+      <c r="B278" s="172"/>
+      <c r="C278" s="172"/>
+      <c r="D278" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="E278" s="173"/>
+      <c r="E278" s="174"/>
       <c r="F278" s="166"/>
       <c r="G278" s="50" t="s">
         <v>98</v>
@@ -55581,13 +56290,13 @@
       <c r="AO287" s="95"/>
     </row>
     <row r="288" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="167" t="s">
+      <c r="A288" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B288" s="168"/>
-      <c r="C288" s="168"/>
-      <c r="D288" s="168"/>
-      <c r="E288" s="169"/>
+      <c r="B288" s="169"/>
+      <c r="C288" s="169"/>
+      <c r="D288" s="169"/>
+      <c r="E288" s="170"/>
       <c r="F288" s="48" t="s">
         <v>7</v>
       </c>
@@ -55650,15 +56359,15 @@
       <c r="AO288" s="49"/>
     </row>
     <row r="289" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="170" t="s">
+      <c r="A289" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B289" s="171"/>
-      <c r="C289" s="171"/>
-      <c r="D289" s="172" t="s">
+      <c r="B289" s="172"/>
+      <c r="C289" s="172"/>
+      <c r="D289" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="E289" s="173"/>
+      <c r="E289" s="174"/>
       <c r="F289" s="166"/>
       <c r="G289" s="50" t="s">
         <v>98</v>
@@ -56493,13 +57202,13 @@
       <c r="AO298" s="95"/>
     </row>
     <row r="299" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="167" t="s">
+      <c r="A299" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B299" s="168"/>
-      <c r="C299" s="168"/>
-      <c r="D299" s="168"/>
-      <c r="E299" s="169"/>
+      <c r="B299" s="169"/>
+      <c r="C299" s="169"/>
+      <c r="D299" s="169"/>
+      <c r="E299" s="170"/>
       <c r="F299" s="48" t="s">
         <v>7</v>
       </c>
@@ -56560,15 +57269,15 @@
       <c r="AO299" s="49"/>
     </row>
     <row r="300" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="170" t="s">
+      <c r="A300" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B300" s="171"/>
-      <c r="C300" s="171"/>
-      <c r="D300" s="172" t="s">
+      <c r="B300" s="172"/>
+      <c r="C300" s="172"/>
+      <c r="D300" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="E300" s="173"/>
+      <c r="E300" s="174"/>
       <c r="F300" s="166"/>
       <c r="G300" s="50" t="s">
         <v>98</v>
@@ -57387,13 +58096,13 @@
       <c r="AO309" s="95"/>
     </row>
     <row r="310" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="167" t="s">
+      <c r="A310" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B310" s="168"/>
-      <c r="C310" s="168"/>
-      <c r="D310" s="168"/>
-      <c r="E310" s="169"/>
+      <c r="B310" s="169"/>
+      <c r="C310" s="169"/>
+      <c r="D310" s="169"/>
+      <c r="E310" s="170"/>
       <c r="F310" s="48" t="s">
         <v>7</v>
       </c>
@@ -57454,15 +58163,15 @@
       <c r="AO310" s="49"/>
     </row>
     <row r="311" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="170" t="s">
+      <c r="A311" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B311" s="171"/>
-      <c r="C311" s="171"/>
-      <c r="D311" s="172" t="s">
+      <c r="B311" s="172"/>
+      <c r="C311" s="172"/>
+      <c r="D311" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="E311" s="173"/>
+      <c r="E311" s="174"/>
       <c r="F311" s="166"/>
       <c r="G311" s="50" t="s">
         <v>98</v>
@@ -58283,13 +58992,13 @@
       <c r="AO320" s="95"/>
     </row>
     <row r="321" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="167" t="s">
+      <c r="A321" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B321" s="168"/>
-      <c r="C321" s="168"/>
-      <c r="D321" s="168"/>
-      <c r="E321" s="169"/>
+      <c r="B321" s="169"/>
+      <c r="C321" s="169"/>
+      <c r="D321" s="169"/>
+      <c r="E321" s="170"/>
       <c r="F321" s="48" t="s">
         <v>7</v>
       </c>
@@ -58346,15 +59055,15 @@
       <c r="AO321" s="49"/>
     </row>
     <row r="322" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="170" t="s">
+      <c r="A322" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B322" s="171"/>
-      <c r="C322" s="171"/>
-      <c r="D322" s="172" t="s">
+      <c r="B322" s="172"/>
+      <c r="C322" s="172"/>
+      <c r="D322" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="E322" s="173"/>
+      <c r="E322" s="174"/>
       <c r="F322" s="166"/>
       <c r="G322" s="50" t="s">
         <v>98</v>
@@ -59153,13 +59862,13 @@
       <c r="AO331" s="95"/>
     </row>
     <row r="332" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="167" t="s">
+      <c r="A332" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B332" s="168"/>
-      <c r="C332" s="168"/>
-      <c r="D332" s="168"/>
-      <c r="E332" s="169"/>
+      <c r="B332" s="169"/>
+      <c r="C332" s="169"/>
+      <c r="D332" s="169"/>
+      <c r="E332" s="170"/>
       <c r="F332" s="48" t="s">
         <v>7</v>
       </c>
@@ -59226,15 +59935,15 @@
       <c r="AO332" s="49"/>
     </row>
     <row r="333" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="170" t="s">
+      <c r="A333" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="171"/>
-      <c r="C333" s="171"/>
-      <c r="D333" s="172" t="s">
+      <c r="B333" s="172"/>
+      <c r="C333" s="172"/>
+      <c r="D333" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="E333" s="173"/>
+      <c r="E333" s="174"/>
       <c r="F333" s="166"/>
       <c r="G333" s="50" t="s">
         <v>98</v>
@@ -60102,13 +60811,13 @@
       <c r="AO342" s="95"/>
     </row>
     <row r="343" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="167" t="s">
+      <c r="A343" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B343" s="168"/>
-      <c r="C343" s="168"/>
-      <c r="D343" s="168"/>
-      <c r="E343" s="169"/>
+      <c r="B343" s="169"/>
+      <c r="C343" s="169"/>
+      <c r="D343" s="169"/>
+      <c r="E343" s="170"/>
       <c r="F343" s="48" t="s">
         <v>7</v>
       </c>
@@ -60163,15 +60872,15 @@
       <c r="AO343" s="49"/>
     </row>
     <row r="344" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="170" t="s">
+      <c r="A344" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B344" s="171"/>
-      <c r="C344" s="171"/>
-      <c r="D344" s="172" t="s">
+      <c r="B344" s="172"/>
+      <c r="C344" s="172"/>
+      <c r="D344" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E344" s="173"/>
+      <c r="E344" s="174"/>
       <c r="F344" s="166"/>
       <c r="G344" s="50" t="s">
         <v>98</v>
@@ -60980,13 +61689,13 @@
       <c r="AO353" s="95"/>
     </row>
     <row r="354" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="167" t="s">
+      <c r="A354" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B354" s="168"/>
-      <c r="C354" s="168"/>
-      <c r="D354" s="168"/>
-      <c r="E354" s="169"/>
+      <c r="B354" s="169"/>
+      <c r="C354" s="169"/>
+      <c r="D354" s="169"/>
+      <c r="E354" s="170"/>
       <c r="F354" s="48" t="s">
         <v>7</v>
       </c>
@@ -61055,15 +61764,15 @@
       <c r="AO354" s="49"/>
     </row>
     <row r="355" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="170" t="s">
+      <c r="A355" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B355" s="171"/>
-      <c r="C355" s="171"/>
-      <c r="D355" s="172" t="s">
+      <c r="B355" s="172"/>
+      <c r="C355" s="172"/>
+      <c r="D355" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="E355" s="173"/>
+      <c r="E355" s="174"/>
       <c r="F355" s="166"/>
       <c r="G355" s="50" t="s">
         <v>98</v>
@@ -61971,13 +62680,13 @@
       <c r="AO364" s="95"/>
     </row>
     <row r="365" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="167" t="s">
+      <c r="A365" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B365" s="168"/>
-      <c r="C365" s="168"/>
-      <c r="D365" s="168"/>
-      <c r="E365" s="169"/>
+      <c r="B365" s="169"/>
+      <c r="C365" s="169"/>
+      <c r="D365" s="169"/>
+      <c r="E365" s="170"/>
       <c r="F365" s="48" t="s">
         <v>7</v>
       </c>
@@ -62042,15 +62751,15 @@
       <c r="AO365" s="49"/>
     </row>
     <row r="366" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="170" t="s">
+      <c r="A366" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B366" s="171"/>
-      <c r="C366" s="171"/>
-      <c r="D366" s="172" t="s">
+      <c r="B366" s="172"/>
+      <c r="C366" s="172"/>
+      <c r="D366" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="E366" s="173"/>
+      <c r="E366" s="174"/>
       <c r="F366" s="166"/>
       <c r="G366" s="50" t="s">
         <v>98</v>
@@ -62939,13 +63648,13 @@
       <c r="AO375" s="95"/>
     </row>
     <row r="376" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="167" t="s">
+      <c r="A376" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B376" s="168"/>
-      <c r="C376" s="168"/>
-      <c r="D376" s="168"/>
-      <c r="E376" s="169"/>
+      <c r="B376" s="169"/>
+      <c r="C376" s="169"/>
+      <c r="D376" s="169"/>
+      <c r="E376" s="170"/>
       <c r="F376" s="48" t="s">
         <v>7</v>
       </c>
@@ -63006,15 +63715,15 @@
       <c r="AO376" s="49"/>
     </row>
     <row r="377" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="170" t="s">
+      <c r="A377" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B377" s="171"/>
-      <c r="C377" s="171"/>
-      <c r="D377" s="172" t="s">
+      <c r="B377" s="172"/>
+      <c r="C377" s="172"/>
+      <c r="D377" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="E377" s="173"/>
+      <c r="E377" s="174"/>
       <c r="F377" s="166"/>
       <c r="G377" s="50" t="s">
         <v>98</v>
@@ -63883,13 +64592,13 @@
       <c r="AO386" s="95"/>
     </row>
     <row r="387" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="167" t="s">
+      <c r="A387" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B387" s="168"/>
-      <c r="C387" s="168"/>
-      <c r="D387" s="168"/>
-      <c r="E387" s="169"/>
+      <c r="B387" s="169"/>
+      <c r="C387" s="169"/>
+      <c r="D387" s="169"/>
+      <c r="E387" s="170"/>
       <c r="F387" s="48" t="s">
         <v>7</v>
       </c>
@@ -63936,15 +64645,15 @@
       <c r="AO387" s="49"/>
     </row>
     <row r="388" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="170" t="s">
+      <c r="A388" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B388" s="171"/>
-      <c r="C388" s="171"/>
-      <c r="D388" s="172" t="s">
+      <c r="B388" s="172"/>
+      <c r="C388" s="172"/>
+      <c r="D388" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="E388" s="173"/>
+      <c r="E388" s="174"/>
       <c r="F388" s="166"/>
       <c r="G388" s="50" t="s">
         <v>98</v>
@@ -64743,13 +65452,13 @@
       <c r="AO397" s="95"/>
     </row>
     <row r="398" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="167" t="s">
+      <c r="A398" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B398" s="168"/>
-      <c r="C398" s="168"/>
-      <c r="D398" s="168"/>
-      <c r="E398" s="169"/>
+      <c r="B398" s="169"/>
+      <c r="C398" s="169"/>
+      <c r="D398" s="169"/>
+      <c r="E398" s="170"/>
       <c r="F398" s="48" t="s">
         <v>7</v>
       </c>
@@ -64808,13 +65517,13 @@
       <c r="AO398" s="49"/>
     </row>
     <row r="399" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="170" t="s">
+      <c r="A399" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B399" s="171"/>
-      <c r="C399" s="171"/>
-      <c r="D399" s="172"/>
-      <c r="E399" s="173"/>
+      <c r="B399" s="172"/>
+      <c r="C399" s="172"/>
+      <c r="D399" s="173"/>
+      <c r="E399" s="174"/>
       <c r="F399" s="166" t="s">
         <v>128</v>
       </c>
@@ -65635,13 +66344,13 @@
       <c r="AO408" s="95"/>
     </row>
     <row r="409" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="167" t="s">
+      <c r="A409" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B409" s="168"/>
-      <c r="C409" s="168"/>
-      <c r="D409" s="168"/>
-      <c r="E409" s="169"/>
+      <c r="B409" s="169"/>
+      <c r="C409" s="169"/>
+      <c r="D409" s="169"/>
+      <c r="E409" s="170"/>
       <c r="F409" s="48" t="s">
         <v>7</v>
       </c>
@@ -65710,13 +66419,13 @@
       <c r="AO409" s="49"/>
     </row>
     <row r="410" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="170" t="s">
+      <c r="A410" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B410" s="171"/>
-      <c r="C410" s="171"/>
-      <c r="D410" s="172"/>
-      <c r="E410" s="173"/>
+      <c r="B410" s="172"/>
+      <c r="C410" s="172"/>
+      <c r="D410" s="173"/>
+      <c r="E410" s="174"/>
       <c r="F410" s="166" t="s">
         <v>129</v>
       </c>
@@ -66587,13 +67296,13 @@
       <c r="AO419" s="95"/>
     </row>
     <row r="420" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="167" t="s">
+      <c r="A420" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B420" s="168"/>
-      <c r="C420" s="168"/>
-      <c r="D420" s="168"/>
-      <c r="E420" s="169"/>
+      <c r="B420" s="169"/>
+      <c r="C420" s="169"/>
+      <c r="D420" s="169"/>
+      <c r="E420" s="170"/>
       <c r="F420" s="48" t="s">
         <v>7</v>
       </c>
@@ -66662,13 +67371,13 @@
       <c r="AO420" s="49"/>
     </row>
     <row r="421" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="170" t="s">
+      <c r="A421" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B421" s="171"/>
-      <c r="C421" s="171"/>
-      <c r="D421" s="172"/>
-      <c r="E421" s="173"/>
+      <c r="B421" s="172"/>
+      <c r="C421" s="172"/>
+      <c r="D421" s="173"/>
+      <c r="E421" s="174"/>
       <c r="F421" s="166" t="s">
         <v>130</v>
       </c>
@@ -67539,13 +68248,13 @@
       <c r="AO430" s="95"/>
     </row>
     <row r="431" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="167" t="s">
+      <c r="A431" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B431" s="168"/>
-      <c r="C431" s="168"/>
-      <c r="D431" s="168"/>
-      <c r="E431" s="169"/>
+      <c r="B431" s="169"/>
+      <c r="C431" s="169"/>
+      <c r="D431" s="169"/>
+      <c r="E431" s="170"/>
       <c r="F431" s="48" t="s">
         <v>7</v>
       </c>
@@ -67610,13 +68319,13 @@
       <c r="AO431" s="49"/>
     </row>
     <row r="432" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="170" t="s">
+      <c r="A432" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B432" s="171"/>
-      <c r="C432" s="171"/>
-      <c r="D432" s="172"/>
-      <c r="E432" s="173"/>
+      <c r="B432" s="172"/>
+      <c r="C432" s="172"/>
+      <c r="D432" s="173"/>
+      <c r="E432" s="174"/>
       <c r="F432" s="166" t="s">
         <v>131</v>
       </c>
@@ -68478,45 +69187,70 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="A420:E420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:E421"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="D432:E432"/>
-    <mergeCell ref="A332:E332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="A299:E299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:E399"/>
+    <mergeCell ref="A387:E387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="A354:E354"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A376:E376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="D113:E113"/>
     <mergeCell ref="A123:E123"/>
@@ -68541,70 +69275,45 @@
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="A244:E244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A398:E398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:E399"/>
-    <mergeCell ref="A387:E387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="A354:E354"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A376:E376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="A420:E420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:E421"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D432:E432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -68706,22 +69415,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/fiavest_trading_plan.xlsx
+++ b/fiavest_trading_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6558" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{765311C4-EFBE-4D36-A658-915388E491B9}"/>
+  <xr:revisionPtr revIDLastSave="6562" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{951E9B60-B9F7-4A1C-9280-72969E77BBB0}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="0" windowWidth="17445" windowHeight="16200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="17445" windowHeight="16200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BREAKDOWN" sheetId="10" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="191">
   <si>
     <t>SUPPORT</t>
   </si>
@@ -642,6 +642,15 @@
   </si>
   <si>
     <t>GADANG</t>
+  </si>
+  <si>
+    <t>EATECH</t>
+  </si>
+  <si>
+    <t>NAIM</t>
+  </si>
+  <si>
+    <t>OMESTI</t>
   </si>
 </sst>
 </file>
@@ -3355,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y75" sqref="Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7273,7 +7282,9 @@
       <c r="V72" s="147"/>
       <c r="W72" s="147"/>
       <c r="X72" s="148"/>
-      <c r="Y72" s="149"/>
+      <c r="Y72" s="149" t="s">
+        <v>188</v>
+      </c>
       <c r="Z72" s="146"/>
       <c r="AA72" s="147"/>
       <c r="AB72" s="147"/>
@@ -7342,7 +7353,9 @@
       <c r="V73" s="147"/>
       <c r="W73" s="147"/>
       <c r="X73" s="148"/>
-      <c r="Y73" s="149"/>
+      <c r="Y73" s="149" t="s">
+        <v>189</v>
+      </c>
       <c r="Z73" s="146"/>
       <c r="AA73" s="147"/>
       <c r="AB73" s="147"/>
@@ -7411,7 +7424,9 @@
       <c r="V74" s="147"/>
       <c r="W74" s="147"/>
       <c r="X74" s="148"/>
-      <c r="Y74" s="149"/>
+      <c r="Y74" s="149" t="s">
+        <v>190</v>
+      </c>
       <c r="Z74" s="146"/>
       <c r="AA74" s="147"/>
       <c r="AB74" s="147"/>
@@ -7480,7 +7495,9 @@
       <c r="V75" s="147"/>
       <c r="W75" s="147"/>
       <c r="X75" s="148"/>
-      <c r="Y75" s="149"/>
+      <c r="Y75" s="149" t="s">
+        <v>91</v>
+      </c>
       <c r="Z75" s="146"/>
       <c r="AA75" s="147"/>
       <c r="AB75" s="147"/>
@@ -10292,13 +10309,62 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="AE119:AJ119"/>
-    <mergeCell ref="AK119:AP119"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="M119:R119"/>
-    <mergeCell ref="S119:X119"/>
-    <mergeCell ref="Y119:AD119"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="AK21:AP21"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="Y31:AD31"/>
+    <mergeCell ref="AE31:AJ31"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AE41:AJ41"/>
+    <mergeCell ref="AK41:AP41"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AD41"/>
+    <mergeCell ref="AE70:AJ70"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M89:R89"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="Y89:AD89"/>
+    <mergeCell ref="AE89:AJ89"/>
+    <mergeCell ref="AK89:AP89"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:L70"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="Y70:AD70"/>
     <mergeCell ref="AE99:AJ99"/>
     <mergeCell ref="AK99:AP99"/>
     <mergeCell ref="A109:F109"/>
@@ -10313,62 +10379,13 @@
     <mergeCell ref="M99:R99"/>
     <mergeCell ref="S99:X99"/>
     <mergeCell ref="Y99:AD99"/>
-    <mergeCell ref="AE70:AJ70"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:R89"/>
-    <mergeCell ref="S89:X89"/>
-    <mergeCell ref="Y89:AD89"/>
-    <mergeCell ref="AE89:AJ89"/>
-    <mergeCell ref="AK89:AP89"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="Y70:AD70"/>
-    <mergeCell ref="AE41:AJ41"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AE21:AJ21"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="Y31:AD31"/>
-    <mergeCell ref="AE31:AJ31"/>
+    <mergeCell ref="AE119:AJ119"/>
+    <mergeCell ref="AK119:AP119"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="M119:R119"/>
+    <mergeCell ref="S119:X119"/>
+    <mergeCell ref="Y119:AD119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31926,19 +31943,63 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="A245:E245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:E48"/>
@@ -31948,63 +32009,19 @@
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="A245:E245"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -69187,70 +69204,45 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A398:E398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:E399"/>
-    <mergeCell ref="A387:E387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="A354:E354"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A376:E376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="A244:E244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="A420:E420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:E421"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D432:E432"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A167:E167"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="D113:E113"/>
     <mergeCell ref="A123:E123"/>
@@ -69275,45 +69267,70 @@
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A299:E299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="A332:E332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="A420:E420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:E421"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="D432:E432"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:E399"/>
+    <mergeCell ref="A387:E387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="A354:E354"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A376:E376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="D377:E377"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/fiavest_trading_plan.xlsx
+++ b/fiavest_trading_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6850" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFB60399-918C-40E1-A1C9-C886BBAB6D0B}"/>
+  <xr:revisionPtr revIDLastSave="6853" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5BEA4D3-F7C6-4FD8-948B-DC626B58F0B0}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="0" windowWidth="17445" windowHeight="16200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BREAKDOWN" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="197">
   <si>
     <t>SUPPORT</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>GDB</t>
   </si>
 </sst>
 </file>
@@ -1723,6 +1726,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,9 +1833,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2235,39 +2238,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="132" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="180" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="181"/>
-      <c r="E1" s="182" t="s">
+      <c r="D1" s="182"/>
+      <c r="E1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="184" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="186" t="s">
+      <c r="H1" s="186"/>
+      <c r="I1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="187"/>
-      <c r="K1" s="176" t="s">
+      <c r="J1" s="188"/>
+      <c r="K1" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="177"/>
+      <c r="L1" s="178"/>
     </row>
     <row r="2" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="133" t="s">
         <v>7</v>
       </c>
@@ -2308,13 +2311,13 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="134"/>
       <c r="G3" s="51" t="s">
         <v>9</v>
@@ -3065,26 +3068,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="190"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="191"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:7" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
@@ -3341,13 +3344,13 @@
       <c r="G24" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="196"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="126">
@@ -3408,7 +3411,7 @@
   <dimension ref="A1:AP134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3459,62 +3462,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197">
+      <c r="A1" s="198">
         <v>43829</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198">
         <v>43830</v>
       </c>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197">
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198">
         <v>43831</v>
       </c>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197">
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198">
         <v>43832</v>
       </c>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197">
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198">
         <v>43833</v>
       </c>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197">
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198">
         <v>43834</v>
       </c>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197">
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198">
         <v>43835</v>
       </c>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="197"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="198"/>
+      <c r="AO1" s="198"/>
+      <c r="AP1" s="198"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
@@ -3989,62 +3992,62 @@
       <c r="AP10" s="158"/>
     </row>
     <row r="11" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="197">
+      <c r="A11" s="198">
         <v>43836</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="197">
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198">
         <v>43837</v>
       </c>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197">
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198">
         <v>43838</v>
       </c>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197">
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="198">
         <v>43839</v>
       </c>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197">
+      <c r="T11" s="198"/>
+      <c r="U11" s="198"/>
+      <c r="V11" s="198"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="198">
         <v>43840</v>
       </c>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="197"/>
-      <c r="AE11" s="197">
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="198"/>
+      <c r="AE11" s="198">
         <v>43841</v>
       </c>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="197"/>
-      <c r="AJ11" s="197"/>
-      <c r="AK11" s="197">
+      <c r="AF11" s="198"/>
+      <c r="AG11" s="198"/>
+      <c r="AH11" s="198"/>
+      <c r="AI11" s="198"/>
+      <c r="AJ11" s="198"/>
+      <c r="AK11" s="198">
         <v>43842</v>
       </c>
-      <c r="AL11" s="197"/>
-      <c r="AM11" s="197"/>
-      <c r="AN11" s="197"/>
-      <c r="AO11" s="197"/>
-      <c r="AP11" s="197"/>
+      <c r="AL11" s="198"/>
+      <c r="AM11" s="198"/>
+      <c r="AN11" s="198"/>
+      <c r="AO11" s="198"/>
+      <c r="AP11" s="198"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="141" t="s">
@@ -4519,62 +4522,62 @@
       <c r="AP20" s="158"/>
     </row>
     <row r="21" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="197">
+      <c r="A21" s="198">
         <v>43843</v>
       </c>
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197">
+      <c r="B21" s="198"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198">
         <v>43844</v>
       </c>
-      <c r="H21" s="197"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197">
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198">
         <v>43845</v>
       </c>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="197"/>
-      <c r="S21" s="197">
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="198">
         <v>43846</v>
       </c>
-      <c r="T21" s="197"/>
-      <c r="U21" s="197"/>
-      <c r="V21" s="197"/>
-      <c r="W21" s="197"/>
-      <c r="X21" s="197"/>
-      <c r="Y21" s="197">
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
+      <c r="W21" s="198"/>
+      <c r="X21" s="198"/>
+      <c r="Y21" s="198">
         <v>43847</v>
       </c>
-      <c r="Z21" s="197"/>
-      <c r="AA21" s="197"/>
-      <c r="AB21" s="197"/>
-      <c r="AC21" s="197"/>
-      <c r="AD21" s="197"/>
-      <c r="AE21" s="197">
+      <c r="Z21" s="198"/>
+      <c r="AA21" s="198"/>
+      <c r="AB21" s="198"/>
+      <c r="AC21" s="198"/>
+      <c r="AD21" s="198"/>
+      <c r="AE21" s="198">
         <v>43848</v>
       </c>
-      <c r="AF21" s="197"/>
-      <c r="AG21" s="197"/>
-      <c r="AH21" s="197"/>
-      <c r="AI21" s="197"/>
-      <c r="AJ21" s="197"/>
-      <c r="AK21" s="197">
+      <c r="AF21" s="198"/>
+      <c r="AG21" s="198"/>
+      <c r="AH21" s="198"/>
+      <c r="AI21" s="198"/>
+      <c r="AJ21" s="198"/>
+      <c r="AK21" s="198">
         <v>43849</v>
       </c>
-      <c r="AL21" s="197"/>
-      <c r="AM21" s="197"/>
-      <c r="AN21" s="197"/>
-      <c r="AO21" s="197"/>
-      <c r="AP21" s="197"/>
+      <c r="AL21" s="198"/>
+      <c r="AM21" s="198"/>
+      <c r="AN21" s="198"/>
+      <c r="AO21" s="198"/>
+      <c r="AP21" s="198"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="141" t="s">
@@ -5049,62 +5052,62 @@
       <c r="AP30" s="158"/>
     </row>
     <row r="31" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="197">
+      <c r="A31" s="198">
         <v>43850</v>
       </c>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197">
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198">
         <v>43851</v>
       </c>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197">
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198">
         <v>43852</v>
       </c>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="197"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197">
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="198"/>
+      <c r="R31" s="198"/>
+      <c r="S31" s="198">
         <v>43853</v>
       </c>
-      <c r="T31" s="197"/>
-      <c r="U31" s="197"/>
-      <c r="V31" s="197"/>
-      <c r="W31" s="197"/>
-      <c r="X31" s="197"/>
-      <c r="Y31" s="197">
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198"/>
+      <c r="W31" s="198"/>
+      <c r="X31" s="198"/>
+      <c r="Y31" s="198">
         <v>43854</v>
       </c>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
-      <c r="AB31" s="197"/>
-      <c r="AC31" s="197"/>
-      <c r="AD31" s="197"/>
-      <c r="AE31" s="197">
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="198"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="198"/>
+      <c r="AD31" s="198"/>
+      <c r="AE31" s="198">
         <v>43855</v>
       </c>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="197"/>
-      <c r="AH31" s="197"/>
-      <c r="AI31" s="197"/>
-      <c r="AJ31" s="197"/>
-      <c r="AK31" s="197">
+      <c r="AF31" s="198"/>
+      <c r="AG31" s="198"/>
+      <c r="AH31" s="198"/>
+      <c r="AI31" s="198"/>
+      <c r="AJ31" s="198"/>
+      <c r="AK31" s="198">
         <v>43856</v>
       </c>
-      <c r="AL31" s="197"/>
-      <c r="AM31" s="197"/>
-      <c r="AN31" s="197"/>
-      <c r="AO31" s="197"/>
-      <c r="AP31" s="197"/>
+      <c r="AL31" s="198"/>
+      <c r="AM31" s="198"/>
+      <c r="AN31" s="198"/>
+      <c r="AO31" s="198"/>
+      <c r="AP31" s="198"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="141" t="s">
@@ -5579,62 +5582,62 @@
       <c r="AP40" s="158"/>
     </row>
     <row r="41" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="197">
+      <c r="A41" s="198">
         <v>43857</v>
       </c>
-      <c r="B41" s="197"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197">
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198">
         <v>43858</v>
       </c>
-      <c r="H41" s="197"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="197"/>
-      <c r="L41" s="197"/>
-      <c r="M41" s="197">
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="198"/>
+      <c r="M41" s="198">
         <v>43859</v>
       </c>
-      <c r="N41" s="197"/>
-      <c r="O41" s="197"/>
-      <c r="P41" s="197"/>
-      <c r="Q41" s="197"/>
-      <c r="R41" s="197"/>
-      <c r="S41" s="197">
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="198"/>
+      <c r="S41" s="198">
         <v>43860</v>
       </c>
-      <c r="T41" s="197"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
-      <c r="X41" s="197"/>
-      <c r="Y41" s="197">
+      <c r="T41" s="198"/>
+      <c r="U41" s="198"/>
+      <c r="V41" s="198"/>
+      <c r="W41" s="198"/>
+      <c r="X41" s="198"/>
+      <c r="Y41" s="198">
         <v>43861</v>
       </c>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-      <c r="AC41" s="197"/>
-      <c r="AD41" s="197"/>
-      <c r="AE41" s="197">
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
+      <c r="AC41" s="198"/>
+      <c r="AD41" s="198"/>
+      <c r="AE41" s="198">
         <v>43862</v>
       </c>
-      <c r="AF41" s="197"/>
-      <c r="AG41" s="197"/>
-      <c r="AH41" s="197"/>
-      <c r="AI41" s="197"/>
-      <c r="AJ41" s="197"/>
-      <c r="AK41" s="197">
+      <c r="AF41" s="198"/>
+      <c r="AG41" s="198"/>
+      <c r="AH41" s="198"/>
+      <c r="AI41" s="198"/>
+      <c r="AJ41" s="198"/>
+      <c r="AK41" s="198">
         <v>43863</v>
       </c>
-      <c r="AL41" s="197"/>
-      <c r="AM41" s="197"/>
-      <c r="AN41" s="197"/>
-      <c r="AO41" s="197"/>
-      <c r="AP41" s="197"/>
+      <c r="AL41" s="198"/>
+      <c r="AM41" s="198"/>
+      <c r="AN41" s="198"/>
+      <c r="AO41" s="198"/>
+      <c r="AP41" s="198"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="141" t="s">
@@ -6109,62 +6112,62 @@
       <c r="AP50" s="158"/>
     </row>
     <row r="51" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="197">
+      <c r="A51" s="198">
         <v>43864</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197">
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198">
         <v>43865</v>
       </c>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="197"/>
-      <c r="L51" s="197"/>
-      <c r="M51" s="197">
+      <c r="H51" s="198"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="198"/>
+      <c r="L51" s="198"/>
+      <c r="M51" s="198">
         <v>43866</v>
       </c>
-      <c r="N51" s="197"/>
-      <c r="O51" s="197"/>
-      <c r="P51" s="197"/>
-      <c r="Q51" s="197"/>
-      <c r="R51" s="197"/>
-      <c r="S51" s="197">
+      <c r="N51" s="198"/>
+      <c r="O51" s="198"/>
+      <c r="P51" s="198"/>
+      <c r="Q51" s="198"/>
+      <c r="R51" s="198"/>
+      <c r="S51" s="198">
         <v>43867</v>
       </c>
-      <c r="T51" s="197"/>
-      <c r="U51" s="197"/>
-      <c r="V51" s="197"/>
-      <c r="W51" s="197"/>
-      <c r="X51" s="197"/>
-      <c r="Y51" s="197">
+      <c r="T51" s="198"/>
+      <c r="U51" s="198"/>
+      <c r="V51" s="198"/>
+      <c r="W51" s="198"/>
+      <c r="X51" s="198"/>
+      <c r="Y51" s="198">
         <v>43868</v>
       </c>
-      <c r="Z51" s="197"/>
-      <c r="AA51" s="197"/>
-      <c r="AB51" s="197"/>
-      <c r="AC51" s="197"/>
-      <c r="AD51" s="197"/>
-      <c r="AE51" s="197">
+      <c r="Z51" s="198"/>
+      <c r="AA51" s="198"/>
+      <c r="AB51" s="198"/>
+      <c r="AC51" s="198"/>
+      <c r="AD51" s="198"/>
+      <c r="AE51" s="198">
         <v>43869</v>
       </c>
-      <c r="AF51" s="197"/>
-      <c r="AG51" s="197"/>
-      <c r="AH51" s="197"/>
-      <c r="AI51" s="197"/>
-      <c r="AJ51" s="197"/>
-      <c r="AK51" s="197">
+      <c r="AF51" s="198"/>
+      <c r="AG51" s="198"/>
+      <c r="AH51" s="198"/>
+      <c r="AI51" s="198"/>
+      <c r="AJ51" s="198"/>
+      <c r="AK51" s="198">
         <v>43870</v>
       </c>
-      <c r="AL51" s="197"/>
-      <c r="AM51" s="197"/>
-      <c r="AN51" s="197"/>
-      <c r="AO51" s="197"/>
-      <c r="AP51" s="197"/>
+      <c r="AL51" s="198"/>
+      <c r="AM51" s="198"/>
+      <c r="AN51" s="198"/>
+      <c r="AO51" s="198"/>
+      <c r="AP51" s="198"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="141" t="s">
@@ -7087,62 +7090,62 @@
       <c r="AP69" s="158"/>
     </row>
     <row r="70" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="197">
+      <c r="A70" s="198">
         <v>43871</v>
       </c>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="197"/>
-      <c r="G70" s="197">
+      <c r="B70" s="198"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="198"/>
+      <c r="G70" s="198">
         <v>43872</v>
       </c>
-      <c r="H70" s="197"/>
-      <c r="I70" s="197"/>
-      <c r="J70" s="197"/>
-      <c r="K70" s="197"/>
-      <c r="L70" s="197"/>
-      <c r="M70" s="197">
+      <c r="H70" s="198"/>
+      <c r="I70" s="198"/>
+      <c r="J70" s="198"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="198"/>
+      <c r="M70" s="198">
         <v>43873</v>
       </c>
-      <c r="N70" s="197"/>
-      <c r="O70" s="197"/>
-      <c r="P70" s="197"/>
-      <c r="Q70" s="197"/>
-      <c r="R70" s="197"/>
-      <c r="S70" s="197">
+      <c r="N70" s="198"/>
+      <c r="O70" s="198"/>
+      <c r="P70" s="198"/>
+      <c r="Q70" s="198"/>
+      <c r="R70" s="198"/>
+      <c r="S70" s="198">
         <v>43874</v>
       </c>
-      <c r="T70" s="197"/>
-      <c r="U70" s="197"/>
-      <c r="V70" s="197"/>
-      <c r="W70" s="197"/>
-      <c r="X70" s="197"/>
-      <c r="Y70" s="197">
+      <c r="T70" s="198"/>
+      <c r="U70" s="198"/>
+      <c r="V70" s="198"/>
+      <c r="W70" s="198"/>
+      <c r="X70" s="198"/>
+      <c r="Y70" s="198">
         <v>43875</v>
       </c>
-      <c r="Z70" s="197"/>
-      <c r="AA70" s="197"/>
-      <c r="AB70" s="197"/>
-      <c r="AC70" s="197"/>
-      <c r="AD70" s="197"/>
-      <c r="AE70" s="197">
+      <c r="Z70" s="198"/>
+      <c r="AA70" s="198"/>
+      <c r="AB70" s="198"/>
+      <c r="AC70" s="198"/>
+      <c r="AD70" s="198"/>
+      <c r="AE70" s="198">
         <v>43876</v>
       </c>
-      <c r="AF70" s="197"/>
-      <c r="AG70" s="197"/>
-      <c r="AH70" s="197"/>
-      <c r="AI70" s="197"/>
-      <c r="AJ70" s="197"/>
-      <c r="AK70" s="197">
+      <c r="AF70" s="198"/>
+      <c r="AG70" s="198"/>
+      <c r="AH70" s="198"/>
+      <c r="AI70" s="198"/>
+      <c r="AJ70" s="198"/>
+      <c r="AK70" s="198">
         <v>43877</v>
       </c>
-      <c r="AL70" s="197"/>
-      <c r="AM70" s="197"/>
-      <c r="AN70" s="197"/>
-      <c r="AO70" s="197"/>
-      <c r="AP70" s="197"/>
+      <c r="AL70" s="198"/>
+      <c r="AM70" s="198"/>
+      <c r="AN70" s="198"/>
+      <c r="AO70" s="198"/>
+      <c r="AP70" s="198"/>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="141" t="s">
@@ -8231,62 +8234,62 @@
       <c r="AP88" s="158"/>
     </row>
     <row r="89" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="197">
+      <c r="A89" s="198">
         <v>43878</v>
       </c>
-      <c r="B89" s="197"/>
-      <c r="C89" s="197"/>
-      <c r="D89" s="197"/>
-      <c r="E89" s="197"/>
-      <c r="F89" s="197"/>
-      <c r="G89" s="197">
+      <c r="B89" s="198"/>
+      <c r="C89" s="198"/>
+      <c r="D89" s="198"/>
+      <c r="E89" s="198"/>
+      <c r="F89" s="198"/>
+      <c r="G89" s="198">
         <v>43879</v>
       </c>
-      <c r="H89" s="197"/>
-      <c r="I89" s="197"/>
-      <c r="J89" s="197"/>
-      <c r="K89" s="197"/>
-      <c r="L89" s="197"/>
-      <c r="M89" s="197">
+      <c r="H89" s="198"/>
+      <c r="I89" s="198"/>
+      <c r="J89" s="198"/>
+      <c r="K89" s="198"/>
+      <c r="L89" s="198"/>
+      <c r="M89" s="198">
         <v>43880</v>
       </c>
-      <c r="N89" s="197"/>
-      <c r="O89" s="197"/>
-      <c r="P89" s="197"/>
-      <c r="Q89" s="197"/>
-      <c r="R89" s="197"/>
-      <c r="S89" s="197">
+      <c r="N89" s="198"/>
+      <c r="O89" s="198"/>
+      <c r="P89" s="198"/>
+      <c r="Q89" s="198"/>
+      <c r="R89" s="198"/>
+      <c r="S89" s="198">
         <v>43881</v>
       </c>
-      <c r="T89" s="197"/>
-      <c r="U89" s="197"/>
-      <c r="V89" s="197"/>
-      <c r="W89" s="197"/>
-      <c r="X89" s="197"/>
-      <c r="Y89" s="197">
+      <c r="T89" s="198"/>
+      <c r="U89" s="198"/>
+      <c r="V89" s="198"/>
+      <c r="W89" s="198"/>
+      <c r="X89" s="198"/>
+      <c r="Y89" s="198">
         <v>43882</v>
       </c>
-      <c r="Z89" s="197"/>
-      <c r="AA89" s="197"/>
-      <c r="AB89" s="197"/>
-      <c r="AC89" s="197"/>
-      <c r="AD89" s="197"/>
-      <c r="AE89" s="197">
+      <c r="Z89" s="198"/>
+      <c r="AA89" s="198"/>
+      <c r="AB89" s="198"/>
+      <c r="AC89" s="198"/>
+      <c r="AD89" s="198"/>
+      <c r="AE89" s="198">
         <v>43883</v>
       </c>
-      <c r="AF89" s="197"/>
-      <c r="AG89" s="197"/>
-      <c r="AH89" s="197"/>
-      <c r="AI89" s="197"/>
-      <c r="AJ89" s="197"/>
-      <c r="AK89" s="197">
+      <c r="AF89" s="198"/>
+      <c r="AG89" s="198"/>
+      <c r="AH89" s="198"/>
+      <c r="AI89" s="198"/>
+      <c r="AJ89" s="198"/>
+      <c r="AK89" s="198">
         <v>43884</v>
       </c>
-      <c r="AL89" s="197"/>
-      <c r="AM89" s="197"/>
-      <c r="AN89" s="197"/>
-      <c r="AO89" s="197"/>
-      <c r="AP89" s="197"/>
+      <c r="AL89" s="198"/>
+      <c r="AM89" s="198"/>
+      <c r="AN89" s="198"/>
+      <c r="AO89" s="198"/>
+      <c r="AP89" s="198"/>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="141" t="s">
@@ -8417,6 +8420,9 @@
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A91" s="165" t="s">
+        <v>94</v>
+      </c>
       <c r="B91" s="146" t="s">
         <v>79</v>
       </c>
@@ -8472,6 +8478,9 @@
       <c r="AP91" s="158"/>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A92" s="165" t="s">
+        <v>196</v>
+      </c>
       <c r="B92" s="146" t="s">
         <v>84</v>
       </c>
@@ -8525,6 +8534,9 @@
       <c r="AP92" s="158"/>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A93" s="165" t="s">
+        <v>116</v>
+      </c>
       <c r="B93" s="146" t="s">
         <v>87</v>
       </c>
@@ -9121,62 +9133,62 @@
       <c r="AP104" s="158"/>
     </row>
     <row r="105" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="197">
+      <c r="A105" s="198">
         <v>43885</v>
       </c>
-      <c r="B105" s="197"/>
-      <c r="C105" s="197"/>
-      <c r="D105" s="197"/>
-      <c r="E105" s="197"/>
-      <c r="F105" s="197"/>
-      <c r="G105" s="197">
+      <c r="B105" s="198"/>
+      <c r="C105" s="198"/>
+      <c r="D105" s="198"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="198"/>
+      <c r="G105" s="198">
         <v>43886</v>
       </c>
-      <c r="H105" s="197"/>
-      <c r="I105" s="197"/>
-      <c r="J105" s="197"/>
-      <c r="K105" s="197"/>
-      <c r="L105" s="197"/>
-      <c r="M105" s="197">
+      <c r="H105" s="198"/>
+      <c r="I105" s="198"/>
+      <c r="J105" s="198"/>
+      <c r="K105" s="198"/>
+      <c r="L105" s="198"/>
+      <c r="M105" s="198">
         <v>43887</v>
       </c>
-      <c r="N105" s="197"/>
-      <c r="O105" s="197"/>
-      <c r="P105" s="197"/>
-      <c r="Q105" s="197"/>
-      <c r="R105" s="197"/>
-      <c r="S105" s="197">
+      <c r="N105" s="198"/>
+      <c r="O105" s="198"/>
+      <c r="P105" s="198"/>
+      <c r="Q105" s="198"/>
+      <c r="R105" s="198"/>
+      <c r="S105" s="198">
         <v>43888</v>
       </c>
-      <c r="T105" s="197"/>
-      <c r="U105" s="197"/>
-      <c r="V105" s="197"/>
-      <c r="W105" s="197"/>
-      <c r="X105" s="197"/>
-      <c r="Y105" s="197">
+      <c r="T105" s="198"/>
+      <c r="U105" s="198"/>
+      <c r="V105" s="198"/>
+      <c r="W105" s="198"/>
+      <c r="X105" s="198"/>
+      <c r="Y105" s="198">
         <v>43889</v>
       </c>
-      <c r="Z105" s="197"/>
-      <c r="AA105" s="197"/>
-      <c r="AB105" s="197"/>
-      <c r="AC105" s="197"/>
-      <c r="AD105" s="197"/>
-      <c r="AE105" s="197">
+      <c r="Z105" s="198"/>
+      <c r="AA105" s="198"/>
+      <c r="AB105" s="198"/>
+      <c r="AC105" s="198"/>
+      <c r="AD105" s="198"/>
+      <c r="AE105" s="198">
         <v>43890</v>
       </c>
-      <c r="AF105" s="197"/>
-      <c r="AG105" s="197"/>
-      <c r="AH105" s="197"/>
-      <c r="AI105" s="197"/>
-      <c r="AJ105" s="197"/>
-      <c r="AK105" s="197">
+      <c r="AF105" s="198"/>
+      <c r="AG105" s="198"/>
+      <c r="AH105" s="198"/>
+      <c r="AI105" s="198"/>
+      <c r="AJ105" s="198"/>
+      <c r="AK105" s="198">
         <v>43891</v>
       </c>
-      <c r="AL105" s="197"/>
-      <c r="AM105" s="197"/>
-      <c r="AN105" s="197"/>
-      <c r="AO105" s="197"/>
-      <c r="AP105" s="197"/>
+      <c r="AL105" s="198"/>
+      <c r="AM105" s="198"/>
+      <c r="AN105" s="198"/>
+      <c r="AO105" s="198"/>
+      <c r="AP105" s="198"/>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="141" t="s">
@@ -9651,62 +9663,62 @@
       <c r="AP114" s="158"/>
     </row>
     <row r="115" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="197">
+      <c r="A115" s="198">
         <v>43892</v>
       </c>
-      <c r="B115" s="197"/>
-      <c r="C115" s="197"/>
-      <c r="D115" s="197"/>
-      <c r="E115" s="197"/>
-      <c r="F115" s="197"/>
-      <c r="G115" s="197">
+      <c r="B115" s="198"/>
+      <c r="C115" s="198"/>
+      <c r="D115" s="198"/>
+      <c r="E115" s="198"/>
+      <c r="F115" s="198"/>
+      <c r="G115" s="198">
         <v>43893</v>
       </c>
-      <c r="H115" s="197"/>
-      <c r="I115" s="197"/>
-      <c r="J115" s="197"/>
-      <c r="K115" s="197"/>
-      <c r="L115" s="197"/>
-      <c r="M115" s="197">
+      <c r="H115" s="198"/>
+      <c r="I115" s="198"/>
+      <c r="J115" s="198"/>
+      <c r="K115" s="198"/>
+      <c r="L115" s="198"/>
+      <c r="M115" s="198">
         <v>43894</v>
       </c>
-      <c r="N115" s="197"/>
-      <c r="O115" s="197"/>
-      <c r="P115" s="197"/>
-      <c r="Q115" s="197"/>
-      <c r="R115" s="197"/>
-      <c r="S115" s="197">
+      <c r="N115" s="198"/>
+      <c r="O115" s="198"/>
+      <c r="P115" s="198"/>
+      <c r="Q115" s="198"/>
+      <c r="R115" s="198"/>
+      <c r="S115" s="198">
         <v>43895</v>
       </c>
-      <c r="T115" s="197"/>
-      <c r="U115" s="197"/>
-      <c r="V115" s="197"/>
-      <c r="W115" s="197"/>
-      <c r="X115" s="197"/>
-      <c r="Y115" s="197">
+      <c r="T115" s="198"/>
+      <c r="U115" s="198"/>
+      <c r="V115" s="198"/>
+      <c r="W115" s="198"/>
+      <c r="X115" s="198"/>
+      <c r="Y115" s="198">
         <v>43896</v>
       </c>
-      <c r="Z115" s="197"/>
-      <c r="AA115" s="197"/>
-      <c r="AB115" s="197"/>
-      <c r="AC115" s="197"/>
-      <c r="AD115" s="197"/>
-      <c r="AE115" s="197">
+      <c r="Z115" s="198"/>
+      <c r="AA115" s="198"/>
+      <c r="AB115" s="198"/>
+      <c r="AC115" s="198"/>
+      <c r="AD115" s="198"/>
+      <c r="AE115" s="198">
         <v>43897</v>
       </c>
-      <c r="AF115" s="197"/>
-      <c r="AG115" s="197"/>
-      <c r="AH115" s="197"/>
-      <c r="AI115" s="197"/>
-      <c r="AJ115" s="197"/>
-      <c r="AK115" s="197">
+      <c r="AF115" s="198"/>
+      <c r="AG115" s="198"/>
+      <c r="AH115" s="198"/>
+      <c r="AI115" s="198"/>
+      <c r="AJ115" s="198"/>
+      <c r="AK115" s="198">
         <v>43898</v>
       </c>
-      <c r="AL115" s="197"/>
-      <c r="AM115" s="197"/>
-      <c r="AN115" s="197"/>
-      <c r="AO115" s="197"/>
-      <c r="AP115" s="197"/>
+      <c r="AL115" s="198"/>
+      <c r="AM115" s="198"/>
+      <c r="AN115" s="198"/>
+      <c r="AO115" s="198"/>
+      <c r="AP115" s="198"/>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="141" t="s">
@@ -10181,62 +10193,62 @@
       <c r="AP124" s="158"/>
     </row>
     <row r="125" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="197">
+      <c r="A125" s="198">
         <v>43899</v>
       </c>
-      <c r="B125" s="197"/>
-      <c r="C125" s="197"/>
-      <c r="D125" s="197"/>
-      <c r="E125" s="197"/>
-      <c r="F125" s="197"/>
-      <c r="G125" s="197">
+      <c r="B125" s="198"/>
+      <c r="C125" s="198"/>
+      <c r="D125" s="198"/>
+      <c r="E125" s="198"/>
+      <c r="F125" s="198"/>
+      <c r="G125" s="198">
         <v>43900</v>
       </c>
-      <c r="H125" s="197"/>
-      <c r="I125" s="197"/>
-      <c r="J125" s="197"/>
-      <c r="K125" s="197"/>
-      <c r="L125" s="197"/>
-      <c r="M125" s="197">
+      <c r="H125" s="198"/>
+      <c r="I125" s="198"/>
+      <c r="J125" s="198"/>
+      <c r="K125" s="198"/>
+      <c r="L125" s="198"/>
+      <c r="M125" s="198">
         <v>43901</v>
       </c>
-      <c r="N125" s="197"/>
-      <c r="O125" s="197"/>
-      <c r="P125" s="197"/>
-      <c r="Q125" s="197"/>
-      <c r="R125" s="197"/>
-      <c r="S125" s="197">
+      <c r="N125" s="198"/>
+      <c r="O125" s="198"/>
+      <c r="P125" s="198"/>
+      <c r="Q125" s="198"/>
+      <c r="R125" s="198"/>
+      <c r="S125" s="198">
         <v>43902</v>
       </c>
-      <c r="T125" s="197"/>
-      <c r="U125" s="197"/>
-      <c r="V125" s="197"/>
-      <c r="W125" s="197"/>
-      <c r="X125" s="197"/>
-      <c r="Y125" s="197">
+      <c r="T125" s="198"/>
+      <c r="U125" s="198"/>
+      <c r="V125" s="198"/>
+      <c r="W125" s="198"/>
+      <c r="X125" s="198"/>
+      <c r="Y125" s="198">
         <v>43903</v>
       </c>
-      <c r="Z125" s="197"/>
-      <c r="AA125" s="197"/>
-      <c r="AB125" s="197"/>
-      <c r="AC125" s="197"/>
-      <c r="AD125" s="197"/>
-      <c r="AE125" s="197">
+      <c r="Z125" s="198"/>
+      <c r="AA125" s="198"/>
+      <c r="AB125" s="198"/>
+      <c r="AC125" s="198"/>
+      <c r="AD125" s="198"/>
+      <c r="AE125" s="198">
         <v>43904</v>
       </c>
-      <c r="AF125" s="197"/>
-      <c r="AG125" s="197"/>
-      <c r="AH125" s="197"/>
-      <c r="AI125" s="197"/>
-      <c r="AJ125" s="197"/>
-      <c r="AK125" s="197">
+      <c r="AF125" s="198"/>
+      <c r="AG125" s="198"/>
+      <c r="AH125" s="198"/>
+      <c r="AI125" s="198"/>
+      <c r="AJ125" s="198"/>
+      <c r="AK125" s="198">
         <v>43905</v>
       </c>
-      <c r="AL125" s="197"/>
-      <c r="AM125" s="197"/>
-      <c r="AN125" s="197"/>
-      <c r="AO125" s="197"/>
-      <c r="AP125" s="197"/>
+      <c r="AL125" s="198"/>
+      <c r="AM125" s="198"/>
+      <c r="AN125" s="198"/>
+      <c r="AO125" s="198"/>
+      <c r="AP125" s="198"/>
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="141" t="s">
@@ -10712,6 +10724,69 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AK125:AP125"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:L125"/>
+    <mergeCell ref="M125:R125"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="AE105:AJ105"/>
+    <mergeCell ref="AK105:AP105"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:L115"/>
+    <mergeCell ref="M115:R115"/>
+    <mergeCell ref="S115:X115"/>
+    <mergeCell ref="Y115:AD115"/>
+    <mergeCell ref="AE115:AJ115"/>
+    <mergeCell ref="AK115:AP115"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="M105:R105"/>
+    <mergeCell ref="S105:X105"/>
+    <mergeCell ref="Y105:AD105"/>
+    <mergeCell ref="AE70:AJ70"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M89:R89"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="Y89:AD89"/>
+    <mergeCell ref="AE89:AJ89"/>
+    <mergeCell ref="AK89:AP89"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:L70"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="Y70:AD70"/>
+    <mergeCell ref="AE41:AJ41"/>
+    <mergeCell ref="AK41:AP41"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AD41"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="AK21:AP21"/>
     <mergeCell ref="S21:X21"/>
@@ -10726,69 +10801,6 @@
     <mergeCell ref="S31:X31"/>
     <mergeCell ref="Y31:AD31"/>
     <mergeCell ref="AE31:AJ31"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE41:AJ41"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AE70:AJ70"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:R89"/>
-    <mergeCell ref="S89:X89"/>
-    <mergeCell ref="Y89:AD89"/>
-    <mergeCell ref="AE89:AJ89"/>
-    <mergeCell ref="AK89:AP89"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="Y70:AD70"/>
-    <mergeCell ref="AE105:AJ105"/>
-    <mergeCell ref="AK105:AP105"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:L115"/>
-    <mergeCell ref="M115:R115"/>
-    <mergeCell ref="S115:X115"/>
-    <mergeCell ref="Y115:AD115"/>
-    <mergeCell ref="AE115:AJ115"/>
-    <mergeCell ref="AK115:AP115"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="M105:R105"/>
-    <mergeCell ref="S105:X105"/>
-    <mergeCell ref="Y105:AD105"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AK125:AP125"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:L125"/>
-    <mergeCell ref="M125:R125"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10819,34 +10831,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="200" t="s">
+      <c r="G1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="201"/>
-      <c r="I1" s="180" t="s">
+      <c r="H1" s="202"/>
+      <c r="I1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="181"/>
-      <c r="K1" s="182" t="s">
+      <c r="J1" s="182"/>
+      <c r="K1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="184" t="s">
+      <c r="L1" s="184"/>
+      <c r="M1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186" t="s">
+      <c r="N1" s="186"/>
+      <c r="O1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="176" t="s">
+      <c r="P1" s="188"/>
+      <c r="Q1" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="177"/>
-      <c r="S1" s="198" t="s">
+      <c r="R1" s="178"/>
+      <c r="S1" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="199"/>
+      <c r="T1" s="200"/>
     </row>
     <row r="2" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
@@ -10892,13 +10904,13 @@
       <c r="AO2" s="95"/>
     </row>
     <row r="3" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
       <c r="F3" s="48" t="s">
         <v>7</v>
       </c>
@@ -10939,13 +10951,13 @@
       <c r="AO3" s="49"/>
     </row>
     <row r="4" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="175"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="166"/>
       <c r="G4" s="50" t="s">
         <v>98</v>
@@ -11708,13 +11720,13 @@
       <c r="AO13" s="95"/>
     </row>
     <row r="14" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
       <c r="F14" s="48" t="s">
         <v>7</v>
       </c>
@@ -11783,13 +11795,13 @@
       <c r="AO14" s="49"/>
     </row>
     <row r="15" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="175"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="176"/>
       <c r="F15" s="166" t="s">
         <v>79</v>
       </c>
@@ -12660,13 +12672,13 @@
       <c r="AO24" s="95"/>
     </row>
     <row r="25" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="172"/>
       <c r="F25" s="48" t="s">
         <v>7</v>
       </c>
@@ -12737,13 +12749,13 @@
       <c r="AO25" s="49"/>
     </row>
     <row r="26" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
       <c r="F26" s="166" t="s">
         <v>84</v>
       </c>
@@ -13142,7 +13154,7 @@
       <c r="F31" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="204">
+      <c r="G31" s="169">
         <v>1.32</v>
       </c>
       <c r="H31" s="75">
@@ -13613,13 +13625,13 @@
       <c r="AO35" s="95"/>
     </row>
     <row r="36" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="169" t="s">
+      <c r="A36" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="171"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="172"/>
       <c r="F36" s="48" t="s">
         <v>7</v>
       </c>
@@ -13690,13 +13702,13 @@
       <c r="AO36" s="49"/>
     </row>
     <row r="37" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="175"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="176"/>
       <c r="F37" s="166" t="s">
         <v>87</v>
       </c>
@@ -14095,7 +14107,7 @@
       <c r="F42" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="204">
+      <c r="G42" s="169">
         <v>2.44</v>
       </c>
       <c r="H42" s="75">
@@ -14566,13 +14578,13 @@
       <c r="AO46" s="95"/>
     </row>
     <row r="47" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="171"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="172"/>
       <c r="F47" s="48" t="s">
         <v>7</v>
       </c>
@@ -14643,13 +14655,13 @@
       <c r="AO47" s="49"/>
     </row>
     <row r="48" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="172" t="s">
+      <c r="A48" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="173"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="174"/>
-      <c r="E48" s="175"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="176"/>
       <c r="F48" s="166" t="s">
         <v>89</v>
       </c>
@@ -15048,7 +15060,7 @@
       <c r="F53" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="204">
+      <c r="G53" s="169">
         <v>1.92</v>
       </c>
       <c r="H53" s="75">
@@ -15519,13 +15531,13 @@
       <c r="AO57" s="95"/>
     </row>
     <row r="58" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169" t="s">
+      <c r="A58" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="171"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="172"/>
       <c r="F58" s="48" t="s">
         <v>7</v>
       </c>
@@ -15596,13 +15608,13 @@
       <c r="AO58" s="49"/>
     </row>
     <row r="59" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="172" t="s">
+      <c r="A59" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="173"/>
-      <c r="C59" s="173"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="175"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="175"/>
+      <c r="E59" s="176"/>
       <c r="F59" s="166" t="s">
         <v>93</v>
       </c>
@@ -16029,7 +16041,7 @@
         <f t="shared" ref="M64" si="147">L64</f>
         <v>1.2</v>
       </c>
-      <c r="N64" s="204">
+      <c r="N64" s="169">
         <f>(N60+N63)/2</f>
         <v>1.3050000000000002</v>
       </c>
@@ -16473,13 +16485,13 @@
       <c r="AO68" s="95"/>
     </row>
     <row r="69" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="169" t="s">
+      <c r="A69" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="171"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="172"/>
       <c r="F69" s="48" t="s">
         <v>7</v>
       </c>
@@ -16550,13 +16562,13 @@
       <c r="AO69" s="49"/>
     </row>
     <row r="70" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="172" t="s">
+      <c r="A70" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="173"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="174"/>
-      <c r="E70" s="175"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="176"/>
       <c r="F70" s="166" t="s">
         <v>77</v>
       </c>
@@ -17427,13 +17439,13 @@
       <c r="AO79" s="95"/>
     </row>
     <row r="80" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="169" t="s">
+      <c r="A80" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="171"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="172"/>
       <c r="F80" s="48" t="s">
         <v>7</v>
       </c>
@@ -17502,13 +17514,13 @@
       <c r="AO80" s="49"/>
     </row>
     <row r="81" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="172" t="s">
+      <c r="A81" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="173"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="174"/>
-      <c r="E81" s="175"/>
+      <c r="B81" s="174"/>
+      <c r="C81" s="174"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="176"/>
       <c r="F81" s="166" t="s">
         <v>75</v>
       </c>
@@ -17911,7 +17923,7 @@
         <f t="shared" ref="I86" si="211">H86</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="J86" s="204">
+      <c r="J86" s="169">
         <v>0.54</v>
       </c>
       <c r="K86" s="75">
@@ -18368,13 +18380,13 @@
       <c r="AO90" s="95"/>
     </row>
     <row r="91" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="169" t="s">
+      <c r="A91" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="171"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="171"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="172"/>
       <c r="F91" s="48" t="s">
         <v>7</v>
       </c>
@@ -18441,13 +18453,13 @@
       <c r="AO91" s="49"/>
     </row>
     <row r="92" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="172" t="s">
+      <c r="A92" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="173"/>
-      <c r="C92" s="173"/>
-      <c r="D92" s="174"/>
-      <c r="E92" s="175"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="175"/>
+      <c r="E92" s="176"/>
       <c r="F92" s="166" t="s">
         <v>76</v>
       </c>
@@ -19298,13 +19310,13 @@
       <c r="AO101" s="95"/>
     </row>
     <row r="102" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="169" t="s">
+      <c r="A102" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="170"/>
-      <c r="C102" s="170"/>
-      <c r="D102" s="170"/>
-      <c r="E102" s="171"/>
+      <c r="B102" s="171"/>
+      <c r="C102" s="171"/>
+      <c r="D102" s="171"/>
+      <c r="E102" s="172"/>
       <c r="F102" s="48" t="s">
         <v>7</v>
       </c>
@@ -19371,13 +19383,13 @@
       <c r="AO102" s="49"/>
     </row>
     <row r="103" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="172" t="s">
+      <c r="A103" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="173"/>
-      <c r="C103" s="173"/>
-      <c r="D103" s="174"/>
-      <c r="E103" s="175"/>
+      <c r="B103" s="174"/>
+      <c r="C103" s="174"/>
+      <c r="D103" s="175"/>
+      <c r="E103" s="176"/>
       <c r="F103" s="134" t="s">
         <v>81</v>
       </c>
@@ -20222,13 +20234,13 @@
       <c r="AO112" s="95"/>
     </row>
     <row r="113" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="169" t="s">
+      <c r="A113" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="170"/>
-      <c r="C113" s="170"/>
-      <c r="D113" s="170"/>
-      <c r="E113" s="171"/>
+      <c r="B113" s="171"/>
+      <c r="C113" s="171"/>
+      <c r="D113" s="171"/>
+      <c r="E113" s="172"/>
       <c r="F113" s="48" t="s">
         <v>7</v>
       </c>
@@ -20293,13 +20305,13 @@
       <c r="AO113" s="49"/>
     </row>
     <row r="114" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="172" t="s">
+      <c r="A114" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="173"/>
-      <c r="C114" s="173"/>
-      <c r="D114" s="174"/>
-      <c r="E114" s="175"/>
+      <c r="B114" s="174"/>
+      <c r="C114" s="174"/>
+      <c r="D114" s="175"/>
+      <c r="E114" s="176"/>
       <c r="F114" s="166" t="s">
         <v>82</v>
       </c>
@@ -21134,13 +21146,13 @@
       <c r="AO123" s="95"/>
     </row>
     <row r="124" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="169" t="s">
+      <c r="A124" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="170"/>
-      <c r="C124" s="170"/>
-      <c r="D124" s="170"/>
-      <c r="E124" s="171"/>
+      <c r="B124" s="171"/>
+      <c r="C124" s="171"/>
+      <c r="D124" s="171"/>
+      <c r="E124" s="172"/>
       <c r="F124" s="48" t="s">
         <v>7</v>
       </c>
@@ -21205,13 +21217,13 @@
       <c r="AO124" s="49"/>
     </row>
     <row r="125" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="172" t="s">
+      <c r="A125" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="173"/>
-      <c r="C125" s="173"/>
-      <c r="D125" s="174"/>
-      <c r="E125" s="175"/>
+      <c r="B125" s="174"/>
+      <c r="C125" s="174"/>
+      <c r="D125" s="175"/>
+      <c r="E125" s="176"/>
       <c r="F125" s="166" t="s">
         <v>85</v>
       </c>
@@ -22046,13 +22058,13 @@
       <c r="AO134" s="95"/>
     </row>
     <row r="135" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="169" t="s">
+      <c r="A135" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="170"/>
-      <c r="C135" s="170"/>
-      <c r="D135" s="170"/>
-      <c r="E135" s="171"/>
+      <c r="B135" s="171"/>
+      <c r="C135" s="171"/>
+      <c r="D135" s="171"/>
+      <c r="E135" s="172"/>
       <c r="F135" s="48" t="s">
         <v>7</v>
       </c>
@@ -22117,13 +22129,13 @@
       <c r="AO135" s="49"/>
     </row>
     <row r="136" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="172" t="s">
+      <c r="A136" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="173"/>
-      <c r="C136" s="173"/>
-      <c r="D136" s="174"/>
-      <c r="E136" s="175"/>
+      <c r="B136" s="174"/>
+      <c r="C136" s="174"/>
+      <c r="D136" s="175"/>
+      <c r="E136" s="176"/>
       <c r="F136" s="166" t="s">
         <v>91</v>
       </c>
@@ -22958,13 +22970,13 @@
       <c r="AO145" s="95"/>
     </row>
     <row r="146" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="169" t="s">
+      <c r="A146" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="170"/>
-      <c r="C146" s="170"/>
-      <c r="D146" s="170"/>
-      <c r="E146" s="171"/>
+      <c r="B146" s="171"/>
+      <c r="C146" s="171"/>
+      <c r="D146" s="171"/>
+      <c r="E146" s="172"/>
       <c r="F146" s="48" t="s">
         <v>7</v>
       </c>
@@ -23027,13 +23039,13 @@
       <c r="AO146" s="49"/>
     </row>
     <row r="147" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="172" t="s">
+      <c r="A147" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="173"/>
-      <c r="C147" s="173"/>
-      <c r="D147" s="174"/>
-      <c r="E147" s="175"/>
+      <c r="B147" s="174"/>
+      <c r="C147" s="174"/>
+      <c r="D147" s="175"/>
+      <c r="E147" s="176"/>
       <c r="F147" s="166" t="s">
         <v>78</v>
       </c>
@@ -23858,13 +23870,13 @@
       <c r="AO156" s="95"/>
     </row>
     <row r="157" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="169" t="s">
+      <c r="A157" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="170"/>
-      <c r="C157" s="170"/>
-      <c r="D157" s="170"/>
-      <c r="E157" s="171"/>
+      <c r="B157" s="171"/>
+      <c r="C157" s="171"/>
+      <c r="D157" s="171"/>
+      <c r="E157" s="172"/>
       <c r="F157" s="48" t="s">
         <v>7</v>
       </c>
@@ -23927,13 +23939,13 @@
       <c r="AO157" s="49"/>
     </row>
     <row r="158" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="172" t="s">
+      <c r="A158" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="173"/>
-      <c r="C158" s="173"/>
-      <c r="D158" s="174"/>
-      <c r="E158" s="175"/>
+      <c r="B158" s="174"/>
+      <c r="C158" s="174"/>
+      <c r="D158" s="175"/>
+      <c r="E158" s="176"/>
       <c r="F158" s="166" t="s">
         <v>83</v>
       </c>
@@ -24764,13 +24776,13 @@
       <c r="AO167" s="95"/>
     </row>
     <row r="168" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="169" t="s">
+      <c r="A168" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="170"/>
-      <c r="C168" s="170"/>
-      <c r="D168" s="170"/>
-      <c r="E168" s="171"/>
+      <c r="B168" s="171"/>
+      <c r="C168" s="171"/>
+      <c r="D168" s="171"/>
+      <c r="E168" s="172"/>
       <c r="F168" s="48" t="s">
         <v>7</v>
       </c>
@@ -24833,13 +24845,13 @@
       <c r="AO168" s="49"/>
     </row>
     <row r="169" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="172" t="s">
+      <c r="A169" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="173"/>
-      <c r="C169" s="173"/>
-      <c r="D169" s="174"/>
-      <c r="E169" s="175"/>
+      <c r="B169" s="174"/>
+      <c r="C169" s="174"/>
+      <c r="D169" s="175"/>
+      <c r="E169" s="176"/>
       <c r="F169" s="166" t="s">
         <v>86</v>
       </c>
@@ -25670,13 +25682,13 @@
       <c r="AO178" s="95"/>
     </row>
     <row r="179" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="169" t="s">
+      <c r="A179" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="170"/>
-      <c r="C179" s="170"/>
-      <c r="D179" s="170"/>
-      <c r="E179" s="171"/>
+      <c r="B179" s="171"/>
+      <c r="C179" s="171"/>
+      <c r="D179" s="171"/>
+      <c r="E179" s="172"/>
       <c r="F179" s="48" t="s">
         <v>7</v>
       </c>
@@ -25737,13 +25749,13 @@
       <c r="AO179" s="49"/>
     </row>
     <row r="180" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="172" t="s">
+      <c r="A180" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="173"/>
-      <c r="C180" s="173"/>
-      <c r="D180" s="174"/>
-      <c r="E180" s="175"/>
+      <c r="B180" s="174"/>
+      <c r="C180" s="174"/>
+      <c r="D180" s="175"/>
+      <c r="E180" s="176"/>
       <c r="F180" s="166" t="s">
         <v>96</v>
       </c>
@@ -26564,13 +26576,13 @@
       <c r="AO189" s="95"/>
     </row>
     <row r="190" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="169" t="s">
+      <c r="A190" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B190" s="170"/>
-      <c r="C190" s="170"/>
-      <c r="D190" s="170"/>
-      <c r="E190" s="171"/>
+      <c r="B190" s="171"/>
+      <c r="C190" s="171"/>
+      <c r="D190" s="171"/>
+      <c r="E190" s="172"/>
       <c r="F190" s="48" t="s">
         <v>7</v>
       </c>
@@ -26629,13 +26641,13 @@
       <c r="AO190" s="49"/>
     </row>
     <row r="191" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="172" t="s">
+      <c r="A191" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="173"/>
-      <c r="C191" s="173"/>
-      <c r="D191" s="174"/>
-      <c r="E191" s="175"/>
+      <c r="B191" s="174"/>
+      <c r="C191" s="174"/>
+      <c r="D191" s="175"/>
+      <c r="E191" s="176"/>
       <c r="F191" s="166" t="s">
         <v>164</v>
       </c>
@@ -27440,13 +27452,13 @@
       <c r="AO200" s="95"/>
     </row>
     <row r="201" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="169" t="s">
+      <c r="A201" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="170"/>
-      <c r="C201" s="170"/>
-      <c r="D201" s="170"/>
-      <c r="E201" s="171"/>
+      <c r="B201" s="171"/>
+      <c r="C201" s="171"/>
+      <c r="D201" s="171"/>
+      <c r="E201" s="172"/>
       <c r="F201" s="48" t="s">
         <v>7</v>
       </c>
@@ -27505,13 +27517,13 @@
       <c r="AO201" s="49"/>
     </row>
     <row r="202" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="172" t="s">
+      <c r="A202" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="173"/>
-      <c r="C202" s="173"/>
-      <c r="D202" s="174"/>
-      <c r="E202" s="175"/>
+      <c r="B202" s="174"/>
+      <c r="C202" s="174"/>
+      <c r="D202" s="175"/>
+      <c r="E202" s="176"/>
       <c r="F202" s="168" t="s">
         <v>165</v>
       </c>
@@ -28316,13 +28328,13 @@
       <c r="AO211" s="95"/>
     </row>
     <row r="212" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="169" t="s">
+      <c r="A212" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="170"/>
-      <c r="C212" s="170"/>
-      <c r="D212" s="170"/>
-      <c r="E212" s="171"/>
+      <c r="B212" s="171"/>
+      <c r="C212" s="171"/>
+      <c r="D212" s="171"/>
+      <c r="E212" s="172"/>
       <c r="F212" s="48" t="s">
         <v>7</v>
       </c>
@@ -28381,13 +28393,13 @@
       <c r="AO212" s="49"/>
     </row>
     <row r="213" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="172" t="s">
+      <c r="A213" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="173"/>
-      <c r="C213" s="173"/>
-      <c r="D213" s="174"/>
-      <c r="E213" s="175"/>
+      <c r="B213" s="174"/>
+      <c r="C213" s="174"/>
+      <c r="D213" s="175"/>
+      <c r="E213" s="176"/>
       <c r="F213" s="168" t="s">
         <v>166</v>
       </c>
@@ -29192,13 +29204,13 @@
       <c r="AO222" s="95"/>
     </row>
     <row r="223" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="169" t="s">
+      <c r="A223" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B223" s="170"/>
-      <c r="C223" s="170"/>
-      <c r="D223" s="170"/>
-      <c r="E223" s="171"/>
+      <c r="B223" s="171"/>
+      <c r="C223" s="171"/>
+      <c r="D223" s="171"/>
+      <c r="E223" s="172"/>
       <c r="F223" s="48" t="s">
         <v>7</v>
       </c>
@@ -29257,13 +29269,13 @@
       <c r="AO223" s="49"/>
     </row>
     <row r="224" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="172" t="s">
+      <c r="A224" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="173"/>
-      <c r="C224" s="173"/>
-      <c r="D224" s="174"/>
-      <c r="E224" s="175"/>
+      <c r="B224" s="174"/>
+      <c r="C224" s="174"/>
+      <c r="D224" s="175"/>
+      <c r="E224" s="176"/>
       <c r="F224" s="168" t="s">
         <v>167</v>
       </c>
@@ -30068,13 +30080,13 @@
       <c r="AO233" s="95"/>
     </row>
     <row r="234" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="169" t="s">
+      <c r="A234" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B234" s="170"/>
-      <c r="C234" s="170"/>
-      <c r="D234" s="170"/>
-      <c r="E234" s="171"/>
+      <c r="B234" s="171"/>
+      <c r="C234" s="171"/>
+      <c r="D234" s="171"/>
+      <c r="E234" s="172"/>
       <c r="F234" s="48" t="s">
         <v>7</v>
       </c>
@@ -30133,13 +30145,13 @@
       <c r="AO234" s="49"/>
     </row>
     <row r="235" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="172" t="s">
+      <c r="A235" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B235" s="173"/>
-      <c r="C235" s="173"/>
-      <c r="D235" s="174"/>
-      <c r="E235" s="175"/>
+      <c r="B235" s="174"/>
+      <c r="C235" s="174"/>
+      <c r="D235" s="175"/>
+      <c r="E235" s="176"/>
       <c r="F235" s="168" t="s">
         <v>168</v>
       </c>
@@ -30950,13 +30962,13 @@
       <c r="AO244" s="95"/>
     </row>
     <row r="245" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="169" t="s">
+      <c r="A245" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B245" s="170"/>
-      <c r="C245" s="170"/>
-      <c r="D245" s="170"/>
-      <c r="E245" s="171"/>
+      <c r="B245" s="171"/>
+      <c r="C245" s="171"/>
+      <c r="D245" s="171"/>
+      <c r="E245" s="172"/>
       <c r="F245" s="48" t="s">
         <v>7</v>
       </c>
@@ -31015,13 +31027,13 @@
       <c r="AO245" s="49"/>
     </row>
     <row r="246" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="172" t="s">
+      <c r="A246" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B246" s="173"/>
-      <c r="C246" s="173"/>
-      <c r="D246" s="174"/>
-      <c r="E246" s="175"/>
+      <c r="B246" s="174"/>
+      <c r="C246" s="174"/>
+      <c r="D246" s="175"/>
+      <c r="E246" s="176"/>
       <c r="F246" s="168" t="s">
         <v>169</v>
       </c>
@@ -31826,13 +31838,13 @@
       <c r="AO255" s="95"/>
     </row>
     <row r="256" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="169" t="s">
+      <c r="A256" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B256" s="170"/>
-      <c r="C256" s="170"/>
-      <c r="D256" s="170"/>
-      <c r="E256" s="171"/>
+      <c r="B256" s="171"/>
+      <c r="C256" s="171"/>
+      <c r="D256" s="171"/>
+      <c r="E256" s="172"/>
       <c r="F256" s="48" t="s">
         <v>7</v>
       </c>
@@ -31891,13 +31903,13 @@
       <c r="AO256" s="49"/>
     </row>
     <row r="257" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="172" t="s">
+      <c r="A257" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B257" s="173"/>
-      <c r="C257" s="173"/>
-      <c r="D257" s="174"/>
-      <c r="E257" s="175"/>
+      <c r="B257" s="174"/>
+      <c r="C257" s="174"/>
+      <c r="D257" s="175"/>
+      <c r="E257" s="176"/>
       <c r="F257" s="168" t="s">
         <v>119</v>
       </c>
@@ -32702,13 +32714,13 @@
       <c r="AO266" s="95"/>
     </row>
     <row r="267" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="169" t="s">
+      <c r="A267" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B267" s="170"/>
-      <c r="C267" s="170"/>
-      <c r="D267" s="170"/>
-      <c r="E267" s="171"/>
+      <c r="B267" s="171"/>
+      <c r="C267" s="171"/>
+      <c r="D267" s="171"/>
+      <c r="E267" s="172"/>
       <c r="F267" s="48" t="s">
         <v>7</v>
       </c>
@@ -32764,13 +32776,13 @@
       <c r="AO267" s="49"/>
     </row>
     <row r="268" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="172" t="s">
+      <c r="A268" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B268" s="173"/>
-      <c r="C268" s="173"/>
-      <c r="D268" s="174"/>
-      <c r="E268" s="175"/>
+      <c r="B268" s="174"/>
+      <c r="C268" s="174"/>
+      <c r="D268" s="175"/>
+      <c r="E268" s="176"/>
       <c r="F268" s="168" t="s">
         <v>171</v>
       </c>
@@ -33565,13 +33577,13 @@
       <c r="AO277" s="95"/>
     </row>
     <row r="278" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="169" t="s">
+      <c r="A278" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B278" s="170"/>
-      <c r="C278" s="170"/>
-      <c r="D278" s="170"/>
-      <c r="E278" s="171"/>
+      <c r="B278" s="171"/>
+      <c r="C278" s="171"/>
+      <c r="D278" s="171"/>
+      <c r="E278" s="172"/>
       <c r="F278" s="48" t="s">
         <v>7</v>
       </c>
@@ -33627,13 +33639,13 @@
       <c r="AO278" s="49"/>
     </row>
     <row r="279" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="172" t="s">
+      <c r="A279" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B279" s="173"/>
-      <c r="C279" s="173"/>
-      <c r="D279" s="174"/>
-      <c r="E279" s="175"/>
+      <c r="B279" s="174"/>
+      <c r="C279" s="174"/>
+      <c r="D279" s="175"/>
+      <c r="E279" s="176"/>
       <c r="F279" s="168" t="s">
         <v>109</v>
       </c>
@@ -34428,13 +34440,13 @@
       <c r="AO288" s="95"/>
     </row>
     <row r="289" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="169" t="s">
+      <c r="A289" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B289" s="170"/>
-      <c r="C289" s="170"/>
-      <c r="D289" s="170"/>
-      <c r="E289" s="171"/>
+      <c r="B289" s="171"/>
+      <c r="C289" s="171"/>
+      <c r="D289" s="171"/>
+      <c r="E289" s="172"/>
       <c r="F289" s="48" t="s">
         <v>7</v>
       </c>
@@ -34490,13 +34502,13 @@
       <c r="AO289" s="49"/>
     </row>
     <row r="290" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="172" t="s">
+      <c r="A290" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B290" s="173"/>
-      <c r="C290" s="173"/>
-      <c r="D290" s="174"/>
-      <c r="E290" s="175"/>
+      <c r="B290" s="174"/>
+      <c r="C290" s="174"/>
+      <c r="D290" s="175"/>
+      <c r="E290" s="176"/>
       <c r="F290" s="168" t="s">
         <v>172</v>
       </c>
@@ -35291,13 +35303,13 @@
       <c r="AO299" s="95"/>
     </row>
     <row r="300" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="169" t="s">
+      <c r="A300" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B300" s="170"/>
-      <c r="C300" s="170"/>
-      <c r="D300" s="170"/>
-      <c r="E300" s="171"/>
+      <c r="B300" s="171"/>
+      <c r="C300" s="171"/>
+      <c r="D300" s="171"/>
+      <c r="E300" s="172"/>
       <c r="F300" s="48" t="s">
         <v>7</v>
       </c>
@@ -35353,13 +35365,13 @@
       <c r="AO300" s="49"/>
     </row>
     <row r="301" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="172" t="s">
+      <c r="A301" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B301" s="173"/>
-      <c r="C301" s="173"/>
-      <c r="D301" s="174"/>
-      <c r="E301" s="175"/>
+      <c r="B301" s="174"/>
+      <c r="C301" s="174"/>
+      <c r="D301" s="175"/>
+      <c r="E301" s="176"/>
       <c r="F301" s="168" t="str">
         <f>[1]Sheet1!$C$5</f>
         <v>GREATEC</v>
@@ -36155,13 +36167,13 @@
       <c r="AO310" s="95"/>
     </row>
     <row r="311" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="169" t="s">
+      <c r="A311" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B311" s="170"/>
-      <c r="C311" s="170"/>
-      <c r="D311" s="170"/>
-      <c r="E311" s="171"/>
+      <c r="B311" s="171"/>
+      <c r="C311" s="171"/>
+      <c r="D311" s="171"/>
+      <c r="E311" s="172"/>
       <c r="F311" s="48" t="s">
         <v>7</v>
       </c>
@@ -36217,13 +36229,13 @@
       <c r="AO311" s="49"/>
     </row>
     <row r="312" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="172" t="s">
+      <c r="A312" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B312" s="173"/>
-      <c r="C312" s="173"/>
-      <c r="D312" s="174"/>
-      <c r="E312" s="175"/>
+      <c r="B312" s="174"/>
+      <c r="C312" s="174"/>
+      <c r="D312" s="175"/>
+      <c r="E312" s="176"/>
       <c r="F312" s="168" t="s">
         <v>173</v>
       </c>
@@ -37018,13 +37030,13 @@
       <c r="AO321" s="95"/>
     </row>
     <row r="322" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="169" t="s">
+      <c r="A322" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B322" s="170"/>
-      <c r="C322" s="170"/>
-      <c r="D322" s="170"/>
-      <c r="E322" s="171"/>
+      <c r="B322" s="171"/>
+      <c r="C322" s="171"/>
+      <c r="D322" s="171"/>
+      <c r="E322" s="172"/>
       <c r="F322" s="48" t="s">
         <v>7</v>
       </c>
@@ -37077,13 +37089,13 @@
       <c r="AO322" s="49"/>
     </row>
     <row r="323" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="172" t="s">
+      <c r="A323" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B323" s="173"/>
-      <c r="C323" s="173"/>
-      <c r="D323" s="174"/>
-      <c r="E323" s="175"/>
+      <c r="B323" s="174"/>
+      <c r="C323" s="174"/>
+      <c r="D323" s="175"/>
+      <c r="E323" s="176"/>
       <c r="F323" s="168"/>
       <c r="G323" s="50" t="s">
         <v>98</v>
@@ -37847,42 +37859,58 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="A322:E322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="A289:E289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="A267:E267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="A278:E278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="A245:E245"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="D158:E158"/>
     <mergeCell ref="A190:E190"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="D191:E191"/>
@@ -37892,58 +37920,42 @@
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="A245:E245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="A267:E267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A278:E278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="A289:E289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="A322:E322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="D323:E323"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -37975,43 +37987,43 @@
     <row r="1" spans="1:41" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="F1" s="46"/>
-      <c r="G1" s="200" t="s">
+      <c r="G1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="201"/>
-      <c r="I1" s="180" t="s">
+      <c r="H1" s="202"/>
+      <c r="I1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="181"/>
-      <c r="K1" s="182" t="s">
+      <c r="J1" s="182"/>
+      <c r="K1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="184" t="s">
+      <c r="L1" s="184"/>
+      <c r="M1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="185"/>
-      <c r="O1" s="186" t="s">
+      <c r="N1" s="186"/>
+      <c r="O1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="176" t="s">
+      <c r="P1" s="188"/>
+      <c r="Q1" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="177"/>
-      <c r="S1" s="198" t="s">
+      <c r="R1" s="178"/>
+      <c r="S1" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="199"/>
+      <c r="T1" s="200"/>
     </row>
     <row r="2" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="48" t="s">
         <v>7</v>
       </c>
@@ -38074,15 +38086,15 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="166"/>
       <c r="G3" s="50" t="s">
         <v>98</v>
@@ -38913,13 +38925,13 @@
       <c r="AO12" s="95"/>
     </row>
     <row r="13" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="172"/>
       <c r="F13" s="48" t="s">
         <v>7</v>
       </c>
@@ -38980,15 +38992,15 @@
       <c r="AO13" s="49"/>
     </row>
     <row r="14" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174" t="s">
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="175"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="166"/>
       <c r="G14" s="50" t="s">
         <v>98</v>
@@ -39819,13 +39831,13 @@
       <c r="AO23" s="95"/>
     </row>
     <row r="24" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
       <c r="F24" s="48" t="s">
         <v>7</v>
       </c>
@@ -39876,15 +39888,15 @@
       <c r="AO24" s="49"/>
     </row>
     <row r="25" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="172" t="s">
+      <c r="A25" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174" t="s">
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="175"/>
+      <c r="E25" s="176"/>
       <c r="F25" s="166"/>
       <c r="G25" s="50" t="s">
         <v>98</v>
@@ -40665,13 +40677,13 @@
       <c r="AO34" s="95"/>
     </row>
     <row r="35" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="169" t="s">
+      <c r="A35" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="171"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="172"/>
       <c r="F35" s="48" t="s">
         <v>7</v>
       </c>
@@ -40738,15 +40750,15 @@
       <c r="AO35" s="49"/>
     </row>
     <row r="36" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="172" t="s">
+      <c r="A36" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="174" t="s">
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="175"/>
+      <c r="E36" s="176"/>
       <c r="F36" s="166"/>
       <c r="G36" s="50" t="s">
         <v>98</v>
@@ -41597,13 +41609,13 @@
       <c r="AO45" s="95"/>
     </row>
     <row r="46" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="171"/>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
       <c r="F46" s="48" t="s">
         <v>7</v>
       </c>
@@ -41670,15 +41682,15 @@
       <c r="AO46" s="49"/>
     </row>
     <row r="47" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="172" t="s">
+      <c r="A47" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174" t="s">
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="175"/>
+      <c r="E47" s="176"/>
       <c r="F47" s="166"/>
       <c r="G47" s="50" t="s">
         <v>98</v>
@@ -42529,13 +42541,13 @@
       <c r="AO56" s="95"/>
     </row>
     <row r="57" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="169" t="s">
+      <c r="A57" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="171"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="172"/>
       <c r="F57" s="48" t="s">
         <v>7</v>
       </c>
@@ -42594,15 +42606,15 @@
       <c r="AO57" s="49"/>
     </row>
     <row r="58" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="174" t="s">
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="175"/>
+      <c r="E58" s="176"/>
       <c r="F58" s="166"/>
       <c r="G58" s="50" t="s">
         <v>98</v>
@@ -43413,13 +43425,13 @@
       <c r="AO67" s="95"/>
     </row>
     <row r="68" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="169" t="s">
+      <c r="A68" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="171"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="172"/>
       <c r="F68" s="48" t="s">
         <v>7</v>
       </c>
@@ -43464,15 +43476,15 @@
       <c r="AO68" s="49"/>
     </row>
     <row r="69" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="172" t="s">
+      <c r="A69" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="173"/>
-      <c r="C69" s="173"/>
-      <c r="D69" s="174" t="s">
+      <c r="B69" s="174"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="175"/>
+      <c r="E69" s="176"/>
       <c r="F69" s="166"/>
       <c r="G69" s="50" t="s">
         <v>98</v>
@@ -44243,13 +44255,13 @@
       <c r="AO78" s="95"/>
     </row>
     <row r="79" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="169" t="s">
+      <c r="A79" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="171"/>
+      <c r="B79" s="171"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="172"/>
       <c r="F79" s="48" t="s">
         <v>7</v>
       </c>
@@ -44324,15 +44336,15 @@
       <c r="AO79" s="49"/>
     </row>
     <row r="80" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="172" t="s">
+      <c r="A80" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="174" t="s">
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="175"/>
+      <c r="E80" s="176"/>
       <c r="F80" s="166"/>
       <c r="G80" s="50" t="s">
         <v>98</v>
@@ -45270,13 +45282,13 @@
       <c r="AO89" s="95"/>
     </row>
     <row r="90" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="169" t="s">
+      <c r="A90" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="170"/>
-      <c r="E90" s="171"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="172"/>
       <c r="F90" s="48" t="s">
         <v>7</v>
       </c>
@@ -45349,13 +45361,13 @@
       <c r="AO90" s="49"/>
     </row>
     <row r="91" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="172" t="s">
+      <c r="A91" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="173"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="174"/>
-      <c r="E91" s="175"/>
+      <c r="B91" s="174"/>
+      <c r="C91" s="174"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="176"/>
       <c r="F91" s="166" t="s">
         <v>113</v>
       </c>
@@ -46284,13 +46296,13 @@
       <c r="AO100" s="95"/>
     </row>
     <row r="101" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="169" t="s">
+      <c r="A101" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="170"/>
-      <c r="C101" s="170"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="171"/>
+      <c r="B101" s="171"/>
+      <c r="C101" s="171"/>
+      <c r="D101" s="171"/>
+      <c r="E101" s="172"/>
       <c r="F101" s="48" t="s">
         <v>7</v>
       </c>
@@ -46361,15 +46373,15 @@
       <c r="AO101" s="49"/>
     </row>
     <row r="102" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="172" t="s">
+      <c r="A102" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="173"/>
-      <c r="C102" s="173"/>
-      <c r="D102" s="174" t="s">
+      <c r="B102" s="174"/>
+      <c r="C102" s="174"/>
+      <c r="D102" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="E102" s="175"/>
+      <c r="E102" s="176"/>
       <c r="F102" s="166"/>
       <c r="G102" s="50" t="s">
         <v>98</v>
@@ -47285,13 +47297,13 @@
       <c r="AO111" s="95"/>
     </row>
     <row r="112" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="169" t="s">
+      <c r="A112" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="170"/>
-      <c r="C112" s="170"/>
-      <c r="D112" s="170"/>
-      <c r="E112" s="171"/>
+      <c r="B112" s="171"/>
+      <c r="C112" s="171"/>
+      <c r="D112" s="171"/>
+      <c r="E112" s="172"/>
       <c r="F112" s="48" t="s">
         <v>7</v>
       </c>
@@ -47362,15 +47374,15 @@
       <c r="AO112" s="49"/>
     </row>
     <row r="113" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="172" t="s">
+      <c r="A113" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="173"/>
-      <c r="C113" s="173"/>
-      <c r="D113" s="174" t="s">
+      <c r="B113" s="174"/>
+      <c r="C113" s="174"/>
+      <c r="D113" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="E113" s="175"/>
+      <c r="E113" s="176"/>
       <c r="F113" s="166"/>
       <c r="G113" s="50" t="s">
         <v>98</v>
@@ -48253,13 +48265,13 @@
       <c r="AO122" s="95"/>
     </row>
     <row r="123" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="169" t="s">
+      <c r="A123" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="170"/>
-      <c r="C123" s="170"/>
-      <c r="D123" s="170"/>
-      <c r="E123" s="171"/>
+      <c r="B123" s="171"/>
+      <c r="C123" s="171"/>
+      <c r="D123" s="171"/>
+      <c r="E123" s="172"/>
       <c r="F123" s="48" t="s">
         <v>7</v>
       </c>
@@ -48328,15 +48340,15 @@
       <c r="AO123" s="49"/>
     </row>
     <row r="124" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="172" t="s">
+      <c r="A124" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="173"/>
-      <c r="C124" s="173"/>
-      <c r="D124" s="174" t="s">
+      <c r="B124" s="174"/>
+      <c r="C124" s="174"/>
+      <c r="D124" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E124" s="175"/>
+      <c r="E124" s="176"/>
       <c r="F124" s="166"/>
       <c r="G124" s="50" t="s">
         <v>98</v>
@@ -49245,13 +49257,13 @@
       <c r="AO133" s="95"/>
     </row>
     <row r="134" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="169" t="s">
+      <c r="A134" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="170"/>
-      <c r="C134" s="170"/>
-      <c r="D134" s="170"/>
-      <c r="E134" s="171"/>
+      <c r="B134" s="171"/>
+      <c r="C134" s="171"/>
+      <c r="D134" s="171"/>
+      <c r="E134" s="172"/>
       <c r="F134" s="48" t="s">
         <v>7</v>
       </c>
@@ -49320,15 +49332,15 @@
       <c r="AO134" s="49"/>
     </row>
     <row r="135" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="172" t="s">
+      <c r="A135" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="173"/>
-      <c r="C135" s="173"/>
-      <c r="D135" s="174" t="s">
+      <c r="B135" s="174"/>
+      <c r="C135" s="174"/>
+      <c r="D135" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="175"/>
+      <c r="E135" s="176"/>
       <c r="F135" s="166"/>
       <c r="G135" s="50" t="s">
         <v>98</v>
@@ -50237,13 +50249,13 @@
       <c r="AO144" s="95"/>
     </row>
     <row r="145" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="169" t="s">
+      <c r="A145" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="170"/>
-      <c r="C145" s="170"/>
-      <c r="D145" s="170"/>
-      <c r="E145" s="171"/>
+      <c r="B145" s="171"/>
+      <c r="C145" s="171"/>
+      <c r="D145" s="171"/>
+      <c r="E145" s="172"/>
       <c r="F145" s="48" t="s">
         <v>7</v>
       </c>
@@ -50312,15 +50324,15 @@
       <c r="AO145" s="49"/>
     </row>
     <row r="146" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="172" t="s">
+      <c r="A146" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="173"/>
-      <c r="C146" s="173"/>
-      <c r="D146" s="174" t="s">
+      <c r="B146" s="174"/>
+      <c r="C146" s="174"/>
+      <c r="D146" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="E146" s="175"/>
+      <c r="E146" s="176"/>
       <c r="F146" s="166"/>
       <c r="G146" s="50" t="s">
         <v>98</v>
@@ -51229,13 +51241,13 @@
       <c r="AO155" s="95"/>
     </row>
     <row r="156" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="169" t="s">
+      <c r="A156" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="170"/>
-      <c r="C156" s="170"/>
-      <c r="D156" s="170"/>
-      <c r="E156" s="171"/>
+      <c r="B156" s="171"/>
+      <c r="C156" s="171"/>
+      <c r="D156" s="171"/>
+      <c r="E156" s="172"/>
       <c r="F156" s="48" t="s">
         <v>7</v>
       </c>
@@ -51298,15 +51310,15 @@
       <c r="AO156" s="49"/>
     </row>
     <row r="157" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="172" t="s">
+      <c r="A157" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="173"/>
-      <c r="C157" s="173"/>
-      <c r="D157" s="174" t="s">
+      <c r="B157" s="174"/>
+      <c r="C157" s="174"/>
+      <c r="D157" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="175"/>
+      <c r="E157" s="176"/>
       <c r="F157" s="166"/>
       <c r="G157" s="50" t="s">
         <v>98</v>
@@ -52185,13 +52197,13 @@
       <c r="AO166" s="95"/>
     </row>
     <row r="167" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="169" t="s">
+      <c r="A167" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="170"/>
-      <c r="C167" s="170"/>
-      <c r="D167" s="170"/>
-      <c r="E167" s="171"/>
+      <c r="B167" s="171"/>
+      <c r="C167" s="171"/>
+      <c r="D167" s="171"/>
+      <c r="E167" s="172"/>
       <c r="F167" s="48" t="s">
         <v>7</v>
       </c>
@@ -52248,15 +52260,15 @@
       <c r="AO167" s="49"/>
     </row>
     <row r="168" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="172" t="s">
+      <c r="A168" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="173"/>
-      <c r="C168" s="173"/>
-      <c r="D168" s="174" t="s">
+      <c r="B168" s="174"/>
+      <c r="C168" s="174"/>
+      <c r="D168" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E168" s="175"/>
+      <c r="E168" s="176"/>
       <c r="F168" s="166"/>
       <c r="G168" s="50" t="s">
         <v>98</v>
@@ -53105,13 +53117,13 @@
       <c r="AO177" s="95"/>
     </row>
     <row r="178" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="169" t="s">
+      <c r="A178" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="170"/>
-      <c r="C178" s="170"/>
-      <c r="D178" s="170"/>
-      <c r="E178" s="171"/>
+      <c r="B178" s="171"/>
+      <c r="C178" s="171"/>
+      <c r="D178" s="171"/>
+      <c r="E178" s="172"/>
       <c r="F178" s="48" t="s">
         <v>7</v>
       </c>
@@ -53168,15 +53180,15 @@
       <c r="AO178" s="49"/>
     </row>
     <row r="179" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="172" t="s">
+      <c r="A179" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="173"/>
-      <c r="C179" s="173"/>
-      <c r="D179" s="174" t="s">
+      <c r="B179" s="174"/>
+      <c r="C179" s="174"/>
+      <c r="D179" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="E179" s="175"/>
+      <c r="E179" s="176"/>
       <c r="F179" s="166"/>
       <c r="G179" s="50" t="s">
         <v>98</v>
@@ -54025,13 +54037,13 @@
       <c r="AO188" s="95"/>
     </row>
     <row r="189" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="169" t="s">
+      <c r="A189" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B189" s="170"/>
-      <c r="C189" s="170"/>
-      <c r="D189" s="170"/>
-      <c r="E189" s="171"/>
+      <c r="B189" s="171"/>
+      <c r="C189" s="171"/>
+      <c r="D189" s="171"/>
+      <c r="E189" s="172"/>
       <c r="F189" s="48" t="s">
         <v>7</v>
       </c>
@@ -54084,15 +54096,15 @@
       <c r="AO189" s="49"/>
     </row>
     <row r="190" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="172" t="s">
+      <c r="A190" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="173"/>
-      <c r="C190" s="173"/>
-      <c r="D190" s="174" t="s">
+      <c r="B190" s="174"/>
+      <c r="C190" s="174"/>
+      <c r="D190" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="E190" s="175"/>
+      <c r="E190" s="176"/>
       <c r="F190" s="166"/>
       <c r="G190" s="50" t="s">
         <v>98</v>
@@ -54921,13 +54933,13 @@
       <c r="AO199" s="95"/>
     </row>
     <row r="200" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="169" t="s">
+      <c r="A200" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="170"/>
-      <c r="C200" s="170"/>
-      <c r="D200" s="170"/>
-      <c r="E200" s="171"/>
+      <c r="B200" s="171"/>
+      <c r="C200" s="171"/>
+      <c r="D200" s="171"/>
+      <c r="E200" s="172"/>
       <c r="F200" s="48" t="s">
         <v>7</v>
       </c>
@@ -54984,15 +54996,15 @@
       <c r="AO200" s="49"/>
     </row>
     <row r="201" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="172" t="s">
+      <c r="A201" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="173"/>
-      <c r="C201" s="173"/>
-      <c r="D201" s="174" t="s">
+      <c r="B201" s="174"/>
+      <c r="C201" s="174"/>
+      <c r="D201" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="E201" s="175"/>
+      <c r="E201" s="176"/>
       <c r="F201" s="166"/>
       <c r="G201" s="50" t="s">
         <v>98</v>
@@ -55776,13 +55788,13 @@
       <c r="AO210" s="95"/>
     </row>
     <row r="211" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="169" t="s">
+      <c r="A211" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="170"/>
-      <c r="C211" s="170"/>
-      <c r="D211" s="170"/>
-      <c r="E211" s="171"/>
+      <c r="B211" s="171"/>
+      <c r="C211" s="171"/>
+      <c r="D211" s="171"/>
+      <c r="E211" s="172"/>
       <c r="F211" s="48" t="s">
         <v>7</v>
       </c>
@@ -55859,15 +55871,15 @@
       <c r="AO211" s="49"/>
     </row>
     <row r="212" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="172" t="s">
+      <c r="A212" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="173"/>
-      <c r="C212" s="173"/>
-      <c r="D212" s="174" t="s">
+      <c r="B212" s="174"/>
+      <c r="C212" s="174"/>
+      <c r="D212" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="E212" s="175"/>
+      <c r="E212" s="176"/>
       <c r="F212" s="166"/>
       <c r="G212" s="50" t="s">
         <v>98</v>
@@ -56788,13 +56800,13 @@
       <c r="AO221" s="95"/>
     </row>
     <row r="222" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="169" t="s">
+      <c r="A222" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="170"/>
-      <c r="C222" s="170"/>
-      <c r="D222" s="170"/>
-      <c r="E222" s="171"/>
+      <c r="B222" s="171"/>
+      <c r="C222" s="171"/>
+      <c r="D222" s="171"/>
+      <c r="E222" s="172"/>
       <c r="F222" s="48" t="s">
         <v>7</v>
       </c>
@@ -56857,15 +56869,15 @@
       <c r="AO222" s="49"/>
     </row>
     <row r="223" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="172" t="s">
+      <c r="A223" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="173"/>
-      <c r="C223" s="173"/>
-      <c r="D223" s="174" t="s">
+      <c r="B223" s="174"/>
+      <c r="C223" s="174"/>
+      <c r="D223" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E223" s="175"/>
+      <c r="E223" s="176"/>
       <c r="F223" s="166"/>
       <c r="G223" s="50" t="s">
         <v>98</v>
@@ -57724,13 +57736,13 @@
       <c r="AO232" s="95"/>
     </row>
     <row r="233" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="169" t="s">
+      <c r="A233" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B233" s="170"/>
-      <c r="C233" s="170"/>
-      <c r="D233" s="170"/>
-      <c r="E233" s="171"/>
+      <c r="B233" s="171"/>
+      <c r="C233" s="171"/>
+      <c r="D233" s="171"/>
+      <c r="E233" s="172"/>
       <c r="F233" s="48" t="s">
         <v>7</v>
       </c>
@@ -57783,15 +57795,15 @@
       <c r="AO233" s="49"/>
     </row>
     <row r="234" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="172" t="s">
+      <c r="A234" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="173"/>
-      <c r="C234" s="173"/>
-      <c r="D234" s="174" t="s">
+      <c r="B234" s="174"/>
+      <c r="C234" s="174"/>
+      <c r="D234" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E234" s="175"/>
+      <c r="E234" s="176"/>
       <c r="F234" s="166"/>
       <c r="G234" s="50" t="s">
         <v>98</v>
@@ -58610,13 +58622,13 @@
       <c r="AO243" s="95"/>
     </row>
     <row r="244" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="169" t="s">
+      <c r="A244" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B244" s="170"/>
-      <c r="C244" s="170"/>
-      <c r="D244" s="170"/>
-      <c r="E244" s="171"/>
+      <c r="B244" s="171"/>
+      <c r="C244" s="171"/>
+      <c r="D244" s="171"/>
+      <c r="E244" s="172"/>
       <c r="F244" s="48" t="s">
         <v>7</v>
       </c>
@@ -58671,15 +58683,15 @@
       <c r="AO244" s="49"/>
     </row>
     <row r="245" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="172" t="s">
+      <c r="A245" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B245" s="173"/>
-      <c r="C245" s="173"/>
-      <c r="D245" s="174" t="s">
+      <c r="B245" s="174"/>
+      <c r="C245" s="174"/>
+      <c r="D245" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="E245" s="175"/>
+      <c r="E245" s="176"/>
       <c r="F245" s="166"/>
       <c r="G245" s="50" t="s">
         <v>98</v>
@@ -59518,13 +59530,13 @@
       <c r="AO254" s="95"/>
     </row>
     <row r="255" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="169" t="s">
+      <c r="A255" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B255" s="170"/>
-      <c r="C255" s="170"/>
-      <c r="D255" s="170"/>
-      <c r="E255" s="171"/>
+      <c r="B255" s="171"/>
+      <c r="C255" s="171"/>
+      <c r="D255" s="171"/>
+      <c r="E255" s="172"/>
       <c r="F255" s="48" t="s">
         <v>7</v>
       </c>
@@ -59579,15 +59591,15 @@
       <c r="AO255" s="49"/>
     </row>
     <row r="256" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="172" t="s">
+      <c r="A256" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B256" s="173"/>
-      <c r="C256" s="173"/>
-      <c r="D256" s="174" t="s">
+      <c r="B256" s="174"/>
+      <c r="C256" s="174"/>
+      <c r="D256" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="E256" s="175"/>
+      <c r="E256" s="176"/>
       <c r="F256" s="166"/>
       <c r="G256" s="50" t="s">
         <v>98</v>
@@ -60416,13 +60428,13 @@
       <c r="AO265" s="95"/>
     </row>
     <row r="266" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="169" t="s">
+      <c r="A266" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B266" s="170"/>
-      <c r="C266" s="170"/>
-      <c r="D266" s="170"/>
-      <c r="E266" s="171"/>
+      <c r="B266" s="171"/>
+      <c r="C266" s="171"/>
+      <c r="D266" s="171"/>
+      <c r="E266" s="172"/>
       <c r="F266" s="48" t="s">
         <v>7</v>
       </c>
@@ -60473,15 +60485,15 @@
       <c r="AO266" s="49"/>
     </row>
     <row r="267" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="172" t="s">
+      <c r="A267" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B267" s="173"/>
-      <c r="C267" s="173"/>
-      <c r="D267" s="174" t="s">
+      <c r="B267" s="174"/>
+      <c r="C267" s="174"/>
+      <c r="D267" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="E267" s="175"/>
+      <c r="E267" s="176"/>
       <c r="F267" s="166"/>
       <c r="G267" s="50" t="s">
         <v>98</v>
@@ -61266,13 +61278,13 @@
       <c r="AO276" s="95"/>
     </row>
     <row r="277" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="169" t="s">
+      <c r="A277" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B277" s="170"/>
-      <c r="C277" s="170"/>
-      <c r="D277" s="170"/>
-      <c r="E277" s="171"/>
+      <c r="B277" s="171"/>
+      <c r="C277" s="171"/>
+      <c r="D277" s="171"/>
+      <c r="E277" s="172"/>
       <c r="F277" s="48" t="s">
         <v>7</v>
       </c>
@@ -61343,15 +61355,15 @@
       <c r="AO277" s="49"/>
     </row>
     <row r="278" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="172" t="s">
+      <c r="A278" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B278" s="173"/>
-      <c r="C278" s="173"/>
-      <c r="D278" s="174" t="s">
+      <c r="B278" s="174"/>
+      <c r="C278" s="174"/>
+      <c r="D278" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="E278" s="175"/>
+      <c r="E278" s="176"/>
       <c r="F278" s="166"/>
       <c r="G278" s="50" t="s">
         <v>98</v>
@@ -62229,13 +62241,13 @@
       <c r="AO287" s="95"/>
     </row>
     <row r="288" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="169" t="s">
+      <c r="A288" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B288" s="170"/>
-      <c r="C288" s="170"/>
-      <c r="D288" s="170"/>
-      <c r="E288" s="171"/>
+      <c r="B288" s="171"/>
+      <c r="C288" s="171"/>
+      <c r="D288" s="171"/>
+      <c r="E288" s="172"/>
       <c r="F288" s="48" t="s">
         <v>7</v>
       </c>
@@ -62298,15 +62310,15 @@
       <c r="AO288" s="49"/>
     </row>
     <row r="289" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="172" t="s">
+      <c r="A289" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B289" s="173"/>
-      <c r="C289" s="173"/>
-      <c r="D289" s="174" t="s">
+      <c r="B289" s="174"/>
+      <c r="C289" s="174"/>
+      <c r="D289" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="E289" s="175"/>
+      <c r="E289" s="176"/>
       <c r="F289" s="166"/>
       <c r="G289" s="50" t="s">
         <v>98</v>
@@ -63141,13 +63153,13 @@
       <c r="AO298" s="95"/>
     </row>
     <row r="299" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="169" t="s">
+      <c r="A299" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B299" s="170"/>
-      <c r="C299" s="170"/>
-      <c r="D299" s="170"/>
-      <c r="E299" s="171"/>
+      <c r="B299" s="171"/>
+      <c r="C299" s="171"/>
+      <c r="D299" s="171"/>
+      <c r="E299" s="172"/>
       <c r="F299" s="48" t="s">
         <v>7</v>
       </c>
@@ -63208,15 +63220,15 @@
       <c r="AO299" s="49"/>
     </row>
     <row r="300" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="172" t="s">
+      <c r="A300" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B300" s="173"/>
-      <c r="C300" s="173"/>
-      <c r="D300" s="174" t="s">
+      <c r="B300" s="174"/>
+      <c r="C300" s="174"/>
+      <c r="D300" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="E300" s="175"/>
+      <c r="E300" s="176"/>
       <c r="F300" s="166"/>
       <c r="G300" s="50" t="s">
         <v>98</v>
@@ -64035,13 +64047,13 @@
       <c r="AO309" s="95"/>
     </row>
     <row r="310" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="169" t="s">
+      <c r="A310" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B310" s="170"/>
-      <c r="C310" s="170"/>
-      <c r="D310" s="170"/>
-      <c r="E310" s="171"/>
+      <c r="B310" s="171"/>
+      <c r="C310" s="171"/>
+      <c r="D310" s="171"/>
+      <c r="E310" s="172"/>
       <c r="F310" s="48" t="s">
         <v>7</v>
       </c>
@@ -64102,15 +64114,15 @@
       <c r="AO310" s="49"/>
     </row>
     <row r="311" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="172" t="s">
+      <c r="A311" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B311" s="173"/>
-      <c r="C311" s="173"/>
-      <c r="D311" s="174" t="s">
+      <c r="B311" s="174"/>
+      <c r="C311" s="174"/>
+      <c r="D311" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="E311" s="175"/>
+      <c r="E311" s="176"/>
       <c r="F311" s="166"/>
       <c r="G311" s="50" t="s">
         <v>98</v>
@@ -64931,13 +64943,13 @@
       <c r="AO320" s="95"/>
     </row>
     <row r="321" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="169" t="s">
+      <c r="A321" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B321" s="170"/>
-      <c r="C321" s="170"/>
-      <c r="D321" s="170"/>
-      <c r="E321" s="171"/>
+      <c r="B321" s="171"/>
+      <c r="C321" s="171"/>
+      <c r="D321" s="171"/>
+      <c r="E321" s="172"/>
       <c r="F321" s="48" t="s">
         <v>7</v>
       </c>
@@ -64994,15 +65006,15 @@
       <c r="AO321" s="49"/>
     </row>
     <row r="322" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="172" t="s">
+      <c r="A322" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B322" s="173"/>
-      <c r="C322" s="173"/>
-      <c r="D322" s="174" t="s">
+      <c r="B322" s="174"/>
+      <c r="C322" s="174"/>
+      <c r="D322" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E322" s="175"/>
+      <c r="E322" s="176"/>
       <c r="F322" s="166"/>
       <c r="G322" s="50" t="s">
         <v>98</v>
@@ -65801,13 +65813,13 @@
       <c r="AO331" s="95"/>
     </row>
     <row r="332" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="169" t="s">
+      <c r="A332" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B332" s="170"/>
-      <c r="C332" s="170"/>
-      <c r="D332" s="170"/>
-      <c r="E332" s="171"/>
+      <c r="B332" s="171"/>
+      <c r="C332" s="171"/>
+      <c r="D332" s="171"/>
+      <c r="E332" s="172"/>
       <c r="F332" s="48" t="s">
         <v>7</v>
       </c>
@@ -65874,15 +65886,15 @@
       <c r="AO332" s="49"/>
     </row>
     <row r="333" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="172" t="s">
+      <c r="A333" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="173"/>
-      <c r="C333" s="173"/>
-      <c r="D333" s="174" t="s">
+      <c r="B333" s="174"/>
+      <c r="C333" s="174"/>
+      <c r="D333" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="E333" s="175"/>
+      <c r="E333" s="176"/>
       <c r="F333" s="166"/>
       <c r="G333" s="50" t="s">
         <v>98</v>
@@ -66750,13 +66762,13 @@
       <c r="AO342" s="95"/>
     </row>
     <row r="343" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="169" t="s">
+      <c r="A343" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B343" s="170"/>
-      <c r="C343" s="170"/>
-      <c r="D343" s="170"/>
-      <c r="E343" s="171"/>
+      <c r="B343" s="171"/>
+      <c r="C343" s="171"/>
+      <c r="D343" s="171"/>
+      <c r="E343" s="172"/>
       <c r="F343" s="48" t="s">
         <v>7</v>
       </c>
@@ -66811,15 +66823,15 @@
       <c r="AO343" s="49"/>
     </row>
     <row r="344" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="172" t="s">
+      <c r="A344" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B344" s="173"/>
-      <c r="C344" s="173"/>
-      <c r="D344" s="174" t="s">
+      <c r="B344" s="174"/>
+      <c r="C344" s="174"/>
+      <c r="D344" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E344" s="175"/>
+      <c r="E344" s="176"/>
       <c r="F344" s="166"/>
       <c r="G344" s="50" t="s">
         <v>98</v>
@@ -67628,13 +67640,13 @@
       <c r="AO353" s="95"/>
     </row>
     <row r="354" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="169" t="s">
+      <c r="A354" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B354" s="170"/>
-      <c r="C354" s="170"/>
-      <c r="D354" s="170"/>
-      <c r="E354" s="171"/>
+      <c r="B354" s="171"/>
+      <c r="C354" s="171"/>
+      <c r="D354" s="171"/>
+      <c r="E354" s="172"/>
       <c r="F354" s="48" t="s">
         <v>7</v>
       </c>
@@ -67703,15 +67715,15 @@
       <c r="AO354" s="49"/>
     </row>
     <row r="355" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="172" t="s">
+      <c r="A355" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B355" s="173"/>
-      <c r="C355" s="173"/>
-      <c r="D355" s="174" t="s">
+      <c r="B355" s="174"/>
+      <c r="C355" s="174"/>
+      <c r="D355" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="E355" s="175"/>
+      <c r="E355" s="176"/>
       <c r="F355" s="166"/>
       <c r="G355" s="50" t="s">
         <v>98</v>
@@ -68619,13 +68631,13 @@
       <c r="AO364" s="95"/>
     </row>
     <row r="365" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="169" t="s">
+      <c r="A365" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B365" s="170"/>
-      <c r="C365" s="170"/>
-      <c r="D365" s="170"/>
-      <c r="E365" s="171"/>
+      <c r="B365" s="171"/>
+      <c r="C365" s="171"/>
+      <c r="D365" s="171"/>
+      <c r="E365" s="172"/>
       <c r="F365" s="48" t="s">
         <v>7</v>
       </c>
@@ -68690,15 +68702,15 @@
       <c r="AO365" s="49"/>
     </row>
     <row r="366" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="172" t="s">
+      <c r="A366" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B366" s="173"/>
-      <c r="C366" s="173"/>
-      <c r="D366" s="174" t="s">
+      <c r="B366" s="174"/>
+      <c r="C366" s="174"/>
+      <c r="D366" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="E366" s="175"/>
+      <c r="E366" s="176"/>
       <c r="F366" s="166"/>
       <c r="G366" s="50" t="s">
         <v>98</v>
@@ -69587,13 +69599,13 @@
       <c r="AO375" s="95"/>
     </row>
     <row r="376" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="169" t="s">
+      <c r="A376" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B376" s="170"/>
-      <c r="C376" s="170"/>
-      <c r="D376" s="170"/>
-      <c r="E376" s="171"/>
+      <c r="B376" s="171"/>
+      <c r="C376" s="171"/>
+      <c r="D376" s="171"/>
+      <c r="E376" s="172"/>
       <c r="F376" s="48" t="s">
         <v>7</v>
       </c>
@@ -69654,15 +69666,15 @@
       <c r="AO376" s="49"/>
     </row>
     <row r="377" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="172" t="s">
+      <c r="A377" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B377" s="173"/>
-      <c r="C377" s="173"/>
-      <c r="D377" s="174" t="s">
+      <c r="B377" s="174"/>
+      <c r="C377" s="174"/>
+      <c r="D377" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="E377" s="175"/>
+      <c r="E377" s="176"/>
       <c r="F377" s="166"/>
       <c r="G377" s="50" t="s">
         <v>98</v>
@@ -70531,13 +70543,13 @@
       <c r="AO386" s="95"/>
     </row>
     <row r="387" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="169" t="s">
+      <c r="A387" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B387" s="170"/>
-      <c r="C387" s="170"/>
-      <c r="D387" s="170"/>
-      <c r="E387" s="171"/>
+      <c r="B387" s="171"/>
+      <c r="C387" s="171"/>
+      <c r="D387" s="171"/>
+      <c r="E387" s="172"/>
       <c r="F387" s="48" t="s">
         <v>7</v>
       </c>
@@ -70584,15 +70596,15 @@
       <c r="AO387" s="49"/>
     </row>
     <row r="388" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="172" t="s">
+      <c r="A388" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B388" s="173"/>
-      <c r="C388" s="173"/>
-      <c r="D388" s="174" t="s">
+      <c r="B388" s="174"/>
+      <c r="C388" s="174"/>
+      <c r="D388" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="E388" s="175"/>
+      <c r="E388" s="176"/>
       <c r="F388" s="166"/>
       <c r="G388" s="50" t="s">
         <v>98</v>
@@ -71391,13 +71403,13 @@
       <c r="AO397" s="95"/>
     </row>
     <row r="398" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="169" t="s">
+      <c r="A398" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B398" s="170"/>
-      <c r="C398" s="170"/>
-      <c r="D398" s="170"/>
-      <c r="E398" s="171"/>
+      <c r="B398" s="171"/>
+      <c r="C398" s="171"/>
+      <c r="D398" s="171"/>
+      <c r="E398" s="172"/>
       <c r="F398" s="48" t="s">
         <v>7</v>
       </c>
@@ -71456,13 +71468,13 @@
       <c r="AO398" s="49"/>
     </row>
     <row r="399" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="172" t="s">
+      <c r="A399" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B399" s="173"/>
-      <c r="C399" s="173"/>
-      <c r="D399" s="174"/>
-      <c r="E399" s="175"/>
+      <c r="B399" s="174"/>
+      <c r="C399" s="174"/>
+      <c r="D399" s="175"/>
+      <c r="E399" s="176"/>
       <c r="F399" s="166" t="s">
         <v>128</v>
       </c>
@@ -72283,13 +72295,13 @@
       <c r="AO408" s="95"/>
     </row>
     <row r="409" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="169" t="s">
+      <c r="A409" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B409" s="170"/>
-      <c r="C409" s="170"/>
-      <c r="D409" s="170"/>
-      <c r="E409" s="171"/>
+      <c r="B409" s="171"/>
+      <c r="C409" s="171"/>
+      <c r="D409" s="171"/>
+      <c r="E409" s="172"/>
       <c r="F409" s="48" t="s">
         <v>7</v>
       </c>
@@ -72358,13 +72370,13 @@
       <c r="AO409" s="49"/>
     </row>
     <row r="410" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="172" t="s">
+      <c r="A410" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B410" s="173"/>
-      <c r="C410" s="173"/>
-      <c r="D410" s="174"/>
-      <c r="E410" s="175"/>
+      <c r="B410" s="174"/>
+      <c r="C410" s="174"/>
+      <c r="D410" s="175"/>
+      <c r="E410" s="176"/>
       <c r="F410" s="166" t="s">
         <v>129</v>
       </c>
@@ -73235,13 +73247,13 @@
       <c r="AO419" s="95"/>
     </row>
     <row r="420" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="169" t="s">
+      <c r="A420" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B420" s="170"/>
-      <c r="C420" s="170"/>
-      <c r="D420" s="170"/>
-      <c r="E420" s="171"/>
+      <c r="B420" s="171"/>
+      <c r="C420" s="171"/>
+      <c r="D420" s="171"/>
+      <c r="E420" s="172"/>
       <c r="F420" s="48" t="s">
         <v>7</v>
       </c>
@@ -73310,13 +73322,13 @@
       <c r="AO420" s="49"/>
     </row>
     <row r="421" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="172" t="s">
+      <c r="A421" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B421" s="173"/>
-      <c r="C421" s="173"/>
-      <c r="D421" s="174"/>
-      <c r="E421" s="175"/>
+      <c r="B421" s="174"/>
+      <c r="C421" s="174"/>
+      <c r="D421" s="175"/>
+      <c r="E421" s="176"/>
       <c r="F421" s="166" t="s">
         <v>130</v>
       </c>
@@ -74187,13 +74199,13 @@
       <c r="AO430" s="95"/>
     </row>
     <row r="431" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="169" t="s">
+      <c r="A431" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B431" s="170"/>
-      <c r="C431" s="170"/>
-      <c r="D431" s="170"/>
-      <c r="E431" s="171"/>
+      <c r="B431" s="171"/>
+      <c r="C431" s="171"/>
+      <c r="D431" s="171"/>
+      <c r="E431" s="172"/>
       <c r="F431" s="48" t="s">
         <v>7</v>
       </c>
@@ -74258,13 +74270,13 @@
       <c r="AO431" s="49"/>
     </row>
     <row r="432" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="172" t="s">
+      <c r="A432" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B432" s="173"/>
-      <c r="C432" s="173"/>
-      <c r="D432" s="174"/>
-      <c r="E432" s="175"/>
+      <c r="B432" s="174"/>
+      <c r="C432" s="174"/>
+      <c r="D432" s="175"/>
+      <c r="E432" s="176"/>
       <c r="F432" s="166" t="s">
         <v>131</v>
       </c>
@@ -75126,45 +75138,70 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="A420:E420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:E421"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="D432:E432"/>
-    <mergeCell ref="A332:E332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="A299:E299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:E399"/>
+    <mergeCell ref="A387:E387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="A354:E354"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A376:E376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="D113:E113"/>
     <mergeCell ref="A123:E123"/>
@@ -75189,70 +75226,45 @@
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="A244:E244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A398:E398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:E399"/>
-    <mergeCell ref="A387:E387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="A354:E354"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A376:E376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="A420:E420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:E421"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D432:E432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -75354,22 +75366,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="203" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/fiavest_trading_plan.xlsx
+++ b/fiavest_trading_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7346" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4ABD4D01-E6D4-4CBA-A162-CA7FD37848F1}"/>
+  <xr:revisionPtr revIDLastSave="7350" documentId="13_ncr:1_{3DA77A14-45DE-4D22-8724-5379E33DEA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{835ACF4D-2378-41BE-B994-83ED9C3D2012}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2655" yWindow="6105" windowWidth="17445" windowHeight="16200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BREAKDOWN" sheetId="10" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="199">
   <si>
     <t>SUPPORT</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>SYMLIFE</t>
+  </si>
+  <si>
+    <t>KKB</t>
   </si>
 </sst>
 </file>
@@ -1738,6 +1741,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,9 +1848,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2231,39 +2234,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="132" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="184" t="s">
+      <c r="B1" s="184"/>
+      <c r="C1" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="186" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188" t="s">
+      <c r="F1" s="188"/>
+      <c r="G1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="190" t="s">
+      <c r="H1" s="190"/>
+      <c r="I1" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="191"/>
-      <c r="K1" s="180" t="s">
+      <c r="J1" s="192"/>
+      <c r="K1" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="181"/>
+      <c r="L1" s="182"/>
     </row>
     <row r="2" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="133" t="s">
         <v>7</v>
       </c>
@@ -2304,13 +2307,13 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
       <c r="F3" s="134"/>
       <c r="G3" s="51" t="s">
         <v>9</v>
@@ -3061,26 +3064,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="194"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="198"/>
     </row>
     <row r="3" spans="1:7" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
@@ -3337,13 +3340,13 @@
       <c r="G24" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="200"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="201"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="126">
@@ -3403,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T96" sqref="T96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3455,62 +3458,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201">
+      <c r="A1" s="202">
         <v>43829</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202">
         <v>43830</v>
       </c>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201">
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202">
         <v>43831</v>
       </c>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201">
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202">
         <v>43832</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202">
         <v>43833</v>
       </c>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201">
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202">
         <v>43834</v>
       </c>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="201"/>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="201">
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202">
         <v>43835</v>
       </c>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="201"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
@@ -3985,62 +3988,62 @@
       <c r="AP10" s="158"/>
     </row>
     <row r="11" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201">
+      <c r="A11" s="202">
         <v>43836</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201">
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202">
         <v>43837</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201">
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202">
         <v>43838</v>
       </c>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201">
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="202"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="202">
         <v>43839</v>
       </c>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201">
+      <c r="T11" s="202"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="202"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="202"/>
+      <c r="Y11" s="202">
         <v>43840</v>
       </c>
-      <c r="Z11" s="201"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="201">
+      <c r="Z11" s="202"/>
+      <c r="AA11" s="202"/>
+      <c r="AB11" s="202"/>
+      <c r="AC11" s="202"/>
+      <c r="AD11" s="202"/>
+      <c r="AE11" s="202">
         <v>43841</v>
       </c>
-      <c r="AF11" s="201"/>
-      <c r="AG11" s="201"/>
-      <c r="AH11" s="201"/>
-      <c r="AI11" s="201"/>
-      <c r="AJ11" s="201"/>
-      <c r="AK11" s="201">
+      <c r="AF11" s="202"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="202"/>
+      <c r="AI11" s="202"/>
+      <c r="AJ11" s="202"/>
+      <c r="AK11" s="202">
         <v>43842</v>
       </c>
-      <c r="AL11" s="201"/>
-      <c r="AM11" s="201"/>
-      <c r="AN11" s="201"/>
-      <c r="AO11" s="201"/>
-      <c r="AP11" s="201"/>
+      <c r="AL11" s="202"/>
+      <c r="AM11" s="202"/>
+      <c r="AN11" s="202"/>
+      <c r="AO11" s="202"/>
+      <c r="AP11" s="202"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="141" t="s">
@@ -4515,62 +4518,62 @@
       <c r="AP20" s="158"/>
     </row>
     <row r="21" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="201">
+      <c r="A21" s="202">
         <v>43843</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201">
+      <c r="B21" s="202"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202">
         <v>43844</v>
       </c>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201">
+      <c r="H21" s="202"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="202">
         <v>43845</v>
       </c>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-      <c r="R21" s="201"/>
-      <c r="S21" s="201">
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="202"/>
+      <c r="R21" s="202"/>
+      <c r="S21" s="202">
         <v>43846</v>
       </c>
-      <c r="T21" s="201"/>
-      <c r="U21" s="201"/>
-      <c r="V21" s="201"/>
-      <c r="W21" s="201"/>
-      <c r="X21" s="201"/>
-      <c r="Y21" s="201">
+      <c r="T21" s="202"/>
+      <c r="U21" s="202"/>
+      <c r="V21" s="202"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="202">
         <v>43847</v>
       </c>
-      <c r="Z21" s="201"/>
-      <c r="AA21" s="201"/>
-      <c r="AB21" s="201"/>
-      <c r="AC21" s="201"/>
-      <c r="AD21" s="201"/>
-      <c r="AE21" s="201">
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
+      <c r="AD21" s="202"/>
+      <c r="AE21" s="202">
         <v>43848</v>
       </c>
-      <c r="AF21" s="201"/>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="201"/>
-      <c r="AI21" s="201"/>
-      <c r="AJ21" s="201"/>
-      <c r="AK21" s="201">
+      <c r="AF21" s="202"/>
+      <c r="AG21" s="202"/>
+      <c r="AH21" s="202"/>
+      <c r="AI21" s="202"/>
+      <c r="AJ21" s="202"/>
+      <c r="AK21" s="202">
         <v>43849</v>
       </c>
-      <c r="AL21" s="201"/>
-      <c r="AM21" s="201"/>
-      <c r="AN21" s="201"/>
-      <c r="AO21" s="201"/>
-      <c r="AP21" s="201"/>
+      <c r="AL21" s="202"/>
+      <c r="AM21" s="202"/>
+      <c r="AN21" s="202"/>
+      <c r="AO21" s="202"/>
+      <c r="AP21" s="202"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="141" t="s">
@@ -5045,62 +5048,62 @@
       <c r="AP30" s="158"/>
     </row>
     <row r="31" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="201">
+      <c r="A31" s="202">
         <v>43850</v>
       </c>
-      <c r="B31" s="201"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="201">
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="202">
         <v>43851</v>
       </c>
-      <c r="H31" s="201"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201">
+      <c r="H31" s="202"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="202"/>
+      <c r="M31" s="202">
         <v>43852</v>
       </c>
-      <c r="N31" s="201"/>
-      <c r="O31" s="201"/>
-      <c r="P31" s="201"/>
-      <c r="Q31" s="201"/>
-      <c r="R31" s="201"/>
-      <c r="S31" s="201">
+      <c r="N31" s="202"/>
+      <c r="O31" s="202"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="202"/>
+      <c r="R31" s="202"/>
+      <c r="S31" s="202">
         <v>43853</v>
       </c>
-      <c r="T31" s="201"/>
-      <c r="U31" s="201"/>
-      <c r="V31" s="201"/>
-      <c r="W31" s="201"/>
-      <c r="X31" s="201"/>
-      <c r="Y31" s="201">
+      <c r="T31" s="202"/>
+      <c r="U31" s="202"/>
+      <c r="V31" s="202"/>
+      <c r="W31" s="202"/>
+      <c r="X31" s="202"/>
+      <c r="Y31" s="202">
         <v>43854</v>
       </c>
-      <c r="Z31" s="201"/>
-      <c r="AA31" s="201"/>
-      <c r="AB31" s="201"/>
-      <c r="AC31" s="201"/>
-      <c r="AD31" s="201"/>
-      <c r="AE31" s="201">
+      <c r="Z31" s="202"/>
+      <c r="AA31" s="202"/>
+      <c r="AB31" s="202"/>
+      <c r="AC31" s="202"/>
+      <c r="AD31" s="202"/>
+      <c r="AE31" s="202">
         <v>43855</v>
       </c>
-      <c r="AF31" s="201"/>
-      <c r="AG31" s="201"/>
-      <c r="AH31" s="201"/>
-      <c r="AI31" s="201"/>
-      <c r="AJ31" s="201"/>
-      <c r="AK31" s="201">
+      <c r="AF31" s="202"/>
+      <c r="AG31" s="202"/>
+      <c r="AH31" s="202"/>
+      <c r="AI31" s="202"/>
+      <c r="AJ31" s="202"/>
+      <c r="AK31" s="202">
         <v>43856</v>
       </c>
-      <c r="AL31" s="201"/>
-      <c r="AM31" s="201"/>
-      <c r="AN31" s="201"/>
-      <c r="AO31" s="201"/>
-      <c r="AP31" s="201"/>
+      <c r="AL31" s="202"/>
+      <c r="AM31" s="202"/>
+      <c r="AN31" s="202"/>
+      <c r="AO31" s="202"/>
+      <c r="AP31" s="202"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="141" t="s">
@@ -5575,62 +5578,62 @@
       <c r="AP40" s="158"/>
     </row>
     <row r="41" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="201">
+      <c r="A41" s="202">
         <v>43857</v>
       </c>
-      <c r="B41" s="201"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201">
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202">
         <v>43858</v>
       </c>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201">
+      <c r="H41" s="202"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="202"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="202">
         <v>43859</v>
       </c>
-      <c r="N41" s="201"/>
-      <c r="O41" s="201"/>
-      <c r="P41" s="201"/>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="201"/>
-      <c r="S41" s="201">
+      <c r="N41" s="202"/>
+      <c r="O41" s="202"/>
+      <c r="P41" s="202"/>
+      <c r="Q41" s="202"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="202">
         <v>43860</v>
       </c>
-      <c r="T41" s="201"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="201"/>
-      <c r="W41" s="201"/>
-      <c r="X41" s="201"/>
-      <c r="Y41" s="201">
+      <c r="T41" s="202"/>
+      <c r="U41" s="202"/>
+      <c r="V41" s="202"/>
+      <c r="W41" s="202"/>
+      <c r="X41" s="202"/>
+      <c r="Y41" s="202">
         <v>43861</v>
       </c>
-      <c r="Z41" s="201"/>
-      <c r="AA41" s="201"/>
-      <c r="AB41" s="201"/>
-      <c r="AC41" s="201"/>
-      <c r="AD41" s="201"/>
-      <c r="AE41" s="201">
+      <c r="Z41" s="202"/>
+      <c r="AA41" s="202"/>
+      <c r="AB41" s="202"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="202"/>
+      <c r="AE41" s="202">
         <v>43862</v>
       </c>
-      <c r="AF41" s="201"/>
-      <c r="AG41" s="201"/>
-      <c r="AH41" s="201"/>
-      <c r="AI41" s="201"/>
-      <c r="AJ41" s="201"/>
-      <c r="AK41" s="201">
+      <c r="AF41" s="202"/>
+      <c r="AG41" s="202"/>
+      <c r="AH41" s="202"/>
+      <c r="AI41" s="202"/>
+      <c r="AJ41" s="202"/>
+      <c r="AK41" s="202">
         <v>43863</v>
       </c>
-      <c r="AL41" s="201"/>
-      <c r="AM41" s="201"/>
-      <c r="AN41" s="201"/>
-      <c r="AO41" s="201"/>
-      <c r="AP41" s="201"/>
+      <c r="AL41" s="202"/>
+      <c r="AM41" s="202"/>
+      <c r="AN41" s="202"/>
+      <c r="AO41" s="202"/>
+      <c r="AP41" s="202"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="141" t="s">
@@ -6105,62 +6108,62 @@
       <c r="AP50" s="158"/>
     </row>
     <row r="51" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="201">
+      <c r="A51" s="202">
         <v>43864</v>
       </c>
-      <c r="B51" s="201"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="201"/>
-      <c r="G51" s="201">
+      <c r="B51" s="202"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="202"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="202">
         <v>43865</v>
       </c>
-      <c r="H51" s="201"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201">
+      <c r="H51" s="202"/>
+      <c r="I51" s="202"/>
+      <c r="J51" s="202"/>
+      <c r="K51" s="202"/>
+      <c r="L51" s="202"/>
+      <c r="M51" s="202">
         <v>43866</v>
       </c>
-      <c r="N51" s="201"/>
-      <c r="O51" s="201"/>
-      <c r="P51" s="201"/>
-      <c r="Q51" s="201"/>
-      <c r="R51" s="201"/>
-      <c r="S51" s="201">
+      <c r="N51" s="202"/>
+      <c r="O51" s="202"/>
+      <c r="P51" s="202"/>
+      <c r="Q51" s="202"/>
+      <c r="R51" s="202"/>
+      <c r="S51" s="202">
         <v>43867</v>
       </c>
-      <c r="T51" s="201"/>
-      <c r="U51" s="201"/>
-      <c r="V51" s="201"/>
-      <c r="W51" s="201"/>
-      <c r="X51" s="201"/>
-      <c r="Y51" s="201">
+      <c r="T51" s="202"/>
+      <c r="U51" s="202"/>
+      <c r="V51" s="202"/>
+      <c r="W51" s="202"/>
+      <c r="X51" s="202"/>
+      <c r="Y51" s="202">
         <v>43868</v>
       </c>
-      <c r="Z51" s="201"/>
-      <c r="AA51" s="201"/>
-      <c r="AB51" s="201"/>
-      <c r="AC51" s="201"/>
-      <c r="AD51" s="201"/>
-      <c r="AE51" s="201">
+      <c r="Z51" s="202"/>
+      <c r="AA51" s="202"/>
+      <c r="AB51" s="202"/>
+      <c r="AC51" s="202"/>
+      <c r="AD51" s="202"/>
+      <c r="AE51" s="202">
         <v>43869</v>
       </c>
-      <c r="AF51" s="201"/>
-      <c r="AG51" s="201"/>
-      <c r="AH51" s="201"/>
-      <c r="AI51" s="201"/>
-      <c r="AJ51" s="201"/>
-      <c r="AK51" s="201">
+      <c r="AF51" s="202"/>
+      <c r="AG51" s="202"/>
+      <c r="AH51" s="202"/>
+      <c r="AI51" s="202"/>
+      <c r="AJ51" s="202"/>
+      <c r="AK51" s="202">
         <v>43870</v>
       </c>
-      <c r="AL51" s="201"/>
-      <c r="AM51" s="201"/>
-      <c r="AN51" s="201"/>
-      <c r="AO51" s="201"/>
-      <c r="AP51" s="201"/>
+      <c r="AL51" s="202"/>
+      <c r="AM51" s="202"/>
+      <c r="AN51" s="202"/>
+      <c r="AO51" s="202"/>
+      <c r="AP51" s="202"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="141" t="s">
@@ -7083,62 +7086,62 @@
       <c r="AP69" s="158"/>
     </row>
     <row r="70" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="201">
+      <c r="A70" s="202">
         <v>43871</v>
       </c>
-      <c r="B70" s="201"/>
-      <c r="C70" s="201"/>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201"/>
-      <c r="F70" s="201"/>
-      <c r="G70" s="201">
+      <c r="B70" s="202"/>
+      <c r="C70" s="202"/>
+      <c r="D70" s="202"/>
+      <c r="E70" s="202"/>
+      <c r="F70" s="202"/>
+      <c r="G70" s="202">
         <v>43872</v>
       </c>
-      <c r="H70" s="201"/>
-      <c r="I70" s="201"/>
-      <c r="J70" s="201"/>
-      <c r="K70" s="201"/>
-      <c r="L70" s="201"/>
-      <c r="M70" s="201">
+      <c r="H70" s="202"/>
+      <c r="I70" s="202"/>
+      <c r="J70" s="202"/>
+      <c r="K70" s="202"/>
+      <c r="L70" s="202"/>
+      <c r="M70" s="202">
         <v>43873</v>
       </c>
-      <c r="N70" s="201"/>
-      <c r="O70" s="201"/>
-      <c r="P70" s="201"/>
-      <c r="Q70" s="201"/>
-      <c r="R70" s="201"/>
-      <c r="S70" s="201">
+      <c r="N70" s="202"/>
+      <c r="O70" s="202"/>
+      <c r="P70" s="202"/>
+      <c r="Q70" s="202"/>
+      <c r="R70" s="202"/>
+      <c r="S70" s="202">
         <v>43874</v>
       </c>
-      <c r="T70" s="201"/>
-      <c r="U70" s="201"/>
-      <c r="V70" s="201"/>
-      <c r="W70" s="201"/>
-      <c r="X70" s="201"/>
-      <c r="Y70" s="201">
+      <c r="T70" s="202"/>
+      <c r="U70" s="202"/>
+      <c r="V70" s="202"/>
+      <c r="W70" s="202"/>
+      <c r="X70" s="202"/>
+      <c r="Y70" s="202">
         <v>43875</v>
       </c>
-      <c r="Z70" s="201"/>
-      <c r="AA70" s="201"/>
-      <c r="AB70" s="201"/>
-      <c r="AC70" s="201"/>
-      <c r="AD70" s="201"/>
-      <c r="AE70" s="201">
+      <c r="Z70" s="202"/>
+      <c r="AA70" s="202"/>
+      <c r="AB70" s="202"/>
+      <c r="AC70" s="202"/>
+      <c r="AD70" s="202"/>
+      <c r="AE70" s="202">
         <v>43876</v>
       </c>
-      <c r="AF70" s="201"/>
-      <c r="AG70" s="201"/>
-      <c r="AH70" s="201"/>
-      <c r="AI70" s="201"/>
-      <c r="AJ70" s="201"/>
-      <c r="AK70" s="201">
+      <c r="AF70" s="202"/>
+      <c r="AG70" s="202"/>
+      <c r="AH70" s="202"/>
+      <c r="AI70" s="202"/>
+      <c r="AJ70" s="202"/>
+      <c r="AK70" s="202">
         <v>43877</v>
       </c>
-      <c r="AL70" s="201"/>
-      <c r="AM70" s="201"/>
-      <c r="AN70" s="201"/>
-      <c r="AO70" s="201"/>
-      <c r="AP70" s="201"/>
+      <c r="AL70" s="202"/>
+      <c r="AM70" s="202"/>
+      <c r="AN70" s="202"/>
+      <c r="AO70" s="202"/>
+      <c r="AP70" s="202"/>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="141" t="s">
@@ -8227,62 +8230,62 @@
       <c r="AP88" s="158"/>
     </row>
     <row r="89" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="201">
+      <c r="A89" s="202">
         <v>43878</v>
       </c>
-      <c r="B89" s="201"/>
-      <c r="C89" s="201"/>
-      <c r="D89" s="201"/>
-      <c r="E89" s="201"/>
-      <c r="F89" s="201"/>
-      <c r="G89" s="201">
+      <c r="B89" s="202"/>
+      <c r="C89" s="202"/>
+      <c r="D89" s="202"/>
+      <c r="E89" s="202"/>
+      <c r="F89" s="202"/>
+      <c r="G89" s="202">
         <v>43879</v>
       </c>
-      <c r="H89" s="201"/>
-      <c r="I89" s="201"/>
-      <c r="J89" s="201"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="201"/>
-      <c r="M89" s="201">
+      <c r="H89" s="202"/>
+      <c r="I89" s="202"/>
+      <c r="J89" s="202"/>
+      <c r="K89" s="202"/>
+      <c r="L89" s="202"/>
+      <c r="M89" s="202">
         <v>43880</v>
       </c>
-      <c r="N89" s="201"/>
-      <c r="O89" s="201"/>
-      <c r="P89" s="201"/>
-      <c r="Q89" s="201"/>
-      <c r="R89" s="201"/>
-      <c r="S89" s="201">
+      <c r="N89" s="202"/>
+      <c r="O89" s="202"/>
+      <c r="P89" s="202"/>
+      <c r="Q89" s="202"/>
+      <c r="R89" s="202"/>
+      <c r="S89" s="202">
         <v>43881</v>
       </c>
-      <c r="T89" s="201"/>
-      <c r="U89" s="201"/>
-      <c r="V89" s="201"/>
-      <c r="W89" s="201"/>
-      <c r="X89" s="201"/>
-      <c r="Y89" s="201">
+      <c r="T89" s="202"/>
+      <c r="U89" s="202"/>
+      <c r="V89" s="202"/>
+      <c r="W89" s="202"/>
+      <c r="X89" s="202"/>
+      <c r="Y89" s="202">
         <v>43882</v>
       </c>
-      <c r="Z89" s="201"/>
-      <c r="AA89" s="201"/>
-      <c r="AB89" s="201"/>
-      <c r="AC89" s="201"/>
-      <c r="AD89" s="201"/>
-      <c r="AE89" s="201">
+      <c r="Z89" s="202"/>
+      <c r="AA89" s="202"/>
+      <c r="AB89" s="202"/>
+      <c r="AC89" s="202"/>
+      <c r="AD89" s="202"/>
+      <c r="AE89" s="202">
         <v>43883</v>
       </c>
-      <c r="AF89" s="201"/>
-      <c r="AG89" s="201"/>
-      <c r="AH89" s="201"/>
-      <c r="AI89" s="201"/>
-      <c r="AJ89" s="201"/>
-      <c r="AK89" s="201">
+      <c r="AF89" s="202"/>
+      <c r="AG89" s="202"/>
+      <c r="AH89" s="202"/>
+      <c r="AI89" s="202"/>
+      <c r="AJ89" s="202"/>
+      <c r="AK89" s="202">
         <v>43884</v>
       </c>
-      <c r="AL89" s="201"/>
-      <c r="AM89" s="201"/>
-      <c r="AN89" s="201"/>
-      <c r="AO89" s="201"/>
-      <c r="AP89" s="201"/>
+      <c r="AL89" s="202"/>
+      <c r="AM89" s="202"/>
+      <c r="AN89" s="202"/>
+      <c r="AO89" s="202"/>
+      <c r="AP89" s="202"/>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="141" t="s">
@@ -8439,7 +8442,9 @@
       <c r="J91" s="147"/>
       <c r="K91" s="147"/>
       <c r="L91" s="148"/>
-      <c r="M91" s="149"/>
+      <c r="M91" s="149" t="s">
+        <v>196</v>
+      </c>
       <c r="N91" s="146" t="s">
         <v>79</v>
       </c>
@@ -8505,7 +8510,9 @@
       <c r="J92" s="147"/>
       <c r="K92" s="147"/>
       <c r="L92" s="148"/>
-      <c r="M92" s="149"/>
+      <c r="M92" s="149" t="s">
+        <v>91</v>
+      </c>
       <c r="N92" s="146" t="s">
         <v>87</v>
       </c>
@@ -8571,7 +8578,9 @@
       <c r="J93" s="147"/>
       <c r="K93" s="147"/>
       <c r="L93" s="148"/>
-      <c r="M93" s="149"/>
+      <c r="M93" s="149" t="s">
+        <v>198</v>
+      </c>
       <c r="N93" s="146" t="s">
         <v>77</v>
       </c>
@@ -8634,7 +8643,9 @@
       <c r="J94" s="147"/>
       <c r="K94" s="147"/>
       <c r="L94" s="148"/>
-      <c r="M94" s="149"/>
+      <c r="M94" s="149" t="s">
+        <v>89</v>
+      </c>
       <c r="N94" s="146" t="s">
         <v>75</v>
       </c>
@@ -9491,62 +9502,62 @@
       <c r="AP109" s="158"/>
     </row>
     <row r="110" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="201">
+      <c r="A110" s="202">
         <v>43885</v>
       </c>
-      <c r="B110" s="201"/>
-      <c r="C110" s="201"/>
-      <c r="D110" s="201"/>
-      <c r="E110" s="201"/>
-      <c r="F110" s="201"/>
-      <c r="G110" s="201">
+      <c r="B110" s="202"/>
+      <c r="C110" s="202"/>
+      <c r="D110" s="202"/>
+      <c r="E110" s="202"/>
+      <c r="F110" s="202"/>
+      <c r="G110" s="202">
         <v>43886</v>
       </c>
-      <c r="H110" s="201"/>
-      <c r="I110" s="201"/>
-      <c r="J110" s="201"/>
-      <c r="K110" s="201"/>
-      <c r="L110" s="201"/>
-      <c r="M110" s="201">
+      <c r="H110" s="202"/>
+      <c r="I110" s="202"/>
+      <c r="J110" s="202"/>
+      <c r="K110" s="202"/>
+      <c r="L110" s="202"/>
+      <c r="M110" s="202">
         <v>43887</v>
       </c>
-      <c r="N110" s="201"/>
-      <c r="O110" s="201"/>
-      <c r="P110" s="201"/>
-      <c r="Q110" s="201"/>
-      <c r="R110" s="201"/>
-      <c r="S110" s="201">
+      <c r="N110" s="202"/>
+      <c r="O110" s="202"/>
+      <c r="P110" s="202"/>
+      <c r="Q110" s="202"/>
+      <c r="R110" s="202"/>
+      <c r="S110" s="202">
         <v>43888</v>
       </c>
-      <c r="T110" s="201"/>
-      <c r="U110" s="201"/>
-      <c r="V110" s="201"/>
-      <c r="W110" s="201"/>
-      <c r="X110" s="201"/>
-      <c r="Y110" s="201">
+      <c r="T110" s="202"/>
+      <c r="U110" s="202"/>
+      <c r="V110" s="202"/>
+      <c r="W110" s="202"/>
+      <c r="X110" s="202"/>
+      <c r="Y110" s="202">
         <v>43889</v>
       </c>
-      <c r="Z110" s="201"/>
-      <c r="AA110" s="201"/>
-      <c r="AB110" s="201"/>
-      <c r="AC110" s="201"/>
-      <c r="AD110" s="201"/>
-      <c r="AE110" s="201">
+      <c r="Z110" s="202"/>
+      <c r="AA110" s="202"/>
+      <c r="AB110" s="202"/>
+      <c r="AC110" s="202"/>
+      <c r="AD110" s="202"/>
+      <c r="AE110" s="202">
         <v>43890</v>
       </c>
-      <c r="AF110" s="201"/>
-      <c r="AG110" s="201"/>
-      <c r="AH110" s="201"/>
-      <c r="AI110" s="201"/>
-      <c r="AJ110" s="201"/>
-      <c r="AK110" s="201">
+      <c r="AF110" s="202"/>
+      <c r="AG110" s="202"/>
+      <c r="AH110" s="202"/>
+      <c r="AI110" s="202"/>
+      <c r="AJ110" s="202"/>
+      <c r="AK110" s="202">
         <v>43891</v>
       </c>
-      <c r="AL110" s="201"/>
-      <c r="AM110" s="201"/>
-      <c r="AN110" s="201"/>
-      <c r="AO110" s="201"/>
-      <c r="AP110" s="201"/>
+      <c r="AL110" s="202"/>
+      <c r="AM110" s="202"/>
+      <c r="AN110" s="202"/>
+      <c r="AO110" s="202"/>
+      <c r="AP110" s="202"/>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="141" t="s">
@@ -10021,62 +10032,62 @@
       <c r="AP119" s="158"/>
     </row>
     <row r="120" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="201">
+      <c r="A120" s="202">
         <v>43892</v>
       </c>
-      <c r="B120" s="201"/>
-      <c r="C120" s="201"/>
-      <c r="D120" s="201"/>
-      <c r="E120" s="201"/>
-      <c r="F120" s="201"/>
-      <c r="G120" s="201">
+      <c r="B120" s="202"/>
+      <c r="C120" s="202"/>
+      <c r="D120" s="202"/>
+      <c r="E120" s="202"/>
+      <c r="F120" s="202"/>
+      <c r="G120" s="202">
         <v>43893</v>
       </c>
-      <c r="H120" s="201"/>
-      <c r="I120" s="201"/>
-      <c r="J120" s="201"/>
-      <c r="K120" s="201"/>
-      <c r="L120" s="201"/>
-      <c r="M120" s="201">
+      <c r="H120" s="202"/>
+      <c r="I120" s="202"/>
+      <c r="J120" s="202"/>
+      <c r="K120" s="202"/>
+      <c r="L120" s="202"/>
+      <c r="M120" s="202">
         <v>43894</v>
       </c>
-      <c r="N120" s="201"/>
-      <c r="O120" s="201"/>
-      <c r="P120" s="201"/>
-      <c r="Q120" s="201"/>
-      <c r="R120" s="201"/>
-      <c r="S120" s="201">
+      <c r="N120" s="202"/>
+      <c r="O120" s="202"/>
+      <c r="P120" s="202"/>
+      <c r="Q120" s="202"/>
+      <c r="R120" s="202"/>
+      <c r="S120" s="202">
         <v>43895</v>
       </c>
-      <c r="T120" s="201"/>
-      <c r="U120" s="201"/>
-      <c r="V120" s="201"/>
-      <c r="W120" s="201"/>
-      <c r="X120" s="201"/>
-      <c r="Y120" s="201">
+      <c r="T120" s="202"/>
+      <c r="U120" s="202"/>
+      <c r="V120" s="202"/>
+      <c r="W120" s="202"/>
+      <c r="X120" s="202"/>
+      <c r="Y120" s="202">
         <v>43896</v>
       </c>
-      <c r="Z120" s="201"/>
-      <c r="AA120" s="201"/>
-      <c r="AB120" s="201"/>
-      <c r="AC120" s="201"/>
-      <c r="AD120" s="201"/>
-      <c r="AE120" s="201">
+      <c r="Z120" s="202"/>
+      <c r="AA120" s="202"/>
+      <c r="AB120" s="202"/>
+      <c r="AC120" s="202"/>
+      <c r="AD120" s="202"/>
+      <c r="AE120" s="202">
         <v>43897</v>
       </c>
-      <c r="AF120" s="201"/>
-      <c r="AG120" s="201"/>
-      <c r="AH120" s="201"/>
-      <c r="AI120" s="201"/>
-      <c r="AJ120" s="201"/>
-      <c r="AK120" s="201">
+      <c r="AF120" s="202"/>
+      <c r="AG120" s="202"/>
+      <c r="AH120" s="202"/>
+      <c r="AI120" s="202"/>
+      <c r="AJ120" s="202"/>
+      <c r="AK120" s="202">
         <v>43898</v>
       </c>
-      <c r="AL120" s="201"/>
-      <c r="AM120" s="201"/>
-      <c r="AN120" s="201"/>
-      <c r="AO120" s="201"/>
-      <c r="AP120" s="201"/>
+      <c r="AL120" s="202"/>
+      <c r="AM120" s="202"/>
+      <c r="AN120" s="202"/>
+      <c r="AO120" s="202"/>
+      <c r="AP120" s="202"/>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="141" t="s">
@@ -10551,62 +10562,62 @@
       <c r="AP129" s="158"/>
     </row>
     <row r="130" spans="1:42" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="201">
+      <c r="A130" s="202">
         <v>43899</v>
       </c>
-      <c r="B130" s="201"/>
-      <c r="C130" s="201"/>
-      <c r="D130" s="201"/>
-      <c r="E130" s="201"/>
-      <c r="F130" s="201"/>
-      <c r="G130" s="201">
+      <c r="B130" s="202"/>
+      <c r="C130" s="202"/>
+      <c r="D130" s="202"/>
+      <c r="E130" s="202"/>
+      <c r="F130" s="202"/>
+      <c r="G130" s="202">
         <v>43900</v>
       </c>
-      <c r="H130" s="201"/>
-      <c r="I130" s="201"/>
-      <c r="J130" s="201"/>
-      <c r="K130" s="201"/>
-      <c r="L130" s="201"/>
-      <c r="M130" s="201">
+      <c r="H130" s="202"/>
+      <c r="I130" s="202"/>
+      <c r="J130" s="202"/>
+      <c r="K130" s="202"/>
+      <c r="L130" s="202"/>
+      <c r="M130" s="202">
         <v>43901</v>
       </c>
-      <c r="N130" s="201"/>
-      <c r="O130" s="201"/>
-      <c r="P130" s="201"/>
-      <c r="Q130" s="201"/>
-      <c r="R130" s="201"/>
-      <c r="S130" s="201">
+      <c r="N130" s="202"/>
+      <c r="O130" s="202"/>
+      <c r="P130" s="202"/>
+      <c r="Q130" s="202"/>
+      <c r="R130" s="202"/>
+      <c r="S130" s="202">
         <v>43902</v>
       </c>
-      <c r="T130" s="201"/>
-      <c r="U130" s="201"/>
-      <c r="V130" s="201"/>
-      <c r="W130" s="201"/>
-      <c r="X130" s="201"/>
-      <c r="Y130" s="201">
+      <c r="T130" s="202"/>
+      <c r="U130" s="202"/>
+      <c r="V130" s="202"/>
+      <c r="W130" s="202"/>
+      <c r="X130" s="202"/>
+      <c r="Y130" s="202">
         <v>43903</v>
       </c>
-      <c r="Z130" s="201"/>
-      <c r="AA130" s="201"/>
-      <c r="AB130" s="201"/>
-      <c r="AC130" s="201"/>
-      <c r="AD130" s="201"/>
-      <c r="AE130" s="201">
+      <c r="Z130" s="202"/>
+      <c r="AA130" s="202"/>
+      <c r="AB130" s="202"/>
+      <c r="AC130" s="202"/>
+      <c r="AD130" s="202"/>
+      <c r="AE130" s="202">
         <v>43904</v>
       </c>
-      <c r="AF130" s="201"/>
-      <c r="AG130" s="201"/>
-      <c r="AH130" s="201"/>
-      <c r="AI130" s="201"/>
-      <c r="AJ130" s="201"/>
-      <c r="AK130" s="201">
+      <c r="AF130" s="202"/>
+      <c r="AG130" s="202"/>
+      <c r="AH130" s="202"/>
+      <c r="AI130" s="202"/>
+      <c r="AJ130" s="202"/>
+      <c r="AK130" s="202">
         <v>43905</v>
       </c>
-      <c r="AL130" s="201"/>
-      <c r="AM130" s="201"/>
-      <c r="AN130" s="201"/>
-      <c r="AO130" s="201"/>
-      <c r="AP130" s="201"/>
+      <c r="AL130" s="202"/>
+      <c r="AM130" s="202"/>
+      <c r="AN130" s="202"/>
+      <c r="AO130" s="202"/>
+      <c r="AP130" s="202"/>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="141" t="s">
@@ -11082,6 +11093,69 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="AK130:AP130"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:L130"/>
+    <mergeCell ref="M130:R130"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="AE110:AJ110"/>
+    <mergeCell ref="AK110:AP110"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:L120"/>
+    <mergeCell ref="M120:R120"/>
+    <mergeCell ref="S120:X120"/>
+    <mergeCell ref="Y120:AD120"/>
+    <mergeCell ref="AE120:AJ120"/>
+    <mergeCell ref="AK120:AP120"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="M110:R110"/>
+    <mergeCell ref="S110:X110"/>
+    <mergeCell ref="Y110:AD110"/>
+    <mergeCell ref="AE70:AJ70"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M89:R89"/>
+    <mergeCell ref="S89:X89"/>
+    <mergeCell ref="Y89:AD89"/>
+    <mergeCell ref="AE89:AJ89"/>
+    <mergeCell ref="AK89:AP89"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:L70"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="Y70:AD70"/>
+    <mergeCell ref="AE41:AJ41"/>
+    <mergeCell ref="AK41:AP41"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AD41"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="AK21:AP21"/>
     <mergeCell ref="S21:X21"/>
@@ -11096,69 +11170,6 @@
     <mergeCell ref="S31:X31"/>
     <mergeCell ref="Y31:AD31"/>
     <mergeCell ref="AE31:AJ31"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE41:AJ41"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AE70:AJ70"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:R89"/>
-    <mergeCell ref="S89:X89"/>
-    <mergeCell ref="Y89:AD89"/>
-    <mergeCell ref="AE89:AJ89"/>
-    <mergeCell ref="AK89:AP89"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="Y70:AD70"/>
-    <mergeCell ref="AE110:AJ110"/>
-    <mergeCell ref="AK110:AP110"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:L120"/>
-    <mergeCell ref="M120:R120"/>
-    <mergeCell ref="S120:X120"/>
-    <mergeCell ref="Y120:AD120"/>
-    <mergeCell ref="AE120:AJ120"/>
-    <mergeCell ref="AK120:AP120"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="M110:R110"/>
-    <mergeCell ref="S110:X110"/>
-    <mergeCell ref="Y110:AD110"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="AK130:AP130"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:L130"/>
-    <mergeCell ref="M130:R130"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="Y130:AD130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11189,34 +11200,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="204" t="s">
+      <c r="G1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="205"/>
-      <c r="I1" s="184" t="s">
+      <c r="H1" s="206"/>
+      <c r="I1" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186" t="s">
+      <c r="J1" s="186"/>
+      <c r="K1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="188" t="s">
+      <c r="L1" s="188"/>
+      <c r="M1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="189"/>
-      <c r="O1" s="190" t="s">
+      <c r="N1" s="190"/>
+      <c r="O1" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="180" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="181"/>
-      <c r="S1" s="202" t="s">
+      <c r="R1" s="182"/>
+      <c r="S1" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="203"/>
+      <c r="T1" s="204"/>
     </row>
     <row r="2" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
@@ -11262,13 +11273,13 @@
       <c r="AO2" s="95"/>
     </row>
     <row r="3" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="48" t="s">
         <v>7</v>
       </c>
@@ -11309,13 +11320,13 @@
       <c r="AO3" s="49"/>
     </row>
     <row r="4" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
       <c r="F4" s="166"/>
       <c r="G4" s="50" t="s">
         <v>98</v>
@@ -12078,13 +12089,13 @@
       <c r="AO13" s="95"/>
     </row>
     <row r="14" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="175"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="48" t="s">
         <v>7</v>
       </c>
@@ -12153,13 +12164,13 @@
       <c r="AO14" s="49"/>
     </row>
     <row r="15" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="166" t="s">
         <v>79</v>
       </c>
@@ -13050,13 +13061,13 @@
       <c r="AO24" s="95"/>
     </row>
     <row r="25" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="174"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="175"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
       <c r="F25" s="48" t="s">
         <v>7</v>
       </c>
@@ -13127,13 +13138,13 @@
       <c r="AO25" s="49"/>
     </row>
     <row r="26" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="179"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="180"/>
       <c r="F26" s="166" t="s">
         <v>87</v>
       </c>
@@ -14023,13 +14034,13 @@
       <c r="AO35" s="95"/>
     </row>
     <row r="36" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="173" t="s">
+      <c r="A36" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="175"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="176"/>
       <c r="F36" s="48" t="s">
         <v>7</v>
       </c>
@@ -14100,13 +14111,13 @@
       <c r="AO36" s="49"/>
     </row>
     <row r="37" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="179"/>
+      <c r="B37" s="178"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
       <c r="F37" s="166" t="s">
         <v>77</v>
       </c>
@@ -14521,142 +14532,142 @@
       <c r="F42" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="208">
+      <c r="G42" s="173">
         <v>0.65500000000000003</v>
       </c>
-      <c r="H42" s="208">
+      <c r="H42" s="173">
         <f t="shared" ref="H42" si="72">G42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="I42" s="208">
+      <c r="I42" s="173">
         <f t="shared" ref="I42:J42" si="73">H42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="J42" s="208">
+      <c r="J42" s="173">
         <f t="shared" si="73"/>
         <v>0.65500000000000003</v>
       </c>
-      <c r="K42" s="208">
+      <c r="K42" s="173">
         <f t="shared" ref="K42" si="74">J42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="L42" s="208">
+      <c r="L42" s="173">
         <f t="shared" ref="L42" si="75">K42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="M42" s="208">
+      <c r="M42" s="173">
         <f t="shared" ref="M42" si="76">L42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="N42" s="208">
+      <c r="N42" s="173">
         <f t="shared" ref="N42" si="77">M42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="O42" s="208">
+      <c r="O42" s="173">
         <f t="shared" ref="O42" si="78">N42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="P42" s="208">
+      <c r="P42" s="173">
         <f t="shared" ref="P42" si="79">O42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="Q42" s="208">
+      <c r="Q42" s="173">
         <f t="shared" ref="Q42" si="80">P42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="R42" s="208">
+      <c r="R42" s="173">
         <f t="shared" ref="R42" si="81">Q42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="S42" s="208">
+      <c r="S42" s="173">
         <f t="shared" ref="S42" si="82">R42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="T42" s="208">
+      <c r="T42" s="173">
         <f t="shared" ref="T42" si="83">S42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="U42" s="208">
+      <c r="U42" s="173">
         <f t="shared" ref="U42" si="84">T42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="V42" s="208">
+      <c r="V42" s="173">
         <f t="shared" ref="V42" si="85">U42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="W42" s="208">
+      <c r="W42" s="173">
         <f t="shared" ref="W42" si="86">V42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="X42" s="208">
+      <c r="X42" s="173">
         <f t="shared" ref="X42" si="87">W42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="Y42" s="208">
+      <c r="Y42" s="173">
         <f t="shared" ref="Y42" si="88">X42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="Z42" s="208">
+      <c r="Z42" s="173">
         <f t="shared" ref="Z42" si="89">Y42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AA42" s="208">
+      <c r="AA42" s="173">
         <f t="shared" ref="AA42" si="90">Z42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AB42" s="208">
+      <c r="AB42" s="173">
         <f t="shared" ref="AB42" si="91">AA42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AC42" s="208">
+      <c r="AC42" s="173">
         <f t="shared" ref="AC42" si="92">AB42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AD42" s="208">
+      <c r="AD42" s="173">
         <f t="shared" ref="AD42" si="93">AC42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AE42" s="208">
+      <c r="AE42" s="173">
         <f t="shared" ref="AE42" si="94">AD42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AF42" s="208">
+      <c r="AF42" s="173">
         <f t="shared" ref="AF42" si="95">AE42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AG42" s="208">
+      <c r="AG42" s="173">
         <f t="shared" ref="AG42" si="96">AF42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AH42" s="208">
+      <c r="AH42" s="173">
         <f t="shared" ref="AH42" si="97">AG42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AI42" s="208">
+      <c r="AI42" s="173">
         <f t="shared" ref="AI42" si="98">AH42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AJ42" s="208">
+      <c r="AJ42" s="173">
         <f t="shared" ref="AJ42" si="99">AI42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AK42" s="208">
+      <c r="AK42" s="173">
         <f t="shared" ref="AK42" si="100">AJ42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AL42" s="208">
+      <c r="AL42" s="173">
         <f t="shared" ref="AL42" si="101">AK42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AM42" s="208">
+      <c r="AM42" s="173">
         <f t="shared" ref="AM42" si="102">AL42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AN42" s="208">
+      <c r="AN42" s="173">
         <f t="shared" ref="AN42" si="103">AM42</f>
         <v>0.65500000000000003</v>
       </c>
-      <c r="AO42" s="208">
+      <c r="AO42" s="173">
         <f t="shared" ref="AO42" si="104">AN42</f>
         <v>0.65500000000000003</v>
       </c>
@@ -14996,13 +15007,13 @@
       <c r="AO46" s="95"/>
     </row>
     <row r="47" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="173" t="s">
+      <c r="A47" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="175"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="176"/>
       <c r="F47" s="48" t="s">
         <v>7</v>
       </c>
@@ -15071,13 +15082,13 @@
       <c r="AO47" s="49"/>
     </row>
     <row r="48" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="176" t="s">
+      <c r="A48" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="179"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="180"/>
       <c r="F48" s="166" t="s">
         <v>75</v>
       </c>
@@ -15958,13 +15969,13 @@
       <c r="AO57" s="95"/>
     </row>
     <row r="58" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="173" t="s">
+      <c r="A58" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="174"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
-      <c r="E58" s="175"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="176"/>
       <c r="F58" s="48" t="s">
         <v>7</v>
       </c>
@@ -16031,13 +16042,13 @@
       <c r="AO58" s="49"/>
     </row>
     <row r="59" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="176" t="s">
+      <c r="A59" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="179"/>
+      <c r="B59" s="178"/>
+      <c r="C59" s="178"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="180"/>
       <c r="F59" s="166" t="s">
         <v>76</v>
       </c>
@@ -16908,13 +16919,13 @@
       <c r="AO68" s="95"/>
     </row>
     <row r="69" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="173" t="s">
+      <c r="A69" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="174"/>
-      <c r="C69" s="174"/>
-      <c r="D69" s="174"/>
-      <c r="E69" s="175"/>
+      <c r="B69" s="175"/>
+      <c r="C69" s="175"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="176"/>
       <c r="F69" s="48" t="s">
         <v>7</v>
       </c>
@@ -16977,13 +16988,13 @@
       <c r="AO69" s="49"/>
     </row>
     <row r="70" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="176" t="s">
+      <c r="A70" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="177"/>
-      <c r="C70" s="177"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="179"/>
+      <c r="B70" s="178"/>
+      <c r="C70" s="178"/>
+      <c r="D70" s="179"/>
+      <c r="E70" s="180"/>
       <c r="F70" s="166" t="s">
         <v>83</v>
       </c>
@@ -17834,13 +17845,13 @@
       <c r="AO79" s="95"/>
     </row>
     <row r="80" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="173" t="s">
+      <c r="A80" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="174"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
-      <c r="E80" s="175"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="176"/>
       <c r="F80" s="48" t="s">
         <v>7</v>
       </c>
@@ -17899,13 +17910,13 @@
       <c r="AO80" s="49"/>
     </row>
     <row r="81" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="176" t="s">
+      <c r="A81" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="177"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="178"/>
-      <c r="E81" s="179"/>
+      <c r="B81" s="178"/>
+      <c r="C81" s="178"/>
+      <c r="D81" s="179"/>
+      <c r="E81" s="180"/>
       <c r="F81" s="168" t="s">
         <v>165</v>
       </c>
@@ -18736,13 +18747,13 @@
       <c r="AO90" s="95"/>
     </row>
     <row r="91" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="173" t="s">
+      <c r="A91" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="174"/>
-      <c r="C91" s="174"/>
-      <c r="D91" s="174"/>
-      <c r="E91" s="175"/>
+      <c r="B91" s="175"/>
+      <c r="C91" s="175"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="176"/>
       <c r="F91" s="48" t="s">
         <v>7</v>
       </c>
@@ -18801,13 +18812,13 @@
       <c r="AO91" s="49"/>
     </row>
     <row r="92" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="176" t="s">
+      <c r="A92" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="177"/>
-      <c r="C92" s="177"/>
-      <c r="D92" s="178"/>
-      <c r="E92" s="179"/>
+      <c r="B92" s="178"/>
+      <c r="C92" s="178"/>
+      <c r="D92" s="179"/>
+      <c r="E92" s="180"/>
       <c r="F92" s="168" t="s">
         <v>168</v>
       </c>
@@ -19638,13 +19649,13 @@
       <c r="AO101" s="95"/>
     </row>
     <row r="102" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="173" t="s">
+      <c r="A102" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="174"/>
-      <c r="C102" s="174"/>
-      <c r="D102" s="174"/>
-      <c r="E102" s="175"/>
+      <c r="B102" s="175"/>
+      <c r="C102" s="175"/>
+      <c r="D102" s="175"/>
+      <c r="E102" s="176"/>
       <c r="F102" s="48" t="s">
         <v>7</v>
       </c>
@@ -19703,13 +19714,13 @@
       <c r="AO102" s="49"/>
     </row>
     <row r="103" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="176" t="s">
+      <c r="A103" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="177"/>
-      <c r="C103" s="177"/>
-      <c r="D103" s="178"/>
-      <c r="E103" s="179"/>
+      <c r="B103" s="178"/>
+      <c r="C103" s="178"/>
+      <c r="D103" s="179"/>
+      <c r="E103" s="180"/>
       <c r="F103" s="168" t="s">
         <v>169</v>
       </c>
@@ -20540,13 +20551,13 @@
       <c r="AO112" s="95"/>
     </row>
     <row r="113" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="173" t="s">
+      <c r="A113" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="174"/>
-      <c r="C113" s="174"/>
-      <c r="D113" s="174"/>
-      <c r="E113" s="175"/>
+      <c r="B113" s="175"/>
+      <c r="C113" s="175"/>
+      <c r="D113" s="175"/>
+      <c r="E113" s="176"/>
       <c r="F113" s="48" t="s">
         <v>7</v>
       </c>
@@ -20605,13 +20616,13 @@
       <c r="AO113" s="49"/>
     </row>
     <row r="114" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="176" t="s">
+      <c r="A114" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="177"/>
-      <c r="C114" s="177"/>
-      <c r="D114" s="178"/>
-      <c r="E114" s="179"/>
+      <c r="B114" s="178"/>
+      <c r="C114" s="178"/>
+      <c r="D114" s="179"/>
+      <c r="E114" s="180"/>
       <c r="F114" s="168" t="s">
         <v>119</v>
       </c>
@@ -21436,13 +21447,13 @@
       <c r="AO123" s="95"/>
     </row>
     <row r="124" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="173" t="s">
+      <c r="A124" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="174"/>
-      <c r="C124" s="174"/>
-      <c r="D124" s="174"/>
-      <c r="E124" s="175"/>
+      <c r="B124" s="175"/>
+      <c r="C124" s="175"/>
+      <c r="D124" s="175"/>
+      <c r="E124" s="176"/>
       <c r="F124" s="48" t="s">
         <v>7</v>
       </c>
@@ -21498,13 +21509,13 @@
       <c r="AO124" s="49"/>
     </row>
     <row r="125" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="176" t="s">
+      <c r="A125" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="177"/>
-      <c r="C125" s="177"/>
-      <c r="D125" s="178"/>
-      <c r="E125" s="179"/>
+      <c r="B125" s="178"/>
+      <c r="C125" s="178"/>
+      <c r="D125" s="179"/>
+      <c r="E125" s="180"/>
       <c r="F125" s="168" t="s">
         <v>109</v>
       </c>
@@ -22319,13 +22330,13 @@
       <c r="AO134" s="95"/>
     </row>
     <row r="135" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="173" t="s">
+      <c r="A135" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="174"/>
-      <c r="C135" s="174"/>
-      <c r="D135" s="174"/>
-      <c r="E135" s="175"/>
+      <c r="B135" s="175"/>
+      <c r="C135" s="175"/>
+      <c r="D135" s="175"/>
+      <c r="E135" s="176"/>
       <c r="F135" s="48" t="s">
         <v>7</v>
       </c>
@@ -22381,13 +22392,13 @@
       <c r="AO135" s="49"/>
     </row>
     <row r="136" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="176" t="s">
+      <c r="A136" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="177"/>
-      <c r="C136" s="177"/>
-      <c r="D136" s="178"/>
-      <c r="E136" s="179"/>
+      <c r="B136" s="178"/>
+      <c r="C136" s="178"/>
+      <c r="D136" s="179"/>
+      <c r="E136" s="180"/>
       <c r="F136" s="168" t="s">
         <v>172</v>
       </c>
@@ -23202,13 +23213,13 @@
       <c r="AO145" s="95"/>
     </row>
     <row r="146" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="173" t="s">
+      <c r="A146" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="174"/>
-      <c r="C146" s="174"/>
-      <c r="D146" s="174"/>
-      <c r="E146" s="175"/>
+      <c r="B146" s="175"/>
+      <c r="C146" s="175"/>
+      <c r="D146" s="175"/>
+      <c r="E146" s="176"/>
       <c r="F146" s="48" t="s">
         <v>7</v>
       </c>
@@ -23264,13 +23275,13 @@
       <c r="AO146" s="49"/>
     </row>
     <row r="147" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="176" t="s">
+      <c r="A147" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="177"/>
-      <c r="C147" s="177"/>
-      <c r="D147" s="178"/>
-      <c r="E147" s="179"/>
+      <c r="B147" s="178"/>
+      <c r="C147" s="178"/>
+      <c r="D147" s="179"/>
+      <c r="E147" s="180"/>
       <c r="F147" s="171" t="s">
         <v>111</v>
       </c>
@@ -24085,13 +24096,13 @@
       <c r="AO156" s="95"/>
     </row>
     <row r="157" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="173" t="s">
+      <c r="A157" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="174"/>
-      <c r="C157" s="174"/>
-      <c r="D157" s="174"/>
-      <c r="E157" s="175"/>
+      <c r="B157" s="175"/>
+      <c r="C157" s="175"/>
+      <c r="D157" s="175"/>
+      <c r="E157" s="176"/>
       <c r="F157" s="48" t="s">
         <v>7</v>
       </c>
@@ -24147,13 +24158,13 @@
       <c r="AO157" s="49"/>
     </row>
     <row r="158" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="176" t="s">
+      <c r="A158" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="177"/>
-      <c r="C158" s="177"/>
-      <c r="D158" s="178"/>
-      <c r="E158" s="179"/>
+      <c r="B158" s="178"/>
+      <c r="C158" s="178"/>
+      <c r="D158" s="179"/>
+      <c r="E158" s="180"/>
       <c r="F158" s="168" t="s">
         <v>173</v>
       </c>
@@ -24974,13 +24985,13 @@
       <c r="AO167" s="95"/>
     </row>
     <row r="168" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="173" t="s">
+      <c r="A168" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="174"/>
-      <c r="C168" s="174"/>
-      <c r="D168" s="174"/>
-      <c r="E168" s="175"/>
+      <c r="B168" s="175"/>
+      <c r="C168" s="175"/>
+      <c r="D168" s="175"/>
+      <c r="E168" s="176"/>
       <c r="F168" s="48" t="s">
         <v>7</v>
       </c>
@@ -25033,13 +25044,13 @@
       <c r="AO168" s="49"/>
     </row>
     <row r="169" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="176" t="s">
+      <c r="A169" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="177"/>
-      <c r="C169" s="177"/>
-      <c r="D169" s="178"/>
-      <c r="E169" s="179"/>
+      <c r="B169" s="178"/>
+      <c r="C169" s="178"/>
+      <c r="D169" s="179"/>
+      <c r="E169" s="180"/>
       <c r="F169" s="168" t="s">
         <v>177</v>
       </c>
@@ -25850,13 +25861,13 @@
       <c r="AO178" s="95"/>
     </row>
     <row r="179" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="173" t="s">
+      <c r="A179" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="174"/>
-      <c r="C179" s="174"/>
-      <c r="D179" s="174"/>
-      <c r="E179" s="175"/>
+      <c r="B179" s="175"/>
+      <c r="C179" s="175"/>
+      <c r="D179" s="175"/>
+      <c r="E179" s="176"/>
       <c r="F179" s="48" t="s">
         <v>7</v>
       </c>
@@ -25909,13 +25920,13 @@
       <c r="AO179" s="49"/>
     </row>
     <row r="180" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="176" t="s">
+      <c r="A180" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="177"/>
-      <c r="C180" s="177"/>
-      <c r="D180" s="178"/>
-      <c r="E180" s="179"/>
+      <c r="B180" s="178"/>
+      <c r="C180" s="178"/>
+      <c r="D180" s="179"/>
+      <c r="E180" s="180"/>
       <c r="F180" s="170" t="s">
         <v>178</v>
       </c>
@@ -26720,13 +26731,13 @@
       <c r="AO189" s="95"/>
     </row>
     <row r="190" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="173" t="s">
+      <c r="A190" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B190" s="174"/>
-      <c r="C190" s="174"/>
-      <c r="D190" s="174"/>
-      <c r="E190" s="175"/>
+      <c r="B190" s="175"/>
+      <c r="C190" s="175"/>
+      <c r="D190" s="175"/>
+      <c r="E190" s="176"/>
       <c r="F190" s="48" t="s">
         <v>7</v>
       </c>
@@ -26779,13 +26790,13 @@
       <c r="AO190" s="49"/>
     </row>
     <row r="191" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="176" t="s">
+      <c r="A191" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="177"/>
-      <c r="C191" s="177"/>
-      <c r="D191" s="178"/>
-      <c r="E191" s="179"/>
+      <c r="B191" s="178"/>
+      <c r="C191" s="178"/>
+      <c r="D191" s="179"/>
+      <c r="E191" s="180"/>
       <c r="F191" s="170" t="s">
         <v>179</v>
       </c>
@@ -27590,13 +27601,13 @@
       <c r="AO200" s="95"/>
     </row>
     <row r="201" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="173" t="s">
+      <c r="A201" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="174"/>
-      <c r="C201" s="174"/>
-      <c r="D201" s="174"/>
-      <c r="E201" s="175"/>
+      <c r="B201" s="175"/>
+      <c r="C201" s="175"/>
+      <c r="D201" s="175"/>
+      <c r="E201" s="176"/>
       <c r="F201" s="48" t="s">
         <v>7</v>
       </c>
@@ -27649,13 +27660,13 @@
       <c r="AO201" s="49"/>
     </row>
     <row r="202" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="176" t="s">
+      <c r="A202" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="177"/>
-      <c r="C202" s="177"/>
-      <c r="D202" s="178"/>
-      <c r="E202" s="179"/>
+      <c r="B202" s="178"/>
+      <c r="C202" s="178"/>
+      <c r="D202" s="179"/>
+      <c r="E202" s="180"/>
       <c r="F202" s="170" t="s">
         <v>180</v>
       </c>
@@ -28460,13 +28471,13 @@
       <c r="AO211" s="95"/>
     </row>
     <row r="212" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="173" t="s">
+      <c r="A212" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B212" s="174"/>
-      <c r="C212" s="174"/>
-      <c r="D212" s="174"/>
-      <c r="E212" s="175"/>
+      <c r="B212" s="175"/>
+      <c r="C212" s="175"/>
+      <c r="D212" s="175"/>
+      <c r="E212" s="176"/>
       <c r="F212" s="48" t="s">
         <v>7</v>
       </c>
@@ -28519,13 +28530,13 @@
       <c r="AO212" s="49"/>
     </row>
     <row r="213" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="176" t="s">
+      <c r="A213" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="177"/>
-      <c r="C213" s="177"/>
-      <c r="D213" s="178"/>
-      <c r="E213" s="179"/>
+      <c r="B213" s="178"/>
+      <c r="C213" s="178"/>
+      <c r="D213" s="179"/>
+      <c r="E213" s="180"/>
       <c r="F213" s="170" t="s">
         <v>181</v>
       </c>
@@ -29330,13 +29341,13 @@
       <c r="AO222" s="95"/>
     </row>
     <row r="223" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="173" t="s">
+      <c r="A223" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B223" s="174"/>
-      <c r="C223" s="174"/>
-      <c r="D223" s="174"/>
-      <c r="E223" s="175"/>
+      <c r="B223" s="175"/>
+      <c r="C223" s="175"/>
+      <c r="D223" s="175"/>
+      <c r="E223" s="176"/>
       <c r="F223" s="48" t="s">
         <v>7</v>
       </c>
@@ -29389,13 +29400,13 @@
       <c r="AO223" s="49"/>
     </row>
     <row r="224" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="176" t="s">
+      <c r="A224" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="177"/>
-      <c r="C224" s="177"/>
-      <c r="D224" s="178"/>
-      <c r="E224" s="179"/>
+      <c r="B224" s="178"/>
+      <c r="C224" s="178"/>
+      <c r="D224" s="179"/>
+      <c r="E224" s="180"/>
       <c r="F224" s="170" t="s">
         <v>182</v>
       </c>
@@ -30200,13 +30211,13 @@
       <c r="AO233" s="95"/>
     </row>
     <row r="234" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="173" t="s">
+      <c r="A234" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B234" s="174"/>
-      <c r="C234" s="174"/>
-      <c r="D234" s="174"/>
-      <c r="E234" s="175"/>
+      <c r="B234" s="175"/>
+      <c r="C234" s="175"/>
+      <c r="D234" s="175"/>
+      <c r="E234" s="176"/>
       <c r="F234" s="48" t="s">
         <v>7</v>
       </c>
@@ -30259,13 +30270,13 @@
       <c r="AO234" s="49"/>
     </row>
     <row r="235" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="176" t="s">
+      <c r="A235" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B235" s="177"/>
-      <c r="C235" s="177"/>
-      <c r="D235" s="178"/>
-      <c r="E235" s="179"/>
+      <c r="B235" s="178"/>
+      <c r="C235" s="178"/>
+      <c r="D235" s="179"/>
+      <c r="E235" s="180"/>
       <c r="F235" s="170" t="s">
         <v>184</v>
       </c>
@@ -31076,13 +31087,13 @@
       <c r="AO244" s="95"/>
     </row>
     <row r="245" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="173" t="s">
+      <c r="A245" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B245" s="174"/>
-      <c r="C245" s="174"/>
-      <c r="D245" s="174"/>
-      <c r="E245" s="175"/>
+      <c r="B245" s="175"/>
+      <c r="C245" s="175"/>
+      <c r="D245" s="175"/>
+      <c r="E245" s="176"/>
       <c r="F245" s="48" t="s">
         <v>7</v>
       </c>
@@ -31135,13 +31146,13 @@
       <c r="AO245" s="49"/>
     </row>
     <row r="246" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="176" t="s">
+      <c r="A246" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B246" s="177"/>
-      <c r="C246" s="177"/>
-      <c r="D246" s="178"/>
-      <c r="E246" s="179"/>
+      <c r="B246" s="178"/>
+      <c r="C246" s="178"/>
+      <c r="D246" s="179"/>
+      <c r="E246" s="180"/>
       <c r="F246" s="170" t="s">
         <v>185</v>
       </c>
@@ -31952,13 +31963,13 @@
       <c r="AO255" s="95"/>
     </row>
     <row r="256" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="173" t="s">
+      <c r="A256" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B256" s="174"/>
-      <c r="C256" s="174"/>
-      <c r="D256" s="174"/>
-      <c r="E256" s="175"/>
+      <c r="B256" s="175"/>
+      <c r="C256" s="175"/>
+      <c r="D256" s="175"/>
+      <c r="E256" s="176"/>
       <c r="F256" s="48" t="s">
         <v>7</v>
       </c>
@@ -32011,13 +32022,13 @@
       <c r="AO256" s="49"/>
     </row>
     <row r="257" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="176" t="s">
+      <c r="A257" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B257" s="177"/>
-      <c r="C257" s="177"/>
-      <c r="D257" s="178"/>
-      <c r="E257" s="179"/>
+      <c r="B257" s="178"/>
+      <c r="C257" s="178"/>
+      <c r="D257" s="179"/>
+      <c r="E257" s="180"/>
       <c r="F257" s="170" t="s">
         <v>186</v>
       </c>
@@ -32822,13 +32833,13 @@
       <c r="AO266" s="95"/>
     </row>
     <row r="267" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="173" t="s">
+      <c r="A267" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B267" s="174"/>
-      <c r="C267" s="174"/>
-      <c r="D267" s="174"/>
-      <c r="E267" s="175"/>
+      <c r="B267" s="175"/>
+      <c r="C267" s="175"/>
+      <c r="D267" s="175"/>
+      <c r="E267" s="176"/>
       <c r="F267" s="48" t="s">
         <v>7</v>
       </c>
@@ -32881,13 +32892,13 @@
       <c r="AO267" s="49"/>
     </row>
     <row r="268" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="176" t="s">
+      <c r="A268" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B268" s="177"/>
-      <c r="C268" s="177"/>
-      <c r="D268" s="178"/>
-      <c r="E268" s="179"/>
+      <c r="B268" s="178"/>
+      <c r="C268" s="178"/>
+      <c r="D268" s="179"/>
+      <c r="E268" s="180"/>
       <c r="F268" s="170" t="s">
         <v>187</v>
       </c>
@@ -33698,13 +33709,13 @@
       <c r="AO277" s="95"/>
     </row>
     <row r="278" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="173" t="s">
+      <c r="A278" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B278" s="174"/>
-      <c r="C278" s="174"/>
-      <c r="D278" s="174"/>
-      <c r="E278" s="175"/>
+      <c r="B278" s="175"/>
+      <c r="C278" s="175"/>
+      <c r="D278" s="175"/>
+      <c r="E278" s="176"/>
       <c r="F278" s="48" t="s">
         <v>7</v>
       </c>
@@ -33757,13 +33768,13 @@
       <c r="AO278" s="49"/>
     </row>
     <row r="279" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="176" t="s">
+      <c r="A279" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B279" s="177"/>
-      <c r="C279" s="177"/>
-      <c r="D279" s="178"/>
-      <c r="E279" s="179"/>
+      <c r="B279" s="178"/>
+      <c r="C279" s="178"/>
+      <c r="D279" s="179"/>
+      <c r="E279" s="180"/>
       <c r="F279" s="170" t="s">
         <v>122</v>
       </c>
@@ -34574,13 +34585,13 @@
       <c r="AO288" s="95"/>
     </row>
     <row r="289" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="173" t="s">
+      <c r="A289" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B289" s="174"/>
-      <c r="C289" s="174"/>
-      <c r="D289" s="174"/>
-      <c r="E289" s="175"/>
+      <c r="B289" s="175"/>
+      <c r="C289" s="175"/>
+      <c r="D289" s="175"/>
+      <c r="E289" s="176"/>
       <c r="F289" s="48" t="s">
         <v>7</v>
       </c>
@@ -34630,13 +34641,13 @@
       <c r="AO289" s="49"/>
     </row>
     <row r="290" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="176" t="s">
+      <c r="A290" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B290" s="177"/>
-      <c r="C290" s="177"/>
-      <c r="D290" s="178"/>
-      <c r="E290" s="179"/>
+      <c r="B290" s="178"/>
+      <c r="C290" s="178"/>
+      <c r="D290" s="179"/>
+      <c r="E290" s="180"/>
       <c r="F290" s="170" t="s">
         <v>188</v>
       </c>
@@ -35431,13 +35442,13 @@
       <c r="AO299" s="95"/>
     </row>
     <row r="300" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="173" t="s">
+      <c r="A300" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B300" s="174"/>
-      <c r="C300" s="174"/>
-      <c r="D300" s="174"/>
-      <c r="E300" s="175"/>
+      <c r="B300" s="175"/>
+      <c r="C300" s="175"/>
+      <c r="D300" s="175"/>
+      <c r="E300" s="176"/>
       <c r="F300" s="48" t="s">
         <v>7</v>
       </c>
@@ -35487,13 +35498,13 @@
       <c r="AO300" s="49"/>
     </row>
     <row r="301" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="176" t="s">
+      <c r="A301" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B301" s="177"/>
-      <c r="C301" s="177"/>
-      <c r="D301" s="178"/>
-      <c r="E301" s="179"/>
+      <c r="B301" s="178"/>
+      <c r="C301" s="178"/>
+      <c r="D301" s="179"/>
+      <c r="E301" s="180"/>
       <c r="F301" s="171" t="s">
         <v>189</v>
       </c>
@@ -36294,13 +36305,13 @@
       <c r="AO310" s="95"/>
     </row>
     <row r="311" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="173" t="s">
+      <c r="A311" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B311" s="174"/>
-      <c r="C311" s="174"/>
-      <c r="D311" s="174"/>
-      <c r="E311" s="175"/>
+      <c r="B311" s="175"/>
+      <c r="C311" s="175"/>
+      <c r="D311" s="175"/>
+      <c r="E311" s="176"/>
       <c r="F311" s="48" t="s">
         <v>7</v>
       </c>
@@ -36350,13 +36361,13 @@
       <c r="AO311" s="49"/>
     </row>
     <row r="312" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="176" t="s">
+      <c r="A312" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B312" s="177"/>
-      <c r="C312" s="177"/>
-      <c r="D312" s="178"/>
-      <c r="E312" s="179"/>
+      <c r="B312" s="178"/>
+      <c r="C312" s="178"/>
+      <c r="D312" s="179"/>
+      <c r="E312" s="180"/>
       <c r="F312" s="172" t="s">
         <v>190</v>
       </c>
@@ -37151,13 +37162,13 @@
       <c r="AO321" s="95"/>
     </row>
     <row r="322" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="173" t="s">
+      <c r="A322" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B322" s="174"/>
-      <c r="C322" s="174"/>
-      <c r="D322" s="174"/>
-      <c r="E322" s="175"/>
+      <c r="B322" s="175"/>
+      <c r="C322" s="175"/>
+      <c r="D322" s="175"/>
+      <c r="E322" s="176"/>
       <c r="F322" s="48" t="s">
         <v>7</v>
       </c>
@@ -37207,13 +37218,13 @@
       <c r="AO322" s="49"/>
     </row>
     <row r="323" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="176" t="s">
+      <c r="A323" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B323" s="177"/>
-      <c r="C323" s="177"/>
-      <c r="D323" s="178"/>
-      <c r="E323" s="179"/>
+      <c r="B323" s="178"/>
+      <c r="C323" s="178"/>
+      <c r="D323" s="179"/>
+      <c r="E323" s="180"/>
       <c r="F323" s="172" t="s">
         <v>91</v>
       </c>
@@ -38014,13 +38025,13 @@
       <c r="AO332" s="95"/>
     </row>
     <row r="333" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="173" t="s">
+      <c r="A333" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B333" s="174"/>
-      <c r="C333" s="174"/>
-      <c r="D333" s="174"/>
-      <c r="E333" s="175"/>
+      <c r="B333" s="175"/>
+      <c r="C333" s="175"/>
+      <c r="D333" s="175"/>
+      <c r="E333" s="176"/>
       <c r="F333" s="48" t="s">
         <v>7</v>
       </c>
@@ -38067,13 +38078,13 @@
       <c r="AO333" s="49"/>
     </row>
     <row r="334" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="176" t="s">
+      <c r="A334" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B334" s="177"/>
-      <c r="C334" s="177"/>
-      <c r="D334" s="178"/>
-      <c r="E334" s="179"/>
+      <c r="B334" s="178"/>
+      <c r="C334" s="178"/>
+      <c r="D334" s="179"/>
+      <c r="E334" s="180"/>
       <c r="F334" s="171"/>
       <c r="G334" s="50" t="s">
         <v>98</v>
@@ -38837,48 +38848,38 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A333:E333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="A322:E322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="A267:E267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A278:E278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="A289:E289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="A245:E245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="D235:E235"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
@@ -38895,6 +38896,21 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="D312:E312"/>
     <mergeCell ref="A201:E201"/>
     <mergeCell ref="A202:C202"/>
     <mergeCell ref="D202:E202"/>
@@ -38905,38 +38921,33 @@
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="A245:E245"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="A278:E278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="A289:E289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="A267:E267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="A322:E322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="A333:E333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="D158:E158"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -38968,43 +38979,43 @@
     <row r="1" spans="1:41" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="F1" s="46"/>
-      <c r="G1" s="204" t="s">
+      <c r="G1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="205"/>
-      <c r="I1" s="184" t="s">
+      <c r="H1" s="206"/>
+      <c r="I1" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186" t="s">
+      <c r="J1" s="186"/>
+      <c r="K1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="188" t="s">
+      <c r="L1" s="188"/>
+      <c r="M1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="189"/>
-      <c r="O1" s="190" t="s">
+      <c r="N1" s="190"/>
+      <c r="O1" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="180" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="181"/>
-      <c r="S1" s="202" t="s">
+      <c r="R1" s="182"/>
+      <c r="S1" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="203"/>
+      <c r="T1" s="204"/>
     </row>
     <row r="2" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="48" t="s">
         <v>7</v>
       </c>
@@ -39067,15 +39078,15 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="179"/>
+      <c r="E3" s="180"/>
       <c r="F3" s="166"/>
       <c r="G3" s="50" t="s">
         <v>98</v>
@@ -39906,13 +39917,13 @@
       <c r="AO12" s="95"/>
     </row>
     <row r="13" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="175"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
       <c r="F13" s="48" t="s">
         <v>7</v>
       </c>
@@ -39973,15 +39984,15 @@
       <c r="AO13" s="49"/>
     </row>
     <row r="14" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178" t="s">
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="179"/>
+      <c r="E14" s="180"/>
       <c r="F14" s="166"/>
       <c r="G14" s="50" t="s">
         <v>98</v>
@@ -40812,13 +40823,13 @@
       <c r="AO23" s="95"/>
     </row>
     <row r="24" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="175"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
       <c r="F24" s="48" t="s">
         <v>7</v>
       </c>
@@ -40869,15 +40880,15 @@
       <c r="AO24" s="49"/>
     </row>
     <row r="25" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178" t="s">
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="179"/>
+      <c r="E25" s="180"/>
       <c r="F25" s="166"/>
       <c r="G25" s="50" t="s">
         <v>98</v>
@@ -41658,13 +41669,13 @@
       <c r="AO34" s="95"/>
     </row>
     <row r="35" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="175"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="176"/>
       <c r="F35" s="48" t="s">
         <v>7</v>
       </c>
@@ -41731,15 +41742,15 @@
       <c r="AO35" s="49"/>
     </row>
     <row r="36" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="176" t="s">
+      <c r="A36" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="178" t="s">
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="179"/>
+      <c r="E36" s="180"/>
       <c r="F36" s="166"/>
       <c r="G36" s="50" t="s">
         <v>98</v>
@@ -42590,13 +42601,13 @@
       <c r="AO45" s="95"/>
     </row>
     <row r="46" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="173" t="s">
+      <c r="A46" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="175"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
       <c r="F46" s="48" t="s">
         <v>7</v>
       </c>
@@ -42663,15 +42674,15 @@
       <c r="AO46" s="49"/>
     </row>
     <row r="47" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="176" t="s">
+      <c r="A47" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="178" t="s">
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="179"/>
+      <c r="E47" s="180"/>
       <c r="F47" s="166"/>
       <c r="G47" s="50" t="s">
         <v>98</v>
@@ -43522,13 +43533,13 @@
       <c r="AO56" s="95"/>
     </row>
     <row r="57" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="173" t="s">
+      <c r="A57" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="175"/>
+      <c r="B57" s="175"/>
+      <c r="C57" s="175"/>
+      <c r="D57" s="175"/>
+      <c r="E57" s="176"/>
       <c r="F57" s="48" t="s">
         <v>7</v>
       </c>
@@ -43587,15 +43598,15 @@
       <c r="AO57" s="49"/>
     </row>
     <row r="58" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="176" t="s">
+      <c r="A58" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="178" t="s">
+      <c r="B58" s="178"/>
+      <c r="C58" s="178"/>
+      <c r="D58" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="179"/>
+      <c r="E58" s="180"/>
       <c r="F58" s="166"/>
       <c r="G58" s="50" t="s">
         <v>98</v>
@@ -44406,13 +44417,13 @@
       <c r="AO67" s="95"/>
     </row>
     <row r="68" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="173" t="s">
+      <c r="A68" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="174"/>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
-      <c r="E68" s="175"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="175"/>
+      <c r="E68" s="176"/>
       <c r="F68" s="48" t="s">
         <v>7</v>
       </c>
@@ -44457,15 +44468,15 @@
       <c r="AO68" s="49"/>
     </row>
     <row r="69" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="176" t="s">
+      <c r="A69" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="177"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="178" t="s">
+      <c r="B69" s="178"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="179"/>
+      <c r="E69" s="180"/>
       <c r="F69" s="166"/>
       <c r="G69" s="50" t="s">
         <v>98</v>
@@ -45236,13 +45247,13 @@
       <c r="AO78" s="95"/>
     </row>
     <row r="79" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="175"/>
+      <c r="B79" s="175"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="176"/>
       <c r="F79" s="48" t="s">
         <v>7</v>
       </c>
@@ -45317,15 +45328,15 @@
       <c r="AO79" s="49"/>
     </row>
     <row r="80" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="177"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="178" t="s">
+      <c r="B80" s="178"/>
+      <c r="C80" s="178"/>
+      <c r="D80" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="179"/>
+      <c r="E80" s="180"/>
       <c r="F80" s="166"/>
       <c r="G80" s="50" t="s">
         <v>98</v>
@@ -46263,13 +46274,13 @@
       <c r="AO89" s="95"/>
     </row>
     <row r="90" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="173" t="s">
+      <c r="A90" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="174"/>
-      <c r="C90" s="174"/>
-      <c r="D90" s="174"/>
-      <c r="E90" s="175"/>
+      <c r="B90" s="175"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="176"/>
       <c r="F90" s="48" t="s">
         <v>7</v>
       </c>
@@ -46342,13 +46353,13 @@
       <c r="AO90" s="49"/>
     </row>
     <row r="91" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="176" t="s">
+      <c r="A91" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="178"/>
-      <c r="E91" s="179"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="178"/>
+      <c r="D91" s="179"/>
+      <c r="E91" s="180"/>
       <c r="F91" s="166" t="s">
         <v>113</v>
       </c>
@@ -47277,13 +47288,13 @@
       <c r="AO100" s="95"/>
     </row>
     <row r="101" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="173" t="s">
+      <c r="A101" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="174"/>
-      <c r="C101" s="174"/>
-      <c r="D101" s="174"/>
-      <c r="E101" s="175"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="175"/>
+      <c r="D101" s="175"/>
+      <c r="E101" s="176"/>
       <c r="F101" s="48" t="s">
         <v>7</v>
       </c>
@@ -47354,15 +47365,15 @@
       <c r="AO101" s="49"/>
     </row>
     <row r="102" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="176" t="s">
+      <c r="A102" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="177"/>
-      <c r="C102" s="177"/>
-      <c r="D102" s="178" t="s">
+      <c r="B102" s="178"/>
+      <c r="C102" s="178"/>
+      <c r="D102" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="E102" s="179"/>
+      <c r="E102" s="180"/>
       <c r="F102" s="166"/>
       <c r="G102" s="50" t="s">
         <v>98</v>
@@ -48278,13 +48289,13 @@
       <c r="AO111" s="95"/>
     </row>
     <row r="112" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="173" t="s">
+      <c r="A112" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="174"/>
-      <c r="C112" s="174"/>
-      <c r="D112" s="174"/>
-      <c r="E112" s="175"/>
+      <c r="B112" s="175"/>
+      <c r="C112" s="175"/>
+      <c r="D112" s="175"/>
+      <c r="E112" s="176"/>
       <c r="F112" s="48" t="s">
         <v>7</v>
       </c>
@@ -48355,15 +48366,15 @@
       <c r="AO112" s="49"/>
     </row>
     <row r="113" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="176" t="s">
+      <c r="A113" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="177"/>
-      <c r="C113" s="177"/>
-      <c r="D113" s="178" t="s">
+      <c r="B113" s="178"/>
+      <c r="C113" s="178"/>
+      <c r="D113" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="E113" s="179"/>
+      <c r="E113" s="180"/>
       <c r="F113" s="166"/>
       <c r="G113" s="50" t="s">
         <v>98</v>
@@ -49246,13 +49257,13 @@
       <c r="AO122" s="95"/>
     </row>
     <row r="123" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="173" t="s">
+      <c r="A123" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="174"/>
-      <c r="C123" s="174"/>
-      <c r="D123" s="174"/>
-      <c r="E123" s="175"/>
+      <c r="B123" s="175"/>
+      <c r="C123" s="175"/>
+      <c r="D123" s="175"/>
+      <c r="E123" s="176"/>
       <c r="F123" s="48" t="s">
         <v>7</v>
       </c>
@@ -49321,15 +49332,15 @@
       <c r="AO123" s="49"/>
     </row>
     <row r="124" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="176" t="s">
+      <c r="A124" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="177"/>
-      <c r="C124" s="177"/>
-      <c r="D124" s="178" t="s">
+      <c r="B124" s="178"/>
+      <c r="C124" s="178"/>
+      <c r="D124" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="E124" s="179"/>
+      <c r="E124" s="180"/>
       <c r="F124" s="166"/>
       <c r="G124" s="50" t="s">
         <v>98</v>
@@ -50238,13 +50249,13 @@
       <c r="AO133" s="95"/>
     </row>
     <row r="134" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="173" t="s">
+      <c r="A134" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="174"/>
-      <c r="C134" s="174"/>
-      <c r="D134" s="174"/>
-      <c r="E134" s="175"/>
+      <c r="B134" s="175"/>
+      <c r="C134" s="175"/>
+      <c r="D134" s="175"/>
+      <c r="E134" s="176"/>
       <c r="F134" s="48" t="s">
         <v>7</v>
       </c>
@@ -50313,15 +50324,15 @@
       <c r="AO134" s="49"/>
     </row>
     <row r="135" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="176" t="s">
+      <c r="A135" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="177"/>
-      <c r="C135" s="177"/>
-      <c r="D135" s="178" t="s">
+      <c r="B135" s="178"/>
+      <c r="C135" s="178"/>
+      <c r="D135" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="179"/>
+      <c r="E135" s="180"/>
       <c r="F135" s="166"/>
       <c r="G135" s="50" t="s">
         <v>98</v>
@@ -51230,13 +51241,13 @@
       <c r="AO144" s="95"/>
     </row>
     <row r="145" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="173" t="s">
+      <c r="A145" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="174"/>
-      <c r="C145" s="174"/>
-      <c r="D145" s="174"/>
-      <c r="E145" s="175"/>
+      <c r="B145" s="175"/>
+      <c r="C145" s="175"/>
+      <c r="D145" s="175"/>
+      <c r="E145" s="176"/>
       <c r="F145" s="48" t="s">
         <v>7</v>
       </c>
@@ -51305,15 +51316,15 @@
       <c r="AO145" s="49"/>
     </row>
     <row r="146" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="176" t="s">
+      <c r="A146" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="177"/>
-      <c r="C146" s="177"/>
-      <c r="D146" s="178" t="s">
+      <c r="B146" s="178"/>
+      <c r="C146" s="178"/>
+      <c r="D146" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="E146" s="179"/>
+      <c r="E146" s="180"/>
       <c r="F146" s="166"/>
       <c r="G146" s="50" t="s">
         <v>98</v>
@@ -52222,13 +52233,13 @@
       <c r="AO155" s="95"/>
     </row>
     <row r="156" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="173" t="s">
+      <c r="A156" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="174"/>
-      <c r="C156" s="174"/>
-      <c r="D156" s="174"/>
-      <c r="E156" s="175"/>
+      <c r="B156" s="175"/>
+      <c r="C156" s="175"/>
+      <c r="D156" s="175"/>
+      <c r="E156" s="176"/>
       <c r="F156" s="48" t="s">
         <v>7</v>
       </c>
@@ -52291,15 +52302,15 @@
       <c r="AO156" s="49"/>
     </row>
     <row r="157" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="176" t="s">
+      <c r="A157" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="177"/>
-      <c r="C157" s="177"/>
-      <c r="D157" s="178" t="s">
+      <c r="B157" s="178"/>
+      <c r="C157" s="178"/>
+      <c r="D157" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="179"/>
+      <c r="E157" s="180"/>
       <c r="F157" s="166"/>
       <c r="G157" s="50" t="s">
         <v>98</v>
@@ -53178,13 +53189,13 @@
       <c r="AO166" s="95"/>
     </row>
     <row r="167" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="173" t="s">
+      <c r="A167" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="174"/>
-      <c r="C167" s="174"/>
-      <c r="D167" s="174"/>
-      <c r="E167" s="175"/>
+      <c r="B167" s="175"/>
+      <c r="C167" s="175"/>
+      <c r="D167" s="175"/>
+      <c r="E167" s="176"/>
       <c r="F167" s="48" t="s">
         <v>7</v>
       </c>
@@ -53241,15 +53252,15 @@
       <c r="AO167" s="49"/>
     </row>
     <row r="168" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="176" t="s">
+      <c r="A168" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="177"/>
-      <c r="C168" s="177"/>
-      <c r="D168" s="178" t="s">
+      <c r="B168" s="178"/>
+      <c r="C168" s="178"/>
+      <c r="D168" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E168" s="179"/>
+      <c r="E168" s="180"/>
       <c r="F168" s="166"/>
       <c r="G168" s="50" t="s">
         <v>98</v>
@@ -54098,13 +54109,13 @@
       <c r="AO177" s="95"/>
     </row>
     <row r="178" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="173" t="s">
+      <c r="A178" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="174"/>
-      <c r="C178" s="174"/>
-      <c r="D178" s="174"/>
-      <c r="E178" s="175"/>
+      <c r="B178" s="175"/>
+      <c r="C178" s="175"/>
+      <c r="D178" s="175"/>
+      <c r="E178" s="176"/>
       <c r="F178" s="48" t="s">
         <v>7</v>
       </c>
@@ -54161,15 +54172,15 @@
       <c r="AO178" s="49"/>
     </row>
     <row r="179" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="176" t="s">
+      <c r="A179" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="177"/>
-      <c r="C179" s="177"/>
-      <c r="D179" s="178" t="s">
+      <c r="B179" s="178"/>
+      <c r="C179" s="178"/>
+      <c r="D179" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="E179" s="179"/>
+      <c r="E179" s="180"/>
       <c r="F179" s="166"/>
       <c r="G179" s="50" t="s">
         <v>98</v>
@@ -55018,13 +55029,13 @@
       <c r="AO188" s="95"/>
     </row>
     <row r="189" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="173" t="s">
+      <c r="A189" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B189" s="174"/>
-      <c r="C189" s="174"/>
-      <c r="D189" s="174"/>
-      <c r="E189" s="175"/>
+      <c r="B189" s="175"/>
+      <c r="C189" s="175"/>
+      <c r="D189" s="175"/>
+      <c r="E189" s="176"/>
       <c r="F189" s="48" t="s">
         <v>7</v>
       </c>
@@ -55077,15 +55088,15 @@
       <c r="AO189" s="49"/>
     </row>
     <row r="190" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="176" t="s">
+      <c r="A190" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="177"/>
-      <c r="C190" s="177"/>
-      <c r="D190" s="178" t="s">
+      <c r="B190" s="178"/>
+      <c r="C190" s="178"/>
+      <c r="D190" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E190" s="179"/>
+      <c r="E190" s="180"/>
       <c r="F190" s="166"/>
       <c r="G190" s="50" t="s">
         <v>98</v>
@@ -55914,13 +55925,13 @@
       <c r="AO199" s="95"/>
     </row>
     <row r="200" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="173" t="s">
+      <c r="A200" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="174"/>
-      <c r="C200" s="174"/>
-      <c r="D200" s="174"/>
-      <c r="E200" s="175"/>
+      <c r="B200" s="175"/>
+      <c r="C200" s="175"/>
+      <c r="D200" s="175"/>
+      <c r="E200" s="176"/>
       <c r="F200" s="48" t="s">
         <v>7</v>
       </c>
@@ -55977,15 +55988,15 @@
       <c r="AO200" s="49"/>
     </row>
     <row r="201" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="176" t="s">
+      <c r="A201" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="177"/>
-      <c r="C201" s="177"/>
-      <c r="D201" s="178" t="s">
+      <c r="B201" s="178"/>
+      <c r="C201" s="178"/>
+      <c r="D201" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="E201" s="179"/>
+      <c r="E201" s="180"/>
       <c r="F201" s="166"/>
       <c r="G201" s="50" t="s">
         <v>98</v>
@@ -56769,13 +56780,13 @@
       <c r="AO210" s="95"/>
     </row>
     <row r="211" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="173" t="s">
+      <c r="A211" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="174"/>
-      <c r="C211" s="174"/>
-      <c r="D211" s="174"/>
-      <c r="E211" s="175"/>
+      <c r="B211" s="175"/>
+      <c r="C211" s="175"/>
+      <c r="D211" s="175"/>
+      <c r="E211" s="176"/>
       <c r="F211" s="48" t="s">
         <v>7</v>
       </c>
@@ -56852,15 +56863,15 @@
       <c r="AO211" s="49"/>
     </row>
     <row r="212" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="176" t="s">
+      <c r="A212" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="177"/>
-      <c r="C212" s="177"/>
-      <c r="D212" s="178" t="s">
+      <c r="B212" s="178"/>
+      <c r="C212" s="178"/>
+      <c r="D212" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E212" s="179"/>
+      <c r="E212" s="180"/>
       <c r="F212" s="166"/>
       <c r="G212" s="50" t="s">
         <v>98</v>
@@ -57781,13 +57792,13 @@
       <c r="AO221" s="95"/>
     </row>
     <row r="222" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="173" t="s">
+      <c r="A222" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="174"/>
-      <c r="C222" s="174"/>
-      <c r="D222" s="174"/>
-      <c r="E222" s="175"/>
+      <c r="B222" s="175"/>
+      <c r="C222" s="175"/>
+      <c r="D222" s="175"/>
+      <c r="E222" s="176"/>
       <c r="F222" s="48" t="s">
         <v>7</v>
       </c>
@@ -57850,15 +57861,15 @@
       <c r="AO222" s="49"/>
     </row>
     <row r="223" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="176" t="s">
+      <c r="A223" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="177"/>
-      <c r="C223" s="177"/>
-      <c r="D223" s="178" t="s">
+      <c r="B223" s="178"/>
+      <c r="C223" s="178"/>
+      <c r="D223" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="E223" s="179"/>
+      <c r="E223" s="180"/>
       <c r="F223" s="166"/>
       <c r="G223" s="50" t="s">
         <v>98</v>
@@ -58717,13 +58728,13 @@
       <c r="AO232" s="95"/>
     </row>
     <row r="233" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="173" t="s">
+      <c r="A233" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B233" s="174"/>
-      <c r="C233" s="174"/>
-      <c r="D233" s="174"/>
-      <c r="E233" s="175"/>
+      <c r="B233" s="175"/>
+      <c r="C233" s="175"/>
+      <c r="D233" s="175"/>
+      <c r="E233" s="176"/>
       <c r="F233" s="48" t="s">
         <v>7</v>
       </c>
@@ -58776,15 +58787,15 @@
       <c r="AO233" s="49"/>
     </row>
     <row r="234" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="176" t="s">
+      <c r="A234" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="177"/>
-      <c r="C234" s="177"/>
-      <c r="D234" s="178" t="s">
+      <c r="B234" s="178"/>
+      <c r="C234" s="178"/>
+      <c r="D234" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E234" s="179"/>
+      <c r="E234" s="180"/>
       <c r="F234" s="166"/>
       <c r="G234" s="50" t="s">
         <v>98</v>
@@ -59603,13 +59614,13 @@
       <c r="AO243" s="95"/>
     </row>
     <row r="244" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="173" t="s">
+      <c r="A244" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B244" s="174"/>
-      <c r="C244" s="174"/>
-      <c r="D244" s="174"/>
-      <c r="E244" s="175"/>
+      <c r="B244" s="175"/>
+      <c r="C244" s="175"/>
+      <c r="D244" s="175"/>
+      <c r="E244" s="176"/>
       <c r="F244" s="48" t="s">
         <v>7</v>
       </c>
@@ -59664,15 +59675,15 @@
       <c r="AO244" s="49"/>
     </row>
     <row r="245" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="176" t="s">
+      <c r="A245" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B245" s="177"/>
-      <c r="C245" s="177"/>
-      <c r="D245" s="178" t="s">
+      <c r="B245" s="178"/>
+      <c r="C245" s="178"/>
+      <c r="D245" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="E245" s="179"/>
+      <c r="E245" s="180"/>
       <c r="F245" s="166"/>
       <c r="G245" s="50" t="s">
         <v>98</v>
@@ -60511,13 +60522,13 @@
       <c r="AO254" s="95"/>
     </row>
     <row r="255" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="173" t="s">
+      <c r="A255" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B255" s="174"/>
-      <c r="C255" s="174"/>
-      <c r="D255" s="174"/>
-      <c r="E255" s="175"/>
+      <c r="B255" s="175"/>
+      <c r="C255" s="175"/>
+      <c r="D255" s="175"/>
+      <c r="E255" s="176"/>
       <c r="F255" s="48" t="s">
         <v>7</v>
       </c>
@@ -60572,15 +60583,15 @@
       <c r="AO255" s="49"/>
     </row>
     <row r="256" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="176" t="s">
+      <c r="A256" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B256" s="177"/>
-      <c r="C256" s="177"/>
-      <c r="D256" s="178" t="s">
+      <c r="B256" s="178"/>
+      <c r="C256" s="178"/>
+      <c r="D256" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E256" s="179"/>
+      <c r="E256" s="180"/>
       <c r="F256" s="166"/>
       <c r="G256" s="50" t="s">
         <v>98</v>
@@ -61409,13 +61420,13 @@
       <c r="AO265" s="95"/>
     </row>
     <row r="266" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="173" t="s">
+      <c r="A266" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B266" s="174"/>
-      <c r="C266" s="174"/>
-      <c r="D266" s="174"/>
-      <c r="E266" s="175"/>
+      <c r="B266" s="175"/>
+      <c r="C266" s="175"/>
+      <c r="D266" s="175"/>
+      <c r="E266" s="176"/>
       <c r="F266" s="48" t="s">
         <v>7</v>
       </c>
@@ -61466,15 +61477,15 @@
       <c r="AO266" s="49"/>
     </row>
     <row r="267" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="176" t="s">
+      <c r="A267" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B267" s="177"/>
-      <c r="C267" s="177"/>
-      <c r="D267" s="178" t="s">
+      <c r="B267" s="178"/>
+      <c r="C267" s="178"/>
+      <c r="D267" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="E267" s="179"/>
+      <c r="E267" s="180"/>
       <c r="F267" s="166"/>
       <c r="G267" s="50" t="s">
         <v>98</v>
@@ -62259,13 +62270,13 @@
       <c r="AO276" s="95"/>
     </row>
     <row r="277" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="173" t="s">
+      <c r="A277" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B277" s="174"/>
-      <c r="C277" s="174"/>
-      <c r="D277" s="174"/>
-      <c r="E277" s="175"/>
+      <c r="B277" s="175"/>
+      <c r="C277" s="175"/>
+      <c r="D277" s="175"/>
+      <c r="E277" s="176"/>
       <c r="F277" s="48" t="s">
         <v>7</v>
       </c>
@@ -62336,15 +62347,15 @@
       <c r="AO277" s="49"/>
     </row>
     <row r="278" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="176" t="s">
+      <c r="A278" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B278" s="177"/>
-      <c r="C278" s="177"/>
-      <c r="D278" s="178" t="s">
+      <c r="B278" s="178"/>
+      <c r="C278" s="178"/>
+      <c r="D278" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="E278" s="179"/>
+      <c r="E278" s="180"/>
       <c r="F278" s="166"/>
       <c r="G278" s="50" t="s">
         <v>98</v>
@@ -63222,13 +63233,13 @@
       <c r="AO287" s="95"/>
     </row>
     <row r="288" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="173" t="s">
+      <c r="A288" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B288" s="174"/>
-      <c r="C288" s="174"/>
-      <c r="D288" s="174"/>
-      <c r="E288" s="175"/>
+      <c r="B288" s="175"/>
+      <c r="C288" s="175"/>
+      <c r="D288" s="175"/>
+      <c r="E288" s="176"/>
       <c r="F288" s="48" t="s">
         <v>7</v>
       </c>
@@ -63291,15 +63302,15 @@
       <c r="AO288" s="49"/>
     </row>
     <row r="289" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="176" t="s">
+      <c r="A289" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B289" s="177"/>
-      <c r="C289" s="177"/>
-      <c r="D289" s="178" t="s">
+      <c r="B289" s="178"/>
+      <c r="C289" s="178"/>
+      <c r="D289" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="E289" s="179"/>
+      <c r="E289" s="180"/>
       <c r="F289" s="166"/>
       <c r="G289" s="50" t="s">
         <v>98</v>
@@ -64134,13 +64145,13 @@
       <c r="AO298" s="95"/>
     </row>
     <row r="299" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="173" t="s">
+      <c r="A299" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B299" s="174"/>
-      <c r="C299" s="174"/>
-      <c r="D299" s="174"/>
-      <c r="E299" s="175"/>
+      <c r="B299" s="175"/>
+      <c r="C299" s="175"/>
+      <c r="D299" s="175"/>
+      <c r="E299" s="176"/>
       <c r="F299" s="48" t="s">
         <v>7</v>
       </c>
@@ -64201,15 +64212,15 @@
       <c r="AO299" s="49"/>
     </row>
     <row r="300" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="176" t="s">
+      <c r="A300" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B300" s="177"/>
-      <c r="C300" s="177"/>
-      <c r="D300" s="178" t="s">
+      <c r="B300" s="178"/>
+      <c r="C300" s="178"/>
+      <c r="D300" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="E300" s="179"/>
+      <c r="E300" s="180"/>
       <c r="F300" s="166"/>
       <c r="G300" s="50" t="s">
         <v>98</v>
@@ -65028,13 +65039,13 @@
       <c r="AO309" s="95"/>
     </row>
     <row r="310" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="173" t="s">
+      <c r="A310" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B310" s="174"/>
-      <c r="C310" s="174"/>
-      <c r="D310" s="174"/>
-      <c r="E310" s="175"/>
+      <c r="B310" s="175"/>
+      <c r="C310" s="175"/>
+      <c r="D310" s="175"/>
+      <c r="E310" s="176"/>
       <c r="F310" s="48" t="s">
         <v>7</v>
       </c>
@@ -65095,15 +65106,15 @@
       <c r="AO310" s="49"/>
     </row>
     <row r="311" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="176" t="s">
+      <c r="A311" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B311" s="177"/>
-      <c r="C311" s="177"/>
-      <c r="D311" s="178" t="s">
+      <c r="B311" s="178"/>
+      <c r="C311" s="178"/>
+      <c r="D311" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="E311" s="179"/>
+      <c r="E311" s="180"/>
       <c r="F311" s="166"/>
       <c r="G311" s="50" t="s">
         <v>98</v>
@@ -65924,13 +65935,13 @@
       <c r="AO320" s="95"/>
     </row>
     <row r="321" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="173" t="s">
+      <c r="A321" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B321" s="174"/>
-      <c r="C321" s="174"/>
-      <c r="D321" s="174"/>
-      <c r="E321" s="175"/>
+      <c r="B321" s="175"/>
+      <c r="C321" s="175"/>
+      <c r="D321" s="175"/>
+      <c r="E321" s="176"/>
       <c r="F321" s="48" t="s">
         <v>7</v>
       </c>
@@ -65987,15 +65998,15 @@
       <c r="AO321" s="49"/>
     </row>
     <row r="322" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="176" t="s">
+      <c r="A322" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B322" s="177"/>
-      <c r="C322" s="177"/>
-      <c r="D322" s="178" t="s">
+      <c r="B322" s="178"/>
+      <c r="C322" s="178"/>
+      <c r="D322" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="E322" s="179"/>
+      <c r="E322" s="180"/>
       <c r="F322" s="166"/>
       <c r="G322" s="50" t="s">
         <v>98</v>
@@ -66794,13 +66805,13 @@
       <c r="AO331" s="95"/>
     </row>
     <row r="332" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="173" t="s">
+      <c r="A332" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B332" s="174"/>
-      <c r="C332" s="174"/>
-      <c r="D332" s="174"/>
-      <c r="E332" s="175"/>
+      <c r="B332" s="175"/>
+      <c r="C332" s="175"/>
+      <c r="D332" s="175"/>
+      <c r="E332" s="176"/>
       <c r="F332" s="48" t="s">
         <v>7</v>
       </c>
@@ -66867,15 +66878,15 @@
       <c r="AO332" s="49"/>
     </row>
     <row r="333" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="176" t="s">
+      <c r="A333" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="177"/>
-      <c r="C333" s="177"/>
-      <c r="D333" s="178" t="s">
+      <c r="B333" s="178"/>
+      <c r="C333" s="178"/>
+      <c r="D333" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="E333" s="179"/>
+      <c r="E333" s="180"/>
       <c r="F333" s="166"/>
       <c r="G333" s="50" t="s">
         <v>98</v>
@@ -67743,13 +67754,13 @@
       <c r="AO342" s="95"/>
     </row>
     <row r="343" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="173" t="s">
+      <c r="A343" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B343" s="174"/>
-      <c r="C343" s="174"/>
-      <c r="D343" s="174"/>
-      <c r="E343" s="175"/>
+      <c r="B343" s="175"/>
+      <c r="C343" s="175"/>
+      <c r="D343" s="175"/>
+      <c r="E343" s="176"/>
       <c r="F343" s="48" t="s">
         <v>7</v>
       </c>
@@ -67804,15 +67815,15 @@
       <c r="AO343" s="49"/>
     </row>
     <row r="344" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="176" t="s">
+      <c r="A344" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B344" s="177"/>
-      <c r="C344" s="177"/>
-      <c r="D344" s="178" t="s">
+      <c r="B344" s="178"/>
+      <c r="C344" s="178"/>
+      <c r="D344" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E344" s="179"/>
+      <c r="E344" s="180"/>
       <c r="F344" s="166"/>
       <c r="G344" s="50" t="s">
         <v>98</v>
@@ -68621,13 +68632,13 @@
       <c r="AO353" s="95"/>
     </row>
     <row r="354" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="173" t="s">
+      <c r="A354" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B354" s="174"/>
-      <c r="C354" s="174"/>
-      <c r="D354" s="174"/>
-      <c r="E354" s="175"/>
+      <c r="B354" s="175"/>
+      <c r="C354" s="175"/>
+      <c r="D354" s="175"/>
+      <c r="E354" s="176"/>
       <c r="F354" s="48" t="s">
         <v>7</v>
       </c>
@@ -68696,15 +68707,15 @@
       <c r="AO354" s="49"/>
     </row>
     <row r="355" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="176" t="s">
+      <c r="A355" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B355" s="177"/>
-      <c r="C355" s="177"/>
-      <c r="D355" s="178" t="s">
+      <c r="B355" s="178"/>
+      <c r="C355" s="178"/>
+      <c r="D355" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="E355" s="179"/>
+      <c r="E355" s="180"/>
       <c r="F355" s="166"/>
       <c r="G355" s="50" t="s">
         <v>98</v>
@@ -69612,13 +69623,13 @@
       <c r="AO364" s="95"/>
     </row>
     <row r="365" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="173" t="s">
+      <c r="A365" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B365" s="174"/>
-      <c r="C365" s="174"/>
-      <c r="D365" s="174"/>
-      <c r="E365" s="175"/>
+      <c r="B365" s="175"/>
+      <c r="C365" s="175"/>
+      <c r="D365" s="175"/>
+      <c r="E365" s="176"/>
       <c r="F365" s="48" t="s">
         <v>7</v>
       </c>
@@ -69683,15 +69694,15 @@
       <c r="AO365" s="49"/>
     </row>
     <row r="366" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="176" t="s">
+      <c r="A366" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B366" s="177"/>
-      <c r="C366" s="177"/>
-      <c r="D366" s="178" t="s">
+      <c r="B366" s="178"/>
+      <c r="C366" s="178"/>
+      <c r="D366" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="E366" s="179"/>
+      <c r="E366" s="180"/>
       <c r="F366" s="166"/>
       <c r="G366" s="50" t="s">
         <v>98</v>
@@ -70580,13 +70591,13 @@
       <c r="AO375" s="95"/>
     </row>
     <row r="376" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="173" t="s">
+      <c r="A376" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B376" s="174"/>
-      <c r="C376" s="174"/>
-      <c r="D376" s="174"/>
-      <c r="E376" s="175"/>
+      <c r="B376" s="175"/>
+      <c r="C376" s="175"/>
+      <c r="D376" s="175"/>
+      <c r="E376" s="176"/>
       <c r="F376" s="48" t="s">
         <v>7</v>
       </c>
@@ -70647,15 +70658,15 @@
       <c r="AO376" s="49"/>
     </row>
     <row r="377" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="176" t="s">
+      <c r="A377" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B377" s="177"/>
-      <c r="C377" s="177"/>
-      <c r="D377" s="178" t="s">
+      <c r="B377" s="178"/>
+      <c r="C377" s="178"/>
+      <c r="D377" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="E377" s="179"/>
+      <c r="E377" s="180"/>
       <c r="F377" s="166"/>
       <c r="G377" s="50" t="s">
         <v>98</v>
@@ -71524,13 +71535,13 @@
       <c r="AO386" s="95"/>
     </row>
     <row r="387" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="173" t="s">
+      <c r="A387" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B387" s="174"/>
-      <c r="C387" s="174"/>
-      <c r="D387" s="174"/>
-      <c r="E387" s="175"/>
+      <c r="B387" s="175"/>
+      <c r="C387" s="175"/>
+      <c r="D387" s="175"/>
+      <c r="E387" s="176"/>
       <c r="F387" s="48" t="s">
         <v>7</v>
       </c>
@@ -71577,15 +71588,15 @@
       <c r="AO387" s="49"/>
     </row>
     <row r="388" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="176" t="s">
+      <c r="A388" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B388" s="177"/>
-      <c r="C388" s="177"/>
-      <c r="D388" s="178" t="s">
+      <c r="B388" s="178"/>
+      <c r="C388" s="178"/>
+      <c r="D388" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="E388" s="179"/>
+      <c r="E388" s="180"/>
       <c r="F388" s="166"/>
       <c r="G388" s="50" t="s">
         <v>98</v>
@@ -72384,13 +72395,13 @@
       <c r="AO397" s="95"/>
     </row>
     <row r="398" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="173" t="s">
+      <c r="A398" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B398" s="174"/>
-      <c r="C398" s="174"/>
-      <c r="D398" s="174"/>
-      <c r="E398" s="175"/>
+      <c r="B398" s="175"/>
+      <c r="C398" s="175"/>
+      <c r="D398" s="175"/>
+      <c r="E398" s="176"/>
       <c r="F398" s="48" t="s">
         <v>7</v>
       </c>
@@ -72449,13 +72460,13 @@
       <c r="AO398" s="49"/>
     </row>
     <row r="399" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="176" t="s">
+      <c r="A399" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B399" s="177"/>
-      <c r="C399" s="177"/>
-      <c r="D399" s="178"/>
-      <c r="E399" s="179"/>
+      <c r="B399" s="178"/>
+      <c r="C399" s="178"/>
+      <c r="D399" s="179"/>
+      <c r="E399" s="180"/>
       <c r="F399" s="166" t="s">
         <v>128</v>
       </c>
@@ -73276,13 +73287,13 @@
       <c r="AO408" s="95"/>
     </row>
     <row r="409" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="173" t="s">
+      <c r="A409" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B409" s="174"/>
-      <c r="C409" s="174"/>
-      <c r="D409" s="174"/>
-      <c r="E409" s="175"/>
+      <c r="B409" s="175"/>
+      <c r="C409" s="175"/>
+      <c r="D409" s="175"/>
+      <c r="E409" s="176"/>
       <c r="F409" s="48" t="s">
         <v>7</v>
       </c>
@@ -73351,13 +73362,13 @@
       <c r="AO409" s="49"/>
     </row>
     <row r="410" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="176" t="s">
+      <c r="A410" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B410" s="177"/>
-      <c r="C410" s="177"/>
-      <c r="D410" s="178"/>
-      <c r="E410" s="179"/>
+      <c r="B410" s="178"/>
+      <c r="C410" s="178"/>
+      <c r="D410" s="179"/>
+      <c r="E410" s="180"/>
       <c r="F410" s="166" t="s">
         <v>129</v>
       </c>
@@ -74228,13 +74239,13 @@
       <c r="AO419" s="95"/>
     </row>
     <row r="420" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="173" t="s">
+      <c r="A420" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B420" s="174"/>
-      <c r="C420" s="174"/>
-      <c r="D420" s="174"/>
-      <c r="E420" s="175"/>
+      <c r="B420" s="175"/>
+      <c r="C420" s="175"/>
+      <c r="D420" s="175"/>
+      <c r="E420" s="176"/>
       <c r="F420" s="48" t="s">
         <v>7</v>
       </c>
@@ -74303,13 +74314,13 @@
       <c r="AO420" s="49"/>
     </row>
     <row r="421" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="176" t="s">
+      <c r="A421" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B421" s="177"/>
-      <c r="C421" s="177"/>
-      <c r="D421" s="178"/>
-      <c r="E421" s="179"/>
+      <c r="B421" s="178"/>
+      <c r="C421" s="178"/>
+      <c r="D421" s="179"/>
+      <c r="E421" s="180"/>
       <c r="F421" s="166" t="s">
         <v>130</v>
       </c>
@@ -75180,13 +75191,13 @@
       <c r="AO430" s="95"/>
     </row>
     <row r="431" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="173" t="s">
+      <c r="A431" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B431" s="174"/>
-      <c r="C431" s="174"/>
-      <c r="D431" s="174"/>
-      <c r="E431" s="175"/>
+      <c r="B431" s="175"/>
+      <c r="C431" s="175"/>
+      <c r="D431" s="175"/>
+      <c r="E431" s="176"/>
       <c r="F431" s="48" t="s">
         <v>7</v>
       </c>
@@ -75251,13 +75262,13 @@
       <c r="AO431" s="49"/>
     </row>
     <row r="432" spans="1:41" s="47" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="176" t="s">
+      <c r="A432" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B432" s="177"/>
-      <c r="C432" s="177"/>
-      <c r="D432" s="178"/>
-      <c r="E432" s="179"/>
+      <c r="B432" s="178"/>
+      <c r="C432" s="178"/>
+      <c r="D432" s="179"/>
+      <c r="E432" s="180"/>
       <c r="F432" s="166" t="s">
         <v>131</v>
       </c>
@@ -76119,45 +76130,70 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A409:E409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="A420:E420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:E421"/>
-    <mergeCell ref="A431:E431"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="D432:E432"/>
-    <mergeCell ref="A332:E332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="A299:E299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="A288:E288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:E399"/>
+    <mergeCell ref="A387:E387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="A354:E354"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A376:E376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A113:C113"/>
     <mergeCell ref="D113:E113"/>
     <mergeCell ref="A123:E123"/>
@@ -76182,70 +76218,45 @@
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="A244:E244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A398:E398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:E399"/>
-    <mergeCell ref="A387:E387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="A354:E354"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A376:E376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="A420:E420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:E421"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D432:E432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -76347,22 +76358,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
